--- a/England Southern Premier League Central/England Southern Premier League Central.xlsx
+++ b/England Southern Premier League Central/England Southern Premier League Central.xlsx
@@ -39640,7 +39640,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>6938330</v>
+        <v>6938332</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39652,76 +39652,76 @@
         <v>45292.5</v>
       </c>
       <c r="F440" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G440" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I440">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J440" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K440">
-        <v>3.7</v>
+        <v>1.65</v>
       </c>
       <c r="L440">
         <v>3.5</v>
       </c>
       <c r="M440">
+        <v>4.5</v>
+      </c>
+      <c r="N440">
         <v>1.8</v>
       </c>
-      <c r="N440">
-        <v>3.25</v>
-      </c>
       <c r="O440">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P440">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q440">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R440">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S440">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T440">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U440">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V440">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W440">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X440">
         <v>-1</v>
       </c>
       <c r="Y440">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z440">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA440">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB440">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC440">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="441" spans="1:29">
@@ -39729,7 +39729,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>6938332</v>
+        <v>6938330</v>
       </c>
       <c r="C441" t="s">
         <v>28</v>
@@ -39741,76 +39741,76 @@
         <v>45292.5</v>
       </c>
       <c r="F441" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G441" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J441" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K441">
-        <v>1.65</v>
+        <v>3.7</v>
       </c>
       <c r="L441">
         <v>3.5</v>
       </c>
       <c r="M441">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="N441">
+        <v>3.25</v>
+      </c>
+      <c r="O441">
+        <v>3.6</v>
+      </c>
+      <c r="P441">
+        <v>1.909</v>
+      </c>
+      <c r="Q441">
+        <v>0.5</v>
+      </c>
+      <c r="R441">
+        <v>1.825</v>
+      </c>
+      <c r="S441">
+        <v>1.975</v>
+      </c>
+      <c r="T441">
+        <v>2.75</v>
+      </c>
+      <c r="U441">
         <v>1.8</v>
       </c>
-      <c r="O441">
-        <v>3.4</v>
-      </c>
-      <c r="P441">
-        <v>4</v>
-      </c>
-      <c r="Q441">
-        <v>-0.5</v>
-      </c>
-      <c r="R441">
-        <v>1.8</v>
-      </c>
-      <c r="S441">
-        <v>2</v>
-      </c>
-      <c r="T441">
-        <v>2.5</v>
-      </c>
-      <c r="U441">
-        <v>1.85</v>
-      </c>
       <c r="V441">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W441">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X441">
         <v>-1</v>
       </c>
       <c r="Y441">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z441">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA441">
+        <v>-1</v>
+      </c>
+      <c r="AB441">
+        <v>-1</v>
+      </c>
+      <c r="AC441">
         <v>1</v>
-      </c>
-      <c r="AB441">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC441">
-        <v>-1</v>
       </c>
     </row>
     <row r="442" spans="1:29">
@@ -43556,7 +43556,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>7758050</v>
+        <v>7758055</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43568,76 +43568,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F484" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G484" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H484">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I484">
         <v>1</v>
       </c>
       <c r="J484" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K484">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L484">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M484">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N484">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="O484">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P484">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q484">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R484">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S484">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T484">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U484">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V484">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W484">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X484">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y484">
         <v>-1</v>
       </c>
       <c r="Z484">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA484">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB484">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC484">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -43734,7 +43734,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>7758055</v>
+        <v>7758050</v>
       </c>
       <c r="C486" t="s">
         <v>28</v>
@@ -43746,76 +43746,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F486" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G486" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I486">
         <v>1</v>
       </c>
       <c r="J486" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K486">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L486">
+        <v>4.5</v>
+      </c>
+      <c r="M486">
+        <v>5.5</v>
+      </c>
+      <c r="N486">
+        <v>1.222</v>
+      </c>
+      <c r="O486">
+        <v>5.75</v>
+      </c>
+      <c r="P486">
+        <v>8.5</v>
+      </c>
+      <c r="Q486">
+        <v>-1.75</v>
+      </c>
+      <c r="R486">
+        <v>1.85</v>
+      </c>
+      <c r="S486">
+        <v>1.95</v>
+      </c>
+      <c r="T486">
         <v>3.5</v>
       </c>
-      <c r="M486">
-        <v>2.7</v>
-      </c>
-      <c r="N486">
-        <v>2.2</v>
-      </c>
-      <c r="O486">
-        <v>3.6</v>
-      </c>
-      <c r="P486">
-        <v>2.6</v>
-      </c>
-      <c r="Q486">
-        <v>0</v>
-      </c>
-      <c r="R486">
-        <v>1.725</v>
-      </c>
-      <c r="S486">
-        <v>2.075</v>
-      </c>
-      <c r="T486">
-        <v>2.75</v>
-      </c>
       <c r="U486">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V486">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W486">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X486">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y486">
         <v>-1</v>
       </c>
       <c r="Z486">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA486">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB486">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC486">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487" spans="1:29">
@@ -44891,7 +44891,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>6939391</v>
+        <v>6939360</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -44903,76 +44903,76 @@
         <v>45332.5</v>
       </c>
       <c r="F499" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G499" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I499">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J499" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K499">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="L499">
         <v>3.8</v>
       </c>
       <c r="M499">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="N499">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="O499">
         <v>4</v>
       </c>
       <c r="P499">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q499">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R499">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S499">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T499">
         <v>2.75</v>
       </c>
       <c r="U499">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V499">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W499">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X499">
         <v>-1</v>
       </c>
       <c r="Y499">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z499">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA499">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB499">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC499">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="500" spans="1:29">
@@ -45425,7 +45425,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>6939360</v>
+        <v>6939391</v>
       </c>
       <c r="C505" t="s">
         <v>28</v>
@@ -45437,76 +45437,76 @@
         <v>45332.5</v>
       </c>
       <c r="F505" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G505" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J505" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K505">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="L505">
         <v>3.8</v>
       </c>
       <c r="M505">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="N505">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="O505">
         <v>4</v>
       </c>
       <c r="P505">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="Q505">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R505">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S505">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T505">
         <v>2.75</v>
       </c>
       <c r="U505">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V505">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W505">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X505">
         <v>-1</v>
       </c>
       <c r="Y505">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z505">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA505">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB505">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC505">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="506" spans="1:29">

--- a/England Southern Premier League Central/England Southern Premier League Central.xlsx
+++ b/England Southern Premier League Central/England Southern Premier League Central.xlsx
@@ -13539,7 +13539,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7399686</v>
+        <v>7458146</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13551,40 +13551,40 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K147">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M147">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="N147">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P147">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R147">
         <v>2.025</v>
@@ -13593,7 +13593,7 @@
         <v>1.775</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U147">
         <v>1.925</v>
@@ -13602,19 +13602,19 @@
         <v>1.875</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X147">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA147">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
         <v>-1</v>
@@ -13628,7 +13628,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7458146</v>
+        <v>7399686</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13640,40 +13640,40 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K148">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="L148">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N148">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O148">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P148">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q148">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
         <v>2.025</v>
@@ -13682,7 +13682,7 @@
         <v>1.775</v>
       </c>
       <c r="T148">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
         <v>1.925</v>
@@ -13691,19 +13691,19 @@
         <v>1.875</v>
       </c>
       <c r="W148">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6937955</v>
+        <v>6939098</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45255.5</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G152" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K152">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M152">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N152">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P152">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R152">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6939098</v>
+        <v>6937955</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,76 +14085,76 @@
         <v>45255.5</v>
       </c>
       <c r="F153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K153">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L153">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M153">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N153">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="O153">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S153">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X153">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA153">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7525201</v>
+        <v>7501487</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,10 +14975,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -14990,19 +14990,19 @@
         <v>51</v>
       </c>
       <c r="K163">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L163">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M163">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N163">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O163">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P163">
         <v>2.4</v>
@@ -15011,19 +15011,19 @@
         <v>0</v>
       </c>
       <c r="R163">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S163">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15038,13 +15038,13 @@
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7501487</v>
+        <v>7525201</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,10 +15064,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15079,19 +15079,19 @@
         <v>51</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L164">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N164">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O164">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
         <v>2.4</v>
@@ -15100,19 +15100,19 @@
         <v>0</v>
       </c>
       <c r="R164">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15127,13 +15127,13 @@
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15230,7 +15230,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6938303</v>
+        <v>6939100</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15242,76 +15242,76 @@
         <v>45262.5</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
         <v>1</v>
       </c>
-      <c r="I166">
-        <v>2</v>
-      </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K166">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L166">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N166">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P166">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15319,7 +15319,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6938304</v>
+        <v>6938303</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15331,49 +15331,49 @@
         <v>45262.5</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K167">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L167">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M167">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N167">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O167">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P167">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
         <v>1.95</v>
@@ -15382,19 +15382,19 @@
         <v>1.85</v>
       </c>
       <c r="W167">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z167">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB167">
         <v>0.95</v>
@@ -15408,7 +15408,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6938301</v>
+        <v>6938304</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15420,76 +15420,76 @@
         <v>45262.5</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H168">
+        <v>3</v>
+      </c>
+      <c r="I168">
         <v>1</v>
       </c>
-      <c r="I168">
-        <v>2</v>
-      </c>
       <c r="J168" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K168">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M168">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N168">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="O168">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P168">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T168">
         <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA168">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6939101</v>
+        <v>6938301</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,76 +15509,76 @@
         <v>45262.5</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H169">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169" t="s">
+        <v>51</v>
+      </c>
+      <c r="K169">
+        <v>2.55</v>
+      </c>
+      <c r="L169">
+        <v>3.5</v>
+      </c>
+      <c r="M169">
+        <v>2.3</v>
+      </c>
+      <c r="N169">
+        <v>2.6</v>
+      </c>
+      <c r="O169">
+        <v>3.5</v>
+      </c>
+      <c r="P169">
+        <v>2.375</v>
+      </c>
+      <c r="Q169">
         <v>0</v>
       </c>
-      <c r="J169" t="s">
-        <v>52</v>
-      </c>
-      <c r="K169">
-        <v>1.4</v>
-      </c>
-      <c r="L169">
-        <v>5</v>
-      </c>
-      <c r="M169">
-        <v>5</v>
-      </c>
-      <c r="N169">
-        <v>1.25</v>
-      </c>
-      <c r="O169">
-        <v>5.75</v>
-      </c>
-      <c r="P169">
-        <v>7.5</v>
-      </c>
-      <c r="Q169">
-        <v>-1.75</v>
-      </c>
       <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
         <v>1.8</v>
       </c>
-      <c r="S169">
-        <v>2</v>
-      </c>
       <c r="T169">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V169">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W169">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z169">
+        <v>-1</v>
+      </c>
+      <c r="AA169">
         <v>0.8</v>
       </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
       <c r="AB169">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6939100</v>
+        <v>6939101</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,58 +15598,58 @@
         <v>45262.5</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>52</v>
       </c>
       <c r="K170">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="L170">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M170">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N170">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="O170">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P170">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q170">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R170">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S170">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U170">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W170">
-        <v>1.9</v>
+        <v>0.25</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15658,16 +15658,16 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6939103</v>
+        <v>6938309</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45269.5</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K177">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N177">
         <v>1.8</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P177">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB177">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16298,7 +16298,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6938309</v>
+        <v>6939103</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16310,76 +16310,76 @@
         <v>45269.5</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K178">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L178">
         <v>4</v>
       </c>
       <c r="M178">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N178">
         <v>1.8</v>
       </c>
       <c r="O178">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q178">
         <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X178">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA178">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC178">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6937959</v>
+        <v>6937958</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,76 +17289,76 @@
         <v>45276.5</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K189">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="L189">
         <v>3.75</v>
       </c>
       <c r="M189">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N189">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O189">
         <v>3.6</v>
       </c>
       <c r="P189">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R189">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W189">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17366,7 +17366,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6937958</v>
+        <v>6937959</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17378,76 +17378,76 @@
         <v>45276.5</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K190">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="L190">
         <v>3.75</v>
       </c>
       <c r="M190">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N190">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O190">
         <v>3.6</v>
       </c>
       <c r="P190">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S190">
+        <v>1.95</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
         <v>1.8</v>
       </c>
-      <c r="T190">
-        <v>2.75</v>
-      </c>
-      <c r="U190">
-        <v>1.925</v>
-      </c>
       <c r="V190">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X190">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA190">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18701,7 +18701,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7626130</v>
+        <v>6938324</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18713,76 +18713,76 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G205" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H205">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K205">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L205">
         <v>3.6</v>
       </c>
       <c r="M205">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="N205">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="O205">
         <v>3.6</v>
       </c>
       <c r="P205">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R205">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S205">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W205">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18790,7 +18790,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6938324</v>
+        <v>7626130</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18802,76 +18802,76 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K206">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L206">
         <v>3.6</v>
       </c>
       <c r="M206">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="N206">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O206">
         <v>3.6</v>
       </c>
       <c r="P206">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Q206">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X206">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC206">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6938340</v>
+        <v>6936966</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,76 +21294,76 @@
         <v>45304.5</v>
       </c>
       <c r="F234" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G234" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234">
         <v>0</v>
       </c>
-      <c r="I234">
-        <v>1</v>
-      </c>
       <c r="J234" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K234">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L234">
         <v>3.5</v>
       </c>
       <c r="M234">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N234">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O234">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P234">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q234">
         <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S234">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U234">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA234">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC234">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21371,7 +21371,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6938346</v>
+        <v>6938340</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21383,10 +21383,10 @@
         <v>45304.5</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G235" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -21398,40 +21398,40 @@
         <v>51</v>
       </c>
       <c r="K235">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L235">
         <v>3.5</v>
       </c>
       <c r="M235">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N235">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O235">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P235">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S235">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T235">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V235">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -21440,19 +21440,19 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21460,7 +21460,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6938348</v>
+        <v>6938346</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21472,19 +21472,19 @@
         <v>45304.5</v>
       </c>
       <c r="F236" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K236">
         <v>2.4</v>
@@ -21496,52 +21496,52 @@
         <v>2.4</v>
       </c>
       <c r="N236">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O236">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P236">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S236">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T236">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U236">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V236">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z236">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB236">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21549,7 +21549,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6938349</v>
+        <v>6938348</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21561,73 +21561,73 @@
         <v>45304.5</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G237" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H237">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K237">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L237">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M237">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N237">
         <v>2.05</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P237">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="Q237">
         <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T237">
         <v>2.75</v>
       </c>
       <c r="U237">
+        <v>1.825</v>
+      </c>
+      <c r="V237">
         <v>1.975</v>
       </c>
-      <c r="V237">
-        <v>1.825</v>
-      </c>
       <c r="W237">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB237">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21638,7 +21638,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6939043</v>
+        <v>6938349</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21650,76 +21650,76 @@
         <v>45304.5</v>
       </c>
       <c r="F238" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K238">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L238">
         <v>3.75</v>
       </c>
       <c r="M238">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N238">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O238">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P238">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X238">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC238">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21727,7 +21727,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6939044</v>
+        <v>6939043</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21739,76 +21739,76 @@
         <v>45304.5</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G239" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239" t="s">
+        <v>53</v>
+      </c>
+      <c r="K239">
+        <v>1.727</v>
+      </c>
+      <c r="L239">
+        <v>3.75</v>
+      </c>
+      <c r="M239">
+        <v>3.75</v>
+      </c>
+      <c r="N239">
+        <v>1.615</v>
+      </c>
+      <c r="O239">
+        <v>3.8</v>
+      </c>
+      <c r="P239">
+        <v>4.333</v>
+      </c>
+      <c r="Q239">
+        <v>-0.75</v>
+      </c>
+      <c r="R239">
+        <v>1.8</v>
+      </c>
+      <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
+        <v>2.5</v>
+      </c>
+      <c r="U239">
+        <v>1.8</v>
+      </c>
+      <c r="V239">
+        <v>2</v>
+      </c>
+      <c r="W239">
+        <v>-1</v>
+      </c>
+      <c r="X239">
+        <v>2.8</v>
+      </c>
+      <c r="Y239">
+        <v>-1</v>
+      </c>
+      <c r="Z239">
+        <v>-1</v>
+      </c>
+      <c r="AA239">
         <v>1</v>
       </c>
-      <c r="J239" t="s">
-        <v>52</v>
-      </c>
-      <c r="K239">
-        <v>2</v>
-      </c>
-      <c r="L239">
-        <v>3.5</v>
-      </c>
-      <c r="M239">
-        <v>3</v>
-      </c>
-      <c r="N239">
-        <v>1.444</v>
-      </c>
-      <c r="O239">
-        <v>4</v>
-      </c>
-      <c r="P239">
-        <v>5.75</v>
-      </c>
-      <c r="Q239">
-        <v>-1.25</v>
-      </c>
-      <c r="R239">
-        <v>2</v>
-      </c>
-      <c r="S239">
-        <v>1.8</v>
-      </c>
-      <c r="T239">
-        <v>3</v>
-      </c>
-      <c r="U239">
-        <v>1.9</v>
-      </c>
-      <c r="V239">
-        <v>1.9</v>
-      </c>
-      <c r="W239">
-        <v>0.444</v>
-      </c>
-      <c r="X239">
-        <v>-1</v>
-      </c>
-      <c r="Y239">
-        <v>-1</v>
-      </c>
-      <c r="Z239">
-        <v>-0.5</v>
-      </c>
-      <c r="AA239">
-        <v>0.4</v>
-      </c>
       <c r="AB239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21816,7 +21816,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6939121</v>
+        <v>6939044</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21828,76 +21828,76 @@
         <v>45304.5</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G240" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240">
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K240">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L240">
         <v>3.5</v>
       </c>
       <c r="M240">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N240">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="O240">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P240">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R240">
+        <v>2</v>
+      </c>
+      <c r="S240">
+        <v>1.8</v>
+      </c>
+      <c r="T240">
+        <v>3</v>
+      </c>
+      <c r="U240">
         <v>1.9</v>
       </c>
-      <c r="S240">
+      <c r="V240">
         <v>1.9</v>
       </c>
-      <c r="T240">
-        <v>2.5</v>
-      </c>
-      <c r="U240">
-        <v>1.925</v>
-      </c>
-      <c r="V240">
-        <v>1.875</v>
-      </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA240">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC240">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21905,7 +21905,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6938345</v>
+        <v>6939121</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21917,10 +21917,10 @@
         <v>45304.5</v>
       </c>
       <c r="F241" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -21932,25 +21932,25 @@
         <v>51</v>
       </c>
       <c r="K241">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M241">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="N241">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="O241">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P241">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="Q241">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
         <v>1.9</v>
@@ -21959,13 +21959,13 @@
         <v>1.9</v>
       </c>
       <c r="T241">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V241">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21974,19 +21974,19 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="Z241">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB241">
         <v>-1</v>
       </c>
       <c r="AC241">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21994,7 +21994,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6939122</v>
+        <v>6938345</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22006,55 +22006,55 @@
         <v>45304.5</v>
       </c>
       <c r="F242" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G242" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
         <v>51</v>
       </c>
       <c r="K242">
-        <v>1.2</v>
+        <v>5.75</v>
       </c>
       <c r="L242">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M242">
-        <v>8</v>
+        <v>1.444</v>
       </c>
       <c r="N242">
-        <v>1.181</v>
+        <v>6</v>
       </c>
       <c r="O242">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P242">
-        <v>8.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q242">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R242">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S242">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T242">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U242">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V242">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W242">
         <v>-1</v>
@@ -22063,19 +22063,19 @@
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>7.5</v>
+        <v>0.444</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA242">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB242">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22083,7 +22083,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6936966</v>
+        <v>6939122</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22095,76 +22095,76 @@
         <v>45304.5</v>
       </c>
       <c r="F243" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G243" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H243">
+        <v>2</v>
+      </c>
+      <c r="I243">
         <v>3</v>
       </c>
-      <c r="I243">
-        <v>0</v>
-      </c>
       <c r="J243" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K243">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="L243">
+        <v>6.5</v>
+      </c>
+      <c r="M243">
+        <v>8</v>
+      </c>
+      <c r="N243">
+        <v>1.181</v>
+      </c>
+      <c r="O243">
+        <v>7</v>
+      </c>
+      <c r="P243">
+        <v>8.5</v>
+      </c>
+      <c r="Q243">
+        <v>-2.25</v>
+      </c>
+      <c r="R243">
+        <v>2</v>
+      </c>
+      <c r="S243">
+        <v>1.8</v>
+      </c>
+      <c r="T243">
         <v>3.5</v>
       </c>
-      <c r="M243">
-        <v>2.4</v>
-      </c>
-      <c r="N243">
-        <v>1.8</v>
-      </c>
-      <c r="O243">
-        <v>3.75</v>
-      </c>
-      <c r="P243">
-        <v>3.5</v>
-      </c>
-      <c r="Q243">
-        <v>-0.5</v>
-      </c>
-      <c r="R243">
-        <v>1.825</v>
-      </c>
-      <c r="S243">
-        <v>1.975</v>
-      </c>
-      <c r="T243">
-        <v>3</v>
-      </c>
       <c r="U243">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V243">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
+        <v>-1</v>
+      </c>
+      <c r="Y243">
+        <v>7.5</v>
+      </c>
+      <c r="Z243">
+        <v>-1</v>
+      </c>
+      <c r="AA243">
         <v>0.8</v>
       </c>
-      <c r="X243">
-        <v>-1</v>
-      </c>
-      <c r="Y243">
-        <v>-1</v>
-      </c>
-      <c r="Z243">
-        <v>0.825</v>
-      </c>
-      <c r="AA243">
-        <v>-1</v>
-      </c>
       <c r="AB243">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC243">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -23685,7 +23685,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7758050</v>
+        <v>7758055</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23697,76 +23697,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F261" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G261" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H261">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I261">
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K261">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L261">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M261">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N261">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="O261">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P261">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q261">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R261">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S261">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T261">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U261">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V261">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W261">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB261">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7758055</v>
+        <v>7758051</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,76 +23786,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F262" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G262" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H262">
         <v>1</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K262">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L262">
         <v>3.5</v>
       </c>
       <c r="M262">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N262">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O262">
         <v>3.6</v>
       </c>
       <c r="P262">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q262">
         <v>0</v>
       </c>
       <c r="R262">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S262">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T262">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U262">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V262">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X262">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA262">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
         <v>-1</v>
       </c>
       <c r="AC262">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7758051</v>
+        <v>7758050</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,58 +23875,58 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F263" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G263" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H263">
+        <v>4</v>
+      </c>
+      <c r="I263">
         <v>1</v>
-      </c>
-      <c r="I263">
-        <v>0</v>
       </c>
       <c r="J263" t="s">
         <v>52</v>
       </c>
       <c r="K263">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L263">
+        <v>4.5</v>
+      </c>
+      <c r="M263">
+        <v>5.5</v>
+      </c>
+      <c r="N263">
+        <v>1.222</v>
+      </c>
+      <c r="O263">
+        <v>5.75</v>
+      </c>
+      <c r="P263">
+        <v>8.5</v>
+      </c>
+      <c r="Q263">
+        <v>-1.75</v>
+      </c>
+      <c r="R263">
+        <v>1.85</v>
+      </c>
+      <c r="S263">
+        <v>1.95</v>
+      </c>
+      <c r="T263">
         <v>3.5</v>
       </c>
-      <c r="M263">
-        <v>2.4</v>
-      </c>
-      <c r="N263">
-        <v>2.55</v>
-      </c>
-      <c r="O263">
-        <v>3.6</v>
-      </c>
-      <c r="P263">
-        <v>2.25</v>
-      </c>
-      <c r="Q263">
-        <v>0</v>
-      </c>
-      <c r="R263">
-        <v>2.025</v>
-      </c>
-      <c r="S263">
-        <v>1.775</v>
-      </c>
-      <c r="T263">
-        <v>2.5</v>
-      </c>
       <c r="U263">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V263">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W263">
-        <v>1.55</v>
+        <v>0.222</v>
       </c>
       <c r="X263">
         <v>-1</v>
@@ -23935,16 +23935,16 @@
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA263">
         <v>-1</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC263">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -29737,7 +29737,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6943715</v>
+        <v>6943713</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29749,10 +29749,10 @@
         <v>45367.5</v>
       </c>
       <c r="F329" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G329" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H329">
         <v>2</v>
@@ -29764,43 +29764,43 @@
         <v>52</v>
       </c>
       <c r="K329">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="L329">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M329">
-        <v>3.9</v>
+        <v>8.5</v>
       </c>
       <c r="N329">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="O329">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P329">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q329">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R329">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S329">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T329">
         <v>2.75</v>
       </c>
       <c r="U329">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V329">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W329">
-        <v>0.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29809,13 +29809,13 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB329">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AC329">
         <v>-0.5</v>
@@ -29826,7 +29826,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6943713</v>
+        <v>6943712</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29838,58 +29838,58 @@
         <v>45367.5</v>
       </c>
       <c r="F330" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G330" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>52</v>
       </c>
       <c r="K330">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L330">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M330">
-        <v>8.5</v>
+        <v>5.25</v>
       </c>
       <c r="N330">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O330">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P330">
         <v>5.5</v>
       </c>
       <c r="Q330">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R330">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S330">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T330">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U330">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V330">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W330">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29898,16 +29898,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA330">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB330">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC330">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29915,7 +29915,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6943712</v>
+        <v>6943711</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29927,76 +29927,76 @@
         <v>45367.5</v>
       </c>
       <c r="F331" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G331" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I331">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J331" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K331">
+        <v>8</v>
+      </c>
+      <c r="L331">
+        <v>4.75</v>
+      </c>
+      <c r="M331">
+        <v>1.285</v>
+      </c>
+      <c r="N331">
+        <v>7</v>
+      </c>
+      <c r="O331">
+        <v>4.75</v>
+      </c>
+      <c r="P331">
+        <v>1.3</v>
+      </c>
+      <c r="Q331">
         <v>1.5</v>
       </c>
-      <c r="L331">
-        <v>4</v>
-      </c>
-      <c r="M331">
-        <v>5.25</v>
-      </c>
-      <c r="N331">
-        <v>1.45</v>
-      </c>
-      <c r="O331">
-        <v>4</v>
-      </c>
-      <c r="P331">
-        <v>5.5</v>
-      </c>
-      <c r="Q331">
-        <v>-1</v>
-      </c>
       <c r="R331">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S331">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T331">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U331">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V331">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W331">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X331">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y331">
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA331">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB331">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC331">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30004,7 +30004,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6943711</v>
+        <v>6943709</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30016,76 +30016,76 @@
         <v>45367.5</v>
       </c>
       <c r="F332" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G332" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J332" t="s">
         <v>53</v>
       </c>
       <c r="K332">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="L332">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M332">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="N332">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="O332">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P332">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q332">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R332">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S332">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T332">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U332">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V332">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W332">
         <v>-1</v>
       </c>
       <c r="X332">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB332">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC332">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30093,7 +30093,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6943709</v>
+        <v>6943714</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30105,76 +30105,76 @@
         <v>45367.5</v>
       </c>
       <c r="F333" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G333" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H333">
         <v>1</v>
       </c>
       <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333" t="s">
+        <v>52</v>
+      </c>
+      <c r="K333">
+        <v>2.75</v>
+      </c>
+      <c r="L333">
+        <v>3.4</v>
+      </c>
+      <c r="M333">
+        <v>2.2</v>
+      </c>
+      <c r="N333">
+        <v>2.55</v>
+      </c>
+      <c r="O333">
+        <v>3.5</v>
+      </c>
+      <c r="P333">
+        <v>2.3</v>
+      </c>
+      <c r="Q333">
+        <v>0</v>
+      </c>
+      <c r="R333">
+        <v>2</v>
+      </c>
+      <c r="S333">
+        <v>1.8</v>
+      </c>
+      <c r="T333">
+        <v>2.5</v>
+      </c>
+      <c r="U333">
+        <v>1.725</v>
+      </c>
+      <c r="V333">
+        <v>2.075</v>
+      </c>
+      <c r="W333">
+        <v>1.55</v>
+      </c>
+      <c r="X333">
+        <v>-1</v>
+      </c>
+      <c r="Y333">
+        <v>-1</v>
+      </c>
+      <c r="Z333">
         <v>1</v>
       </c>
-      <c r="J333" t="s">
-        <v>53</v>
-      </c>
-      <c r="K333">
-        <v>1.8</v>
-      </c>
-      <c r="L333">
-        <v>3.6</v>
-      </c>
-      <c r="M333">
-        <v>3.6</v>
-      </c>
-      <c r="N333">
-        <v>1.75</v>
-      </c>
-      <c r="O333">
-        <v>3.6</v>
-      </c>
-      <c r="P333">
-        <v>3.75</v>
-      </c>
-      <c r="Q333">
-        <v>-0.5</v>
-      </c>
-      <c r="R333">
-        <v>1.775</v>
-      </c>
-      <c r="S333">
-        <v>1.925</v>
-      </c>
-      <c r="T333">
-        <v>3</v>
-      </c>
-      <c r="U333">
-        <v>1.95</v>
-      </c>
-      <c r="V333">
-        <v>1.85</v>
-      </c>
-      <c r="W333">
-        <v>-1</v>
-      </c>
-      <c r="X333">
-        <v>2.6</v>
-      </c>
-      <c r="Y333">
-        <v>-1</v>
-      </c>
-      <c r="Z333">
-        <v>-1</v>
-      </c>
       <c r="AA333">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
         <v>-1</v>
       </c>
       <c r="AC333">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30182,7 +30182,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6943714</v>
+        <v>6943716</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30194,10 +30194,10 @@
         <v>45367.5</v>
       </c>
       <c r="F334" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G334" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H334">
         <v>1</v>
@@ -30209,43 +30209,43 @@
         <v>52</v>
       </c>
       <c r="K334">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L334">
         <v>3.4</v>
       </c>
       <c r="M334">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N334">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O334">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P334">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q334">
         <v>0</v>
       </c>
       <c r="R334">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S334">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T334">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U334">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V334">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="W334">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X334">
         <v>-1</v>
@@ -30254,7 +30254,7 @@
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA334">
         <v>-1</v>
@@ -30263,7 +30263,7 @@
         <v>-1</v>
       </c>
       <c r="AC334">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30271,7 +30271,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6943716</v>
+        <v>6943715</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30283,58 +30283,58 @@
         <v>45367.5</v>
       </c>
       <c r="F335" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G335" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H335">
+        <v>2</v>
+      </c>
+      <c r="I335">
         <v>1</v>
-      </c>
-      <c r="I335">
-        <v>0</v>
       </c>
       <c r="J335" t="s">
         <v>52</v>
       </c>
       <c r="K335">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="L335">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M335">
-        <v>2.45</v>
+        <v>3.9</v>
       </c>
       <c r="N335">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O335">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P335">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q335">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R335">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S335">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T335">
         <v>2.75</v>
       </c>
       <c r="U335">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V335">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W335">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="X335">
         <v>-1</v>
@@ -30343,16 +30343,16 @@
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA335">
         <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC335">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7863973</v>
+        <v>7925874</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,46 +30461,46 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F337" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G337" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K337">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L337">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M337">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N337">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="O337">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P337">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q337">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R337">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S337">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T337">
         <v>2.5</v>
@@ -30512,25 +30512,25 @@
         <v>1.975</v>
       </c>
       <c r="W337">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X337">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA337">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC337">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30538,7 +30538,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7925874</v>
+        <v>7863973</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30550,46 +30550,46 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F338" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G338" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H338">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J338" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K338">
+        <v>2.25</v>
+      </c>
+      <c r="L338">
+        <v>3.5</v>
+      </c>
+      <c r="M338">
+        <v>2.6</v>
+      </c>
+      <c r="N338">
+        <v>1.95</v>
+      </c>
+      <c r="O338">
+        <v>3.6</v>
+      </c>
+      <c r="P338">
+        <v>3.1</v>
+      </c>
+      <c r="Q338">
+        <v>-0.5</v>
+      </c>
+      <c r="R338">
+        <v>2</v>
+      </c>
+      <c r="S338">
         <v>1.8</v>
-      </c>
-      <c r="L338">
-        <v>3.8</v>
-      </c>
-      <c r="M338">
-        <v>3.4</v>
-      </c>
-      <c r="N338">
-        <v>1.45</v>
-      </c>
-      <c r="O338">
-        <v>4.333</v>
-      </c>
-      <c r="P338">
-        <v>5</v>
-      </c>
-      <c r="Q338">
-        <v>-1</v>
-      </c>
-      <c r="R338">
-        <v>1.8</v>
-      </c>
-      <c r="S338">
-        <v>2</v>
       </c>
       <c r="T338">
         <v>2.5</v>
@@ -30601,25 +30601,25 @@
         <v>1.975</v>
       </c>
       <c r="W338">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X338">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y338">
         <v>-1</v>
       </c>
       <c r="Z338">
+        <v>-1</v>
+      </c>
+      <c r="AA338">
         <v>0.8</v>
       </c>
-      <c r="AA338">
-        <v>-1</v>
-      </c>
       <c r="AB338">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC338">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -30716,7 +30716,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6944262</v>
+        <v>6944261</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30728,67 +30728,67 @@
         <v>45374.5</v>
       </c>
       <c r="F340" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G340" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J340" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K340">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L340">
         <v>3.5</v>
       </c>
       <c r="M340">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="N340">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="O340">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P340">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q340">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R340">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S340">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T340">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U340">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V340">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W340">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X340">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y340">
         <v>-1</v>
       </c>
       <c r="Z340">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA340">
         <v>-1</v>
@@ -30797,7 +30797,7 @@
         <v>-1</v>
       </c>
       <c r="AC340">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -31072,7 +31072,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6944261</v>
+        <v>6944262</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31084,67 +31084,67 @@
         <v>45374.5</v>
       </c>
       <c r="F344" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G344" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J344" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K344">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L344">
         <v>3.5</v>
       </c>
       <c r="M344">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="N344">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="O344">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P344">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="Q344">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R344">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S344">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T344">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U344">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V344">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W344">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X344">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA344">
         <v>-1</v>
@@ -31153,7 +31153,7 @@
         <v>-1</v>
       </c>
       <c r="AC344">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31161,7 +31161,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6944265</v>
+        <v>6944264</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31173,76 +31173,76 @@
         <v>45374.5</v>
       </c>
       <c r="F345" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G345" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J345" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K345">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L345">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M345">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N345">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="O345">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P345">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q345">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R345">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S345">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T345">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U345">
+        <v>1.95</v>
+      </c>
+      <c r="V345">
         <v>1.85</v>
       </c>
-      <c r="V345">
-        <v>1.95</v>
-      </c>
       <c r="W345">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z345">
         <v>-1</v>
       </c>
       <c r="AA345">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB345">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC345">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31250,7 +31250,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6944266</v>
+        <v>6944265</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31262,13 +31262,13 @@
         <v>45374.5</v>
       </c>
       <c r="F346" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G346" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H346">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I346">
         <v>0</v>
@@ -31277,43 +31277,43 @@
         <v>52</v>
       </c>
       <c r="K346">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L346">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M346">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N346">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O346">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P346">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q346">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R346">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S346">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T346">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U346">
+        <v>1.85</v>
+      </c>
+      <c r="V346">
         <v>1.95</v>
       </c>
-      <c r="V346">
-        <v>1.85</v>
-      </c>
       <c r="W346">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X346">
         <v>-1</v>
@@ -31322,16 +31322,16 @@
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB346">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31339,7 +31339,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6944267</v>
+        <v>6944266</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31351,76 +31351,76 @@
         <v>45374.5</v>
       </c>
       <c r="F347" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G347" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K347">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L347">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M347">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N347">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="O347">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P347">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q347">
         <v>-0.5</v>
       </c>
       <c r="R347">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S347">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U347">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V347">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X347">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA347">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC347">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31428,7 +31428,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6944268</v>
+        <v>6944267</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31440,61 +31440,61 @@
         <v>45374.5</v>
       </c>
       <c r="F348" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G348" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H348">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J348" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K348">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L348">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M348">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="N348">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O348">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P348">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q348">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R348">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S348">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T348">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U348">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V348">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W348">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X348">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y348">
         <v>-1</v>
@@ -31503,13 +31503,13 @@
         <v>-1</v>
       </c>
       <c r="AA348">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB348">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31517,7 +31517,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6944264</v>
+        <v>6944268</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31529,40 +31529,40 @@
         <v>45374.5</v>
       </c>
       <c r="F349" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G349" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I349">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J349" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K349">
-        <v>2.375</v>
+        <v>1.2</v>
       </c>
       <c r="L349">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M349">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="N349">
-        <v>2.875</v>
+        <v>1.25</v>
       </c>
       <c r="O349">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P349">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q349">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R349">
         <v>1.85</v>
@@ -31571,22 +31571,22 @@
         <v>1.95</v>
       </c>
       <c r="T349">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U349">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V349">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W349">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z349">
         <v>-1</v>
@@ -31595,7 +31595,7 @@
         <v>0.95</v>
       </c>
       <c r="AB349">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC349">
         <v>-1</v>
@@ -31695,7 +31695,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6945100</v>
+        <v>6945103</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31707,49 +31707,49 @@
         <v>45380.5</v>
       </c>
       <c r="F351" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G351" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H351">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J351" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K351">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L351">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M351">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="N351">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="O351">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P351">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="Q351">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R351">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S351">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T351">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U351">
         <v>1.9</v>
@@ -31758,25 +31758,25 @@
         <v>1.9</v>
       </c>
       <c r="W351">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z351">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB351">
+        <v>-1</v>
+      </c>
+      <c r="AC351">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC351">
-        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31784,7 +31784,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6945103</v>
+        <v>6945100</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31796,49 +31796,49 @@
         <v>45380.5</v>
       </c>
       <c r="F352" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G352" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H352">
+        <v>3</v>
+      </c>
+      <c r="I352">
         <v>0</v>
       </c>
-      <c r="I352">
-        <v>2</v>
-      </c>
       <c r="J352" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K352">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="L352">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M352">
-        <v>1.333</v>
+        <v>4.333</v>
       </c>
       <c r="N352">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="O352">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P352">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="Q352">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R352">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S352">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T352">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U352">
         <v>1.9</v>
@@ -31847,25 +31847,25 @@
         <v>1.9</v>
       </c>
       <c r="W352">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X352">
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z352">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA352">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC352">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32674,7 +32674,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6945372</v>
+        <v>6945371</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32686,76 +32686,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F362" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G362" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I362">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J362" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K362">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="L362">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M362">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="N362">
-        <v>3.2</v>
+        <v>1.222</v>
       </c>
       <c r="O362">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P362">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q362">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R362">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S362">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T362">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U362">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V362">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W362">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X362">
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z362">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA362">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB362">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC362">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32763,7 +32763,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6945371</v>
+        <v>6945378</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32775,76 +32775,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F363" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G363" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H363">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J363" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K363">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L363">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M363">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N363">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O363">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P363">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q363">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R363">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S363">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T363">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U363">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V363">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W363">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X363">
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z363">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA363">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB363">
         <v>-1</v>
       </c>
       <c r="AC363">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32852,7 +32852,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6945378</v>
+        <v>6945381</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32864,76 +32864,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G364" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H364">
+        <v>2</v>
+      </c>
+      <c r="I364">
         <v>0</v>
       </c>
-      <c r="I364">
-        <v>1</v>
-      </c>
       <c r="J364" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K364">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L364">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M364">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N364">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O364">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P364">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="Q364">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R364">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S364">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T364">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U364">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V364">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W364">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X364">
         <v>-1</v>
       </c>
       <c r="Y364">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z364">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA364">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB364">
         <v>-1</v>
       </c>
       <c r="AC364">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32941,7 +32941,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6945379</v>
+        <v>6945380</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32953,73 +32953,73 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F365" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G365" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H365">
+        <v>1</v>
+      </c>
+      <c r="I365">
         <v>4</v>
       </c>
-      <c r="I365">
-        <v>2</v>
-      </c>
       <c r="J365" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K365">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L365">
         <v>3.75</v>
       </c>
       <c r="M365">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N365">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O365">
         <v>3.8</v>
       </c>
       <c r="P365">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q365">
         <v>-0.25</v>
       </c>
       <c r="R365">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S365">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T365">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U365">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V365">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W365">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X365">
         <v>-1</v>
       </c>
       <c r="Y365">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z365">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA365">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB365">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC365">
         <v>-1</v>
@@ -33030,7 +33030,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6945380</v>
+        <v>6945372</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33042,55 +33042,55 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G366" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H366">
         <v>1</v>
       </c>
       <c r="I366">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J366" t="s">
         <v>51</v>
       </c>
       <c r="K366">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="L366">
         <v>3.75</v>
       </c>
       <c r="M366">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="N366">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="O366">
         <v>3.8</v>
       </c>
       <c r="P366">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q366">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R366">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S366">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T366">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U366">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V366">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W366">
         <v>-1</v>
@@ -33099,19 +33099,19 @@
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>1.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z366">
         <v>-1</v>
       </c>
       <c r="AA366">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB366">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC366">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33119,7 +33119,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6945381</v>
+        <v>6945379</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33131,58 +33131,58 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G367" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I367">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J367" t="s">
         <v>52</v>
       </c>
       <c r="K367">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L367">
         <v>3.75</v>
       </c>
       <c r="M367">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N367">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O367">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P367">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q367">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R367">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S367">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T367">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U367">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V367">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W367">
-        <v>0.7270000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="X367">
         <v>-1</v>
@@ -33191,16 +33191,16 @@
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA367">
         <v>-1</v>
       </c>
       <c r="AB367">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC367">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33297,7 +33297,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6945374</v>
+        <v>6945375</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33309,10 +33309,10 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F369" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G369" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H369">
         <v>1</v>
@@ -33324,31 +33324,31 @@
         <v>52</v>
       </c>
       <c r="K369">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L369">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M369">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N369">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O369">
         <v>3.8</v>
       </c>
       <c r="P369">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q369">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R369">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S369">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T369">
         <v>2.75</v>
@@ -33360,7 +33360,7 @@
         <v>1.9</v>
       </c>
       <c r="W369">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X369">
         <v>-1</v>
@@ -33369,10 +33369,10 @@
         <v>-1</v>
       </c>
       <c r="Z369">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA369">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB369">
         <v>-1</v>
@@ -33386,7 +33386,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6945375</v>
+        <v>6945374</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33398,10 +33398,10 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F370" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G370" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H370">
         <v>1</v>
@@ -33413,31 +33413,31 @@
         <v>52</v>
       </c>
       <c r="K370">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L370">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M370">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N370">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O370">
         <v>3.8</v>
       </c>
       <c r="P370">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q370">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R370">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S370">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T370">
         <v>2.75</v>
@@ -33449,7 +33449,7 @@
         <v>1.9</v>
       </c>
       <c r="W370">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X370">
         <v>-1</v>
@@ -33458,10 +33458,10 @@
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA370">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB370">
         <v>-1</v>

--- a/England Southern Premier League Central/England Southern Premier League Central.xlsx
+++ b/England Southern Premier League Central/England Southern Premier League Central.xlsx
@@ -13539,7 +13539,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7458146</v>
+        <v>7399686</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13551,40 +13551,40 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K147">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="L147">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N147">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O147">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q147">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
         <v>2.025</v>
@@ -13593,7 +13593,7 @@
         <v>1.775</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
         <v>1.925</v>
@@ -13602,19 +13602,19 @@
         <v>1.875</v>
       </c>
       <c r="W147">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB147">
         <v>-1</v>
@@ -13628,7 +13628,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7399686</v>
+        <v>7458146</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13640,40 +13640,40 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K148">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M148">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="N148">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="O148">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P148">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R148">
         <v>2.025</v>
@@ -13682,7 +13682,7 @@
         <v>1.775</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U148">
         <v>1.925</v>
@@ -13691,19 +13691,19 @@
         <v>1.875</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X148">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA148">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6939098</v>
+        <v>6937955</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45255.5</v>
       </c>
       <c r="F152" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K152">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L152">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N152">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="O152">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T152">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X152">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA152">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6937955</v>
+        <v>6939098</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,76 +14085,76 @@
         <v>45255.5</v>
       </c>
       <c r="F153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G153" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K153">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M153">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N153">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P153">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S153">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB153">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7501487</v>
+        <v>7525201</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,10 +14975,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -14990,19 +14990,19 @@
         <v>51</v>
       </c>
       <c r="K163">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L163">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M163">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N163">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O163">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P163">
         <v>2.4</v>
@@ -15011,19 +15011,19 @@
         <v>0</v>
       </c>
       <c r="R163">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S163">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15038,13 +15038,13 @@
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7525201</v>
+        <v>7501487</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,10 +15064,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15079,19 +15079,19 @@
         <v>51</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L164">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M164">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N164">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P164">
         <v>2.4</v>
@@ -15100,19 +15100,19 @@
         <v>0</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S164">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15127,13 +15127,13 @@
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15230,7 +15230,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6939100</v>
+        <v>6938303</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15242,76 +15242,76 @@
         <v>45262.5</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K166">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M166">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="N166">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O166">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Q166">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W166">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z166">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB166">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15319,7 +15319,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6938303</v>
+        <v>6938304</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15331,49 +15331,49 @@
         <v>45262.5</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H167">
+        <v>3</v>
+      </c>
+      <c r="I167">
         <v>1</v>
       </c>
-      <c r="I167">
-        <v>2</v>
-      </c>
       <c r="J167" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K167">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M167">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N167">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
         <v>1.95</v>
@@ -15382,19 +15382,19 @@
         <v>1.85</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA167">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>0.95</v>
@@ -15408,7 +15408,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6938304</v>
+        <v>6938301</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15420,76 +15420,76 @@
         <v>45262.5</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K168">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L168">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N168">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="O168">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P168">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T168">
         <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z168">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB168">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6938301</v>
+        <v>6939101</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,76 +15509,76 @@
         <v>45262.5</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K169">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L169">
+        <v>5</v>
+      </c>
+      <c r="M169">
+        <v>5</v>
+      </c>
+      <c r="N169">
+        <v>1.25</v>
+      </c>
+      <c r="O169">
+        <v>5.75</v>
+      </c>
+      <c r="P169">
+        <v>7.5</v>
+      </c>
+      <c r="Q169">
+        <v>-1.75</v>
+      </c>
+      <c r="R169">
+        <v>1.8</v>
+      </c>
+      <c r="S169">
+        <v>2</v>
+      </c>
+      <c r="T169">
         <v>3.5</v>
       </c>
-      <c r="M169">
-        <v>2.3</v>
-      </c>
-      <c r="N169">
-        <v>2.6</v>
-      </c>
-      <c r="O169">
-        <v>3.5</v>
-      </c>
-      <c r="P169">
-        <v>2.375</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169">
-        <v>2</v>
-      </c>
-      <c r="S169">
+      <c r="U169">
         <v>1.8</v>
       </c>
-      <c r="T169">
-        <v>2.75</v>
-      </c>
-      <c r="U169">
-        <v>1.975</v>
-      </c>
       <c r="V169">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA169">
+        <v>-1</v>
+      </c>
+      <c r="AB169">
         <v>0.8</v>
       </c>
-      <c r="AB169">
-        <v>0.4875</v>
-      </c>
       <c r="AC169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6939101</v>
+        <v>6939100</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,58 +15598,58 @@
         <v>45262.5</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H170">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>52</v>
       </c>
       <c r="K170">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="L170">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N170">
-        <v>1.25</v>
+        <v>2.9</v>
       </c>
       <c r="O170">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P170">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="Q170">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R170">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S170">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T170">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
-        <v>0.25</v>
+        <v>1.9</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15658,16 +15658,16 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6938309</v>
+        <v>6939103</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45269.5</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K177">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N177">
         <v>1.8</v>
       </c>
       <c r="O177">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P177">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X177">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC177">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16298,7 +16298,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6939103</v>
+        <v>6938309</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16310,76 +16310,76 @@
         <v>45269.5</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K178">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L178">
         <v>4</v>
       </c>
       <c r="M178">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N178">
         <v>1.8</v>
       </c>
       <c r="O178">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P178">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q178">
         <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB178">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6937958</v>
+        <v>6937959</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,76 +17289,76 @@
         <v>45276.5</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K189">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="L189">
         <v>3.75</v>
       </c>
       <c r="M189">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N189">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O189">
         <v>3.6</v>
       </c>
       <c r="P189">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S189">
+        <v>1.95</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
         <v>1.8</v>
       </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>1.925</v>
-      </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X189">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17366,7 +17366,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6937959</v>
+        <v>6937958</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17378,76 +17378,76 @@
         <v>45276.5</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K190">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="L190">
         <v>3.75</v>
       </c>
       <c r="M190">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N190">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O190">
         <v>3.6</v>
       </c>
       <c r="P190">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W190">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB190">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18701,7 +18701,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6938324</v>
+        <v>7626130</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18713,76 +18713,76 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K205">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L205">
         <v>3.6</v>
       </c>
       <c r="M205">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="N205">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O205">
         <v>3.6</v>
       </c>
       <c r="P205">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Q205">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X205">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18790,7 +18790,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7626130</v>
+        <v>6938324</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18802,76 +18802,76 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G206" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H206">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K206">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L206">
         <v>3.6</v>
       </c>
       <c r="M206">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="N206">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="O206">
         <v>3.6</v>
       </c>
       <c r="P206">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R206">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6936966</v>
+        <v>6938340</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,76 +21294,76 @@
         <v>45304.5</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G234" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K234">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L234">
         <v>3.5</v>
       </c>
       <c r="M234">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N234">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O234">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P234">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q234">
         <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S234">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T234">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V234">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W234">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z234">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21371,7 +21371,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6938340</v>
+        <v>6938346</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21383,10 +21383,10 @@
         <v>45304.5</v>
       </c>
       <c r="F235" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -21398,40 +21398,40 @@
         <v>51</v>
       </c>
       <c r="K235">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L235">
         <v>3.5</v>
       </c>
       <c r="M235">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N235">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O235">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P235">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="Q235">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R235">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S235">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T235">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U235">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V235">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -21440,19 +21440,19 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21460,7 +21460,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6938346</v>
+        <v>6938348</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21472,19 +21472,19 @@
         <v>45304.5</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K236">
         <v>2.4</v>
@@ -21496,52 +21496,52 @@
         <v>2.4</v>
       </c>
       <c r="N236">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O236">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P236">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S236">
+        <v>2.025</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
+        <v>1.825</v>
+      </c>
+      <c r="V236">
         <v>1.975</v>
       </c>
-      <c r="T236">
-        <v>2.5</v>
-      </c>
-      <c r="U236">
-        <v>1.9</v>
-      </c>
-      <c r="V236">
-        <v>1.9</v>
-      </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y236">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA236">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC236">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21549,7 +21549,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6938348</v>
+        <v>6938349</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21561,73 +21561,73 @@
         <v>45304.5</v>
       </c>
       <c r="F237" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K237">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L237">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M237">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N237">
         <v>2.05</v>
       </c>
       <c r="O237">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q237">
         <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T237">
         <v>2.75</v>
       </c>
       <c r="U237">
+        <v>1.975</v>
+      </c>
+      <c r="V237">
         <v>1.825</v>
       </c>
-      <c r="V237">
-        <v>1.975</v>
-      </c>
       <c r="W237">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X237">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA237">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21638,7 +21638,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6938349</v>
+        <v>6939043</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21650,76 +21650,76 @@
         <v>45304.5</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H238">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K238">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L238">
         <v>3.75</v>
       </c>
       <c r="M238">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N238">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="O238">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P238">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V238">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W238">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21727,7 +21727,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6939043</v>
+        <v>6939044</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21739,76 +21739,76 @@
         <v>45304.5</v>
       </c>
       <c r="F239" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H239">
+        <v>2</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239" t="s">
+        <v>52</v>
+      </c>
+      <c r="K239">
+        <v>2</v>
+      </c>
+      <c r="L239">
+        <v>3.5</v>
+      </c>
+      <c r="M239">
+        <v>3</v>
+      </c>
+      <c r="N239">
+        <v>1.444</v>
+      </c>
+      <c r="O239">
+        <v>4</v>
+      </c>
+      <c r="P239">
+        <v>5.75</v>
+      </c>
+      <c r="Q239">
+        <v>-1.25</v>
+      </c>
+      <c r="R239">
+        <v>2</v>
+      </c>
+      <c r="S239">
+        <v>1.8</v>
+      </c>
+      <c r="T239">
+        <v>3</v>
+      </c>
+      <c r="U239">
+        <v>1.9</v>
+      </c>
+      <c r="V239">
+        <v>1.9</v>
+      </c>
+      <c r="W239">
+        <v>0.444</v>
+      </c>
+      <c r="X239">
+        <v>-1</v>
+      </c>
+      <c r="Y239">
+        <v>-1</v>
+      </c>
+      <c r="Z239">
+        <v>-0.5</v>
+      </c>
+      <c r="AA239">
+        <v>0.4</v>
+      </c>
+      <c r="AB239">
         <v>0</v>
       </c>
-      <c r="I239">
-        <v>0</v>
-      </c>
-      <c r="J239" t="s">
-        <v>53</v>
-      </c>
-      <c r="K239">
-        <v>1.727</v>
-      </c>
-      <c r="L239">
-        <v>3.75</v>
-      </c>
-      <c r="M239">
-        <v>3.75</v>
-      </c>
-      <c r="N239">
-        <v>1.615</v>
-      </c>
-      <c r="O239">
-        <v>3.8</v>
-      </c>
-      <c r="P239">
-        <v>4.333</v>
-      </c>
-      <c r="Q239">
-        <v>-0.75</v>
-      </c>
-      <c r="R239">
-        <v>1.8</v>
-      </c>
-      <c r="S239">
-        <v>2</v>
-      </c>
-      <c r="T239">
-        <v>2.5</v>
-      </c>
-      <c r="U239">
-        <v>1.8</v>
-      </c>
-      <c r="V239">
-        <v>2</v>
-      </c>
-      <c r="W239">
-        <v>-1</v>
-      </c>
-      <c r="X239">
-        <v>2.8</v>
-      </c>
-      <c r="Y239">
-        <v>-1</v>
-      </c>
-      <c r="Z239">
-        <v>-1</v>
-      </c>
-      <c r="AA239">
-        <v>1</v>
-      </c>
-      <c r="AB239">
-        <v>-1</v>
-      </c>
       <c r="AC239">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21816,7 +21816,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6939044</v>
+        <v>6939121</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21828,76 +21828,76 @@
         <v>45304.5</v>
       </c>
       <c r="F240" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240">
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K240">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L240">
         <v>3.5</v>
       </c>
       <c r="M240">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N240">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="O240">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P240">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q240">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W240">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21905,7 +21905,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6939121</v>
+        <v>6938345</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21917,10 +21917,10 @@
         <v>45304.5</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G241" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -21932,25 +21932,25 @@
         <v>51</v>
       </c>
       <c r="K241">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="L241">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M241">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="N241">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="O241">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P241">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="Q241">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R241">
         <v>1.9</v>
@@ -21959,13 +21959,13 @@
         <v>1.9</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U241">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V241">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21974,19 +21974,19 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA241">
+        <v>-0.5</v>
+      </c>
+      <c r="AB241">
+        <v>-1</v>
+      </c>
+      <c r="AC241">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB241">
-        <v>-1</v>
-      </c>
-      <c r="AC241">
-        <v>0.875</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21994,7 +21994,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6938345</v>
+        <v>6939122</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22006,55 +22006,55 @@
         <v>45304.5</v>
       </c>
       <c r="F242" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G242" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J242" t="s">
         <v>51</v>
       </c>
       <c r="K242">
-        <v>5.75</v>
+        <v>1.2</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M242">
-        <v>1.444</v>
+        <v>8</v>
       </c>
       <c r="N242">
-        <v>6</v>
+        <v>1.181</v>
       </c>
       <c r="O242">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P242">
-        <v>1.444</v>
+        <v>8.5</v>
       </c>
       <c r="Q242">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R242">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S242">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T242">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U242">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W242">
         <v>-1</v>
@@ -22063,19 +22063,19 @@
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>0.444</v>
+        <v>7.5</v>
       </c>
       <c r="Z242">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC242">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22083,7 +22083,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6939122</v>
+        <v>6936966</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22095,76 +22095,76 @@
         <v>45304.5</v>
       </c>
       <c r="F243" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G243" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243" t="s">
+        <v>52</v>
+      </c>
+      <c r="K243">
+        <v>2.4</v>
+      </c>
+      <c r="L243">
+        <v>3.5</v>
+      </c>
+      <c r="M243">
+        <v>2.4</v>
+      </c>
+      <c r="N243">
+        <v>1.8</v>
+      </c>
+      <c r="O243">
+        <v>3.75</v>
+      </c>
+      <c r="P243">
+        <v>3.5</v>
+      </c>
+      <c r="Q243">
+        <v>-0.5</v>
+      </c>
+      <c r="R243">
+        <v>1.825</v>
+      </c>
+      <c r="S243">
+        <v>1.975</v>
+      </c>
+      <c r="T243">
         <v>3</v>
       </c>
-      <c r="J243" t="s">
-        <v>51</v>
-      </c>
-      <c r="K243">
-        <v>1.2</v>
-      </c>
-      <c r="L243">
-        <v>6.5</v>
-      </c>
-      <c r="M243">
-        <v>8</v>
-      </c>
-      <c r="N243">
-        <v>1.181</v>
-      </c>
-      <c r="O243">
-        <v>7</v>
-      </c>
-      <c r="P243">
-        <v>8.5</v>
-      </c>
-      <c r="Q243">
-        <v>-2.25</v>
-      </c>
-      <c r="R243">
-        <v>2</v>
-      </c>
-      <c r="S243">
-        <v>1.8</v>
-      </c>
-      <c r="T243">
-        <v>3.5</v>
-      </c>
       <c r="U243">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V243">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA243">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC243">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -23685,7 +23685,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7758055</v>
+        <v>7758050</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23697,76 +23697,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F261" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G261" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I261">
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K261">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L261">
+        <v>4.5</v>
+      </c>
+      <c r="M261">
+        <v>5.5</v>
+      </c>
+      <c r="N261">
+        <v>1.222</v>
+      </c>
+      <c r="O261">
+        <v>5.75</v>
+      </c>
+      <c r="P261">
+        <v>8.5</v>
+      </c>
+      <c r="Q261">
+        <v>-1.75</v>
+      </c>
+      <c r="R261">
+        <v>1.85</v>
+      </c>
+      <c r="S261">
+        <v>1.95</v>
+      </c>
+      <c r="T261">
         <v>3.5</v>
       </c>
-      <c r="M261">
-        <v>2.7</v>
-      </c>
-      <c r="N261">
-        <v>2.2</v>
-      </c>
-      <c r="O261">
-        <v>3.6</v>
-      </c>
-      <c r="P261">
-        <v>2.6</v>
-      </c>
-      <c r="Q261">
-        <v>0</v>
-      </c>
-      <c r="R261">
-        <v>1.725</v>
-      </c>
-      <c r="S261">
-        <v>2.075</v>
-      </c>
-      <c r="T261">
-        <v>2.75</v>
-      </c>
       <c r="U261">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V261">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X261">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA261">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC261">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7758051</v>
+        <v>7758055</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,76 +23786,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F262" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G262" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H262">
         <v>1</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K262">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L262">
         <v>3.5</v>
       </c>
       <c r="M262">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N262">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O262">
         <v>3.6</v>
       </c>
       <c r="P262">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q262">
         <v>0</v>
       </c>
       <c r="R262">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S262">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="T262">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U262">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V262">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W262">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB262">
         <v>-1</v>
       </c>
       <c r="AC262">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7758050</v>
+        <v>7758051</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,58 +23875,58 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H263">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
         <v>52</v>
       </c>
       <c r="K263">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L263">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M263">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N263">
-        <v>1.222</v>
+        <v>2.55</v>
       </c>
       <c r="O263">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P263">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q263">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R263">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S263">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T263">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U263">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V263">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W263">
-        <v>0.222</v>
+        <v>1.55</v>
       </c>
       <c r="X263">
         <v>-1</v>
@@ -23935,16 +23935,16 @@
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA263">
         <v>-1</v>
       </c>
       <c r="AB263">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -29737,7 +29737,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6943713</v>
+        <v>6943715</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29749,10 +29749,10 @@
         <v>45367.5</v>
       </c>
       <c r="F329" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G329" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H329">
         <v>2</v>
@@ -29764,43 +29764,43 @@
         <v>52</v>
       </c>
       <c r="K329">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="L329">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M329">
-        <v>8.5</v>
+        <v>3.9</v>
       </c>
       <c r="N329">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="O329">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P329">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q329">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R329">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S329">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T329">
         <v>2.75</v>
       </c>
       <c r="U329">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V329">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W329">
-        <v>0.3999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29809,13 +29809,13 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA329">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AC329">
         <v>-0.5</v>
@@ -29826,7 +29826,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6943712</v>
+        <v>6943713</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29838,58 +29838,58 @@
         <v>45367.5</v>
       </c>
       <c r="F330" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G330" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H330">
+        <v>2</v>
+      </c>
+      <c r="I330">
         <v>1</v>
-      </c>
-      <c r="I330">
-        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>52</v>
       </c>
       <c r="K330">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L330">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M330">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="N330">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O330">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P330">
         <v>5.5</v>
       </c>
       <c r="Q330">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R330">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S330">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T330">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U330">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V330">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W330">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29898,16 +29898,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA330">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB330">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC330">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29915,7 +29915,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6943711</v>
+        <v>6943712</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29927,76 +29927,76 @@
         <v>45367.5</v>
       </c>
       <c r="F331" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G331" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H331">
+        <v>1</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331" t="s">
+        <v>52</v>
+      </c>
+      <c r="K331">
+        <v>1.5</v>
+      </c>
+      <c r="L331">
+        <v>4</v>
+      </c>
+      <c r="M331">
+        <v>5.25</v>
+      </c>
+      <c r="N331">
+        <v>1.45</v>
+      </c>
+      <c r="O331">
+        <v>4</v>
+      </c>
+      <c r="P331">
+        <v>5.5</v>
+      </c>
+      <c r="Q331">
+        <v>-1</v>
+      </c>
+      <c r="R331">
+        <v>1.8</v>
+      </c>
+      <c r="S331">
+        <v>2</v>
+      </c>
+      <c r="T331">
         <v>3</v>
       </c>
-      <c r="I331">
-        <v>3</v>
-      </c>
-      <c r="J331" t="s">
-        <v>53</v>
-      </c>
-      <c r="K331">
-        <v>8</v>
-      </c>
-      <c r="L331">
-        <v>4.75</v>
-      </c>
-      <c r="M331">
-        <v>1.285</v>
-      </c>
-      <c r="N331">
-        <v>7</v>
-      </c>
-      <c r="O331">
-        <v>4.75</v>
-      </c>
-      <c r="P331">
-        <v>1.3</v>
-      </c>
-      <c r="Q331">
-        <v>1.5</v>
-      </c>
-      <c r="R331">
-        <v>1.975</v>
-      </c>
-      <c r="S331">
-        <v>1.825</v>
-      </c>
-      <c r="T331">
-        <v>3.5</v>
-      </c>
       <c r="U331">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V331">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W331">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X331">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y331">
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA331">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB331">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30004,7 +30004,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6943709</v>
+        <v>6943711</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30016,76 +30016,76 @@
         <v>45367.5</v>
       </c>
       <c r="F332" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G332" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J332" t="s">
         <v>53</v>
       </c>
       <c r="K332">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="L332">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M332">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="N332">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="O332">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P332">
+        <v>1.3</v>
+      </c>
+      <c r="Q332">
+        <v>1.5</v>
+      </c>
+      <c r="R332">
+        <v>1.975</v>
+      </c>
+      <c r="S332">
+        <v>1.825</v>
+      </c>
+      <c r="T332">
+        <v>3.5</v>
+      </c>
+      <c r="U332">
+        <v>1.9</v>
+      </c>
+      <c r="V332">
+        <v>1.9</v>
+      </c>
+      <c r="W332">
+        <v>-1</v>
+      </c>
+      <c r="X332">
         <v>3.75</v>
       </c>
-      <c r="Q332">
-        <v>-0.5</v>
-      </c>
-      <c r="R332">
-        <v>1.775</v>
-      </c>
-      <c r="S332">
-        <v>1.925</v>
-      </c>
-      <c r="T332">
-        <v>3</v>
-      </c>
-      <c r="U332">
-        <v>1.95</v>
-      </c>
-      <c r="V332">
-        <v>1.85</v>
-      </c>
-      <c r="W332">
-        <v>-1</v>
-      </c>
-      <c r="X332">
-        <v>2.6</v>
-      </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA332">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC332">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30093,7 +30093,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6943714</v>
+        <v>6943709</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30105,76 +30105,76 @@
         <v>45367.5</v>
       </c>
       <c r="F333" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G333" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H333">
         <v>1</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K333">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L333">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M333">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N333">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O333">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P333">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q333">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R333">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S333">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T333">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U333">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V333">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="W333">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X333">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y333">
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB333">
         <v>-1</v>
       </c>
       <c r="AC333">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30182,7 +30182,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6943716</v>
+        <v>6943714</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30194,10 +30194,10 @@
         <v>45367.5</v>
       </c>
       <c r="F334" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G334" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H334">
         <v>1</v>
@@ -30209,43 +30209,43 @@
         <v>52</v>
       </c>
       <c r="K334">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L334">
         <v>3.4</v>
       </c>
       <c r="M334">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N334">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O334">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P334">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q334">
         <v>0</v>
       </c>
       <c r="R334">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S334">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T334">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U334">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V334">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="W334">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X334">
         <v>-1</v>
@@ -30254,7 +30254,7 @@
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA334">
         <v>-1</v>
@@ -30263,7 +30263,7 @@
         <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.9750000000000001</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30271,7 +30271,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6943715</v>
+        <v>6943716</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30283,58 +30283,58 @@
         <v>45367.5</v>
       </c>
       <c r="F335" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G335" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
         <v>52</v>
       </c>
       <c r="K335">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="L335">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M335">
-        <v>3.9</v>
+        <v>2.45</v>
       </c>
       <c r="N335">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O335">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P335">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q335">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R335">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S335">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T335">
         <v>2.75</v>
       </c>
       <c r="U335">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V335">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W335">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="X335">
         <v>-1</v>
@@ -30343,16 +30343,16 @@
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA335">
         <v>-1</v>
       </c>
       <c r="AB335">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC335">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7925874</v>
+        <v>7863973</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,46 +30461,46 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F337" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G337" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H337">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J337" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K337">
+        <v>2.25</v>
+      </c>
+      <c r="L337">
+        <v>3.5</v>
+      </c>
+      <c r="M337">
+        <v>2.6</v>
+      </c>
+      <c r="N337">
+        <v>1.95</v>
+      </c>
+      <c r="O337">
+        <v>3.6</v>
+      </c>
+      <c r="P337">
+        <v>3.1</v>
+      </c>
+      <c r="Q337">
+        <v>-0.5</v>
+      </c>
+      <c r="R337">
+        <v>2</v>
+      </c>
+      <c r="S337">
         <v>1.8</v>
-      </c>
-      <c r="L337">
-        <v>3.8</v>
-      </c>
-      <c r="M337">
-        <v>3.4</v>
-      </c>
-      <c r="N337">
-        <v>1.45</v>
-      </c>
-      <c r="O337">
-        <v>4.333</v>
-      </c>
-      <c r="P337">
-        <v>5</v>
-      </c>
-      <c r="Q337">
-        <v>-1</v>
-      </c>
-      <c r="R337">
-        <v>1.8</v>
-      </c>
-      <c r="S337">
-        <v>2</v>
       </c>
       <c r="T337">
         <v>2.5</v>
@@ -30512,25 +30512,25 @@
         <v>1.975</v>
       </c>
       <c r="W337">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
+        <v>-1</v>
+      </c>
+      <c r="AA337">
         <v>0.8</v>
       </c>
-      <c r="AA337">
-        <v>-1</v>
-      </c>
       <c r="AB337">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30538,7 +30538,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7863973</v>
+        <v>7925874</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30550,46 +30550,46 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F338" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G338" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J338" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K338">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L338">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M338">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N338">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="O338">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P338">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q338">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R338">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S338">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T338">
         <v>2.5</v>
@@ -30601,25 +30601,25 @@
         <v>1.975</v>
       </c>
       <c r="W338">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X338">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y338">
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA338">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB338">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC338">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -30716,7 +30716,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6944261</v>
+        <v>6944262</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30728,67 +30728,67 @@
         <v>45374.5</v>
       </c>
       <c r="F340" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G340" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J340" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K340">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L340">
         <v>3.5</v>
       </c>
       <c r="M340">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="N340">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="O340">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P340">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="Q340">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R340">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S340">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T340">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U340">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V340">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W340">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X340">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
         <v>-1</v>
       </c>
       <c r="Z340">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA340">
         <v>-1</v>
@@ -30797,7 +30797,7 @@
         <v>-1</v>
       </c>
       <c r="AC340">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -31072,7 +31072,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6944262</v>
+        <v>6944261</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31084,67 +31084,67 @@
         <v>45374.5</v>
       </c>
       <c r="F344" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G344" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J344" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K344">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L344">
         <v>3.5</v>
       </c>
       <c r="M344">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="N344">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="O344">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P344">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q344">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R344">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S344">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T344">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U344">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V344">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W344">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X344">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA344">
         <v>-1</v>
@@ -31153,7 +31153,7 @@
         <v>-1</v>
       </c>
       <c r="AC344">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31161,7 +31161,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6944264</v>
+        <v>6944265</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31173,76 +31173,76 @@
         <v>45374.5</v>
       </c>
       <c r="F345" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G345" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H345">
+        <v>1</v>
+      </c>
+      <c r="I345">
         <v>0</v>
       </c>
-      <c r="I345">
-        <v>3</v>
-      </c>
       <c r="J345" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K345">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L345">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M345">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N345">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="O345">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P345">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q345">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R345">
+        <v>2</v>
+      </c>
+      <c r="S345">
+        <v>1.8</v>
+      </c>
+      <c r="T345">
+        <v>3.5</v>
+      </c>
+      <c r="U345">
         <v>1.85</v>
       </c>
-      <c r="S345">
+      <c r="V345">
         <v>1.95</v>
       </c>
-      <c r="T345">
-        <v>2.5</v>
-      </c>
-      <c r="U345">
-        <v>1.95</v>
-      </c>
-      <c r="V345">
-        <v>1.85</v>
-      </c>
       <c r="W345">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
         <v>-1</v>
       </c>
       <c r="AA345">
+        <v>0.8</v>
+      </c>
+      <c r="AB345">
+        <v>-1</v>
+      </c>
+      <c r="AC345">
         <v>0.95</v>
-      </c>
-      <c r="AB345">
-        <v>0.95</v>
-      </c>
-      <c r="AC345">
-        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31250,7 +31250,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6944265</v>
+        <v>6944266</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31262,13 +31262,13 @@
         <v>45374.5</v>
       </c>
       <c r="F346" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G346" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I346">
         <v>0</v>
@@ -31277,43 +31277,43 @@
         <v>52</v>
       </c>
       <c r="K346">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L346">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M346">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N346">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O346">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P346">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q346">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R346">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S346">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T346">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U346">
+        <v>1.95</v>
+      </c>
+      <c r="V346">
         <v>1.85</v>
       </c>
-      <c r="V346">
-        <v>1.95</v>
-      </c>
       <c r="W346">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X346">
         <v>-1</v>
@@ -31322,16 +31322,16 @@
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA346">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC346">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31339,7 +31339,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6944266</v>
+        <v>6944267</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31351,76 +31351,76 @@
         <v>45374.5</v>
       </c>
       <c r="F347" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G347" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H347">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K347">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L347">
+        <v>3.5</v>
+      </c>
+      <c r="M347">
         <v>3.6</v>
       </c>
-      <c r="M347">
-        <v>3.2</v>
-      </c>
       <c r="N347">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="O347">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P347">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q347">
         <v>-0.5</v>
       </c>
       <c r="R347">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S347">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T347">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U347">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W347">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X347">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31428,7 +31428,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6944267</v>
+        <v>6944268</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31440,76 +31440,76 @@
         <v>45374.5</v>
       </c>
       <c r="F348" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G348" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H348">
+        <v>3</v>
+      </c>
+      <c r="I348">
+        <v>2</v>
+      </c>
+      <c r="J348" t="s">
+        <v>52</v>
+      </c>
+      <c r="K348">
+        <v>1.2</v>
+      </c>
+      <c r="L348">
+        <v>6.5</v>
+      </c>
+      <c r="M348">
+        <v>8</v>
+      </c>
+      <c r="N348">
+        <v>1.25</v>
+      </c>
+      <c r="O348">
+        <v>6</v>
+      </c>
+      <c r="P348">
+        <v>6.5</v>
+      </c>
+      <c r="Q348">
+        <v>-1.75</v>
+      </c>
+      <c r="R348">
+        <v>1.85</v>
+      </c>
+      <c r="S348">
+        <v>1.95</v>
+      </c>
+      <c r="T348">
+        <v>3.5</v>
+      </c>
+      <c r="U348">
+        <v>2</v>
+      </c>
+      <c r="V348">
+        <v>1.8</v>
+      </c>
+      <c r="W348">
+        <v>0.25</v>
+      </c>
+      <c r="X348">
+        <v>-1</v>
+      </c>
+      <c r="Y348">
+        <v>-1</v>
+      </c>
+      <c r="Z348">
+        <v>-1</v>
+      </c>
+      <c r="AA348">
+        <v>0.95</v>
+      </c>
+      <c r="AB348">
         <v>1</v>
       </c>
-      <c r="I348">
-        <v>1</v>
-      </c>
-      <c r="J348" t="s">
-        <v>53</v>
-      </c>
-      <c r="K348">
-        <v>1.8</v>
-      </c>
-      <c r="L348">
-        <v>3.5</v>
-      </c>
-      <c r="M348">
-        <v>3.6</v>
-      </c>
-      <c r="N348">
-        <v>1.75</v>
-      </c>
-      <c r="O348">
-        <v>3.5</v>
-      </c>
-      <c r="P348">
-        <v>3.75</v>
-      </c>
-      <c r="Q348">
-        <v>-0.5</v>
-      </c>
-      <c r="R348">
-        <v>1.8</v>
-      </c>
-      <c r="S348">
-        <v>2</v>
-      </c>
-      <c r="T348">
-        <v>2.75</v>
-      </c>
-      <c r="U348">
-        <v>1.775</v>
-      </c>
-      <c r="V348">
-        <v>2.025</v>
-      </c>
-      <c r="W348">
-        <v>-1</v>
-      </c>
-      <c r="X348">
-        <v>2.5</v>
-      </c>
-      <c r="Y348">
-        <v>-1</v>
-      </c>
-      <c r="Z348">
-        <v>-1</v>
-      </c>
-      <c r="AA348">
-        <v>1</v>
-      </c>
-      <c r="AB348">
-        <v>-1</v>
-      </c>
       <c r="AC348">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31517,7 +31517,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6944268</v>
+        <v>6944264</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31529,40 +31529,40 @@
         <v>45374.5</v>
       </c>
       <c r="F349" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G349" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H349">
+        <v>0</v>
+      </c>
+      <c r="I349">
         <v>3</v>
       </c>
-      <c r="I349">
-        <v>2</v>
-      </c>
       <c r="J349" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K349">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="L349">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M349">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N349">
-        <v>1.25</v>
+        <v>2.875</v>
       </c>
       <c r="O349">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P349">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q349">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R349">
         <v>1.85</v>
@@ -31571,22 +31571,22 @@
         <v>1.95</v>
       </c>
       <c r="T349">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U349">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V349">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W349">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z349">
         <v>-1</v>
@@ -31595,7 +31595,7 @@
         <v>0.95</v>
       </c>
       <c r="AB349">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC349">
         <v>-1</v>
@@ -31695,7 +31695,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6945103</v>
+        <v>6945100</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31707,49 +31707,49 @@
         <v>45380.5</v>
       </c>
       <c r="F351" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G351" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H351">
+        <v>3</v>
+      </c>
+      <c r="I351">
         <v>0</v>
       </c>
-      <c r="I351">
-        <v>2</v>
-      </c>
       <c r="J351" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K351">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="L351">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M351">
-        <v>1.333</v>
+        <v>4.333</v>
       </c>
       <c r="N351">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="O351">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P351">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="Q351">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R351">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S351">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T351">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U351">
         <v>1.9</v>
@@ -31758,25 +31758,25 @@
         <v>1.9</v>
       </c>
       <c r="W351">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA351">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB351">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC351">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31784,7 +31784,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6945100</v>
+        <v>6945103</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31796,49 +31796,49 @@
         <v>45380.5</v>
       </c>
       <c r="F352" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G352" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H352">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J352" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K352">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L352">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M352">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="N352">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="O352">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P352">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="Q352">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R352">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S352">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T352">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U352">
         <v>1.9</v>
@@ -31847,25 +31847,25 @@
         <v>1.9</v>
       </c>
       <c r="W352">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X352">
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z352">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB352">
+        <v>-1</v>
+      </c>
+      <c r="AC352">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC352">
-        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32674,7 +32674,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6945371</v>
+        <v>6945372</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32686,76 +32686,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F362" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G362" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H362">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J362" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K362">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="L362">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M362">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="N362">
-        <v>1.222</v>
+        <v>3.2</v>
       </c>
       <c r="O362">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P362">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q362">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R362">
+        <v>1.9</v>
+      </c>
+      <c r="S362">
+        <v>1.9</v>
+      </c>
+      <c r="T362">
+        <v>2.75</v>
+      </c>
+      <c r="U362">
         <v>1.8</v>
       </c>
-      <c r="S362">
-        <v>2</v>
-      </c>
-      <c r="T362">
-        <v>3.5</v>
-      </c>
-      <c r="U362">
-        <v>1.875</v>
-      </c>
       <c r="V362">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W362">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X362">
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z362">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA362">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB362">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC362">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32763,7 +32763,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6945378</v>
+        <v>6945371</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32775,76 +32775,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F363" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G363" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H363">
+        <v>3</v>
+      </c>
+      <c r="I363">
         <v>0</v>
       </c>
-      <c r="I363">
-        <v>1</v>
-      </c>
       <c r="J363" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K363">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L363">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M363">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="N363">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="O363">
+        <v>5.75</v>
+      </c>
+      <c r="P363">
+        <v>8.5</v>
+      </c>
+      <c r="Q363">
+        <v>-1.75</v>
+      </c>
+      <c r="R363">
+        <v>1.8</v>
+      </c>
+      <c r="S363">
+        <v>2</v>
+      </c>
+      <c r="T363">
         <v>3.5</v>
       </c>
-      <c r="P363">
-        <v>2.625</v>
-      </c>
-      <c r="Q363">
-        <v>-0.25</v>
-      </c>
-      <c r="R363">
-        <v>2.025</v>
-      </c>
-      <c r="S363">
-        <v>1.775</v>
-      </c>
-      <c r="T363">
-        <v>2.75</v>
-      </c>
       <c r="U363">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V363">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W363">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X363">
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z363">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA363">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB363">
         <v>-1</v>
       </c>
       <c r="AC363">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32852,7 +32852,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6945381</v>
+        <v>6945378</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32864,76 +32864,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G364" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J364" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K364">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L364">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M364">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N364">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O364">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P364">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q364">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R364">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S364">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T364">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U364">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V364">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W364">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X364">
         <v>-1</v>
       </c>
       <c r="Y364">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z364">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA364">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB364">
         <v>-1</v>
       </c>
       <c r="AC364">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32941,7 +32941,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6945380</v>
+        <v>6945379</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32953,73 +32953,73 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F365" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G365" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I365">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J365" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K365">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L365">
         <v>3.75</v>
       </c>
       <c r="M365">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N365">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O365">
         <v>3.8</v>
       </c>
       <c r="P365">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q365">
         <v>-0.25</v>
       </c>
       <c r="R365">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S365">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T365">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U365">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V365">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W365">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X365">
         <v>-1</v>
       </c>
       <c r="Y365">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z365">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA365">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB365">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC365">
         <v>-1</v>
@@ -33030,7 +33030,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6945372</v>
+        <v>6945380</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33042,55 +33042,55 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G366" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H366">
         <v>1</v>
       </c>
       <c r="I366">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J366" t="s">
         <v>51</v>
       </c>
       <c r="K366">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="L366">
         <v>3.75</v>
       </c>
       <c r="M366">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="N366">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="O366">
         <v>3.8</v>
       </c>
       <c r="P366">
+        <v>2.625</v>
+      </c>
+      <c r="Q366">
+        <v>-0.25</v>
+      </c>
+      <c r="R366">
+        <v>1.925</v>
+      </c>
+      <c r="S366">
+        <v>1.875</v>
+      </c>
+      <c r="T366">
+        <v>3.25</v>
+      </c>
+      <c r="U366">
         <v>1.85</v>
       </c>
-      <c r="Q366">
-        <v>0.5</v>
-      </c>
-      <c r="R366">
-        <v>1.9</v>
-      </c>
-      <c r="S366">
-        <v>1.9</v>
-      </c>
-      <c r="T366">
-        <v>2.75</v>
-      </c>
-      <c r="U366">
-        <v>1.8</v>
-      </c>
       <c r="V366">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W366">
         <v>-1</v>
@@ -33099,19 +33099,19 @@
         <v>-1</v>
       </c>
       <c r="Y366">
+        <v>1.625</v>
+      </c>
+      <c r="Z366">
+        <v>-1</v>
+      </c>
+      <c r="AA366">
+        <v>0.875</v>
+      </c>
+      <c r="AB366">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z366">
-        <v>-1</v>
-      </c>
-      <c r="AA366">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB366">
-        <v>0.4</v>
-      </c>
       <c r="AC366">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33119,7 +33119,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6945379</v>
+        <v>6945381</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33131,58 +33131,58 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G367" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H367">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I367">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J367" t="s">
         <v>52</v>
       </c>
       <c r="K367">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L367">
         <v>3.75</v>
       </c>
       <c r="M367">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N367">
+        <v>1.727</v>
+      </c>
+      <c r="O367">
+        <v>3.75</v>
+      </c>
+      <c r="P367">
+        <v>3.75</v>
+      </c>
+      <c r="Q367">
+        <v>-0.75</v>
+      </c>
+      <c r="R367">
+        <v>1.975</v>
+      </c>
+      <c r="S367">
+        <v>1.825</v>
+      </c>
+      <c r="T367">
+        <v>3</v>
+      </c>
+      <c r="U367">
         <v>1.95</v>
       </c>
-      <c r="O367">
-        <v>3.8</v>
-      </c>
-      <c r="P367">
-        <v>3</v>
-      </c>
-      <c r="Q367">
-        <v>-0.25</v>
-      </c>
-      <c r="R367">
-        <v>1.75</v>
-      </c>
-      <c r="S367">
-        <v>2.05</v>
-      </c>
-      <c r="T367">
-        <v>2.75</v>
-      </c>
-      <c r="U367">
-        <v>1.9</v>
-      </c>
       <c r="V367">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W367">
-        <v>0.95</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X367">
         <v>-1</v>
@@ -33191,16 +33191,16 @@
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA367">
         <v>-1</v>
       </c>
       <c r="AB367">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC367">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33297,7 +33297,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6945375</v>
+        <v>6945374</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33309,10 +33309,10 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F369" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G369" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H369">
         <v>1</v>
@@ -33324,31 +33324,31 @@
         <v>52</v>
       </c>
       <c r="K369">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L369">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M369">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N369">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O369">
         <v>3.8</v>
       </c>
       <c r="P369">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q369">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R369">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S369">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T369">
         <v>2.75</v>
@@ -33360,7 +33360,7 @@
         <v>1.9</v>
       </c>
       <c r="W369">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X369">
         <v>-1</v>
@@ -33369,10 +33369,10 @@
         <v>-1</v>
       </c>
       <c r="Z369">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA369">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB369">
         <v>-1</v>
@@ -33386,7 +33386,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6945374</v>
+        <v>6945375</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33398,10 +33398,10 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F370" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G370" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H370">
         <v>1</v>
@@ -33413,31 +33413,31 @@
         <v>52</v>
       </c>
       <c r="K370">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L370">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M370">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N370">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O370">
         <v>3.8</v>
       </c>
       <c r="P370">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q370">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R370">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S370">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T370">
         <v>2.75</v>
@@ -33449,7 +33449,7 @@
         <v>1.9</v>
       </c>
       <c r="W370">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X370">
         <v>-1</v>
@@ -33458,10 +33458,10 @@
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA370">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB370">
         <v>-1</v>

--- a/England Southern Premier League Central/England Southern Premier League Central.xlsx
+++ b/England Southern Premier League Central/England Southern Premier League Central.xlsx
@@ -133,19 +133,19 @@
     <t>Long Eaton Utd</t>
   </si>
   <si>
-    <t>Needham Market</t>
+    <t>Halesowen</t>
   </si>
   <si>
     <t>Mickleover Sports</t>
-  </si>
-  <si>
-    <t>Halesowen</t>
   </si>
   <si>
     <t>Nuneaton</t>
   </si>
   <si>
     <t>Royston Town</t>
+  </si>
+  <si>
+    <t>Needham Market</t>
   </si>
   <si>
     <t>AFC Sudbury</t>
@@ -738,7 +738,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -1613,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6939055</v>
+        <v>6939054</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1625,76 +1625,76 @@
         <v>45152.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
         <v>3.75</v>
       </c>
       <c r="M13">
+        <v>2.5</v>
+      </c>
+      <c r="N13">
         <v>2.25</v>
       </c>
-      <c r="N13">
-        <v>2.875</v>
-      </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q13">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V13">
         <v>1.95</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X13">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6939054</v>
+        <v>6939055</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,76 +1714,76 @@
         <v>45152.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L14">
         <v>3.75</v>
       </c>
       <c r="M14">
+        <v>2.25</v>
+      </c>
+      <c r="N14">
+        <v>2.875</v>
+      </c>
+      <c r="O14">
+        <v>3.6</v>
+      </c>
+      <c r="P14">
+        <v>2.1</v>
+      </c>
+      <c r="Q14">
+        <v>0.25</v>
+      </c>
+      <c r="R14">
+        <v>1.875</v>
+      </c>
+      <c r="S14">
+        <v>1.925</v>
+      </c>
+      <c r="T14">
         <v>2.5</v>
       </c>
-      <c r="N14">
-        <v>2.25</v>
-      </c>
-      <c r="O14">
-        <v>3.75</v>
-      </c>
-      <c r="P14">
-        <v>2.5</v>
-      </c>
-      <c r="Q14">
-        <v>-0.25</v>
-      </c>
-      <c r="R14">
-        <v>2.05</v>
-      </c>
-      <c r="S14">
+      <c r="U14">
         <v>1.75</v>
-      </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
       </c>
       <c r="V14">
         <v>1.95</v>
       </c>
       <c r="W14">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6938215</v>
+        <v>6939056</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1806,73 +1806,73 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="L15">
         <v>3.5</v>
       </c>
       <c r="M15">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N15">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6939056</v>
+        <v>6938217</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,70 +1981,70 @@
         <v>45153.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
+        <v>2.375</v>
+      </c>
+      <c r="N17">
         <v>2.2</v>
-      </c>
-      <c r="N17">
-        <v>2.7</v>
       </c>
       <c r="O17">
         <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
         <v>1.925</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -2070,7 +2070,7 @@
         <v>45153.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
@@ -2159,7 +2159,7 @@
         <v>45153.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
@@ -2236,7 +2236,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6938213</v>
+        <v>6938215</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2248,76 +2248,76 @@
         <v>45153.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P20">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
         <v>1.95</v>
-      </c>
-      <c r="S20">
-        <v>1.75</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2325,7 +2325,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6938217</v>
+        <v>6938213</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2337,76 +2337,76 @@
         <v>45153.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="N21">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R21">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z21">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3230,7 +3230,7 @@
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H31">
         <v>7</v>
@@ -3319,7 +3319,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3405,7 +3405,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -3850,7 +3850,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3939,7 +3939,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -4117,7 +4117,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
         <v>44</v>
@@ -4298,7 +4298,7 @@
         <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4476,7 +4476,7 @@
         <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4654,7 +4654,7 @@
         <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4740,7 +4740,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -4918,7 +4918,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -5188,7 +5188,7 @@
         <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6939027</v>
+        <v>6937937</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45181.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K54">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O54">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P54">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q54">
         <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y54">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB54">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6938244</v>
+        <v>6939027</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,40 +5363,40 @@
         <v>45181.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N55">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P55">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
         <v>1.825</v>
@@ -5405,22 +5405,22 @@
         <v>1.975</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z55">
         <v>-1</v>
@@ -5429,10 +5429,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5440,7 +5440,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6939068</v>
+        <v>6938244</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5452,76 +5452,76 @@
         <v>45181.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K56">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N56">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O56">
         <v>3.5</v>
       </c>
       <c r="P56">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y56">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5544,7 +5544,7 @@
         <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6937937</v>
+        <v>6939068</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45181.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61" t="s">
+        <v>51</v>
+      </c>
+      <c r="K61">
+        <v>2.55</v>
+      </c>
+      <c r="L61">
+        <v>3.5</v>
+      </c>
+      <c r="M61">
+        <v>2.3</v>
+      </c>
+      <c r="N61">
+        <v>2.7</v>
+      </c>
+      <c r="O61">
+        <v>3.5</v>
+      </c>
+      <c r="P61">
+        <v>2.2</v>
+      </c>
+      <c r="Q61">
+        <v>0.25</v>
+      </c>
+      <c r="R61">
+        <v>1.8</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>3</v>
+      </c>
+      <c r="U61">
+        <v>1.95</v>
+      </c>
+      <c r="V61">
+        <v>1.85</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
+        <v>1.2</v>
+      </c>
+      <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
         <v>1</v>
       </c>
-      <c r="J61" t="s">
-        <v>53</v>
-      </c>
-      <c r="K61">
-        <v>2.45</v>
-      </c>
-      <c r="L61">
-        <v>3.6</v>
-      </c>
-      <c r="M61">
-        <v>2.35</v>
-      </c>
-      <c r="N61">
-        <v>2.15</v>
-      </c>
-      <c r="O61">
-        <v>3.75</v>
-      </c>
-      <c r="P61">
-        <v>2.75</v>
-      </c>
-      <c r="Q61">
-        <v>-0.25</v>
-      </c>
-      <c r="R61">
-        <v>1.95</v>
-      </c>
-      <c r="S61">
-        <v>1.85</v>
-      </c>
-      <c r="T61">
-        <v>2.75</v>
-      </c>
-      <c r="U61">
-        <v>1.775</v>
-      </c>
-      <c r="V61">
-        <v>2.025</v>
-      </c>
-      <c r="W61">
-        <v>-1</v>
-      </c>
-      <c r="X61">
-        <v>2.75</v>
-      </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
-      <c r="Z61">
-        <v>-0.5</v>
-      </c>
-      <c r="AA61">
-        <v>0.425</v>
-      </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6938245</v>
+        <v>6939070</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,55 +5986,55 @@
         <v>45181.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>51</v>
       </c>
       <c r="K62">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="L62">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="N62">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O62">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T62">
         <v>3</v>
       </c>
       <c r="U62">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V62">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6043,19 +6043,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.75</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6063,7 +6063,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6939070</v>
+        <v>6938245</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6075,76 +6075,76 @@
         <v>45181.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
         <v>51</v>
       </c>
       <c r="K63">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M63">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="N63">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T63">
         <v>3</v>
       </c>
       <c r="U63">
+        <v>1.775</v>
+      </c>
+      <c r="V63">
+        <v>2.025</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
         <v>1.75</v>
       </c>
-      <c r="V63">
-        <v>1.95</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>0.6000000000000001</v>
-      </c>
       <c r="Z63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6342,10 +6342,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" t="s">
         <v>42</v>
-      </c>
-      <c r="G66" t="s">
-        <v>43</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6698,7 +6698,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
         <v>30</v>
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6938247</v>
+        <v>6939071</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6876,76 +6876,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K72">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L72">
+        <v>3.75</v>
+      </c>
+      <c r="M72">
         <v>3.9</v>
       </c>
-      <c r="M72">
-        <v>4.5</v>
-      </c>
       <c r="N72">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S72">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T72">
         <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z72">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6939071</v>
+        <v>6938247</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,76 +6965,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
       <c r="J73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K73">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M73">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N73">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T73">
         <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6938252</v>
+        <v>6939074</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,76 +7054,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K74">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M74">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N74">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P74">
+        <v>5.75</v>
+      </c>
+      <c r="Q74">
+        <v>-1.5</v>
+      </c>
+      <c r="R74">
+        <v>1.95</v>
+      </c>
+      <c r="S74">
         <v>1.85</v>
-      </c>
-      <c r="Q74">
-        <v>0.5</v>
-      </c>
-      <c r="R74">
-        <v>1.875</v>
-      </c>
-      <c r="S74">
-        <v>1.925</v>
       </c>
       <c r="T74">
         <v>3</v>
       </c>
       <c r="U74">
+        <v>1.85</v>
+      </c>
+      <c r="V74">
         <v>1.95</v>
       </c>
-      <c r="V74">
-        <v>1.85</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7131,7 +7131,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6939074</v>
+        <v>6938252</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7143,76 +7143,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K75">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L75">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="N75">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O75">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q75">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>3</v>
       </c>
       <c r="U75">
+        <v>1.95</v>
+      </c>
+      <c r="V75">
         <v>1.85</v>
       </c>
-      <c r="V75">
-        <v>1.95</v>
-      </c>
       <c r="W75">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7410,7 +7410,7 @@
         <v>45195.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6939076</v>
+        <v>6939075</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,40 +7499,40 @@
         <v>45195.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K79">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N79">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O79">
         <v>3.6</v>
       </c>
       <c r="P79">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
         <v>1.8</v>
@@ -7544,28 +7544,28 @@
         <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6939028</v>
+        <v>6939076</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,73 +7588,73 @@
         <v>45195.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K80">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
+        <v>2.4</v>
+      </c>
+      <c r="N80">
+        <v>2.3</v>
+      </c>
+      <c r="O80">
+        <v>3.6</v>
+      </c>
+      <c r="P80">
         <v>2.5</v>
       </c>
-      <c r="N80">
-        <v>2.1</v>
-      </c>
-      <c r="O80">
-        <v>4</v>
-      </c>
-      <c r="P80">
-        <v>2.625</v>
-      </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R80">
+        <v>1.8</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80">
+        <v>2.75</v>
+      </c>
+      <c r="U80">
         <v>1.925</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.875</v>
       </c>
-      <c r="T80">
-        <v>3</v>
-      </c>
-      <c r="U80">
-        <v>1.7</v>
-      </c>
-      <c r="V80">
-        <v>2.1</v>
-      </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB80">
-        <v>0.7</v>
+        <v>0.925</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6937940</v>
+        <v>6939028</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,10 +7677,10 @@
         <v>45195.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7692,58 +7692,58 @@
         <v>53</v>
       </c>
       <c r="K81">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L81">
         <v>3.75</v>
       </c>
       <c r="M81">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N81">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O81">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P81">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T81">
         <v>3</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>0.7</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7754,7 +7754,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6939075</v>
+        <v>6937940</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7766,73 +7766,73 @@
         <v>45195.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K82">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="L82">
         <v>3.75</v>
       </c>
       <c r="M82">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="N82">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T82">
+        <v>3</v>
+      </c>
+      <c r="U82">
+        <v>1.825</v>
+      </c>
+      <c r="V82">
+        <v>1.975</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>2.75</v>
       </c>
-      <c r="U82">
-        <v>1.85</v>
-      </c>
-      <c r="V82">
-        <v>1.95</v>
-      </c>
-      <c r="W82">
-        <v>2.1</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7858,7 +7858,7 @@
         <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8211,7 +8211,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
         <v>44</v>
@@ -8481,7 +8481,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8745,7 +8745,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
@@ -9193,7 +9193,7 @@
         <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9902,7 +9902,7 @@
         <v>45223.65625</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -10083,7 +10083,7 @@
         <v>48</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10525,10 +10525,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F113" t="s">
+        <v>42</v>
+      </c>
+      <c r="G113" t="s">
         <v>43</v>
-      </c>
-      <c r="G113" t="s">
-        <v>39</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10617,7 +10617,7 @@
         <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -11059,7 +11059,7 @@
         <v>45234.5</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
         <v>32</v>
@@ -11148,10 +11148,10 @@
         <v>45234.5</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11507,7 +11507,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11682,7 +11682,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
         <v>50</v>
@@ -11952,7 +11952,7 @@
         <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12204,7 +12204,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6936960</v>
+        <v>6938288</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12216,76 +12216,76 @@
         <v>45241.5</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K132">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L132">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N132">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="O132">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P132">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q132">
         <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12293,7 +12293,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6939091</v>
+        <v>6938289</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12305,55 +12305,55 @@
         <v>45241.5</v>
       </c>
       <c r="F133" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>51</v>
       </c>
       <c r="K133">
+        <v>1.8</v>
+      </c>
+      <c r="L133">
         <v>3.8</v>
       </c>
-      <c r="L133">
-        <v>4.333</v>
-      </c>
       <c r="M133">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="N133">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="O133">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q133">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12362,19 +12362,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.55</v>
+        <v>1.9</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12382,7 +12382,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6939092</v>
+        <v>6938290</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12394,76 +12394,76 @@
         <v>45241.5</v>
       </c>
       <c r="F134" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K134">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L134">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N134">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="O134">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P134">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q134">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12486,7 +12486,7 @@
         <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>4</v>
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6939037</v>
+        <v>6939092</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,73 +12572,73 @@
         <v>45241.5</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H136">
+        <v>3</v>
+      </c>
+      <c r="I136">
         <v>1</v>
       </c>
-      <c r="I136">
+      <c r="J136" t="s">
+        <v>52</v>
+      </c>
+      <c r="K136">
+        <v>1.571</v>
+      </c>
+      <c r="L136">
+        <v>4.4</v>
+      </c>
+      <c r="M136">
+        <v>4</v>
+      </c>
+      <c r="N136">
+        <v>1.363</v>
+      </c>
+      <c r="O136">
+        <v>5</v>
+      </c>
+      <c r="P136">
         <v>6</v>
       </c>
-      <c r="J136" t="s">
-        <v>51</v>
-      </c>
-      <c r="K136">
+      <c r="Q136">
+        <v>-1.5</v>
+      </c>
+      <c r="R136">
+        <v>1.925</v>
+      </c>
+      <c r="S136">
+        <v>1.875</v>
+      </c>
+      <c r="T136">
         <v>3.25</v>
       </c>
-      <c r="L136">
-        <v>4</v>
-      </c>
-      <c r="M136">
+      <c r="U136">
         <v>1.8</v>
       </c>
-      <c r="N136">
-        <v>3.3</v>
-      </c>
-      <c r="O136">
-        <v>4</v>
-      </c>
-      <c r="P136">
-        <v>1.8</v>
-      </c>
-      <c r="Q136">
-        <v>0.5</v>
-      </c>
-      <c r="R136">
-        <v>1.975</v>
-      </c>
-      <c r="S136">
-        <v>1.825</v>
-      </c>
-      <c r="T136">
-        <v>3</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>0.925</v>
+      </c>
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
         <v>0.8</v>
-      </c>
-      <c r="Z136">
-        <v>-1</v>
-      </c>
-      <c r="AA136">
-        <v>0.825</v>
-      </c>
-      <c r="AB136">
-        <v>0.875</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6938290</v>
+        <v>6939091</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,64 +12661,64 @@
         <v>45241.5</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K137">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M137">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="N137">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="O137">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P137">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
         <v>1.95</v>
       </c>
-      <c r="S137">
+      <c r="T137">
+        <v>3</v>
+      </c>
+      <c r="U137">
+        <v>1.95</v>
+      </c>
+      <c r="V137">
         <v>1.85</v>
       </c>
-      <c r="T137">
-        <v>2.75</v>
-      </c>
-      <c r="U137">
-        <v>1.9</v>
-      </c>
-      <c r="V137">
-        <v>1.9</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z137">
         <v>0</v>
@@ -12730,7 +12730,7 @@
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6938289</v>
+        <v>6936960</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,46 +12750,46 @@
         <v>45241.5</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K138">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L138">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="M138">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N138">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O138">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P138">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T138">
         <v>2.75</v>
@@ -12801,25 +12801,25 @@
         <v>2</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA138">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6938288</v>
+        <v>6939037</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12839,40 +12839,40 @@
         <v>45241.5</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L139">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M139">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N139">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="O139">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P139">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R139">
         <v>1.975</v>
@@ -12881,22 +12881,22 @@
         <v>1.825</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z139">
         <v>-1</v>
@@ -12905,10 +12905,10 @@
         <v>0.825</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12928,7 +12928,7 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
         <v>35</v>
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6938292</v>
+        <v>6938295</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,10 +13106,10 @@
         <v>45248.5</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13121,43 +13121,43 @@
         <v>52</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L142">
         <v>3.75</v>
       </c>
       <c r="M142">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N142">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P142">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q142">
         <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13166,13 +13166,13 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AC142">
         <v>-0.5</v>
@@ -13183,7 +13183,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6938295</v>
+        <v>6938292</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13195,10 +13195,10 @@
         <v>45248.5</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13210,43 +13210,43 @@
         <v>52</v>
       </c>
       <c r="K143">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
         <v>3.75</v>
       </c>
       <c r="M143">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N143">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P143">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q143">
         <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S143">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13255,13 +13255,13 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="AC143">
         <v>-0.5</v>
@@ -13462,7 +13462,7 @@
         <v>45248.5</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
         <v>50</v>
@@ -13717,7 +13717,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7458148</v>
+        <v>7458147</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13729,76 +13729,76 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
         <v>0</v>
       </c>
-      <c r="I149">
+      <c r="J149" t="s">
+        <v>52</v>
+      </c>
+      <c r="K149">
+        <v>3.25</v>
+      </c>
+      <c r="L149">
+        <v>4</v>
+      </c>
+      <c r="M149">
+        <v>1.8</v>
+      </c>
+      <c r="N149">
+        <v>3.8</v>
+      </c>
+      <c r="O149">
+        <v>4.333</v>
+      </c>
+      <c r="P149">
+        <v>1.6</v>
+      </c>
+      <c r="Q149">
+        <v>1</v>
+      </c>
+      <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
         <v>3</v>
       </c>
-      <c r="J149" t="s">
-        <v>51</v>
-      </c>
-      <c r="K149">
-        <v>1.4</v>
-      </c>
-      <c r="L149">
-        <v>4.5</v>
-      </c>
-      <c r="M149">
-        <v>5.5</v>
-      </c>
-      <c r="N149">
-        <v>1.363</v>
-      </c>
-      <c r="O149">
-        <v>4.75</v>
-      </c>
-      <c r="P149">
-        <v>6</v>
-      </c>
-      <c r="Q149">
-        <v>-1.5</v>
-      </c>
-      <c r="R149">
-        <v>1.9</v>
-      </c>
-      <c r="S149">
-        <v>1.9</v>
-      </c>
-      <c r="T149">
-        <v>3.5</v>
-      </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13806,7 +13806,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7458147</v>
+        <v>7458148</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13818,76 +13818,76 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K150">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M150">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N150">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="O150">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P150">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="Q150">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6938297</v>
+        <v>6939098</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45255.5</v>
       </c>
       <c r="F151" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K151">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="L151">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M151">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="N151">
-        <v>3.1</v>
+        <v>1.55</v>
       </c>
       <c r="O151">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P151">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q151">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y151">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6938298</v>
+        <v>6938297</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45255.5</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152" t="s">
+        <v>51</v>
+      </c>
+      <c r="K152">
+        <v>2.7</v>
+      </c>
+      <c r="L152">
+        <v>3.75</v>
+      </c>
+      <c r="M152">
+        <v>2.1</v>
+      </c>
+      <c r="N152">
+        <v>3.1</v>
+      </c>
+      <c r="O152">
+        <v>3.8</v>
+      </c>
+      <c r="P152">
+        <v>1.909</v>
+      </c>
+      <c r="Q152">
+        <v>0.5</v>
+      </c>
+      <c r="R152">
+        <v>1.825</v>
+      </c>
+      <c r="S152">
+        <v>1.975</v>
+      </c>
+      <c r="T152">
         <v>3</v>
       </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152" t="s">
-        <v>52</v>
-      </c>
-      <c r="K152">
-        <v>2.25</v>
-      </c>
-      <c r="L152">
-        <v>3.5</v>
-      </c>
-      <c r="M152">
-        <v>2.625</v>
-      </c>
-      <c r="N152">
+      <c r="U152">
         <v>1.95</v>
       </c>
-      <c r="O152">
-        <v>3.6</v>
-      </c>
-      <c r="P152">
-        <v>3.1</v>
-      </c>
-      <c r="Q152">
-        <v>-0.5</v>
-      </c>
-      <c r="R152">
-        <v>2</v>
-      </c>
-      <c r="S152">
-        <v>1.8</v>
-      </c>
-      <c r="T152">
-        <v>2.25</v>
-      </c>
-      <c r="U152">
-        <v>1.825</v>
-      </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z152">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6939039</v>
+        <v>6938298</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,76 +14085,76 @@
         <v>45255.5</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H153">
+        <v>3</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>52</v>
+      </c>
+      <c r="K153">
+        <v>2.25</v>
+      </c>
+      <c r="L153">
+        <v>3.5</v>
+      </c>
+      <c r="M153">
+        <v>2.625</v>
+      </c>
+      <c r="N153">
+        <v>1.95</v>
+      </c>
+      <c r="O153">
+        <v>3.6</v>
+      </c>
+      <c r="P153">
+        <v>3.1</v>
+      </c>
+      <c r="Q153">
+        <v>-0.5</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>1.8</v>
+      </c>
+      <c r="T153">
+        <v>2.25</v>
+      </c>
+      <c r="U153">
+        <v>1.825</v>
+      </c>
+      <c r="V153">
+        <v>1.975</v>
+      </c>
+      <c r="W153">
+        <v>0.95</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
         <v>1</v>
       </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-      <c r="J153" t="s">
-        <v>53</v>
-      </c>
-      <c r="K153">
-        <v>2</v>
-      </c>
-      <c r="L153">
-        <v>4</v>
-      </c>
-      <c r="M153">
-        <v>2.75</v>
-      </c>
-      <c r="N153">
-        <v>2.1</v>
-      </c>
-      <c r="O153">
-        <v>4</v>
-      </c>
-      <c r="P153">
-        <v>2.55</v>
-      </c>
-      <c r="Q153">
-        <v>-0.25</v>
-      </c>
-      <c r="R153">
-        <v>1.975</v>
-      </c>
-      <c r="S153">
-        <v>1.825</v>
-      </c>
-      <c r="T153">
-        <v>2.75</v>
-      </c>
-      <c r="U153">
-        <v>1.75</v>
-      </c>
-      <c r="V153">
-        <v>1.95</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>3</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>-0.5</v>
-      </c>
       <c r="AA153">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14162,7 +14162,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6938296</v>
+        <v>6939039</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14174,76 +14174,76 @@
         <v>45255.5</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K154">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L154">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M154">
+        <v>2.75</v>
+      </c>
+      <c r="N154">
         <v>2.1</v>
       </c>
-      <c r="N154">
-        <v>2.3</v>
-      </c>
       <c r="O154">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
+        <v>1.825</v>
+      </c>
+      <c r="T154">
+        <v>2.75</v>
+      </c>
+      <c r="U154">
+        <v>1.75</v>
+      </c>
+      <c r="V154">
         <v>1.95</v>
       </c>
-      <c r="T154">
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
         <v>3</v>
       </c>
-      <c r="U154">
-        <v>1.975</v>
-      </c>
-      <c r="V154">
-        <v>1.825</v>
-      </c>
-      <c r="W154">
-        <v>-1</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
       <c r="Y154">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA154">
+        <v>0.4125</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>0.95</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
-      </c>
-      <c r="AC154">
-        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14251,7 +14251,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6939099</v>
+        <v>6938296</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14263,76 +14263,76 @@
         <v>45255.5</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
         <v>51</v>
       </c>
       <c r="K155">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M155">
+        <v>2.1</v>
+      </c>
+      <c r="N155">
+        <v>2.3</v>
+      </c>
+      <c r="O155">
+        <v>3.75</v>
+      </c>
+      <c r="P155">
+        <v>2.4</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>1.85</v>
+      </c>
+      <c r="S155">
+        <v>1.95</v>
+      </c>
+      <c r="T155">
+        <v>3</v>
+      </c>
+      <c r="U155">
+        <v>1.975</v>
+      </c>
+      <c r="V155">
+        <v>1.825</v>
+      </c>
+      <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
         <v>1.4</v>
       </c>
-      <c r="N155">
-        <v>7.5</v>
-      </c>
-      <c r="O155">
-        <v>4.75</v>
-      </c>
-      <c r="P155">
-        <v>1.285</v>
-      </c>
-      <c r="Q155">
-        <v>1.75</v>
-      </c>
-      <c r="R155">
-        <v>1.825</v>
-      </c>
-      <c r="S155">
-        <v>1.975</v>
-      </c>
-      <c r="T155">
-        <v>3.25</v>
-      </c>
-      <c r="U155">
-        <v>1.9</v>
-      </c>
-      <c r="V155">
-        <v>1.9</v>
-      </c>
-      <c r="W155">
-        <v>-1</v>
-      </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
-      <c r="Y155">
-        <v>0.2849999999999999</v>
-      </c>
       <c r="Z155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB155">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14352,7 +14352,7 @@
         <v>45255.5</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
         <v>35</v>
@@ -14530,7 +14530,7 @@
         <v>45255.5</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
         <v>29</v>
@@ -14622,7 +14622,7 @@
         <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14696,7 +14696,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6939098</v>
+        <v>6939099</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14708,46 +14708,46 @@
         <v>45255.5</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K160">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="L160">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="N160">
-        <v>1.55</v>
+        <v>7.5</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P160">
-        <v>4.333</v>
+        <v>1.285</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R160">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
         <v>3.25</v>
@@ -14762,22 +14762,22 @@
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA160">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7502644</v>
+        <v>7501836</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,58 +14797,58 @@
         <v>45257.69791666666</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>52</v>
       </c>
       <c r="K161">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L161">
         <v>3.6</v>
       </c>
       <c r="M161">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N161">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O161">
         <v>3.6</v>
       </c>
       <c r="P161">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S161">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W161">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14857,16 +14857,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7501836</v>
+        <v>7502644</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,58 +14886,58 @@
         <v>45257.69791666666</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
         <v>52</v>
       </c>
       <c r="K162">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L162">
         <v>3.6</v>
       </c>
       <c r="M162">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N162">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O162">
         <v>3.6</v>
       </c>
       <c r="P162">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V162">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14946,16 +14946,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7525201</v>
+        <v>7501487</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,10 +14975,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -14990,19 +14990,19 @@
         <v>51</v>
       </c>
       <c r="K163">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L163">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M163">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N163">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O163">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P163">
         <v>2.4</v>
@@ -15011,19 +15011,19 @@
         <v>0</v>
       </c>
       <c r="R163">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S163">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15038,13 +15038,13 @@
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7494500</v>
+        <v>7525201</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,10 +15064,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15079,41 +15079,41 @@
         <v>51</v>
       </c>
       <c r="K164">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N164">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O164">
         <v>3.6</v>
       </c>
       <c r="P164">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R164">
+        <v>1.875</v>
+      </c>
+      <c r="S164">
+        <v>1.925</v>
+      </c>
+      <c r="T164">
+        <v>3</v>
+      </c>
+      <c r="U164">
         <v>1.85</v>
       </c>
-      <c r="S164">
+      <c r="V164">
         <v>1.95</v>
       </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
-      <c r="U164">
-        <v>1.925</v>
-      </c>
-      <c r="V164">
-        <v>1.875</v>
-      </c>
       <c r="W164">
         <v>-1</v>
       </c>
@@ -15121,19 +15121,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
+        <v>0.925</v>
+      </c>
+      <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
         <v>0.95</v>
-      </c>
-      <c r="AB164">
-        <v>-1</v>
-      </c>
-      <c r="AC164">
-        <v>0.875</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15141,7 +15141,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7501487</v>
+        <v>7494500</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15153,10 +15153,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15168,61 +15168,61 @@
         <v>51</v>
       </c>
       <c r="K165">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L165">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N165">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O165">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
+        <v>1.925</v>
+      </c>
+      <c r="V165">
+        <v>1.875</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
         <v>1.9</v>
       </c>
-      <c r="V165">
-        <v>1.9</v>
-      </c>
-      <c r="W165">
-        <v>-1</v>
-      </c>
-      <c r="X165">
-        <v>-1</v>
-      </c>
-      <c r="Y165">
-        <v>1.4</v>
-      </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15245,7 +15245,7 @@
         <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>3</v>
@@ -15331,7 +15331,7 @@
         <v>45262.5</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
         <v>40</v>
@@ -15690,7 +15690,7 @@
         <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15776,7 +15776,7 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G172" t="s">
         <v>46</v>
@@ -15957,7 +15957,7 @@
         <v>48</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16844,7 +16844,7 @@
         <v>45276.5</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
         <v>37</v>
@@ -16933,7 +16933,7 @@
         <v>45276.5</v>
       </c>
       <c r="F185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
         <v>38</v>
@@ -17289,7 +17289,7 @@
         <v>45276.5</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
         <v>45</v>
@@ -17467,7 +17467,7 @@
         <v>45277.5</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
         <v>49</v>
@@ -17826,7 +17826,7 @@
         <v>38</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17915,7 +17915,7 @@
         <v>45</v>
       </c>
       <c r="G196" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18360,7 +18360,7 @@
         <v>44</v>
       </c>
       <c r="G201" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H201">
         <v>4</v>
@@ -18538,7 +18538,7 @@
         <v>36</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18612,7 +18612,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7626130</v>
+        <v>6938324</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18624,76 +18624,76 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H204">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K204">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L204">
         <v>3.6</v>
       </c>
       <c r="M204">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="N204">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="O204">
         <v>3.6</v>
       </c>
       <c r="P204">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R204">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S204">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA204">
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18713,7 +18713,7 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
         <v>32</v>
@@ -18790,7 +18790,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6938324</v>
+        <v>7626130</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18802,76 +18802,76 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K206">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L206">
         <v>3.6</v>
       </c>
       <c r="M206">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="N206">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O206">
         <v>3.6</v>
       </c>
       <c r="P206">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Q206">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X206">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC206">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19057,7 +19057,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6938329</v>
+        <v>6939349</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19069,40 +19069,40 @@
         <v>45286.5</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209">
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K209">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L209">
         <v>3.4</v>
       </c>
       <c r="M209">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N209">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O209">
         <v>3.4</v>
       </c>
       <c r="P209">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R209">
         <v>1.8</v>
@@ -19114,31 +19114,31 @@
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z209">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB209">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19235,7 +19235,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6939349</v>
+        <v>6938329</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19247,40 +19247,40 @@
         <v>45286.5</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G211" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211">
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K211">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L211">
         <v>3.4</v>
       </c>
       <c r="M211">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N211">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O211">
         <v>3.4</v>
       </c>
       <c r="P211">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
         <v>1.8</v>
@@ -19292,31 +19292,31 @@
         <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V211">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y211">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA211">
+        <v>-0.5</v>
+      </c>
+      <c r="AB211">
         <v>1</v>
       </c>
-      <c r="AB211">
-        <v>-1</v>
-      </c>
       <c r="AC211">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19428,7 +19428,7 @@
         <v>47</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H213">
         <v>3</v>
@@ -19606,7 +19606,7 @@
         <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19962,7 +19962,7 @@
         <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20140,7 +20140,7 @@
         <v>47</v>
       </c>
       <c r="G221" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20226,7 +20226,7 @@
         <v>45296.69791666666</v>
       </c>
       <c r="F222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G222" t="s">
         <v>32</v>
@@ -20493,7 +20493,7 @@
         <v>45297.5</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G225" t="s">
         <v>37</v>
@@ -21027,7 +21027,7 @@
         <v>45297.5</v>
       </c>
       <c r="F231" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G231" t="s">
         <v>44</v>
@@ -21116,7 +21116,7 @@
         <v>45297.5</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G232" t="s">
         <v>31</v>
@@ -21386,7 +21386,7 @@
         <v>33</v>
       </c>
       <c r="G235" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H235">
         <v>3</v>
@@ -21564,7 +21564,7 @@
         <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -22006,10 +22006,10 @@
         <v>45304.5</v>
       </c>
       <c r="F242" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G242" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -22617,7 +22617,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7696446</v>
+        <v>7593255</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22629,40 +22629,40 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F249" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H249">
         <v>1</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K249">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L249">
         <v>3.75</v>
       </c>
       <c r="M249">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N249">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O249">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P249">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q249">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R249">
         <v>1.8</v>
@@ -22671,34 +22671,34 @@
         <v>2</v>
       </c>
       <c r="T249">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V249">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W249">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X249">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA249">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB249">
         <v>-1</v>
       </c>
       <c r="AC249">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22706,7 +22706,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7593255</v>
+        <v>7696446</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22718,40 +22718,40 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G250" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H250">
         <v>1</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K250">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L250">
         <v>3.75</v>
       </c>
       <c r="M250">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N250">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O250">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P250">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q250">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R250">
         <v>1.8</v>
@@ -22760,34 +22760,34 @@
         <v>2</v>
       </c>
       <c r="T250">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V250">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W250">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA250">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22899,7 +22899,7 @@
         <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H252">
         <v>3</v>
@@ -23151,7 +23151,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6939127</v>
+        <v>6938359</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23163,10 +23163,10 @@
         <v>45318.5</v>
       </c>
       <c r="F255" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G255" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H255">
         <v>2</v>
@@ -23178,34 +23178,34 @@
         <v>52</v>
       </c>
       <c r="K255">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L255">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M255">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="N255">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O255">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P255">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q255">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R255">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="S255">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T255">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U255">
         <v>1.875</v>
@@ -23214,7 +23214,7 @@
         <v>1.925</v>
       </c>
       <c r="W255">
-        <v>0.7270000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23223,16 +23223,16 @@
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA255">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB255">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23240,7 +23240,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6938359</v>
+        <v>6938358</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23252,46 +23252,46 @@
         <v>45318.5</v>
       </c>
       <c r="F256" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G256" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J256" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K256">
-        <v>1.65</v>
+        <v>10</v>
       </c>
       <c r="L256">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M256">
-        <v>4.2</v>
+        <v>1.181</v>
       </c>
       <c r="N256">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O256">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P256">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="Q256">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="R256">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S256">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T256">
         <v>3</v>
@@ -23303,25 +23303,25 @@
         <v>1.925</v>
       </c>
       <c r="W256">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23329,7 +23329,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6938358</v>
+        <v>6939127</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23341,49 +23341,49 @@
         <v>45318.5</v>
       </c>
       <c r="F257" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G257" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K257">
-        <v>10</v>
+        <v>1.75</v>
       </c>
       <c r="L257">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M257">
-        <v>1.181</v>
+        <v>3.9</v>
       </c>
       <c r="N257">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O257">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P257">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="Q257">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R257">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S257">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T257">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U257">
         <v>1.875</v>
@@ -23392,25 +23392,25 @@
         <v>1.925</v>
       </c>
       <c r="W257">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA257">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC257">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23522,7 +23522,7 @@
         <v>50</v>
       </c>
       <c r="G259" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>36</v>
       </c>
       <c r="G262" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -23964,7 +23964,7 @@
         <v>45325.5</v>
       </c>
       <c r="F264" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G264" t="s">
         <v>49</v>
@@ -24412,7 +24412,7 @@
         <v>30</v>
       </c>
       <c r="G269" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -24854,7 +24854,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F274" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G274" t="s">
         <v>49</v>
@@ -25035,7 +25035,7 @@
         <v>46</v>
       </c>
       <c r="G276" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H276">
         <v>3</v>
@@ -25299,7 +25299,7 @@
         <v>45332.5</v>
       </c>
       <c r="F279" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G279" t="s">
         <v>34</v>
@@ -25658,7 +25658,7 @@
         <v>50</v>
       </c>
       <c r="G283" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H283">
         <v>2</v>
@@ -25744,7 +25744,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F284" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G284" t="s">
         <v>47</v>
@@ -25833,7 +25833,7 @@
         <v>45339.5</v>
       </c>
       <c r="F285" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G285" t="s">
         <v>38</v>
@@ -25922,7 +25922,7 @@
         <v>45339.5</v>
       </c>
       <c r="F286" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G286" t="s">
         <v>40</v>
@@ -26103,7 +26103,7 @@
         <v>44</v>
       </c>
       <c r="G288" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H288">
         <v>2</v>
@@ -26815,7 +26815,7 @@
         <v>47</v>
       </c>
       <c r="G296" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H296">
         <v>2</v>
@@ -27260,7 +27260,7 @@
         <v>46</v>
       </c>
       <c r="G301" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H301">
         <v>0</v>
@@ -27524,10 +27524,10 @@
         <v>45346.5</v>
       </c>
       <c r="F304" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G304" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F307" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G307" t="s">
         <v>30</v>
@@ -28061,7 +28061,7 @@
         <v>35</v>
       </c>
       <c r="G310" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H310">
         <v>2</v>
@@ -28147,7 +28147,7 @@
         <v>45353.5</v>
       </c>
       <c r="F311" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G311" t="s">
         <v>33</v>
@@ -28773,7 +28773,7 @@
         <v>31</v>
       </c>
       <c r="G318" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -28862,7 +28862,7 @@
         <v>36</v>
       </c>
       <c r="G319" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H319">
         <v>0</v>
@@ -29040,7 +29040,7 @@
         <v>38</v>
       </c>
       <c r="G321" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H321">
         <v>0</v>
@@ -29215,10 +29215,10 @@
         <v>45360.5</v>
       </c>
       <c r="F323" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G323" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H323">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>45367.5</v>
       </c>
       <c r="F329" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G329" t="s">
         <v>34</v>
@@ -29838,7 +29838,7 @@
         <v>45367.5</v>
       </c>
       <c r="F330" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G330" t="s">
         <v>35</v>
@@ -30375,7 +30375,7 @@
         <v>40</v>
       </c>
       <c r="G336" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -30639,7 +30639,7 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F339" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G339" t="s">
         <v>34</v>
@@ -30995,7 +30995,7 @@
         <v>45374.5</v>
       </c>
       <c r="F343" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G343" t="s">
         <v>45</v>
@@ -31087,7 +31087,7 @@
         <v>29</v>
       </c>
       <c r="G344" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H344">
         <v>3</v>
@@ -31265,7 +31265,7 @@
         <v>35</v>
       </c>
       <c r="G346" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H346">
         <v>2</v>
@@ -31339,7 +31339,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6944266</v>
+        <v>6944265</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31351,13 +31351,13 @@
         <v>45374.5</v>
       </c>
       <c r="F347" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G347" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H347">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I347">
         <v>0</v>
@@ -31366,43 +31366,43 @@
         <v>52</v>
       </c>
       <c r="K347">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L347">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M347">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N347">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O347">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P347">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q347">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R347">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S347">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T347">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U347">
+        <v>1.85</v>
+      </c>
+      <c r="V347">
         <v>1.95</v>
       </c>
-      <c r="V347">
-        <v>1.85</v>
-      </c>
       <c r="W347">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -31411,16 +31411,16 @@
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31428,7 +31428,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6944265</v>
+        <v>6944266</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31440,13 +31440,13 @@
         <v>45374.5</v>
       </c>
       <c r="F348" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G348" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I348">
         <v>0</v>
@@ -31455,43 +31455,43 @@
         <v>52</v>
       </c>
       <c r="K348">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M348">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N348">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O348">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P348">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q348">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R348">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S348">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T348">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U348">
+        <v>1.95</v>
+      </c>
+      <c r="V348">
         <v>1.85</v>
       </c>
-      <c r="V348">
-        <v>1.95</v>
-      </c>
       <c r="W348">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31500,16 +31500,16 @@
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA348">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC348">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31710,7 +31710,7 @@
         <v>32</v>
       </c>
       <c r="G351" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H351">
         <v>0</v>
@@ -31977,7 +31977,7 @@
         <v>46</v>
       </c>
       <c r="G354" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -32066,7 +32066,7 @@
         <v>48</v>
       </c>
       <c r="G355" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H355">
         <v>1</v>
@@ -32597,7 +32597,7 @@
         <v>45383.375</v>
       </c>
       <c r="F361" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G361" t="s">
         <v>44</v>
@@ -32686,7 +32686,7 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F362" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G362" t="s">
         <v>47</v>
@@ -33398,7 +33398,7 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F370" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G370" t="s">
         <v>36</v>
@@ -33475,7 +33475,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6946222</v>
+        <v>6946231</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33487,76 +33487,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F371" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G371" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H371">
+        <v>0</v>
+      </c>
+      <c r="I371">
         <v>1</v>
       </c>
-      <c r="I371">
-        <v>0</v>
-      </c>
       <c r="J371" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K371">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L371">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M371">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N371">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O371">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P371">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="Q371">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R371">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S371">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T371">
         <v>2.75</v>
       </c>
       <c r="U371">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V371">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W371">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X371">
         <v>-1</v>
       </c>
       <c r="Y371">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z371">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA371">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB371">
         <v>-1</v>
       </c>
       <c r="AC371">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33564,7 +33564,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6946231</v>
+        <v>6946220</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33576,76 +33576,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G372" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372">
         <v>1</v>
       </c>
       <c r="J372" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K372">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L372">
         <v>3.6</v>
       </c>
       <c r="M372">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N372">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O372">
         <v>3.6</v>
       </c>
       <c r="P372">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q372">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R372">
+        <v>1.825</v>
+      </c>
+      <c r="S372">
         <v>1.975</v>
-      </c>
-      <c r="S372">
-        <v>1.825</v>
       </c>
       <c r="T372">
         <v>2.75</v>
       </c>
       <c r="U372">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V372">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W372">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA372">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC372">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33653,7 +33653,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6946220</v>
+        <v>6946221</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33665,58 +33665,58 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G373" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J373" t="s">
         <v>52</v>
       </c>
       <c r="K373">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L373">
+        <v>3.5</v>
+      </c>
+      <c r="M373">
         <v>3.6</v>
       </c>
-      <c r="M373">
-        <v>2.375</v>
-      </c>
       <c r="N373">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="O373">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P373">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q373">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R373">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S373">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T373">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U373">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V373">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W373">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="X373">
         <v>-1</v>
@@ -33725,16 +33725,16 @@
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA373">
         <v>-1</v>
       </c>
       <c r="AB373">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC373">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33742,7 +33742,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6946221</v>
+        <v>6946229</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33754,40 +33754,40 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G374" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H374">
+        <v>3</v>
+      </c>
+      <c r="I374">
         <v>1</v>
-      </c>
-      <c r="I374">
-        <v>0</v>
       </c>
       <c r="J374" t="s">
         <v>52</v>
       </c>
       <c r="K374">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="L374">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M374">
+        <v>1.571</v>
+      </c>
+      <c r="N374">
+        <v>3.2</v>
+      </c>
+      <c r="O374">
         <v>3.6</v>
       </c>
-      <c r="N374">
-        <v>2.05</v>
-      </c>
-      <c r="O374">
-        <v>3.4</v>
-      </c>
       <c r="P374">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q374">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R374">
         <v>1.85</v>
@@ -33796,16 +33796,16 @@
         <v>1.95</v>
       </c>
       <c r="T374">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U374">
+        <v>1.95</v>
+      </c>
+      <c r="V374">
         <v>1.85</v>
       </c>
-      <c r="V374">
-        <v>1.95</v>
-      </c>
       <c r="W374">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33820,10 +33820,10 @@
         <v>-1</v>
       </c>
       <c r="AB374">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC374">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33831,7 +33831,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6946229</v>
+        <v>6946227</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33843,10 +33843,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G375" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H375">
         <v>3</v>
@@ -33858,44 +33858,44 @@
         <v>52</v>
       </c>
       <c r="K375">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="L375">
         <v>4</v>
       </c>
       <c r="M375">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="N375">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="O375">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P375">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="Q375">
+        <v>-1</v>
+      </c>
+      <c r="R375">
+        <v>1.825</v>
+      </c>
+      <c r="S375">
+        <v>1.975</v>
+      </c>
+      <c r="T375">
+        <v>3</v>
+      </c>
+      <c r="U375">
+        <v>2</v>
+      </c>
+      <c r="V375">
+        <v>1.8</v>
+      </c>
+      <c r="W375">
         <v>0.5</v>
       </c>
-      <c r="R375">
-        <v>1.85</v>
-      </c>
-      <c r="S375">
-        <v>1.95</v>
-      </c>
-      <c r="T375">
-        <v>2.75</v>
-      </c>
-      <c r="U375">
-        <v>1.95</v>
-      </c>
-      <c r="V375">
-        <v>1.85</v>
-      </c>
-      <c r="W375">
-        <v>2.2</v>
-      </c>
       <c r="X375">
         <v>-1</v>
       </c>
@@ -33903,13 +33903,13 @@
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA375">
         <v>-1</v>
       </c>
       <c r="AB375">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC375">
         <v>-1</v>
@@ -33920,7 +33920,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6946227</v>
+        <v>6946226</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33932,58 +33932,58 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G376" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H376">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J376" t="s">
         <v>52</v>
       </c>
       <c r="K376">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L376">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M376">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N376">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O376">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P376">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q376">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R376">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S376">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T376">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U376">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V376">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W376">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -33992,16 +33992,16 @@
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA376">
         <v>-1</v>
       </c>
       <c r="AB376">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC376">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34009,7 +34009,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6946226</v>
+        <v>6946225</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34021,40 +34021,40 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G377" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J377" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K377">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L377">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M377">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N377">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O377">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P377">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q377">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R377">
         <v>1.85</v>
@@ -34063,7 +34063,7 @@
         <v>1.95</v>
       </c>
       <c r="T377">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U377">
         <v>1.9</v>
@@ -34072,19 +34072,19 @@
         <v>1.9</v>
       </c>
       <c r="W377">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X377">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y377">
         <v>-1</v>
       </c>
       <c r="Z377">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB377">
         <v>-1</v>
@@ -34098,7 +34098,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6946225</v>
+        <v>6946223</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34110,76 +34110,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F378" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G378" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J378" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K378">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L378">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M378">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N378">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O378">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P378">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q378">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R378">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S378">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T378">
         <v>3</v>
       </c>
       <c r="U378">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V378">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W378">
         <v>-1</v>
       </c>
       <c r="X378">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y378">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z378">
         <v>-1</v>
       </c>
       <c r="AA378">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB378">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC378">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34187,7 +34187,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6946223</v>
+        <v>6946222</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34199,76 +34199,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F379" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G379" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H379">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I379">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J379" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K379">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L379">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M379">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N379">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O379">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P379">
+        <v>2.45</v>
+      </c>
+      <c r="Q379">
+        <v>0</v>
+      </c>
+      <c r="R379">
+        <v>1.925</v>
+      </c>
+      <c r="S379">
+        <v>1.875</v>
+      </c>
+      <c r="T379">
         <v>2.75</v>
       </c>
-      <c r="Q379">
-        <v>-0.25</v>
-      </c>
-      <c r="R379">
-        <v>1.975</v>
-      </c>
-      <c r="S379">
-        <v>1.825</v>
-      </c>
-      <c r="T379">
-        <v>3</v>
-      </c>
       <c r="U379">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V379">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W379">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA379">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB379">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC379">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34377,7 +34377,7 @@
         <v>45391.65625</v>
       </c>
       <c r="F381" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G381" t="s">
         <v>48</v>
@@ -34454,7 +34454,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>7992051</v>
+        <v>7947341</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34466,61 +34466,61 @@
         <v>45391.65625</v>
       </c>
       <c r="F382" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G382" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J382" t="s">
         <v>53</v>
       </c>
       <c r="K382">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L382">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M382">
         <v>2.75</v>
       </c>
       <c r="N382">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O382">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P382">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q382">
         <v>0</v>
       </c>
       <c r="R382">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S382">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T382">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U382">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V382">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W382">
         <v>-1</v>
       </c>
       <c r="X382">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Y382">
         <v>-1</v>
@@ -34532,10 +34532,10 @@
         <v>-0</v>
       </c>
       <c r="AB382">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC382">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34543,7 +34543,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7947341</v>
+        <v>7992051</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34555,61 +34555,61 @@
         <v>45391.65625</v>
       </c>
       <c r="F383" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G383" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J383" t="s">
         <v>53</v>
       </c>
       <c r="K383">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L383">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M383">
         <v>2.75</v>
       </c>
       <c r="N383">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="O383">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P383">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q383">
         <v>0</v>
       </c>
       <c r="R383">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S383">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T383">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U383">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V383">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W383">
         <v>-1</v>
       </c>
       <c r="X383">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Y383">
         <v>-1</v>
@@ -34621,10 +34621,10 @@
         <v>-0</v>
       </c>
       <c r="AB383">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC383">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
   </sheetData>

--- a/England Southern Premier League Central/England Southern Premier League Central.xlsx
+++ b/England Southern Premier League Central/England Southern Premier League Central.xlsx
@@ -1488,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6937932</v>
+        <v>6939054</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1497,76 +1497,76 @@
         <v>45152.65625</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J12">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L12">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M12">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N12">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O12">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="P12">
         <v>-0.25</v>
       </c>
       <c r="Q12">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S12">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z12">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB12">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6939055</v>
+        <v>6937932</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1583,10 +1583,10 @@
         <v>45152.65625</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1598,61 +1598,61 @@
         <v>52</v>
       </c>
       <c r="J13">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K13">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L13">
+        <v>2.8</v>
+      </c>
+      <c r="M13">
+        <v>2.2</v>
+      </c>
+      <c r="N13">
+        <v>3.1</v>
+      </c>
+      <c r="O13">
+        <v>2.875</v>
+      </c>
+      <c r="P13">
+        <v>-0.25</v>
+      </c>
+      <c r="Q13">
+        <v>2.025</v>
+      </c>
+      <c r="R13">
+        <v>1.775</v>
+      </c>
+      <c r="S13">
         <v>2.25</v>
       </c>
-      <c r="M13">
-        <v>2.875</v>
-      </c>
-      <c r="N13">
-        <v>3.6</v>
-      </c>
-      <c r="O13">
+      <c r="T13">
+        <v>1.8</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>-1</v>
+      </c>
+      <c r="W13">
         <v>2.1</v>
       </c>
-      <c r="P13">
-        <v>0.25</v>
-      </c>
-      <c r="Q13">
-        <v>1.875</v>
-      </c>
-      <c r="R13">
-        <v>1.925</v>
-      </c>
-      <c r="S13">
-        <v>2.5</v>
-      </c>
-      <c r="T13">
-        <v>1.75</v>
-      </c>
-      <c r="U13">
-        <v>1.95</v>
-      </c>
-      <c r="V13">
-        <v>-1</v>
-      </c>
-      <c r="W13">
-        <v>2.6</v>
-      </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="Z13">
+        <v>0.3875</v>
+      </c>
+      <c r="AA13">
         <v>-0.5</v>
       </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1660,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6939054</v>
+        <v>6939055</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1669,76 +1669,76 @@
         <v>45152.65625</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J14">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K14">
         <v>3.75</v>
       </c>
       <c r="L14">
+        <v>2.25</v>
+      </c>
+      <c r="M14">
+        <v>2.875</v>
+      </c>
+      <c r="N14">
+        <v>3.6</v>
+      </c>
+      <c r="O14">
+        <v>2.1</v>
+      </c>
+      <c r="P14">
+        <v>0.25</v>
+      </c>
+      <c r="Q14">
+        <v>1.875</v>
+      </c>
+      <c r="R14">
+        <v>1.925</v>
+      </c>
+      <c r="S14">
         <v>2.5</v>
       </c>
-      <c r="M14">
-        <v>2.25</v>
-      </c>
-      <c r="N14">
-        <v>3.75</v>
-      </c>
-      <c r="O14">
-        <v>2.5</v>
-      </c>
-      <c r="P14">
-        <v>-0.25</v>
-      </c>
-      <c r="Q14">
-        <v>2.05</v>
-      </c>
-      <c r="R14">
+      <c r="T14">
         <v>1.75</v>
-      </c>
-      <c r="S14">
-        <v>3</v>
-      </c>
-      <c r="T14">
-        <v>1.85</v>
       </c>
       <c r="U14">
         <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -5358,7 +5358,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6937937</v>
+        <v>6939027</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5367,76 +5367,76 @@
         <v>45181.65625</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J57">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="K57">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L57">
-        <v>2.35</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O57">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P57">
         <v>-0.25</v>
       </c>
       <c r="Q57">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T57">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
         <v>-1</v>
       </c>
       <c r="W57">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB57">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5444,7 +5444,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6937938</v>
+        <v>6937937</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5453,76 +5453,76 @@
         <v>45181.65625</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J58">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="K58">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L58">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="M58">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="N58">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O58">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P58">
+        <v>-0.25</v>
+      </c>
+      <c r="Q58">
+        <v>1.95</v>
+      </c>
+      <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
+        <v>2.75</v>
+      </c>
+      <c r="T58">
+        <v>1.775</v>
+      </c>
+      <c r="U58">
+        <v>2.025</v>
+      </c>
+      <c r="V58">
+        <v>-1</v>
+      </c>
+      <c r="W58">
+        <v>2.75</v>
+      </c>
+      <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
         <v>-0.5</v>
       </c>
-      <c r="Q58">
-        <v>1.85</v>
-      </c>
-      <c r="R58">
-        <v>1.95</v>
-      </c>
-      <c r="S58">
-        <v>3</v>
-      </c>
-      <c r="T58">
-        <v>1.875</v>
-      </c>
-      <c r="U58">
-        <v>1.925</v>
-      </c>
-      <c r="V58">
-        <v>0.8</v>
-      </c>
-      <c r="W58">
-        <v>-1</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
-      <c r="Y58">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5530,7 +5530,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6938243</v>
+        <v>6937938</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5539,13 +5539,13 @@
         <v>45181.65625</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5554,43 +5554,43 @@
         <v>50</v>
       </c>
       <c r="J59">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="K59">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="L59">
+        <v>2.9</v>
+      </c>
+      <c r="M59">
+        <v>1.8</v>
+      </c>
+      <c r="N59">
         <v>4.2</v>
       </c>
-      <c r="M59">
-        <v>1.75</v>
-      </c>
-      <c r="N59">
-        <v>3.4</v>
-      </c>
       <c r="O59">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P59">
         <v>-0.5</v>
       </c>
       <c r="Q59">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S59">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T59">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5599,16 +5599,16 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5616,7 +5616,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6938244</v>
+        <v>6938242</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5625,76 +5625,76 @@
         <v>45181.65625</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I60" t="s">
         <v>52</v>
       </c>
       <c r="J60">
+        <v>2.05</v>
+      </c>
+      <c r="K60">
+        <v>3.75</v>
+      </c>
+      <c r="L60">
+        <v>2.8</v>
+      </c>
+      <c r="M60">
+        <v>2.3</v>
+      </c>
+      <c r="N60">
+        <v>3.75</v>
+      </c>
+      <c r="O60">
+        <v>2.45</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>1.85</v>
       </c>
-      <c r="K60">
-        <v>3.4</v>
-      </c>
-      <c r="L60">
-        <v>3.6</v>
-      </c>
-      <c r="M60">
-        <v>1.8</v>
-      </c>
-      <c r="N60">
-        <v>3.5</v>
-      </c>
-      <c r="O60">
-        <v>3.8</v>
-      </c>
-      <c r="P60">
-        <v>-0.5</v>
-      </c>
-      <c r="Q60">
-        <v>1.825</v>
-      </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
         <v>2.75</v>
       </c>
       <c r="T60">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
         <v>-1</v>
       </c>
       <c r="W60">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z60">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB60">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5702,7 +5702,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6938245</v>
+        <v>6938243</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -5711,73 +5711,73 @@
         <v>45181.65625</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>50</v>
+      </c>
+      <c r="J61">
+        <v>1.75</v>
+      </c>
+      <c r="K61">
+        <v>3.3</v>
+      </c>
+      <c r="L61">
+        <v>4.2</v>
+      </c>
+      <c r="M61">
+        <v>1.75</v>
+      </c>
+      <c r="N61">
+        <v>3.4</v>
+      </c>
+      <c r="O61">
         <v>4</v>
       </c>
-      <c r="I61" t="s">
-        <v>51</v>
-      </c>
-      <c r="J61">
-        <v>2.05</v>
-      </c>
-      <c r="K61">
-        <v>3.8</v>
-      </c>
-      <c r="L61">
-        <v>2.75</v>
-      </c>
-      <c r="M61">
-        <v>2.05</v>
-      </c>
-      <c r="N61">
-        <v>3.8</v>
-      </c>
-      <c r="O61">
-        <v>2.75</v>
-      </c>
       <c r="P61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S61">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T61">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB61">
         <v>-1</v>
@@ -5788,7 +5788,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6939027</v>
+        <v>6938244</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
@@ -5797,40 +5797,40 @@
         <v>45181.65625</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J62">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="K62">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L62">
+        <v>3.6</v>
+      </c>
+      <c r="M62">
+        <v>1.8</v>
+      </c>
+      <c r="N62">
         <v>3.5</v>
       </c>
-      <c r="M62">
-        <v>2</v>
-      </c>
-      <c r="N62">
-        <v>3.25</v>
-      </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P62">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q62">
         <v>1.825</v>
@@ -5839,22 +5839,22 @@
         <v>1.975</v>
       </c>
       <c r="S62">
+        <v>2.75</v>
+      </c>
+      <c r="T62">
+        <v>1.9</v>
+      </c>
+      <c r="U62">
+        <v>1.9</v>
+      </c>
+      <c r="V62">
+        <v>-1</v>
+      </c>
+      <c r="W62">
         <v>2.5</v>
       </c>
-      <c r="T62">
-        <v>1.875</v>
-      </c>
-      <c r="U62">
-        <v>1.925</v>
-      </c>
-      <c r="V62">
-        <v>-1</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
       <c r="X62">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
@@ -5863,10 +5863,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5874,7 +5874,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6938242</v>
+        <v>6938245</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -5883,73 +5883,73 @@
         <v>45181.65625</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J63">
         <v>2.05</v>
       </c>
       <c r="K63">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L63">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M63">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N63">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O63">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q63">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T63">
+        <v>1.775</v>
+      </c>
+      <c r="U63">
+        <v>2.025</v>
+      </c>
+      <c r="V63">
+        <v>-1</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>1.75</v>
       </c>
-      <c r="U63">
-        <v>1.95</v>
-      </c>
-      <c r="V63">
-        <v>-1</v>
-      </c>
-      <c r="W63">
-        <v>2.75</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
       <c r="Y63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB63">
         <v>-1</v>
@@ -9658,7 +9658,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6938273</v>
+        <v>6938272</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9667,76 +9667,76 @@
         <v>45223.65625</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G107">
         <v>2</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J107">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="K107">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L107">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="M107">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N107">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O107">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="P107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
         <v>2.75</v>
       </c>
       <c r="T107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9744,7 +9744,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6938272</v>
+        <v>6938273</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9753,76 +9753,76 @@
         <v>45223.65625</v>
       </c>
       <c r="E108" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G108">
         <v>2</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J108">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="K108">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L108">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="M108">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N108">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O108">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="P108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S108">
         <v>2.75</v>
       </c>
       <c r="T108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="Z108">
+        <v>-1</v>
+      </c>
+      <c r="AA108">
+        <v>0.45</v>
+      </c>
+      <c r="AB108">
         <v>-0.5</v>
-      </c>
-      <c r="AA108">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -18774,7 +18774,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7623640</v>
+        <v>6937961</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -18783,73 +18783,73 @@
         <v>45290.5</v>
       </c>
       <c r="E213" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
         <v>3</v>
       </c>
-      <c r="H213">
-        <v>0</v>
-      </c>
       <c r="I213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J213">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="K213">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="L213">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M213">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="N213">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="O213">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="P213">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q213">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T213">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U213">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y213">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB213">
         <v>-1</v>
@@ -18860,7 +18860,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6937961</v>
+        <v>7623640</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18869,73 +18869,73 @@
         <v>45290.5</v>
       </c>
       <c r="E214" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F214" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214" t="s">
+        <v>50</v>
+      </c>
+      <c r="J214">
+        <v>2.05</v>
+      </c>
+      <c r="K214">
+        <v>3.5</v>
+      </c>
+      <c r="L214">
         <v>3</v>
       </c>
-      <c r="I214" t="s">
-        <v>51</v>
-      </c>
-      <c r="J214">
-        <v>1.2</v>
-      </c>
-      <c r="K214">
-        <v>5.25</v>
-      </c>
-      <c r="L214">
-        <v>11</v>
-      </c>
       <c r="M214">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="N214">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="O214">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q214">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S214">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T214">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -20580,7 +20580,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6939122</v>
+        <v>6939121</v>
       </c>
       <c r="C234" t="s">
         <v>27</v>
@@ -20589,56 +20589,56 @@
         <v>45304.5</v>
       </c>
       <c r="E234" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I234" t="s">
         <v>51</v>
       </c>
       <c r="J234">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="K234">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="L234">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="M234">
-        <v>1.181</v>
+        <v>2.875</v>
       </c>
       <c r="N234">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="O234">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="P234">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q234">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R234">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S234">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T234">
+        <v>1.925</v>
+      </c>
+      <c r="U234">
         <v>1.875</v>
       </c>
-      <c r="U234">
-        <v>1.925</v>
-      </c>
       <c r="V234">
         <v>-1</v>
       </c>
@@ -20646,19 +20646,19 @@
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA234">
+        <v>-1</v>
+      </c>
+      <c r="AB234">
         <v>0.875</v>
-      </c>
-      <c r="AB234">
-        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:28">
@@ -20666,7 +20666,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6939121</v>
+        <v>6939122</v>
       </c>
       <c r="C235" t="s">
         <v>27</v>
@@ -20675,56 +20675,56 @@
         <v>45304.5</v>
       </c>
       <c r="E235" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F235" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I235" t="s">
         <v>51</v>
       </c>
       <c r="J235">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="K235">
+        <v>6.5</v>
+      </c>
+      <c r="L235">
+        <v>8</v>
+      </c>
+      <c r="M235">
+        <v>1.181</v>
+      </c>
+      <c r="N235">
+        <v>7</v>
+      </c>
+      <c r="O235">
+        <v>8.5</v>
+      </c>
+      <c r="P235">
+        <v>-2.25</v>
+      </c>
+      <c r="Q235">
+        <v>2</v>
+      </c>
+      <c r="R235">
+        <v>1.8</v>
+      </c>
+      <c r="S235">
         <v>3.5</v>
       </c>
-      <c r="L235">
-        <v>2.2</v>
-      </c>
-      <c r="M235">
-        <v>2.875</v>
-      </c>
-      <c r="N235">
-        <v>3.5</v>
-      </c>
-      <c r="O235">
-        <v>2.1</v>
-      </c>
-      <c r="P235">
-        <v>0.25</v>
-      </c>
-      <c r="Q235">
-        <v>1.9</v>
-      </c>
-      <c r="R235">
-        <v>1.9</v>
-      </c>
-      <c r="S235">
-        <v>2.5</v>
-      </c>
       <c r="T235">
+        <v>1.875</v>
+      </c>
+      <c r="U235">
         <v>1.925</v>
       </c>
-      <c r="U235">
-        <v>1.875</v>
-      </c>
       <c r="V235">
         <v>-1</v>
       </c>
@@ -20732,19 +20732,19 @@
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB235">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:28">
@@ -21870,7 +21870,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7593255</v>
+        <v>7696446</v>
       </c>
       <c r="C249" t="s">
         <v>27</v>
@@ -21879,40 +21879,40 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E249" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F249" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G249">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J249">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="K249">
         <v>3.75</v>
       </c>
       <c r="L249">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M249">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N249">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O249">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="P249">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q249">
         <v>1.8</v>
@@ -21921,34 +21921,34 @@
         <v>2</v>
       </c>
       <c r="S249">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T249">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U249">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V249">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W249">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z249">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:28">
@@ -21956,7 +21956,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7696446</v>
+        <v>7593255</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
@@ -21965,40 +21965,40 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E250" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F250" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G250">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J250">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="K250">
         <v>3.75</v>
       </c>
       <c r="L250">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M250">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N250">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O250">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="P250">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q250">
         <v>1.8</v>
@@ -22007,34 +22007,34 @@
         <v>2</v>
       </c>
       <c r="S250">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T250">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U250">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V250">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W250">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z250">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA250">
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="251" spans="1:28">
@@ -22042,7 +22042,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6938355</v>
+        <v>6938356</v>
       </c>
       <c r="C251" t="s">
         <v>27</v>
@@ -22051,40 +22051,40 @@
         <v>45318.5</v>
       </c>
       <c r="E251" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F251" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I251" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J251">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K251">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L251">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="M251">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="N251">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O251">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="P251">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q251">
         <v>1.85</v>
@@ -22096,19 +22096,19 @@
         <v>2.75</v>
       </c>
       <c r="T251">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U251">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V251">
         <v>-1</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X251">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
         <v>-1</v>
@@ -22117,10 +22117,10 @@
         <v>0.95</v>
       </c>
       <c r="AA251">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="252" spans="1:28">
@@ -22128,7 +22128,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6938356</v>
+        <v>6938357</v>
       </c>
       <c r="C252" t="s">
         <v>27</v>
@@ -22137,76 +22137,76 @@
         <v>45318.5</v>
       </c>
       <c r="E252" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F252" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252">
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J252">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="K252">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L252">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="M252">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="N252">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O252">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P252">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q252">
+        <v>1.95</v>
+      </c>
+      <c r="R252">
         <v>1.85</v>
       </c>
-      <c r="R252">
+      <c r="S252">
+        <v>2.5</v>
+      </c>
+      <c r="T252">
+        <v>1.85</v>
+      </c>
+      <c r="U252">
         <v>1.95</v>
       </c>
-      <c r="S252">
-        <v>2.75</v>
-      </c>
-      <c r="T252">
-        <v>1.975</v>
-      </c>
-      <c r="U252">
-        <v>1.825</v>
-      </c>
       <c r="V252">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W252">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z252">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:28">
@@ -22214,7 +22214,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6938357</v>
+        <v>6938358</v>
       </c>
       <c r="C253" t="s">
         <v>27</v>
@@ -22223,76 +22223,76 @@
         <v>45318.5</v>
       </c>
       <c r="E253" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F253" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J253">
+        <v>10</v>
+      </c>
+      <c r="K253">
+        <v>6</v>
+      </c>
+      <c r="L253">
+        <v>1.181</v>
+      </c>
+      <c r="M253">
+        <v>6.5</v>
+      </c>
+      <c r="N253">
+        <v>5.25</v>
+      </c>
+      <c r="O253">
+        <v>1.285</v>
+      </c>
+      <c r="P253">
+        <v>1.5</v>
+      </c>
+      <c r="Q253">
+        <v>2</v>
+      </c>
+      <c r="R253">
         <v>1.8</v>
       </c>
-      <c r="K253">
-        <v>3.4</v>
-      </c>
-      <c r="L253">
-        <v>3.8</v>
-      </c>
-      <c r="M253">
-        <v>1.909</v>
-      </c>
-      <c r="N253">
-        <v>3.3</v>
-      </c>
-      <c r="O253">
-        <v>3.5</v>
-      </c>
-      <c r="P253">
-        <v>-0.5</v>
-      </c>
-      <c r="Q253">
-        <v>1.95</v>
-      </c>
-      <c r="R253">
-        <v>1.85</v>
-      </c>
       <c r="S253">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T253">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U253">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V253">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W253">
         <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y253">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA253">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="254" spans="1:28">
@@ -22300,7 +22300,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6938358</v>
+        <v>6938359</v>
       </c>
       <c r="C254" t="s">
         <v>27</v>
@@ -22309,46 +22309,46 @@
         <v>45318.5</v>
       </c>
       <c r="E254" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F254" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J254">
-        <v>10</v>
+        <v>1.65</v>
       </c>
       <c r="K254">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L254">
-        <v>1.181</v>
+        <v>4.2</v>
       </c>
       <c r="M254">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="N254">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O254">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="P254">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q254">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="R254">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S254">
         <v>3</v>
@@ -22360,25 +22360,25 @@
         <v>1.925</v>
       </c>
       <c r="V254">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W254">
         <v>-1</v>
       </c>
       <c r="X254">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z254">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB254">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:28">
@@ -22386,7 +22386,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6938359</v>
+        <v>6938361</v>
       </c>
       <c r="C255" t="s">
         <v>27</v>
@@ -22395,58 +22395,58 @@
         <v>45318.5</v>
       </c>
       <c r="E255" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="s">
         <v>50</v>
       </c>
       <c r="J255">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="K255">
         <v>3.75</v>
       </c>
       <c r="L255">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="M255">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="N255">
         <v>3.75</v>
       </c>
       <c r="O255">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="P255">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q255">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="R255">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S255">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T255">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U255">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V255">
-        <v>0.6499999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="W255">
         <v>-1</v>
@@ -22455,16 +22455,16 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB255">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -22472,7 +22472,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6938361</v>
+        <v>6938355</v>
       </c>
       <c r="C256" t="s">
         <v>27</v>
@@ -22481,76 +22481,76 @@
         <v>45318.5</v>
       </c>
       <c r="E256" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F256" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
         <v>3</v>
       </c>
-      <c r="H256">
-        <v>2</v>
-      </c>
       <c r="I256" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J256">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="K256">
         <v>3.75</v>
       </c>
       <c r="L256">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="M256">
+        <v>3.75</v>
+      </c>
+      <c r="N256">
+        <v>4</v>
+      </c>
+      <c r="O256">
+        <v>1.7</v>
+      </c>
+      <c r="P256">
+        <v>0.75</v>
+      </c>
+      <c r="Q256">
+        <v>1.85</v>
+      </c>
+      <c r="R256">
+        <v>1.95</v>
+      </c>
+      <c r="S256">
         <v>2.75</v>
       </c>
-      <c r="N256">
-        <v>3.75</v>
-      </c>
-      <c r="O256">
-        <v>2.05</v>
-      </c>
-      <c r="P256">
-        <v>0.25</v>
-      </c>
-      <c r="Q256">
+      <c r="T256">
         <v>1.9</v>
       </c>
-      <c r="R256">
+      <c r="U256">
         <v>1.9</v>
       </c>
-      <c r="S256">
-        <v>2.5</v>
-      </c>
-      <c r="T256">
-        <v>1.825</v>
-      </c>
-      <c r="U256">
-        <v>1.975</v>
-      </c>
       <c r="V256">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y256">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA256">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22558,7 +22558,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6939128</v>
+        <v>6939046</v>
       </c>
       <c r="C257" t="s">
         <v>27</v>
@@ -22567,76 +22567,76 @@
         <v>45318.5</v>
       </c>
       <c r="E257" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J257">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K257">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L257">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M257">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N257">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O257">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P257">
         <v>-0.5</v>
       </c>
       <c r="Q257">
+        <v>1.975</v>
+      </c>
+      <c r="R257">
         <v>1.825</v>
       </c>
-      <c r="R257">
+      <c r="S257">
+        <v>2.5</v>
+      </c>
+      <c r="T257">
         <v>1.975</v>
       </c>
-      <c r="S257">
-        <v>2.75</v>
-      </c>
-      <c r="T257">
-        <v>1.9</v>
-      </c>
       <c r="U257">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V257">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W257">
         <v>-1</v>
       </c>
       <c r="X257">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z257">
+        <v>-1</v>
+      </c>
+      <c r="AA257">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA257">
-        <v>-1</v>
-      </c>
       <c r="AB257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:28">
@@ -22730,7 +22730,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6939127</v>
+        <v>6939128</v>
       </c>
       <c r="C259" t="s">
         <v>27</v>
@@ -22739,76 +22739,76 @@
         <v>45318.5</v>
       </c>
       <c r="E259" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H259">
         <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J259">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="K259">
+        <v>3.8</v>
+      </c>
+      <c r="L259">
+        <v>3.8</v>
+      </c>
+      <c r="M259">
+        <v>1.8</v>
+      </c>
+      <c r="N259">
+        <v>3.75</v>
+      </c>
+      <c r="O259">
         <v>3.5</v>
       </c>
-      <c r="L259">
-        <v>3.9</v>
-      </c>
-      <c r="M259">
-        <v>1.727</v>
-      </c>
-      <c r="N259">
-        <v>3.6</v>
-      </c>
-      <c r="O259">
-        <v>4</v>
-      </c>
       <c r="P259">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q259">
+        <v>1.825</v>
+      </c>
+      <c r="R259">
         <v>1.975</v>
       </c>
-      <c r="R259">
-        <v>1.825</v>
-      </c>
       <c r="S259">
+        <v>2.75</v>
+      </c>
+      <c r="T259">
+        <v>1.9</v>
+      </c>
+      <c r="U259">
+        <v>1.9</v>
+      </c>
+      <c r="V259">
+        <v>-1</v>
+      </c>
+      <c r="W259">
+        <v>-1</v>
+      </c>
+      <c r="X259">
         <v>2.5</v>
       </c>
-      <c r="T259">
-        <v>1.875</v>
-      </c>
-      <c r="U259">
-        <v>1.925</v>
-      </c>
-      <c r="V259">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="W259">
-        <v>-1</v>
-      </c>
-      <c r="X259">
-        <v>-1</v>
-      </c>
       <c r="Y259">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA259">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB259">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="260" spans="1:28">
@@ -22816,7 +22816,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6939046</v>
+        <v>6939127</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22825,10 +22825,10 @@
         <v>45318.5</v>
       </c>
       <c r="E260" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F260" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G260">
         <v>2</v>
@@ -22840,25 +22840,25 @@
         <v>50</v>
       </c>
       <c r="J260">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K260">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L260">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M260">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="N260">
         <v>3.6</v>
       </c>
       <c r="O260">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P260">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q260">
         <v>1.975</v>
@@ -22870,13 +22870,13 @@
         <v>2.5</v>
       </c>
       <c r="T260">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U260">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V260">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W260">
         <v>-1</v>
@@ -22885,13 +22885,13 @@
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA260">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB260">
         <v>-1</v>
@@ -23246,7 +23246,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6938366</v>
+        <v>6938364</v>
       </c>
       <c r="C265" t="s">
         <v>27</v>
@@ -23255,76 +23255,76 @@
         <v>45325.5</v>
       </c>
       <c r="E265" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265" t="s">
+        <v>52</v>
+      </c>
+      <c r="J265">
+        <v>1.571</v>
+      </c>
+      <c r="K265">
+        <v>4</v>
+      </c>
+      <c r="L265">
+        <v>4.333</v>
+      </c>
+      <c r="M265">
+        <v>1.533</v>
+      </c>
+      <c r="N265">
+        <v>4</v>
+      </c>
+      <c r="O265">
+        <v>4.5</v>
+      </c>
+      <c r="P265">
+        <v>-1</v>
+      </c>
+      <c r="Q265">
+        <v>1.95</v>
+      </c>
+      <c r="R265">
+        <v>1.85</v>
+      </c>
+      <c r="S265">
+        <v>2.75</v>
+      </c>
+      <c r="T265">
+        <v>1.925</v>
+      </c>
+      <c r="U265">
+        <v>1.875</v>
+      </c>
+      <c r="V265">
+        <v>-1</v>
+      </c>
+      <c r="W265">
         <v>3</v>
       </c>
-      <c r="I265" t="s">
-        <v>51</v>
-      </c>
-      <c r="J265">
-        <v>2.625</v>
-      </c>
-      <c r="K265">
-        <v>3.5</v>
-      </c>
-      <c r="L265">
-        <v>2.25</v>
-      </c>
-      <c r="M265">
-        <v>3.4</v>
-      </c>
-      <c r="N265">
-        <v>3.6</v>
-      </c>
-      <c r="O265">
-        <v>1.833</v>
-      </c>
-      <c r="P265">
-        <v>0.5</v>
-      </c>
-      <c r="Q265">
-        <v>1.9</v>
-      </c>
-      <c r="R265">
-        <v>1.9</v>
-      </c>
-      <c r="S265">
-        <v>2.25</v>
-      </c>
-      <c r="T265">
-        <v>1.9</v>
-      </c>
-      <c r="U265">
-        <v>1.9</v>
-      </c>
-      <c r="V265">
-        <v>-1</v>
-      </c>
-      <c r="W265">
-        <v>-1</v>
-      </c>
       <c r="X265">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA265">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="266" spans="1:28">
@@ -23332,7 +23332,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6938367</v>
+        <v>6938365</v>
       </c>
       <c r="C266" t="s">
         <v>27</v>
@@ -23341,76 +23341,76 @@
         <v>45325.5</v>
       </c>
       <c r="E266" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F266" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J266">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K266">
         <v>3.6</v>
       </c>
       <c r="L266">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M266">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="N266">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O266">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P266">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q266">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R266">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S266">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T266">
+        <v>1.975</v>
+      </c>
+      <c r="U266">
         <v>1.825</v>
       </c>
-      <c r="U266">
-        <v>1.975</v>
-      </c>
       <c r="V266">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W266">
         <v>-1</v>
       </c>
       <c r="X266">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z266">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB266">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="267" spans="1:28">
@@ -23418,7 +23418,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6938368</v>
+        <v>6938366</v>
       </c>
       <c r="C267" t="s">
         <v>27</v>
@@ -23427,55 +23427,55 @@
         <v>45325.5</v>
       </c>
       <c r="E267" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F267" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G267">
         <v>0</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I267" t="s">
         <v>51</v>
       </c>
       <c r="J267">
+        <v>2.625</v>
+      </c>
+      <c r="K267">
+        <v>3.5</v>
+      </c>
+      <c r="L267">
+        <v>2.25</v>
+      </c>
+      <c r="M267">
+        <v>3.4</v>
+      </c>
+      <c r="N267">
+        <v>3.6</v>
+      </c>
+      <c r="O267">
         <v>1.833</v>
       </c>
-      <c r="K267">
-        <v>3.6</v>
-      </c>
-      <c r="L267">
-        <v>3.5</v>
-      </c>
-      <c r="M267">
-        <v>1.95</v>
-      </c>
-      <c r="N267">
-        <v>3.5</v>
-      </c>
-      <c r="O267">
-        <v>3.2</v>
-      </c>
       <c r="P267">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q267">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R267">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S267">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T267">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U267">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V267">
         <v>-1</v>
@@ -23484,19 +23484,19 @@
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>2.2</v>
+        <v>0.833</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA267">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB267">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:28">
@@ -23504,7 +23504,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6938369</v>
+        <v>6938367</v>
       </c>
       <c r="C268" t="s">
         <v>27</v>
@@ -23513,76 +23513,76 @@
         <v>45325.5</v>
       </c>
       <c r="E268" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F268" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G268">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J268">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K268">
         <v>3.6</v>
       </c>
       <c r="L268">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="M268">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="N268">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O268">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P268">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q268">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R268">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S268">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T268">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U268">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V268">
         <v>-1</v>
       </c>
       <c r="W268">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X268">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:28">
@@ -23590,7 +23590,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6938370</v>
+        <v>6938368</v>
       </c>
       <c r="C269" t="s">
         <v>27</v>
@@ -23599,76 +23599,76 @@
         <v>45325.5</v>
       </c>
       <c r="E269" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F269" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J269">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="K269">
         <v>3.6</v>
       </c>
       <c r="L269">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="M269">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="N269">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O269">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P269">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q269">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R269">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S269">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T269">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U269">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V269">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y269">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA269">
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="270" spans="1:28">
@@ -23676,7 +23676,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6939129</v>
+        <v>6938369</v>
       </c>
       <c r="C270" t="s">
         <v>27</v>
@@ -23685,40 +23685,40 @@
         <v>45325.5</v>
       </c>
       <c r="E270" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F270" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G270">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I270" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J270">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="K270">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L270">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="M270">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="N270">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O270">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="P270">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q270">
         <v>1.9</v>
@@ -23727,34 +23727,34 @@
         <v>1.9</v>
       </c>
       <c r="S270">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T270">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U270">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V270">
         <v>-1</v>
       </c>
       <c r="W270">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X270">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z270">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA270">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB270">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:28">
@@ -23762,7 +23762,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6939130</v>
+        <v>6938370</v>
       </c>
       <c r="C271" t="s">
         <v>27</v>
@@ -23771,13 +23771,13 @@
         <v>45325.5</v>
       </c>
       <c r="E271" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F271" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -23786,43 +23786,43 @@
         <v>50</v>
       </c>
       <c r="J271">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K271">
         <v>3.6</v>
       </c>
       <c r="L271">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="M271">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="N271">
         <v>3.6</v>
       </c>
       <c r="O271">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="P271">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q271">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R271">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S271">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T271">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U271">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V271">
-        <v>1.375</v>
+        <v>1.1</v>
       </c>
       <c r="W271">
         <v>-1</v>
@@ -23831,7 +23831,7 @@
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z271">
         <v>-1</v>
@@ -23840,7 +23840,7 @@
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="272" spans="1:28">
@@ -23848,7 +23848,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6938364</v>
+        <v>6939129</v>
       </c>
       <c r="C272" t="s">
         <v>27</v>
@@ -23857,49 +23857,49 @@
         <v>45325.5</v>
       </c>
       <c r="E272" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F272" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G272">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I272" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J272">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="K272">
         <v>4</v>
       </c>
       <c r="L272">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M272">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="N272">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O272">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P272">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q272">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R272">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S272">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T272">
         <v>1.925</v>
@@ -23911,22 +23911,22 @@
         <v>-1</v>
       </c>
       <c r="W272">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X272">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y272">
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA272">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB272">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:28">
@@ -23934,7 +23934,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6938365</v>
+        <v>6939130</v>
       </c>
       <c r="C273" t="s">
         <v>27</v>
@@ -23943,10 +23943,10 @@
         <v>45325.5</v>
       </c>
       <c r="E273" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F273" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -23967,34 +23967,34 @@
         <v>2.8</v>
       </c>
       <c r="M273">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N273">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O273">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="P273">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q273">
+        <v>1.875</v>
+      </c>
+      <c r="R273">
+        <v>1.925</v>
+      </c>
+      <c r="S273">
+        <v>2.5</v>
+      </c>
+      <c r="T273">
         <v>1.9</v>
       </c>
-      <c r="R273">
+      <c r="U273">
         <v>1.9</v>
       </c>
-      <c r="S273">
-        <v>2.75</v>
-      </c>
-      <c r="T273">
-        <v>1.975</v>
-      </c>
-      <c r="U273">
-        <v>1.825</v>
-      </c>
       <c r="V273">
-        <v>0.8500000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="W273">
         <v>-1</v>
@@ -24003,16 +24003,16 @@
         <v>-1</v>
       </c>
       <c r="Y273">
+        <v>0.875</v>
+      </c>
+      <c r="Z273">
+        <v>-1</v>
+      </c>
+      <c r="AA273">
+        <v>-1</v>
+      </c>
+      <c r="AB273">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z273">
-        <v>-1</v>
-      </c>
-      <c r="AA273">
-        <v>-1</v>
-      </c>
-      <c r="AB273">
-        <v>0.825</v>
       </c>
     </row>
     <row r="274" spans="1:28">
@@ -27718,7 +27718,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7888682</v>
+        <v>7889062</v>
       </c>
       <c r="C317" t="s">
         <v>27</v>
@@ -27727,40 +27727,40 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E317" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F317" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H317">
         <v>2</v>
       </c>
       <c r="I317" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J317">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="K317">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L317">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="M317">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N317">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O317">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="P317">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q317">
         <v>1.9</v>
@@ -27769,10 +27769,10 @@
         <v>1.9</v>
       </c>
       <c r="S317">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T317">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U317">
         <v>1.95</v>
@@ -27781,22 +27781,22 @@
         <v>-1</v>
       </c>
       <c r="W317">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y317">
+        <v>-1</v>
+      </c>
+      <c r="Z317">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z317">
-        <v>-1</v>
-      </c>
       <c r="AA317">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="318" spans="1:28">
@@ -27804,7 +27804,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7889062</v>
+        <v>7889063</v>
       </c>
       <c r="C318" t="s">
         <v>27</v>
@@ -27813,76 +27813,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E318" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F318" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J318">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K318">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L318">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="M318">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="N318">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O318">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="P318">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q318">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R318">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S318">
         <v>2.75</v>
       </c>
       <c r="T318">
+        <v>1.95</v>
+      </c>
+      <c r="U318">
         <v>1.85</v>
       </c>
-      <c r="U318">
-        <v>1.95</v>
-      </c>
       <c r="V318">
         <v>-1</v>
       </c>
       <c r="W318">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X318">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z318">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
         <v>-1</v>
       </c>
       <c r="AB318">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="319" spans="1:28">
@@ -27890,7 +27890,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7889063</v>
+        <v>7888682</v>
       </c>
       <c r="C319" t="s">
         <v>27</v>
@@ -27899,76 +27899,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E319" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F319" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="s">
         <v>52</v>
       </c>
       <c r="J319">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="K319">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L319">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="M319">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N319">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="O319">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="P319">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q319">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R319">
+        <v>1.9</v>
+      </c>
+      <c r="S319">
+        <v>3</v>
+      </c>
+      <c r="T319">
+        <v>1.75</v>
+      </c>
+      <c r="U319">
         <v>1.95</v>
       </c>
-      <c r="S319">
-        <v>2.75</v>
-      </c>
-      <c r="T319">
-        <v>1.95</v>
-      </c>
-      <c r="U319">
-        <v>1.85</v>
-      </c>
       <c r="V319">
         <v>-1</v>
       </c>
       <c r="W319">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z319">
         <v>-1</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB319">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:28">
@@ -33222,7 +33222,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>7992052</v>
+        <v>7992051</v>
       </c>
       <c r="C381" t="s">
         <v>27</v>
@@ -33231,76 +33231,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E381" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F381" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H381">
+        <v>1</v>
+      </c>
+      <c r="I381" t="s">
+        <v>52</v>
+      </c>
+      <c r="J381">
+        <v>2.25</v>
+      </c>
+      <c r="K381">
+        <v>3.3</v>
+      </c>
+      <c r="L381">
+        <v>2.75</v>
+      </c>
+      <c r="M381">
+        <v>2.6</v>
+      </c>
+      <c r="N381">
         <v>3</v>
       </c>
-      <c r="I381" t="s">
-        <v>51</v>
-      </c>
-      <c r="J381">
-        <v>1.6</v>
-      </c>
-      <c r="K381">
-        <v>3.75</v>
-      </c>
-      <c r="L381">
-        <v>4.5</v>
-      </c>
-      <c r="M381">
+      <c r="O381">
+        <v>2.5</v>
+      </c>
+      <c r="P381">
+        <v>0</v>
+      </c>
+      <c r="Q381">
+        <v>1.95</v>
+      </c>
+      <c r="R381">
         <v>1.85</v>
       </c>
-      <c r="N381">
-        <v>3.6</v>
-      </c>
-      <c r="O381">
-        <v>3.5</v>
-      </c>
-      <c r="P381">
+      <c r="S381">
+        <v>2.25</v>
+      </c>
+      <c r="T381">
+        <v>1.825</v>
+      </c>
+      <c r="U381">
+        <v>1.975</v>
+      </c>
+      <c r="V381">
+        <v>-1</v>
+      </c>
+      <c r="W381">
+        <v>2</v>
+      </c>
+      <c r="X381">
+        <v>-1</v>
+      </c>
+      <c r="Y381">
+        <v>0</v>
+      </c>
+      <c r="Z381">
+        <v>0</v>
+      </c>
+      <c r="AA381">
         <v>-0.5</v>
       </c>
-      <c r="Q381">
-        <v>1.9</v>
-      </c>
-      <c r="R381">
-        <v>1.9</v>
-      </c>
-      <c r="S381">
-        <v>3</v>
-      </c>
-      <c r="T381">
-        <v>2.025</v>
-      </c>
-      <c r="U381">
-        <v>1.775</v>
-      </c>
-      <c r="V381">
-        <v>-1</v>
-      </c>
-      <c r="W381">
-        <v>-1</v>
-      </c>
-      <c r="X381">
-        <v>2.5</v>
-      </c>
-      <c r="Y381">
-        <v>-1</v>
-      </c>
-      <c r="Z381">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA381">
-        <v>0</v>
-      </c>
       <c r="AB381">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="382" spans="1:28">
@@ -33308,7 +33308,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>7992051</v>
+        <v>7947341</v>
       </c>
       <c r="C382" t="s">
         <v>27</v>
@@ -33317,62 +33317,62 @@
         <v>45391.65625</v>
       </c>
       <c r="E382" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F382" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382" t="s">
         <v>52</v>
       </c>
       <c r="J382">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="K382">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L382">
         <v>2.75</v>
       </c>
       <c r="M382">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="N382">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O382">
+        <v>2.55</v>
+      </c>
+      <c r="P382">
+        <v>0</v>
+      </c>
+      <c r="Q382">
+        <v>1.8</v>
+      </c>
+      <c r="R382">
+        <v>2</v>
+      </c>
+      <c r="S382">
+        <v>2.75</v>
+      </c>
+      <c r="T382">
+        <v>1.8</v>
+      </c>
+      <c r="U382">
+        <v>2</v>
+      </c>
+      <c r="V382">
+        <v>-1</v>
+      </c>
+      <c r="W382">
         <v>2.5</v>
       </c>
-      <c r="P382">
-        <v>0</v>
-      </c>
-      <c r="Q382">
-        <v>1.95</v>
-      </c>
-      <c r="R382">
-        <v>1.85</v>
-      </c>
-      <c r="S382">
-        <v>2.25</v>
-      </c>
-      <c r="T382">
-        <v>1.825</v>
-      </c>
-      <c r="U382">
-        <v>1.975</v>
-      </c>
-      <c r="V382">
-        <v>-1</v>
-      </c>
-      <c r="W382">
-        <v>2</v>
-      </c>
       <c r="X382">
         <v>-1</v>
       </c>
@@ -33383,10 +33383,10 @@
         <v>0</v>
       </c>
       <c r="AA382">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB382">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:28">
@@ -33394,7 +33394,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7947341</v>
+        <v>7992052</v>
       </c>
       <c r="C383" t="s">
         <v>27</v>
@@ -33403,76 +33403,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E383" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F383" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G383">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I383" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J383">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="K383">
+        <v>3.75</v>
+      </c>
+      <c r="L383">
+        <v>4.5</v>
+      </c>
+      <c r="M383">
+        <v>1.85</v>
+      </c>
+      <c r="N383">
+        <v>3.6</v>
+      </c>
+      <c r="O383">
         <v>3.5</v>
       </c>
-      <c r="L383">
-        <v>2.75</v>
-      </c>
-      <c r="M383">
-        <v>2.3</v>
-      </c>
-      <c r="N383">
-        <v>3.5</v>
-      </c>
-      <c r="O383">
-        <v>2.55</v>
-      </c>
       <c r="P383">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q383">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R383">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S383">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T383">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U383">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V383">
         <v>-1</v>
       </c>
       <c r="W383">
+        <v>-1</v>
+      </c>
+      <c r="X383">
         <v>2.5</v>
       </c>
-      <c r="X383">
-        <v>-1</v>
-      </c>
       <c r="Y383">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z383">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA383">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB383">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:28">
@@ -35372,7 +35372,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6948937</v>
+        <v>6948938</v>
       </c>
       <c r="C406" t="s">
         <v>27</v>
@@ -35381,73 +35381,73 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E406" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F406" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G406">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H406">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J406">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="K406">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L406">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="M406">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="N406">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O406">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="P406">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q406">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R406">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S406">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T406">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U406">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V406">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W406">
         <v>-1</v>
       </c>
       <c r="X406">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y406">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z406">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AA406">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB406">
         <v>-1</v>
@@ -35458,7 +35458,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6948938</v>
+        <v>6948937</v>
       </c>
       <c r="C407" t="s">
         <v>27</v>
@@ -35467,73 +35467,73 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E407" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F407" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G407">
+        <v>2</v>
+      </c>
+      <c r="H407">
         <v>3</v>
       </c>
-      <c r="H407">
-        <v>2</v>
-      </c>
       <c r="I407" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J407">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="K407">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L407">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="M407">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="N407">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="O407">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="P407">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q407">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R407">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S407">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T407">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U407">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V407">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W407">
         <v>-1</v>
       </c>
       <c r="X407">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y407">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA407">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB407">
         <v>-1</v>
@@ -35630,7 +35630,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>6948931</v>
+        <v>6948929</v>
       </c>
       <c r="C409" t="s">
         <v>27</v>
@@ -35639,19 +35639,19 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E409" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F409" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G409">
         <v>0</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I409" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J409">
         <v>2.25</v>
@@ -35663,10 +35663,10 @@
         <v>2.5</v>
       </c>
       <c r="M409">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N409">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O409">
         <v>2.375</v>
@@ -35675,40 +35675,40 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R409">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S409">
         <v>2.75</v>
       </c>
       <c r="T409">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U409">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V409">
         <v>-1</v>
       </c>
       <c r="W409">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X409">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y409">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z409">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA409">
         <v>-1</v>
       </c>
       <c r="AB409">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="410" spans="1:28">
@@ -35716,7 +35716,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>6948929</v>
+        <v>6948936</v>
       </c>
       <c r="C410" t="s">
         <v>27</v>
@@ -35725,34 +35725,34 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E410" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F410" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G410">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J410">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="K410">
         <v>3.75</v>
       </c>
       <c r="L410">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M410">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="N410">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O410">
         <v>2.375</v>
@@ -35761,40 +35761,40 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R410">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S410">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T410">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U410">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V410">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W410">
         <v>-1</v>
       </c>
       <c r="X410">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y410">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z410">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA410">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB410">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="411" spans="1:28">
@@ -35802,7 +35802,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>6948932</v>
+        <v>6948931</v>
       </c>
       <c r="C411" t="s">
         <v>27</v>
@@ -35811,76 +35811,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E411" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F411" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G411">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H411">
         <v>0</v>
       </c>
       <c r="I411" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J411">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="K411">
+        <v>3.75</v>
+      </c>
+      <c r="L411">
+        <v>2.5</v>
+      </c>
+      <c r="M411">
+        <v>2.45</v>
+      </c>
+      <c r="N411">
         <v>3.6</v>
       </c>
-      <c r="L411">
-        <v>6</v>
-      </c>
-      <c r="M411">
-        <v>1.5</v>
-      </c>
-      <c r="N411">
-        <v>3.75</v>
-      </c>
       <c r="O411">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="P411">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q411">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R411">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S411">
         <v>2.75</v>
       </c>
       <c r="T411">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U411">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V411">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W411">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X411">
         <v>-1</v>
       </c>
       <c r="Y411">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z411">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA411">
         <v>-1</v>
       </c>
       <c r="AB411">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="412" spans="1:28">
@@ -35888,7 +35888,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>6948934</v>
+        <v>6948932</v>
       </c>
       <c r="C412" t="s">
         <v>27</v>
@@ -35897,13 +35897,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E412" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F412" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G412">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H412">
         <v>0</v>
@@ -35912,43 +35912,43 @@
         <v>50</v>
       </c>
       <c r="J412">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="K412">
+        <v>3.6</v>
+      </c>
+      <c r="L412">
+        <v>6</v>
+      </c>
+      <c r="M412">
+        <v>1.5</v>
+      </c>
+      <c r="N412">
         <v>3.75</v>
       </c>
-      <c r="L412">
-        <v>2.1</v>
-      </c>
-      <c r="M412">
-        <v>1.85</v>
-      </c>
-      <c r="N412">
-        <v>4</v>
-      </c>
       <c r="O412">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P412">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q412">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R412">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S412">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T412">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U412">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V412">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="W412">
         <v>-1</v>
@@ -35957,16 +35957,16 @@
         <v>-1</v>
       </c>
       <c r="Y412">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="Z412">
         <v>-1</v>
       </c>
       <c r="AA412">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:28">
@@ -35974,7 +35974,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>6948936</v>
+        <v>6948934</v>
       </c>
       <c r="C413" t="s">
         <v>27</v>
@@ -35983,10 +35983,10 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E413" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F413" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G413">
         <v>3</v>
@@ -35998,43 +35998,43 @@
         <v>50</v>
       </c>
       <c r="J413">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="K413">
         <v>3.75</v>
       </c>
       <c r="L413">
+        <v>2.1</v>
+      </c>
+      <c r="M413">
+        <v>1.85</v>
+      </c>
+      <c r="N413">
+        <v>4</v>
+      </c>
+      <c r="O413">
         <v>3.1</v>
       </c>
-      <c r="M413">
-        <v>2.55</v>
-      </c>
-      <c r="N413">
-        <v>3.6</v>
-      </c>
-      <c r="O413">
-        <v>2.375</v>
-      </c>
       <c r="P413">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q413">
+        <v>1.925</v>
+      </c>
+      <c r="R413">
+        <v>1.875</v>
+      </c>
+      <c r="S413">
+        <v>3</v>
+      </c>
+      <c r="T413">
+        <v>1.825</v>
+      </c>
+      <c r="U413">
         <v>1.975</v>
       </c>
-      <c r="R413">
-        <v>1.825</v>
-      </c>
-      <c r="S413">
-        <v>2.5</v>
-      </c>
-      <c r="T413">
-        <v>1.95</v>
-      </c>
-      <c r="U413">
-        <v>1.85</v>
-      </c>
       <c r="V413">
-        <v>1.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W413">
         <v>-1</v>
@@ -36043,16 +36043,16 @@
         <v>-1</v>
       </c>
       <c r="Y413">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z413">
         <v>-1</v>
       </c>
       <c r="AA413">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB413">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:28">

--- a/England Southern Premier League Central/England Southern Premier League Central.xlsx
+++ b/England Southern Premier League Central/England Southern Premier League Central.xlsx
@@ -1488,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6939054</v>
+        <v>6937932</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1497,76 +1497,76 @@
         <v>45152.65625</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J12">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K12">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M12">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N12">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O12">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="P12">
         <v>-0.25</v>
       </c>
       <c r="Q12">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R12">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T12">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA12">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6937932</v>
+        <v>6939055</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1583,10 +1583,10 @@
         <v>45152.65625</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1598,61 +1598,61 @@
         <v>52</v>
       </c>
       <c r="J13">
+        <v>2.5</v>
+      </c>
+      <c r="K13">
+        <v>3.75</v>
+      </c>
+      <c r="L13">
+        <v>2.25</v>
+      </c>
+      <c r="M13">
+        <v>2.875</v>
+      </c>
+      <c r="N13">
+        <v>3.6</v>
+      </c>
+      <c r="O13">
         <v>2.1</v>
       </c>
-      <c r="K13">
-        <v>3.5</v>
-      </c>
-      <c r="L13">
-        <v>2.8</v>
-      </c>
-      <c r="M13">
-        <v>2.2</v>
-      </c>
-      <c r="N13">
-        <v>3.1</v>
-      </c>
-      <c r="O13">
-        <v>2.875</v>
-      </c>
       <c r="P13">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q13">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T13">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
         <v>-1</v>
       </c>
       <c r="W13">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
+        <v>0.4375</v>
+      </c>
+      <c r="Z13">
         <v>-0.5</v>
       </c>
-      <c r="Z13">
-        <v>0.3875</v>
-      </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1660,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6939055</v>
+        <v>6939054</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1669,76 +1669,76 @@
         <v>45152.65625</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J14">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K14">
         <v>3.75</v>
       </c>
       <c r="L14">
+        <v>2.5</v>
+      </c>
+      <c r="M14">
         <v>2.25</v>
       </c>
-      <c r="M14">
-        <v>2.875</v>
-      </c>
       <c r="N14">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O14">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="P14">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q14">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T14">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U14">
         <v>1.95</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W14">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -5358,7 +5358,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6939027</v>
+        <v>6937937</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5367,76 +5367,76 @@
         <v>45181.65625</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J57">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="K57">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N57">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O57">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P57">
         <v>-0.25</v>
       </c>
       <c r="Q57">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T57">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
         <v>-1</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X57">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5444,7 +5444,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6937937</v>
+        <v>6937938</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5453,76 +5453,76 @@
         <v>45181.65625</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J58">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="K58">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L58">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="M58">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N58">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O58">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P58">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q58">
+        <v>1.85</v>
+      </c>
+      <c r="R58">
         <v>1.95</v>
       </c>
-      <c r="R58">
-        <v>1.85</v>
-      </c>
       <c r="S58">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T58">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U58">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W58">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z58">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5530,7 +5530,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6937938</v>
+        <v>6938243</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5539,13 +5539,13 @@
         <v>45181.65625</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5554,61 +5554,61 @@
         <v>50</v>
       </c>
       <c r="J59">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="K59">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="L59">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M59">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="N59">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P59">
         <v>-0.5</v>
       </c>
       <c r="Q59">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T59">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
+        <v>0.75</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
         <v>0.8</v>
       </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5616,7 +5616,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6938242</v>
+        <v>6938244</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5625,76 +5625,76 @@
         <v>45181.65625</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
         <v>52</v>
       </c>
       <c r="J60">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="K60">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L60">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N60">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O60">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q60">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S60">
         <v>2.75</v>
       </c>
       <c r="T60">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
         <v>-1</v>
       </c>
       <c r="W60">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA60">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5702,7 +5702,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6938243</v>
+        <v>6938245</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -5711,73 +5711,73 @@
         <v>45181.65625</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
         <v>4</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J61">
+        <v>2.05</v>
+      </c>
+      <c r="K61">
+        <v>3.8</v>
+      </c>
+      <c r="L61">
+        <v>2.75</v>
+      </c>
+      <c r="M61">
+        <v>2.05</v>
+      </c>
+      <c r="N61">
+        <v>3.8</v>
+      </c>
+      <c r="O61">
+        <v>2.75</v>
+      </c>
+      <c r="P61">
+        <v>-0.25</v>
+      </c>
+      <c r="Q61">
+        <v>1.875</v>
+      </c>
+      <c r="R61">
+        <v>1.925</v>
+      </c>
+      <c r="S61">
+        <v>3</v>
+      </c>
+      <c r="T61">
+        <v>1.775</v>
+      </c>
+      <c r="U61">
+        <v>2.025</v>
+      </c>
+      <c r="V61">
+        <v>-1</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
         <v>1.75</v>
       </c>
-      <c r="K61">
-        <v>3.3</v>
-      </c>
-      <c r="L61">
-        <v>4.2</v>
-      </c>
-      <c r="M61">
-        <v>1.75</v>
-      </c>
-      <c r="N61">
-        <v>3.4</v>
-      </c>
-      <c r="O61">
-        <v>4</v>
-      </c>
-      <c r="P61">
-        <v>-0.5</v>
-      </c>
-      <c r="Q61">
-        <v>1.8</v>
-      </c>
-      <c r="R61">
-        <v>2</v>
-      </c>
-      <c r="S61">
-        <v>2.5</v>
-      </c>
-      <c r="T61">
-        <v>1.9</v>
-      </c>
-      <c r="U61">
-        <v>1.9</v>
-      </c>
-      <c r="V61">
-        <v>0.75</v>
-      </c>
-      <c r="W61">
-        <v>-1</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
       <c r="Y61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA61">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB61">
         <v>-1</v>
@@ -5788,7 +5788,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6938244</v>
+        <v>6939027</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
@@ -5797,40 +5797,40 @@
         <v>45181.65625</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J62">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="K62">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N62">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O62">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q62">
         <v>1.825</v>
@@ -5839,22 +5839,22 @@
         <v>1.975</v>
       </c>
       <c r="S62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
         <v>-1</v>
       </c>
       <c r="W62">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
@@ -5863,10 +5863,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5874,7 +5874,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6938245</v>
+        <v>6938242</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -5883,73 +5883,73 @@
         <v>45181.65625</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="I63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J63">
         <v>2.05</v>
       </c>
       <c r="K63">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L63">
+        <v>2.8</v>
+      </c>
+      <c r="M63">
+        <v>2.3</v>
+      </c>
+      <c r="N63">
+        <v>3.75</v>
+      </c>
+      <c r="O63">
+        <v>2.45</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>1.85</v>
+      </c>
+      <c r="R63">
+        <v>1.95</v>
+      </c>
+      <c r="S63">
         <v>2.75</v>
       </c>
-      <c r="M63">
-        <v>2.05</v>
-      </c>
-      <c r="N63">
-        <v>3.8</v>
-      </c>
-      <c r="O63">
+      <c r="T63">
+        <v>1.75</v>
+      </c>
+      <c r="U63">
+        <v>1.95</v>
+      </c>
+      <c r="V63">
+        <v>-1</v>
+      </c>
+      <c r="W63">
         <v>2.75</v>
       </c>
-      <c r="P63">
-        <v>-0.25</v>
-      </c>
-      <c r="Q63">
-        <v>1.875</v>
-      </c>
-      <c r="R63">
-        <v>1.925</v>
-      </c>
-      <c r="S63">
-        <v>3</v>
-      </c>
-      <c r="T63">
-        <v>1.775</v>
-      </c>
-      <c r="U63">
-        <v>2.025</v>
-      </c>
-      <c r="V63">
-        <v>-1</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
       <c r="X63">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB63">
         <v>-1</v>
@@ -9658,7 +9658,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6938272</v>
+        <v>6938273</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9667,76 +9667,76 @@
         <v>45223.65625</v>
       </c>
       <c r="E107" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G107">
         <v>2</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J107">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="K107">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L107">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="M107">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N107">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O107">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="P107">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S107">
         <v>2.75</v>
       </c>
       <c r="T107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
+        <v>0.45</v>
+      </c>
+      <c r="AB107">
         <v>-0.5</v>
-      </c>
-      <c r="AA107">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB107">
-        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9744,7 +9744,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6938273</v>
+        <v>6938272</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9753,76 +9753,76 @@
         <v>45223.65625</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G108">
         <v>2</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J108">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="K108">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L108">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="M108">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N108">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O108">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="P108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
         <v>2.75</v>
       </c>
       <c r="T108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -18774,7 +18774,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6937961</v>
+        <v>7623640</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -18783,73 +18783,73 @@
         <v>45290.5</v>
       </c>
       <c r="E213" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F213" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213" t="s">
+        <v>50</v>
+      </c>
+      <c r="J213">
+        <v>2.05</v>
+      </c>
+      <c r="K213">
+        <v>3.5</v>
+      </c>
+      <c r="L213">
         <v>3</v>
       </c>
-      <c r="I213" t="s">
-        <v>51</v>
-      </c>
-      <c r="J213">
-        <v>1.2</v>
-      </c>
-      <c r="K213">
-        <v>5.25</v>
-      </c>
-      <c r="L213">
-        <v>11</v>
-      </c>
       <c r="M213">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="N213">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="O213">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q213">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T213">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V213">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
         <v>-1</v>
@@ -18860,7 +18860,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7623640</v>
+        <v>6937961</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18869,73 +18869,73 @@
         <v>45290.5</v>
       </c>
       <c r="E214" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
         <v>3</v>
       </c>
-      <c r="H214">
-        <v>0</v>
-      </c>
       <c r="I214" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J214">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="K214">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="L214">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M214">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="N214">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="P214">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q214">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T214">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y214">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -20580,7 +20580,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6939121</v>
+        <v>6939122</v>
       </c>
       <c r="C234" t="s">
         <v>27</v>
@@ -20589,56 +20589,56 @@
         <v>45304.5</v>
       </c>
       <c r="E234" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I234" t="s">
         <v>51</v>
       </c>
       <c r="J234">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="K234">
+        <v>6.5</v>
+      </c>
+      <c r="L234">
+        <v>8</v>
+      </c>
+      <c r="M234">
+        <v>1.181</v>
+      </c>
+      <c r="N234">
+        <v>7</v>
+      </c>
+      <c r="O234">
+        <v>8.5</v>
+      </c>
+      <c r="P234">
+        <v>-2.25</v>
+      </c>
+      <c r="Q234">
+        <v>2</v>
+      </c>
+      <c r="R234">
+        <v>1.8</v>
+      </c>
+      <c r="S234">
         <v>3.5</v>
       </c>
-      <c r="L234">
-        <v>2.2</v>
-      </c>
-      <c r="M234">
-        <v>2.875</v>
-      </c>
-      <c r="N234">
-        <v>3.5</v>
-      </c>
-      <c r="O234">
-        <v>2.1</v>
-      </c>
-      <c r="P234">
-        <v>0.25</v>
-      </c>
-      <c r="Q234">
-        <v>1.9</v>
-      </c>
-      <c r="R234">
-        <v>1.9</v>
-      </c>
-      <c r="S234">
-        <v>2.5</v>
-      </c>
       <c r="T234">
+        <v>1.875</v>
+      </c>
+      <c r="U234">
         <v>1.925</v>
       </c>
-      <c r="U234">
-        <v>1.875</v>
-      </c>
       <c r="V234">
         <v>-1</v>
       </c>
@@ -20646,19 +20646,19 @@
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB234">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:28">
@@ -20666,7 +20666,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6939122</v>
+        <v>6939121</v>
       </c>
       <c r="C235" t="s">
         <v>27</v>
@@ -20675,56 +20675,56 @@
         <v>45304.5</v>
       </c>
       <c r="E235" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I235" t="s">
         <v>51</v>
       </c>
       <c r="J235">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="K235">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="L235">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="M235">
-        <v>1.181</v>
+        <v>2.875</v>
       </c>
       <c r="N235">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="O235">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="P235">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q235">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S235">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T235">
+        <v>1.925</v>
+      </c>
+      <c r="U235">
         <v>1.875</v>
       </c>
-      <c r="U235">
-        <v>1.925</v>
-      </c>
       <c r="V235">
         <v>-1</v>
       </c>
@@ -20732,19 +20732,19 @@
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA235">
+        <v>-1</v>
+      </c>
+      <c r="AB235">
         <v>0.875</v>
-      </c>
-      <c r="AB235">
-        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:28">
@@ -21870,7 +21870,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7696446</v>
+        <v>7593255</v>
       </c>
       <c r="C249" t="s">
         <v>27</v>
@@ -21879,40 +21879,40 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E249" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F249" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G249">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J249">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="K249">
         <v>3.75</v>
       </c>
       <c r="L249">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M249">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N249">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O249">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="P249">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q249">
         <v>1.8</v>
@@ -21921,34 +21921,34 @@
         <v>2</v>
       </c>
       <c r="S249">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T249">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U249">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V249">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W249">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z249">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="250" spans="1:28">
@@ -21956,7 +21956,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7593255</v>
+        <v>7696446</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
@@ -21965,40 +21965,40 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E250" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F250" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G250">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J250">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="K250">
         <v>3.75</v>
       </c>
       <c r="L250">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M250">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N250">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O250">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="P250">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q250">
         <v>1.8</v>
@@ -22007,34 +22007,34 @@
         <v>2</v>
       </c>
       <c r="S250">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T250">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U250">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V250">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W250">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z250">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA250">
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:28">
@@ -22042,7 +22042,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6938356</v>
+        <v>6938355</v>
       </c>
       <c r="C251" t="s">
         <v>27</v>
@@ -22051,40 +22051,40 @@
         <v>45318.5</v>
       </c>
       <c r="E251" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F251" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I251" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J251">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K251">
+        <v>3.75</v>
+      </c>
+      <c r="L251">
+        <v>1.95</v>
+      </c>
+      <c r="M251">
+        <v>3.75</v>
+      </c>
+      <c r="N251">
         <v>4</v>
       </c>
-      <c r="L251">
-        <v>5.25</v>
-      </c>
-      <c r="M251">
-        <v>1.363</v>
-      </c>
-      <c r="N251">
-        <v>4.5</v>
-      </c>
       <c r="O251">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="P251">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q251">
         <v>1.85</v>
@@ -22096,19 +22096,19 @@
         <v>2.75</v>
       </c>
       <c r="T251">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U251">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V251">
         <v>-1</v>
       </c>
       <c r="W251">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y251">
         <v>-1</v>
@@ -22117,10 +22117,10 @@
         <v>0.95</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB251">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="252" spans="1:28">
@@ -22128,7 +22128,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6938357</v>
+        <v>6938356</v>
       </c>
       <c r="C252" t="s">
         <v>27</v>
@@ -22137,76 +22137,76 @@
         <v>45318.5</v>
       </c>
       <c r="E252" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F252" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H252">
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J252">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="K252">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L252">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="M252">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="N252">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="O252">
+        <v>6.5</v>
+      </c>
+      <c r="P252">
+        <v>-1.25</v>
+      </c>
+      <c r="Q252">
+        <v>1.85</v>
+      </c>
+      <c r="R252">
+        <v>1.95</v>
+      </c>
+      <c r="S252">
+        <v>2.75</v>
+      </c>
+      <c r="T252">
+        <v>1.975</v>
+      </c>
+      <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
+        <v>-1</v>
+      </c>
+      <c r="W252">
         <v>3.5</v>
       </c>
-      <c r="P252">
-        <v>-0.5</v>
-      </c>
-      <c r="Q252">
-        <v>1.95</v>
-      </c>
-      <c r="R252">
-        <v>1.85</v>
-      </c>
-      <c r="S252">
-        <v>2.5</v>
-      </c>
-      <c r="T252">
-        <v>1.85</v>
-      </c>
-      <c r="U252">
-        <v>1.95</v>
-      </c>
-      <c r="V252">
-        <v>0.909</v>
-      </c>
-      <c r="W252">
-        <v>-1</v>
-      </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
+        <v>-1</v>
+      </c>
+      <c r="Z252">
         <v>0.95</v>
       </c>
-      <c r="Z252">
-        <v>-1</v>
-      </c>
       <c r="AA252">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="253" spans="1:28">
@@ -22214,7 +22214,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6938358</v>
+        <v>6938357</v>
       </c>
       <c r="C253" t="s">
         <v>27</v>
@@ -22223,76 +22223,76 @@
         <v>45318.5</v>
       </c>
       <c r="E253" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F253" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J253">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="K253">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="L253">
-        <v>1.181</v>
+        <v>3.8</v>
       </c>
       <c r="M253">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N253">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="O253">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="P253">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q253">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R253">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S253">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T253">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U253">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V253">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W253">
         <v>-1</v>
       </c>
       <c r="X253">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z253">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB253">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:28">
@@ -22300,7 +22300,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6938359</v>
+        <v>6938358</v>
       </c>
       <c r="C254" t="s">
         <v>27</v>
@@ -22309,46 +22309,46 @@
         <v>45318.5</v>
       </c>
       <c r="E254" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F254" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G254">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J254">
-        <v>1.65</v>
+        <v>10</v>
       </c>
       <c r="K254">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="L254">
-        <v>4.2</v>
+        <v>1.181</v>
       </c>
       <c r="M254">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="N254">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="O254">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="P254">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Q254">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="R254">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S254">
         <v>3</v>
@@ -22360,25 +22360,25 @@
         <v>1.925</v>
       </c>
       <c r="V254">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W254">
         <v>-1</v>
       </c>
       <c r="X254">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="255" spans="1:28">
@@ -22386,7 +22386,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6938361</v>
+        <v>6938359</v>
       </c>
       <c r="C255" t="s">
         <v>27</v>
@@ -22395,58 +22395,58 @@
         <v>45318.5</v>
       </c>
       <c r="E255" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F255" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="s">
         <v>50</v>
       </c>
       <c r="J255">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="K255">
         <v>3.75</v>
       </c>
       <c r="L255">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="M255">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="N255">
         <v>3.75</v>
       </c>
       <c r="O255">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="P255">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q255">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="R255">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S255">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T255">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U255">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V255">
-        <v>1.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W255">
         <v>-1</v>
@@ -22455,16 +22455,16 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA255">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -22472,7 +22472,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6938355</v>
+        <v>6938361</v>
       </c>
       <c r="C256" t="s">
         <v>27</v>
@@ -22481,76 +22481,76 @@
         <v>45318.5</v>
       </c>
       <c r="E256" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F256" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G256">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J256">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="K256">
         <v>3.75</v>
       </c>
       <c r="L256">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="M256">
+        <v>2.75</v>
+      </c>
+      <c r="N256">
         <v>3.75</v>
       </c>
-      <c r="N256">
-        <v>4</v>
-      </c>
       <c r="O256">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="P256">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q256">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R256">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S256">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T256">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U256">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V256">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z256">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB256">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22558,7 +22558,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6939046</v>
+        <v>6939128</v>
       </c>
       <c r="C257" t="s">
         <v>27</v>
@@ -22567,76 +22567,76 @@
         <v>45318.5</v>
       </c>
       <c r="E257" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F257" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G257">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J257">
+        <v>1.7</v>
+      </c>
+      <c r="K257">
+        <v>3.8</v>
+      </c>
+      <c r="L257">
+        <v>3.8</v>
+      </c>
+      <c r="M257">
         <v>1.8</v>
       </c>
-      <c r="K257">
-        <v>3.6</v>
-      </c>
-      <c r="L257">
-        <v>3.6</v>
-      </c>
-      <c r="M257">
-        <v>1.909</v>
-      </c>
       <c r="N257">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O257">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P257">
         <v>-0.5</v>
       </c>
       <c r="Q257">
+        <v>1.825</v>
+      </c>
+      <c r="R257">
         <v>1.975</v>
       </c>
-      <c r="R257">
-        <v>1.825</v>
-      </c>
       <c r="S257">
+        <v>2.75</v>
+      </c>
+      <c r="T257">
+        <v>1.9</v>
+      </c>
+      <c r="U257">
+        <v>1.9</v>
+      </c>
+      <c r="V257">
+        <v>-1</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
         <v>2.5</v>
       </c>
-      <c r="T257">
-        <v>1.975</v>
-      </c>
-      <c r="U257">
-        <v>1.825</v>
-      </c>
-      <c r="V257">
-        <v>0.909</v>
-      </c>
-      <c r="W257">
-        <v>-1</v>
-      </c>
-      <c r="X257">
-        <v>-1</v>
-      </c>
       <c r="Y257">
+        <v>-1</v>
+      </c>
+      <c r="Z257">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z257">
-        <v>-1</v>
-      </c>
       <c r="AA257">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:28">
@@ -22730,7 +22730,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6939128</v>
+        <v>6939127</v>
       </c>
       <c r="C259" t="s">
         <v>27</v>
@@ -22739,76 +22739,76 @@
         <v>45318.5</v>
       </c>
       <c r="E259" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F259" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H259">
         <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J259">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="K259">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L259">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M259">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N259">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O259">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P259">
+        <v>-0.75</v>
+      </c>
+      <c r="Q259">
+        <v>1.975</v>
+      </c>
+      <c r="R259">
+        <v>1.825</v>
+      </c>
+      <c r="S259">
+        <v>2.5</v>
+      </c>
+      <c r="T259">
+        <v>1.875</v>
+      </c>
+      <c r="U259">
+        <v>1.925</v>
+      </c>
+      <c r="V259">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="W259">
+        <v>-1</v>
+      </c>
+      <c r="X259">
+        <v>-1</v>
+      </c>
+      <c r="Y259">
+        <v>0.4875</v>
+      </c>
+      <c r="Z259">
         <v>-0.5</v>
       </c>
-      <c r="Q259">
-        <v>1.825</v>
-      </c>
-      <c r="R259">
-        <v>1.975</v>
-      </c>
-      <c r="S259">
-        <v>2.75</v>
-      </c>
-      <c r="T259">
-        <v>1.9</v>
-      </c>
-      <c r="U259">
-        <v>1.9</v>
-      </c>
-      <c r="V259">
-        <v>-1</v>
-      </c>
-      <c r="W259">
-        <v>-1</v>
-      </c>
-      <c r="X259">
-        <v>2.5</v>
-      </c>
-      <c r="Y259">
-        <v>-1</v>
-      </c>
-      <c r="Z259">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB259">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:28">
@@ -22816,7 +22816,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6939127</v>
+        <v>6939046</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22825,10 +22825,10 @@
         <v>45318.5</v>
       </c>
       <c r="E260" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F260" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G260">
         <v>2</v>
@@ -22840,25 +22840,25 @@
         <v>50</v>
       </c>
       <c r="J260">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K260">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L260">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M260">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="N260">
         <v>3.6</v>
       </c>
       <c r="O260">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P260">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q260">
         <v>1.975</v>
@@ -22870,13 +22870,13 @@
         <v>2.5</v>
       </c>
       <c r="T260">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U260">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V260">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="W260">
         <v>-1</v>
@@ -22885,13 +22885,13 @@
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z260">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB260">
         <v>-1</v>
@@ -23246,7 +23246,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6938364</v>
+        <v>6938366</v>
       </c>
       <c r="C265" t="s">
         <v>27</v>
@@ -23255,76 +23255,76 @@
         <v>45325.5</v>
       </c>
       <c r="E265" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F265" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I265" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J265">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="K265">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L265">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="M265">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N265">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O265">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="P265">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q265">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R265">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S265">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T265">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U265">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V265">
         <v>-1</v>
       </c>
       <c r="W265">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB265">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:28">
@@ -23332,7 +23332,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6938365</v>
+        <v>6938367</v>
       </c>
       <c r="C266" t="s">
         <v>27</v>
@@ -23341,76 +23341,76 @@
         <v>45325.5</v>
       </c>
       <c r="E266" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F266" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J266">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K266">
         <v>3.6</v>
       </c>
       <c r="L266">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M266">
-        <v>1.85</v>
+        <v>1.615</v>
       </c>
       <c r="N266">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O266">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P266">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q266">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R266">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S266">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T266">
+        <v>1.825</v>
+      </c>
+      <c r="U266">
         <v>1.975</v>
       </c>
-      <c r="U266">
-        <v>1.825</v>
-      </c>
       <c r="V266">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W266">
         <v>-1</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y266">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z266">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB266">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:28">
@@ -23418,7 +23418,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6938366</v>
+        <v>6938368</v>
       </c>
       <c r="C267" t="s">
         <v>27</v>
@@ -23427,55 +23427,55 @@
         <v>45325.5</v>
       </c>
       <c r="E267" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F267" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G267">
         <v>0</v>
       </c>
       <c r="H267">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="s">
         <v>51</v>
       </c>
       <c r="J267">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="K267">
+        <v>3.6</v>
+      </c>
+      <c r="L267">
         <v>3.5</v>
       </c>
-      <c r="L267">
-        <v>2.25</v>
-      </c>
       <c r="M267">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="N267">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O267">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="P267">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q267">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R267">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S267">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T267">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U267">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V267">
         <v>-1</v>
@@ -23484,19 +23484,19 @@
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>0.833</v>
+        <v>2.2</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA267">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="268" spans="1:28">
@@ -23504,7 +23504,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6938367</v>
+        <v>6938369</v>
       </c>
       <c r="C268" t="s">
         <v>27</v>
@@ -23513,76 +23513,76 @@
         <v>45325.5</v>
       </c>
       <c r="E268" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F268" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G268">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J268">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K268">
         <v>3.6</v>
       </c>
       <c r="L268">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M268">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="N268">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O268">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P268">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q268">
+        <v>1.9</v>
+      </c>
+      <c r="R268">
+        <v>1.9</v>
+      </c>
+      <c r="S268">
+        <v>2.75</v>
+      </c>
+      <c r="T268">
         <v>1.8</v>
       </c>
-      <c r="R268">
-        <v>2</v>
-      </c>
-      <c r="S268">
-        <v>3</v>
-      </c>
-      <c r="T268">
-        <v>1.825</v>
-      </c>
       <c r="U268">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V268">
         <v>-1</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X268">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z268">
+        <v>0.45</v>
+      </c>
+      <c r="AA268">
+        <v>-1</v>
+      </c>
+      <c r="AB268">
         <v>1</v>
-      </c>
-      <c r="AA268">
-        <v>0</v>
-      </c>
-      <c r="AB268">
-        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:28">
@@ -23590,7 +23590,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6938368</v>
+        <v>6938370</v>
       </c>
       <c r="C269" t="s">
         <v>27</v>
@@ -23599,76 +23599,76 @@
         <v>45325.5</v>
       </c>
       <c r="E269" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F269" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J269">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="K269">
         <v>3.6</v>
       </c>
       <c r="L269">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="M269">
+        <v>2.1</v>
+      </c>
+      <c r="N269">
+        <v>3.6</v>
+      </c>
+      <c r="O269">
+        <v>2.8</v>
+      </c>
+      <c r="P269">
+        <v>-0.25</v>
+      </c>
+      <c r="Q269">
+        <v>1.9</v>
+      </c>
+      <c r="R269">
+        <v>1.9</v>
+      </c>
+      <c r="S269">
+        <v>2.75</v>
+      </c>
+      <c r="T269">
         <v>1.95</v>
       </c>
-      <c r="N269">
-        <v>3.5</v>
-      </c>
-      <c r="O269">
-        <v>3.2</v>
-      </c>
-      <c r="P269">
-        <v>-0.5</v>
-      </c>
-      <c r="Q269">
-        <v>2</v>
-      </c>
-      <c r="R269">
-        <v>1.8</v>
-      </c>
-      <c r="S269">
-        <v>3</v>
-      </c>
-      <c r="T269">
-        <v>1.975</v>
-      </c>
       <c r="U269">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V269">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z269">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:28">
@@ -23676,7 +23676,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6938369</v>
+        <v>6939129</v>
       </c>
       <c r="C270" t="s">
         <v>27</v>
@@ -23685,40 +23685,40 @@
         <v>45325.5</v>
       </c>
       <c r="E270" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F270" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G270">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I270" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J270">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="K270">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L270">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="M270">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="N270">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O270">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="P270">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q270">
         <v>1.9</v>
@@ -23727,34 +23727,34 @@
         <v>1.9</v>
       </c>
       <c r="S270">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T270">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U270">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V270">
         <v>-1</v>
       </c>
       <c r="W270">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X270">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y270">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB270">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:28">
@@ -23762,7 +23762,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6938370</v>
+        <v>6939130</v>
       </c>
       <c r="C271" t="s">
         <v>27</v>
@@ -23771,13 +23771,13 @@
         <v>45325.5</v>
       </c>
       <c r="E271" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F271" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -23786,43 +23786,43 @@
         <v>50</v>
       </c>
       <c r="J271">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K271">
         <v>3.6</v>
       </c>
       <c r="L271">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M271">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="N271">
         <v>3.6</v>
       </c>
       <c r="O271">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="P271">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q271">
+        <v>1.875</v>
+      </c>
+      <c r="R271">
+        <v>1.925</v>
+      </c>
+      <c r="S271">
+        <v>2.5</v>
+      </c>
+      <c r="T271">
         <v>1.9</v>
       </c>
-      <c r="R271">
+      <c r="U271">
         <v>1.9</v>
       </c>
-      <c r="S271">
-        <v>2.75</v>
-      </c>
-      <c r="T271">
-        <v>1.95</v>
-      </c>
-      <c r="U271">
-        <v>1.85</v>
-      </c>
       <c r="V271">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="W271">
         <v>-1</v>
@@ -23831,16 +23831,16 @@
         <v>-1</v>
       </c>
       <c r="Y271">
+        <v>0.875</v>
+      </c>
+      <c r="Z271">
+        <v>-1</v>
+      </c>
+      <c r="AA271">
+        <v>-1</v>
+      </c>
+      <c r="AB271">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z271">
-        <v>-1</v>
-      </c>
-      <c r="AA271">
-        <v>-1</v>
-      </c>
-      <c r="AB271">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="272" spans="1:28">
@@ -23848,7 +23848,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6939129</v>
+        <v>6938364</v>
       </c>
       <c r="C272" t="s">
         <v>27</v>
@@ -23857,49 +23857,49 @@
         <v>45325.5</v>
       </c>
       <c r="E272" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F272" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G272">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J272">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="K272">
         <v>4</v>
       </c>
       <c r="L272">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M272">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="N272">
+        <v>4</v>
+      </c>
+      <c r="O272">
         <v>4.5</v>
       </c>
-      <c r="O272">
-        <v>7</v>
-      </c>
       <c r="P272">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q272">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R272">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S272">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T272">
         <v>1.925</v>
@@ -23911,22 +23911,22 @@
         <v>-1</v>
       </c>
       <c r="W272">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X272">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA272">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="273" spans="1:28">
@@ -23934,7 +23934,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6939130</v>
+        <v>6938365</v>
       </c>
       <c r="C273" t="s">
         <v>27</v>
@@ -23943,10 +23943,10 @@
         <v>45325.5</v>
       </c>
       <c r="E273" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F273" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -23967,34 +23967,34 @@
         <v>2.8</v>
       </c>
       <c r="M273">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="N273">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O273">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="P273">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q273">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R273">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S273">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T273">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U273">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V273">
-        <v>1.375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W273">
         <v>-1</v>
@@ -24003,7 +24003,7 @@
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z273">
         <v>-1</v>
@@ -24012,7 +24012,7 @@
         <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="274" spans="1:28">
@@ -27718,7 +27718,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7889062</v>
+        <v>7888682</v>
       </c>
       <c r="C317" t="s">
         <v>27</v>
@@ -27727,40 +27727,40 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E317" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F317" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H317">
         <v>2</v>
       </c>
       <c r="I317" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J317">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="K317">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L317">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="M317">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N317">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O317">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="P317">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q317">
         <v>1.9</v>
@@ -27769,10 +27769,10 @@
         <v>1.9</v>
       </c>
       <c r="S317">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T317">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U317">
         <v>1.95</v>
@@ -27781,22 +27781,22 @@
         <v>-1</v>
       </c>
       <c r="W317">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X317">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z317">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA317">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB317">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:28">
@@ -27804,7 +27804,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7889063</v>
+        <v>7889062</v>
       </c>
       <c r="C318" t="s">
         <v>27</v>
@@ -27813,76 +27813,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E318" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F318" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J318">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="K318">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L318">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="M318">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="N318">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O318">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="P318">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q318">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R318">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S318">
         <v>2.75</v>
       </c>
       <c r="T318">
+        <v>1.85</v>
+      </c>
+      <c r="U318">
         <v>1.95</v>
       </c>
-      <c r="U318">
-        <v>1.85</v>
-      </c>
       <c r="V318">
         <v>-1</v>
       </c>
       <c r="W318">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X318">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y318">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA318">
         <v>-1</v>
       </c>
       <c r="AB318">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="319" spans="1:28">
@@ -27890,7 +27890,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7888682</v>
+        <v>7889063</v>
       </c>
       <c r="C319" t="s">
         <v>27</v>
@@ -27899,76 +27899,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E319" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F319" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="s">
         <v>52</v>
       </c>
       <c r="J319">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="K319">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L319">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="M319">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="N319">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O319">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="P319">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q319">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R319">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S319">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T319">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U319">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V319">
         <v>-1</v>
       </c>
       <c r="W319">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z319">
         <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="320" spans="1:28">
@@ -31674,7 +31674,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6945378</v>
+        <v>6945379</v>
       </c>
       <c r="C363" t="s">
         <v>27</v>
@@ -31683,46 +31683,46 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E363" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F363" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G363">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I363" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J363">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K363">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L363">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M363">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N363">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O363">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P363">
         <v>-0.25</v>
       </c>
       <c r="Q363">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="R363">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S363">
         <v>2.75</v>
@@ -31734,25 +31734,25 @@
         <v>1.9</v>
       </c>
       <c r="V363">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W363">
         <v>-1</v>
       </c>
       <c r="X363">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y363">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z363">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA363">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB363">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364" spans="1:28">
@@ -31760,7 +31760,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6945375</v>
+        <v>6945378</v>
       </c>
       <c r="C364" t="s">
         <v>27</v>
@@ -31769,46 +31769,46 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E364" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F364" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
         <v>1</v>
       </c>
-      <c r="H364">
-        <v>0</v>
-      </c>
       <c r="I364" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J364">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="K364">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L364">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M364">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N364">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O364">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P364">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q364">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R364">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S364">
         <v>2.75</v>
@@ -31820,19 +31820,19 @@
         <v>1.9</v>
       </c>
       <c r="V364">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W364">
         <v>-1</v>
       </c>
       <c r="X364">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y364">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z364">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA364">
         <v>-1</v>
@@ -31846,7 +31846,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6945379</v>
+        <v>6945375</v>
       </c>
       <c r="C365" t="s">
         <v>27</v>
@@ -31855,31 +31855,31 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E365" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F365" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G365">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="s">
         <v>50</v>
       </c>
       <c r="J365">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="K365">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L365">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M365">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N365">
         <v>3.8</v>
@@ -31888,13 +31888,13 @@
         <v>3</v>
       </c>
       <c r="P365">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q365">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R365">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S365">
         <v>2.75</v>
@@ -31906,7 +31906,7 @@
         <v>1.9</v>
       </c>
       <c r="V365">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="W365">
         <v>-1</v>
@@ -31915,16 +31915,16 @@
         <v>-1</v>
       </c>
       <c r="Y365">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z365">
         <v>-1</v>
       </c>
       <c r="AA365">
+        <v>-1</v>
+      </c>
+      <c r="AB365">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB365">
-        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:28">
@@ -34340,7 +34340,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7992049</v>
+        <v>7992050</v>
       </c>
       <c r="C394" t="s">
         <v>27</v>
@@ -34349,76 +34349,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E394" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F394" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J394">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="K394">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L394">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="M394">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="N394">
         <v>3.6</v>
       </c>
       <c r="O394">
+        <v>1.8</v>
+      </c>
+      <c r="P394">
+        <v>0.5</v>
+      </c>
+      <c r="Q394">
+        <v>1.925</v>
+      </c>
+      <c r="R394">
+        <v>1.875</v>
+      </c>
+      <c r="S394">
         <v>3</v>
       </c>
-      <c r="P394">
-        <v>-0.25</v>
-      </c>
-      <c r="Q394">
+      <c r="T394">
         <v>1.8</v>
       </c>
-      <c r="R394">
-        <v>2</v>
-      </c>
-      <c r="S394">
-        <v>2.75</v>
-      </c>
-      <c r="T394">
-        <v>1.9</v>
-      </c>
       <c r="U394">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V394">
         <v>-1</v>
       </c>
       <c r="W394">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X394">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y394">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z394">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA394">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB394">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:28">
@@ -34426,7 +34426,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7992050</v>
+        <v>7992049</v>
       </c>
       <c r="C395" t="s">
         <v>27</v>
@@ -34435,76 +34435,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E395" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F395" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J395">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="K395">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L395">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="M395">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="N395">
         <v>3.6</v>
       </c>
       <c r="O395">
+        <v>3</v>
+      </c>
+      <c r="P395">
+        <v>-0.25</v>
+      </c>
+      <c r="Q395">
         <v>1.8</v>
       </c>
-      <c r="P395">
+      <c r="R395">
+        <v>2</v>
+      </c>
+      <c r="S395">
+        <v>2.75</v>
+      </c>
+      <c r="T395">
+        <v>1.9</v>
+      </c>
+      <c r="U395">
+        <v>1.9</v>
+      </c>
+      <c r="V395">
+        <v>-1</v>
+      </c>
+      <c r="W395">
+        <v>2.6</v>
+      </c>
+      <c r="X395">
+        <v>-1</v>
+      </c>
+      <c r="Y395">
+        <v>-0.5</v>
+      </c>
+      <c r="Z395">
         <v>0.5</v>
       </c>
-      <c r="Q395">
-        <v>1.925</v>
-      </c>
-      <c r="R395">
-        <v>1.875</v>
-      </c>
-      <c r="S395">
-        <v>3</v>
-      </c>
-      <c r="T395">
-        <v>1.8</v>
-      </c>
-      <c r="U395">
-        <v>2</v>
-      </c>
-      <c r="V395">
-        <v>-1</v>
-      </c>
-      <c r="W395">
-        <v>-1</v>
-      </c>
-      <c r="X395">
-        <v>0.8</v>
-      </c>
-      <c r="Y395">
-        <v>-1</v>
-      </c>
-      <c r="Z395">
-        <v>0.875</v>
-      </c>
       <c r="AA395">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB395">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="396" spans="1:28">
@@ -34512,7 +34512,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>6948331</v>
+        <v>6948328</v>
       </c>
       <c r="C396" t="s">
         <v>27</v>
@@ -34521,76 +34521,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E396" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F396" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G396">
         <v>1</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J396">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="K396">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L396">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="M396">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N396">
         <v>3.75</v>
       </c>
       <c r="O396">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="P396">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q396">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R396">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S396">
         <v>2.75</v>
       </c>
       <c r="T396">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U396">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V396">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W396">
         <v>-1</v>
       </c>
       <c r="X396">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y396">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z396">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA396">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB396">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:28">
@@ -34598,7 +34598,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>6948328</v>
+        <v>6948331</v>
       </c>
       <c r="C397" t="s">
         <v>27</v>
@@ -34607,76 +34607,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E397" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F397" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G397">
         <v>1</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J397">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="K397">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L397">
-        <v>2.875</v>
+        <v>3.9</v>
       </c>
       <c r="M397">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N397">
         <v>3.75</v>
       </c>
       <c r="O397">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="P397">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q397">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R397">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S397">
         <v>2.75</v>
       </c>
       <c r="T397">
+        <v>2</v>
+      </c>
+      <c r="U397">
         <v>1.8</v>
       </c>
-      <c r="U397">
-        <v>2</v>
-      </c>
       <c r="V397">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W397">
         <v>-1</v>
       </c>
       <c r="X397">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y397">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z397">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA397">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB397">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="398" spans="1:28">
@@ -34856,7 +34856,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>6948322</v>
+        <v>6948325</v>
       </c>
       <c r="C400" t="s">
         <v>27</v>
@@ -34865,76 +34865,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E400" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F400" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G400">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H400">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I400" t="s">
         <v>52</v>
       </c>
       <c r="J400">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="K400">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L400">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="M400">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N400">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O400">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="P400">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q400">
+        <v>2</v>
+      </c>
+      <c r="R400">
+        <v>1.8</v>
+      </c>
+      <c r="S400">
+        <v>2.5</v>
+      </c>
+      <c r="T400">
+        <v>1.825</v>
+      </c>
+      <c r="U400">
         <v>1.975</v>
       </c>
-      <c r="R400">
-        <v>1.825</v>
-      </c>
-      <c r="S400">
-        <v>2.75</v>
-      </c>
-      <c r="T400">
-        <v>1.75</v>
-      </c>
-      <c r="U400">
-        <v>1.95</v>
-      </c>
       <c r="V400">
         <v>-1</v>
       </c>
       <c r="W400">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="X400">
         <v>-1</v>
       </c>
       <c r="Y400">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z400">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA400">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB400">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="401" spans="1:28">
@@ -34942,7 +34942,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6948325</v>
+        <v>6948322</v>
       </c>
       <c r="C401" t="s">
         <v>27</v>
@@ -34951,76 +34951,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E401" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F401" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G401">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I401" t="s">
         <v>52</v>
       </c>
       <c r="J401">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="K401">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L401">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="M401">
+        <v>2.25</v>
+      </c>
+      <c r="N401">
         <v>3.6</v>
       </c>
-      <c r="N401">
-        <v>3.8</v>
-      </c>
       <c r="O401">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="P401">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q401">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R401">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S401">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T401">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U401">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V401">
         <v>-1</v>
       </c>
       <c r="W401">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="X401">
         <v>-1</v>
       </c>
       <c r="Y401">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z401">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA401">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB401">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402" spans="1:28">
@@ -35372,7 +35372,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6948938</v>
+        <v>6948937</v>
       </c>
       <c r="C406" t="s">
         <v>27</v>
@@ -35381,73 +35381,73 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E406" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F406" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G406">
+        <v>2</v>
+      </c>
+      <c r="H406">
         <v>3</v>
       </c>
-      <c r="H406">
-        <v>2</v>
-      </c>
       <c r="I406" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J406">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="K406">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L406">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="M406">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="N406">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="O406">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="P406">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q406">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R406">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S406">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T406">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U406">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V406">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W406">
         <v>-1</v>
       </c>
       <c r="X406">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y406">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA406">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB406">
         <v>-1</v>
@@ -35458,7 +35458,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6948937</v>
+        <v>6948938</v>
       </c>
       <c r="C407" t="s">
         <v>27</v>
@@ -35467,73 +35467,73 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E407" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F407" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G407">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H407">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J407">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="K407">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L407">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="M407">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="N407">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O407">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="P407">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q407">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R407">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S407">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T407">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U407">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V407">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W407">
         <v>-1</v>
       </c>
       <c r="X407">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y407">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z407">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AA407">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB407">
         <v>-1</v>

--- a/England Southern Premier League Central/England Southern Premier League Central.xlsx
+++ b/England Southern Premier League Central/England Southern Premier League Central.xlsx
@@ -112,10 +112,10 @@
     <t>Stourbridge</t>
   </si>
   <si>
-    <t>Hitchin</t>
+    <t>Bromsgrove</t>
   </si>
   <si>
-    <t>Bromsgrove</t>
+    <t>Hitchin</t>
   </si>
   <si>
     <t>Stratford Town</t>
@@ -136,16 +136,16 @@
     <t>Kettering</t>
   </si>
   <si>
-    <t>Royston Town</t>
+    <t>Needham Market</t>
   </si>
   <si>
     <t>Mickleover Sports</t>
   </si>
   <si>
-    <t>Needham Market</t>
+    <t>Nuneaton</t>
   </si>
   <si>
-    <t>Nuneaton</t>
+    <t>Royston Town</t>
   </si>
   <si>
     <t>Halesowen</t>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6938204</v>
+        <v>6938203</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -824,73 +824,73 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="M4">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="P4">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="R4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U4">
         <v>2.5</v>
       </c>
       <c r="V4">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="X4">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD4">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6938203</v>
+        <v>6938204</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -910,73 +910,73 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L5">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="P5">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q5">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U5">
         <v>2.5</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -996,7 +996,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1358,7 +1358,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1806,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6938216</v>
+        <v>6938215</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1818,70 +1818,70 @@
         <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="M15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
         <v>2.375</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="P15">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q15">
+        <v>2.375</v>
+      </c>
+      <c r="R15">
+        <v>0.25</v>
+      </c>
+      <c r="S15">
+        <v>1.85</v>
+      </c>
+      <c r="T15">
         <v>1.95</v>
       </c>
-      <c r="R15">
-        <v>0.5</v>
-      </c>
-      <c r="S15">
-        <v>1.8</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
       <c r="U15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y15">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB15">
         <v>-1</v>
@@ -1890,7 +1890,7 @@
         <v>-1</v>
       </c>
       <c r="AD15">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -1993,7 +1993,7 @@
         <v>45153.65625</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
@@ -2076,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6938215</v>
+        <v>6939346</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2088,61 +2088,55 @@
         <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="s">
         <v>53</v>
       </c>
       <c r="L18">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="M18">
         <v>3.5</v>
       </c>
       <c r="N18">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O18">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="P18">
         <v>3.4</v>
       </c>
       <c r="Q18">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="R18">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U18">
         <v>2.75</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W18">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X18">
-        <v>1.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y18">
         <v>-1</v>
@@ -2151,16 +2145,16 @@
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AD18">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2168,7 +2162,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6939346</v>
+        <v>6938216</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2180,73 +2174,79 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L19">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="M19">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O19">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q19">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="R19">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V19">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AD19">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2254,7 +2254,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6939056</v>
+        <v>6938217</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2263,13 +2263,13 @@
         <v>45153.65625</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2281,58 +2281,58 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L20">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="M20">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
+        <v>2.375</v>
+      </c>
+      <c r="O20">
         <v>2.2</v>
-      </c>
-      <c r="O20">
-        <v>2.7</v>
       </c>
       <c r="P20">
         <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T20">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U20">
         <v>2.75</v>
       </c>
       <c r="V20">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>1.925</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y20">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2346,7 +2346,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6938217</v>
+        <v>6939056</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2355,13 +2355,13 @@
         <v>45153.65625</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2373,58 +2373,58 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L21">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="M21">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N21">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O21">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="P21">
         <v>3.5</v>
       </c>
       <c r="Q21">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U21">
         <v>2.75</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W21">
         <v>1.925</v>
       </c>
       <c r="X21">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2714,7 +2714,7 @@
         <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2975,7 +2975,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -3138,7 +3138,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6938218</v>
+        <v>6939058</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3147,76 +3147,82 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L30">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="M30">
         <v>3.6</v>
       </c>
       <c r="N30">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="O30">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X30">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3224,7 +3230,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6939058</v>
+        <v>6938218</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3233,82 +3239,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L31">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="M31">
         <v>3.6</v>
       </c>
       <c r="N31">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O31">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="P31">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q31">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S31">
+        <v>1.8</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>2.5</v>
+      </c>
+      <c r="V31">
+        <v>1.825</v>
+      </c>
+      <c r="W31">
         <v>1.975</v>
       </c>
-      <c r="T31">
-        <v>1.825</v>
-      </c>
-      <c r="U31">
-        <v>3</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
-      <c r="W31">
-        <v>1.875</v>
-      </c>
       <c r="X31">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3328,7 +3328,7 @@
         <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -3411,7 +3411,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
         <v>49</v>
@@ -3497,7 +3497,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
         <v>47</v>
@@ -3589,7 +3589,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
         <v>46</v>
@@ -3675,7 +3675,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
         <v>35</v>
@@ -4126,7 +4126,7 @@
         <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4387,10 +4387,10 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4476,7 +4476,7 @@
         <v>48</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4927,7 +4927,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
         <v>39</v>
@@ -5019,7 +5019,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
         <v>35</v>
@@ -5105,7 +5105,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
         <v>31</v>
@@ -5197,10 +5197,10 @@
         <v>45180.65625</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5464,7 +5464,7 @@
         <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5826,7 +5826,7 @@
         <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -6102,7 +6102,7 @@
         <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6372,7 +6372,7 @@
         <v>50</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6645,10 +6645,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" t="s">
         <v>43</v>
-      </c>
-      <c r="F69" t="s">
-        <v>40</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6731,7 +6731,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
         <v>36</v>
@@ -7268,7 +7268,7 @@
         <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7357,7 +7357,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
         <v>30</v>
@@ -7449,7 +7449,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
         <v>44</v>
@@ -7627,7 +7627,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
         <v>51</v>
@@ -7998,7 +7998,7 @@
         <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -8526,7 +8526,7 @@
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8609,7 +8609,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
         <v>46</v>
@@ -8787,7 +8787,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s">
         <v>36</v>
@@ -8882,7 +8882,7 @@
         <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8965,7 +8965,7 @@
         <v>45216.65625</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
         <v>41</v>
@@ -9060,7 +9060,7 @@
         <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E100" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" t="s">
         <v>33</v>
-      </c>
-      <c r="F100" t="s">
-        <v>32</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9508,7 +9508,7 @@
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9864,7 +9864,7 @@
         <v>47</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -10131,10 +10131,10 @@
         <v>45223.65625</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -10309,10 +10309,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" t="s">
         <v>40</v>
-      </c>
-      <c r="F110" t="s">
-        <v>42</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -10567,7 +10567,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
         <v>49</v>
@@ -10840,7 +10840,7 @@
         <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10932,7 +10932,7 @@
         <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -11276,7 +11276,7 @@
         <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -11368,7 +11368,7 @@
         <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -11629,10 +11629,10 @@
         <v>45234.5</v>
       </c>
       <c r="E125" t="s">
+        <v>40</v>
+      </c>
+      <c r="F125" t="s">
         <v>42</v>
-      </c>
-      <c r="F125" t="s">
-        <v>43</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7412799</v>
+        <v>7408639</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
@@ -11715,82 +11715,82 @@
         <v>45237.69791666666</v>
       </c>
       <c r="E126" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F126" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L126">
-        <v>1.222</v>
+        <v>1.5</v>
       </c>
       <c r="M126">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N126">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="O126">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="P126">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q126">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="R126">
         <v>-1.5</v>
       </c>
       <c r="S126">
+        <v>1.85</v>
+      </c>
+      <c r="T126">
         <v>1.95</v>
       </c>
-      <c r="T126">
-        <v>1.85</v>
-      </c>
       <c r="U126">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W126">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X126">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
         <v>0.95</v>
       </c>
-      <c r="AB126">
-        <v>-1</v>
-      </c>
       <c r="AC126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD126">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -11798,7 +11798,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7408639</v>
+        <v>7412799</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -11807,82 +11807,82 @@
         <v>45237.69791666666</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L127">
-        <v>1.5</v>
+        <v>1.222</v>
       </c>
       <c r="M127">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N127">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="O127">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="P127">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q127">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="R127">
         <v>-1.5</v>
       </c>
       <c r="S127">
+        <v>1.95</v>
+      </c>
+      <c r="T127">
         <v>1.85</v>
       </c>
-      <c r="T127">
-        <v>1.95</v>
-      </c>
       <c r="U127">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V127">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD127">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -11991,7 +11991,7 @@
         <v>45241.5</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
         <v>47</v>
@@ -12427,7 +12427,7 @@
         <v>45241.5</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F134" t="s">
         <v>31</v>
@@ -12706,7 +12706,7 @@
         <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         <v>45241.5</v>
       </c>
       <c r="E138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
         <v>35</v>
@@ -12875,7 +12875,7 @@
         <v>45241.5</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
         <v>34</v>
@@ -13154,7 +13154,7 @@
         <v>50</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -13338,7 +13338,7 @@
         <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -13522,7 +13522,7 @@
         <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13611,7 +13611,7 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F147" t="s">
         <v>35</v>
@@ -13688,7 +13688,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7458147</v>
+        <v>7458146</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -13697,64 +13697,58 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148">
         <v>0</v>
       </c>
       <c r="K148" t="s">
         <v>53</v>
       </c>
       <c r="L148">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="M148">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N148">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="O148">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="P148">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q148">
-        <v>1.6</v>
+        <v>10</v>
       </c>
       <c r="R148">
-        <v>1</v>
+        <v>-2.25</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U148">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V148">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W148">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X148">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="Y148">
         <v>-1</v>
@@ -13763,7 +13757,7 @@
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13772,7 +13766,7 @@
         <v>-1</v>
       </c>
       <c r="AD148">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -13780,7 +13774,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7458146</v>
+        <v>7458147</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -13789,58 +13783,64 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
         <v>0</v>
       </c>
       <c r="K149" t="s">
         <v>53</v>
       </c>
       <c r="L149">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="M149">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N149">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="O149">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q149">
-        <v>10</v>
+        <v>1.6</v>
       </c>
       <c r="R149">
-        <v>-2.25</v>
+        <v>1</v>
       </c>
       <c r="S149">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U149">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W149">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X149">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y149">
         <v>-1</v>
@@ -13849,7 +13849,7 @@
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB149">
         <v>-1</v>
@@ -13858,7 +13858,7 @@
         <v>-1</v>
       </c>
       <c r="AD149">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14044,7 +14044,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6938296</v>
+        <v>6938297</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -14053,13 +14053,13 @@
         <v>45255.5</v>
       </c>
       <c r="E152" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14077,31 +14077,31 @@
         <v>2.1</v>
       </c>
       <c r="O152">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="P152">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q152">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="R152">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T152">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U152">
         <v>3</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14110,19 +14110,19 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD152">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14130,7 +14130,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6937955</v>
+        <v>6938296</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14139,76 +14139,76 @@
         <v>45255.5</v>
       </c>
       <c r="E153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F153" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="K153" t="s">
+        <v>52</v>
+      </c>
+      <c r="L153">
+        <v>2.7</v>
+      </c>
+      <c r="M153">
+        <v>3.75</v>
+      </c>
+      <c r="N153">
+        <v>2.1</v>
+      </c>
+      <c r="O153">
+        <v>2.3</v>
+      </c>
+      <c r="P153">
+        <v>3.75</v>
+      </c>
+      <c r="Q153">
+        <v>2.4</v>
+      </c>
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>1.95</v>
+      </c>
+      <c r="U153">
         <v>3</v>
       </c>
-      <c r="H153">
-        <v>2</v>
-      </c>
-      <c r="K153" t="s">
-        <v>53</v>
-      </c>
-      <c r="L153">
-        <v>2.5</v>
-      </c>
-      <c r="M153">
-        <v>3.6</v>
-      </c>
-      <c r="N153">
-        <v>2.3</v>
-      </c>
-      <c r="O153">
-        <v>2.25</v>
-      </c>
-      <c r="P153">
-        <v>3.6</v>
-      </c>
-      <c r="Q153">
-        <v>2.6</v>
-      </c>
-      <c r="R153">
-        <v>-0.25</v>
-      </c>
-      <c r="S153">
-        <v>2.025</v>
-      </c>
-      <c r="T153">
-        <v>1.775</v>
-      </c>
-      <c r="U153">
-        <v>2.75</v>
-      </c>
       <c r="V153">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X153">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA153">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD153">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14216,7 +14216,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6936961</v>
+        <v>6937955</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -14225,58 +14225,58 @@
         <v>45255.5</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K154" t="s">
         <v>53</v>
       </c>
       <c r="L154">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="M154">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N154">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O154">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="P154">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q154">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="R154">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S154">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T154">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U154">
         <v>2.75</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X154">
-        <v>0.5329999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14285,16 +14285,16 @@
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -14302,7 +14302,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6938297</v>
+        <v>6936961</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14311,76 +14311,76 @@
         <v>45255.5</v>
       </c>
       <c r="E155" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L155">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="M155">
         <v>3.75</v>
       </c>
       <c r="N155">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O155">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="P155">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q155">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="R155">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S155">
+        <v>1.925</v>
+      </c>
+      <c r="T155">
+        <v>1.875</v>
+      </c>
+      <c r="U155">
+        <v>2.75</v>
+      </c>
+      <c r="V155">
         <v>1.825</v>
       </c>
-      <c r="T155">
+      <c r="W155">
         <v>1.975</v>
       </c>
-      <c r="U155">
-        <v>3</v>
-      </c>
-      <c r="V155">
-        <v>1.95</v>
-      </c>
-      <c r="W155">
-        <v>1.85</v>
-      </c>
       <c r="X155">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
+        <v>-1</v>
+      </c>
+      <c r="AD155">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC155">
-        <v>-1</v>
-      </c>
-      <c r="AD155">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -14397,10 +14397,10 @@
         <v>45255.5</v>
       </c>
       <c r="E156" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -14759,7 +14759,7 @@
         <v>45255.5</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F160" t="s">
         <v>36</v>
@@ -15032,7 +15032,7 @@
         <v>31</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>39</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -15302,7 +15302,7 @@
         <v>36</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -15474,7 +15474,7 @@
         <v>37</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -15729,7 +15729,7 @@
         <v>45262.5</v>
       </c>
       <c r="E171" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F171" t="s">
         <v>45</v>
@@ -15907,7 +15907,7 @@
         <v>45265.69791666666</v>
       </c>
       <c r="E173" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F173" t="s">
         <v>45</v>
@@ -16459,7 +16459,7 @@
         <v>45271.69791666666</v>
       </c>
       <c r="E179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F179" t="s">
         <v>48</v>
@@ -16643,7 +16643,7 @@
         <v>45276.5</v>
       </c>
       <c r="E181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F181" t="s">
         <v>48</v>
@@ -16907,7 +16907,7 @@
         <v>45276.5</v>
       </c>
       <c r="E184" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F184" t="s">
         <v>38</v>
@@ -16996,7 +16996,7 @@
         <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -17079,7 +17079,7 @@
         <v>45276.5</v>
       </c>
       <c r="E186" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F186" t="s">
         <v>46</v>
@@ -17527,7 +17527,7 @@
         <v>45277.5</v>
       </c>
       <c r="E191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
         <v>50</v>
@@ -18064,7 +18064,7 @@
         <v>35</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -18150,7 +18150,7 @@
         <v>46</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -18239,7 +18239,7 @@
         <v>45283.5</v>
       </c>
       <c r="E199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F199" t="s">
         <v>41</v>
@@ -18322,7 +18322,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6936964</v>
+        <v>6938319</v>
       </c>
       <c r="C200" t="s">
         <v>29</v>
@@ -18331,55 +18331,55 @@
         <v>45283.5</v>
       </c>
       <c r="E200" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G200">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200" t="s">
         <v>53</v>
       </c>
       <c r="L200">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="M200">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N200">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="O200">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="P200">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q200">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="R200">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U200">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V200">
         <v>1.825</v>
@@ -18388,7 +18388,7 @@
         <v>1.975</v>
       </c>
       <c r="X200">
-        <v>1.6</v>
+        <v>0.333</v>
       </c>
       <c r="Y200">
         <v>-1</v>
@@ -18397,7 +18397,7 @@
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB200">
         <v>-1</v>
@@ -18414,7 +18414,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6938317</v>
+        <v>6938318</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -18423,76 +18423,76 @@
         <v>45283.5</v>
       </c>
       <c r="E201" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F201" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G201">
         <v>2</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K201" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L201">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="M201">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N201">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O201">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="P201">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q201">
+        <v>4.2</v>
+      </c>
+      <c r="R201">
+        <v>-1</v>
+      </c>
+      <c r="S201">
+        <v>2</v>
+      </c>
+      <c r="T201">
+        <v>1.8</v>
+      </c>
+      <c r="U201">
         <v>2.75</v>
       </c>
-      <c r="R201">
-        <v>-0.25</v>
-      </c>
-      <c r="S201">
-        <v>1.9</v>
-      </c>
-      <c r="T201">
-        <v>1.9</v>
-      </c>
-      <c r="U201">
-        <v>2.5</v>
-      </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W201">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X201">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD201">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -18500,7 +18500,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6938318</v>
+        <v>6938317</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -18509,76 +18509,76 @@
         <v>45283.5</v>
       </c>
       <c r="E202" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G202">
         <v>2</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L202">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="M202">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N202">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O202">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="P202">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q202">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="R202">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S202">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T202">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U202">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V202">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y202">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB202">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD202">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="203" spans="1:30">
@@ -18586,7 +18586,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6938319</v>
+        <v>6936964</v>
       </c>
       <c r="C203" t="s">
         <v>29</v>
@@ -18595,55 +18595,55 @@
         <v>45283.5</v>
       </c>
       <c r="E203" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F203" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G203">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K203" t="s">
         <v>53</v>
       </c>
       <c r="L203">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="M203">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N203">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="O203">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="P203">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q203">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="R203">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S203">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T203">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U203">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V203">
         <v>1.825</v>
@@ -18652,7 +18652,7 @@
         <v>1.975</v>
       </c>
       <c r="X203">
-        <v>0.333</v>
+        <v>1.6</v>
       </c>
       <c r="Y203">
         <v>-1</v>
@@ -18661,7 +18661,7 @@
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB203">
         <v>-1</v>
@@ -18865,10 +18865,10 @@
         <v>45286.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -19301,7 +19301,7 @@
         <v>45286.5</v>
       </c>
       <c r="E211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F211" t="s">
         <v>31</v>
@@ -19473,7 +19473,7 @@
         <v>45290.5</v>
       </c>
       <c r="E213" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F213" t="s">
         <v>51</v>
@@ -19568,7 +19568,7 @@
         <v>48</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G214">
         <v>3</v>
@@ -19660,7 +19660,7 @@
         <v>48</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -19826,7 +19826,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6939116</v>
+        <v>6939114</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -19835,62 +19835,68 @@
         <v>45292.5</v>
       </c>
       <c r="E217" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F217" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
       </c>
       <c r="K217" t="s">
         <v>54</v>
       </c>
       <c r="L217">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="M217">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N217">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O217">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P217">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q217">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="R217">
         <v>-0.75</v>
       </c>
       <c r="S217">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T217">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U217">
+        <v>2.25</v>
+      </c>
+      <c r="V217">
+        <v>1.825</v>
+      </c>
+      <c r="W217">
+        <v>1.975</v>
+      </c>
+      <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
         <v>2.5</v>
       </c>
-      <c r="V217">
-        <v>1.95</v>
-      </c>
-      <c r="W217">
-        <v>1.85</v>
-      </c>
-      <c r="X217">
-        <v>-1</v>
-      </c>
-      <c r="Y217">
-        <v>2.3</v>
-      </c>
       <c r="Z217">
         <v>-1</v>
       </c>
@@ -19898,13 +19904,13 @@
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC217">
         <v>-1</v>
       </c>
       <c r="AD217">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -19912,7 +19918,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6939114</v>
+        <v>6938334</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -19921,82 +19927,76 @@
         <v>45292.5</v>
       </c>
       <c r="E218" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
       <c r="H218">
-        <v>0</v>
-      </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
-      <c r="J218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L218">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="M218">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N218">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="O218">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="P218">
         <v>3.5</v>
       </c>
       <c r="Q218">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="R218">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S218">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T218">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U218">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V218">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W218">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA218">
         <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC218">
         <v>-1</v>
       </c>
       <c r="AD218">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -20090,7 +20090,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6938334</v>
+        <v>6939116</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
@@ -20099,40 +20099,40 @@
         <v>45292.5</v>
       </c>
       <c r="E220" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F220" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="K220" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L220">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="M220">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N220">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O220">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="P220">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q220">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="R220">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S220">
         <v>2</v>
@@ -20141,22 +20141,22 @@
         <v>1.8</v>
       </c>
       <c r="U220">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V220">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z220">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
         <v>-1</v>
@@ -20168,7 +20168,7 @@
         <v>-1</v>
       </c>
       <c r="AD220">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -20188,7 +20188,7 @@
         <v>49</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -20271,10 +20271,10 @@
         <v>45296.69791666666</v>
       </c>
       <c r="E222" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -20348,7 +20348,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6939118</v>
+        <v>6938336</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
@@ -20357,76 +20357,76 @@
         <v>45297.5</v>
       </c>
       <c r="E223" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F223" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G223">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K223" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L223">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="M223">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N223">
-        <v>7.5</v>
+        <v>1.444</v>
       </c>
       <c r="O223">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="P223">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q223">
-        <v>7</v>
+        <v>1.55</v>
       </c>
       <c r="R223">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="S223">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U223">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V223">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W223">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X223">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC223">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD223">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -20434,7 +20434,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6939042</v>
+        <v>6939118</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -20443,58 +20443,58 @@
         <v>45297.5</v>
       </c>
       <c r="E224" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K224" t="s">
         <v>53</v>
       </c>
       <c r="L224">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="M224">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N224">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="O224">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="P224">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q224">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="R224">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S224">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U224">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V224">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W224">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X224">
-        <v>1.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y224">
         <v>-1</v>
@@ -20503,16 +20503,16 @@
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB224">
         <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -20520,7 +20520,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6938335</v>
+        <v>6939042</v>
       </c>
       <c r="C225" t="s">
         <v>29</v>
@@ -20529,76 +20529,76 @@
         <v>45297.5</v>
       </c>
       <c r="E225" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F225" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L225">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="M225">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N225">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="O225">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="P225">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q225">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="R225">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S225">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U225">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V225">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W225">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y225">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB225">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD225">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:30">
@@ -20606,7 +20606,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6938338</v>
+        <v>6938335</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -20615,76 +20615,76 @@
         <v>45297.5</v>
       </c>
       <c r="E226" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F226" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G226">
         <v>2</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K226" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L226">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="M226">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N226">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O226">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="P226">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q226">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="R226">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S226">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T226">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U226">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V226">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W226">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X226">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC226">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AD226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -20692,7 +20692,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6938336</v>
+        <v>6938338</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -20701,76 +20701,76 @@
         <v>45297.5</v>
       </c>
       <c r="E227" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F227" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K227" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L227">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="M227">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N227">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="O227">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="P227">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q227">
-        <v>1.55</v>
+        <v>2.875</v>
       </c>
       <c r="R227">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S227">
+        <v>1.85</v>
+      </c>
+      <c r="T227">
         <v>1.95</v>
       </c>
-      <c r="T227">
-        <v>1.85</v>
-      </c>
       <c r="U227">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V227">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W227">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AD227">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -20778,7 +20778,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6939120</v>
+        <v>6938337</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -20787,73 +20787,73 @@
         <v>45297.5</v>
       </c>
       <c r="E228" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G228">
+        <v>3</v>
+      </c>
+      <c r="H228">
         <v>4</v>
       </c>
-      <c r="H228">
-        <v>0</v>
-      </c>
       <c r="K228" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L228">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="M228">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N228">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="O228">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="P228">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q228">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="R228">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S228">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T228">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U228">
         <v>2.75</v>
       </c>
       <c r="V228">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W228">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X228">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA228">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC228">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AD228">
         <v>-1</v>
@@ -20956,7 +20956,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6938337</v>
+        <v>6939120</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
@@ -20965,73 +20965,73 @@
         <v>45297.5</v>
       </c>
       <c r="E230" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F230" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="K230" t="s">
+        <v>53</v>
+      </c>
+      <c r="L230">
+        <v>1.4</v>
+      </c>
+      <c r="M230">
         <v>4</v>
       </c>
-      <c r="K230" t="s">
-        <v>52</v>
-      </c>
-      <c r="L230">
-        <v>2.3</v>
-      </c>
-      <c r="M230">
-        <v>3.8</v>
-      </c>
       <c r="N230">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="O230">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="P230">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q230">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="R230">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S230">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T230">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U230">
         <v>2.75</v>
       </c>
       <c r="V230">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W230">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB230">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AD230">
         <v>-1</v>
@@ -21321,7 +21321,7 @@
         <v>45304.5</v>
       </c>
       <c r="E234" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F234" t="s">
         <v>38</v>
@@ -21410,7 +21410,7 @@
         <v>44</v>
       </c>
       <c r="F235" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -21849,10 +21849,10 @@
         <v>45304.5</v>
       </c>
       <c r="E240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -22030,7 +22030,7 @@
         <v>30</v>
       </c>
       <c r="F242" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G242">
         <v>3</v>
@@ -22208,7 +22208,7 @@
         <v>37</v>
       </c>
       <c r="F244" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G244">
         <v>3</v>
@@ -22300,7 +22300,7 @@
         <v>37</v>
       </c>
       <c r="F245" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -22386,7 +22386,7 @@
         <v>35</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -22460,7 +22460,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6937963</v>
+        <v>6938351</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -22469,76 +22469,82 @@
         <v>45311.5</v>
       </c>
       <c r="E247" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F247" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G247">
         <v>0</v>
       </c>
       <c r="H247">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
       </c>
       <c r="K247" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L247">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="M247">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N247">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O247">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P247">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q247">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R247">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S247">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T247">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U247">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V247">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W247">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X247">
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z247">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC247">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD247">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -22546,7 +22552,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6938351</v>
+        <v>6937963</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -22555,82 +22561,76 @@
         <v>45311.5</v>
       </c>
       <c r="E248" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F248" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G248">
         <v>0</v>
       </c>
       <c r="H248">
-        <v>0</v>
-      </c>
-      <c r="I248">
-        <v>0</v>
-      </c>
-      <c r="J248">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K248" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L248">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="M248">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N248">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O248">
+        <v>1.7</v>
+      </c>
+      <c r="P248">
+        <v>4.2</v>
+      </c>
+      <c r="Q248">
+        <v>3.5</v>
+      </c>
+      <c r="R248">
+        <v>-0.75</v>
+      </c>
+      <c r="S248">
+        <v>1.925</v>
+      </c>
+      <c r="T248">
+        <v>1.875</v>
+      </c>
+      <c r="U248">
+        <v>3.25</v>
+      </c>
+      <c r="V248">
+        <v>2</v>
+      </c>
+      <c r="W248">
         <v>1.8</v>
       </c>
-      <c r="P248">
-        <v>3.8</v>
-      </c>
-      <c r="Q248">
-        <v>3.4</v>
-      </c>
-      <c r="R248">
-        <v>-0.5</v>
-      </c>
-      <c r="S248">
-        <v>1.85</v>
-      </c>
-      <c r="T248">
-        <v>1.95</v>
-      </c>
-      <c r="U248">
-        <v>2.75</v>
-      </c>
-      <c r="V248">
-        <v>1.8</v>
-      </c>
-      <c r="W248">
-        <v>2</v>
-      </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD248">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -22831,7 +22831,7 @@
         <v>45318.5</v>
       </c>
       <c r="E251" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F251" t="s">
         <v>39</v>
@@ -23086,7 +23086,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6938361</v>
+        <v>6938359</v>
       </c>
       <c r="C254" t="s">
         <v>29</v>
@@ -23095,58 +23095,64 @@
         <v>45318.5</v>
       </c>
       <c r="E254" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F254" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
       </c>
       <c r="K254" t="s">
         <v>53</v>
       </c>
       <c r="L254">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="M254">
         <v>3.75</v>
       </c>
       <c r="N254">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="O254">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="P254">
         <v>3.75</v>
       </c>
       <c r="Q254">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="R254">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S254">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T254">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="U254">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V254">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W254">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X254">
-        <v>1.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y254">
         <v>-1</v>
@@ -23155,16 +23161,16 @@
         <v>-1</v>
       </c>
       <c r="AA254">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC254">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD254">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:30">
@@ -23172,7 +23178,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6938359</v>
+        <v>6938358</v>
       </c>
       <c r="C255" t="s">
         <v>29</v>
@@ -23181,52 +23187,46 @@
         <v>45318.5</v>
       </c>
       <c r="E255" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H255">
-        <v>1</v>
-      </c>
-      <c r="I255">
-        <v>0</v>
-      </c>
-      <c r="J255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K255" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L255">
-        <v>1.65</v>
+        <v>10</v>
       </c>
       <c r="M255">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N255">
-        <v>4.2</v>
+        <v>1.181</v>
       </c>
       <c r="O255">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="P255">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q255">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="R255">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="S255">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T255">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="U255">
         <v>3</v>
@@ -23238,25 +23238,25 @@
         <v>1.925</v>
       </c>
       <c r="X255">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="AA255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD255">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="256" spans="1:30">
@@ -23264,7 +23264,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6938358</v>
+        <v>6938357</v>
       </c>
       <c r="C256" t="s">
         <v>29</v>
@@ -23273,76 +23273,82 @@
         <v>45318.5</v>
       </c>
       <c r="E256" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F256" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
       </c>
       <c r="K256" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L256">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="M256">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N256">
-        <v>1.181</v>
+        <v>3.8</v>
       </c>
       <c r="O256">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="P256">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q256">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="R256">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S256">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T256">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U256">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V256">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W256">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y256">
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB256">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD256">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:30">
@@ -23350,7 +23356,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6938357</v>
+        <v>6938356</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -23359,82 +23365,76 @@
         <v>45318.5</v>
       </c>
       <c r="E257" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F257" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
-      <c r="I257">
-        <v>1</v>
-      </c>
-      <c r="J257">
-        <v>1</v>
-      </c>
       <c r="K257" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L257">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="M257">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N257">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="O257">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="P257">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q257">
+        <v>6.5</v>
+      </c>
+      <c r="R257">
+        <v>-1.25</v>
+      </c>
+      <c r="S257">
+        <v>1.85</v>
+      </c>
+      <c r="T257">
+        <v>1.95</v>
+      </c>
+      <c r="U257">
+        <v>2.75</v>
+      </c>
+      <c r="V257">
+        <v>1.975</v>
+      </c>
+      <c r="W257">
+        <v>1.825</v>
+      </c>
+      <c r="X257">
+        <v>-1</v>
+      </c>
+      <c r="Y257">
         <v>3.5</v>
       </c>
-      <c r="R257">
-        <v>-0.5</v>
-      </c>
-      <c r="S257">
-        <v>1.95</v>
-      </c>
-      <c r="T257">
-        <v>1.85</v>
-      </c>
-      <c r="U257">
-        <v>2.5</v>
-      </c>
-      <c r="V257">
-        <v>1.85</v>
-      </c>
-      <c r="W257">
-        <v>1.95</v>
-      </c>
-      <c r="X257">
-        <v>0.909</v>
-      </c>
-      <c r="Y257">
-        <v>-1</v>
-      </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
+        <v>-1</v>
+      </c>
+      <c r="AB257">
         <v>0.95</v>
       </c>
-      <c r="AB257">
-        <v>-1</v>
-      </c>
       <c r="AC257">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD257">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -23442,7 +23442,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6938356</v>
+        <v>6938361</v>
       </c>
       <c r="C258" t="s">
         <v>29</v>
@@ -23451,76 +23451,76 @@
         <v>45318.5</v>
       </c>
       <c r="E258" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F258" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K258" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L258">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="M258">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N258">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="O258">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="P258">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q258">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="R258">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S258">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T258">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U258">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V258">
+        <v>1.825</v>
+      </c>
+      <c r="W258">
         <v>1.975</v>
       </c>
-      <c r="W258">
-        <v>1.825</v>
-      </c>
       <c r="X258">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y258">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB258">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD258">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:30">
@@ -23540,7 +23540,7 @@
         <v>44</v>
       </c>
       <c r="F259" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -23626,7 +23626,7 @@
         <v>51</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>35</v>
       </c>
       <c r="F261" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -23804,7 +23804,7 @@
         <v>39</v>
       </c>
       <c r="F262" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -23970,7 +23970,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6938367</v>
+        <v>6938364</v>
       </c>
       <c r="C264" t="s">
         <v>29</v>
@@ -23979,76 +23979,76 @@
         <v>45325.5</v>
       </c>
       <c r="E264" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F264" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G264">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K264" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L264">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="M264">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N264">
+        <v>4.333</v>
+      </c>
+      <c r="O264">
+        <v>1.533</v>
+      </c>
+      <c r="P264">
+        <v>4</v>
+      </c>
+      <c r="Q264">
+        <v>4.5</v>
+      </c>
+      <c r="R264">
+        <v>-1</v>
+      </c>
+      <c r="S264">
+        <v>1.95</v>
+      </c>
+      <c r="T264">
+        <v>1.85</v>
+      </c>
+      <c r="U264">
+        <v>2.75</v>
+      </c>
+      <c r="V264">
+        <v>1.925</v>
+      </c>
+      <c r="W264">
+        <v>1.875</v>
+      </c>
+      <c r="X264">
+        <v>-1</v>
+      </c>
+      <c r="Y264">
         <v>3</v>
       </c>
-      <c r="O264">
-        <v>1.615</v>
-      </c>
-      <c r="P264">
-        <v>4.2</v>
-      </c>
-      <c r="Q264">
-        <v>4</v>
-      </c>
-      <c r="R264">
-        <v>-0.75</v>
-      </c>
-      <c r="S264">
-        <v>1.8</v>
-      </c>
-      <c r="T264">
-        <v>2</v>
-      </c>
-      <c r="U264">
-        <v>3</v>
-      </c>
-      <c r="V264">
-        <v>1.825</v>
-      </c>
-      <c r="W264">
-        <v>1.975</v>
-      </c>
-      <c r="X264">
-        <v>-1</v>
-      </c>
-      <c r="Y264">
-        <v>-1</v>
-      </c>
       <c r="Z264">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
         <v>-1</v>
       </c>
       <c r="AB264">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD264">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="265" spans="1:30">
@@ -24056,7 +24056,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6938364</v>
+        <v>6938370</v>
       </c>
       <c r="C265" t="s">
         <v>29</v>
@@ -24065,76 +24065,76 @@
         <v>45325.5</v>
       </c>
       <c r="E265" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F265" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G265">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K265" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L265">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="M265">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N265">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="O265">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="P265">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q265">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="R265">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S265">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T265">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U265">
         <v>2.75</v>
       </c>
       <c r="V265">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W265">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y265">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
         <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB265">
+        <v>-1</v>
+      </c>
+      <c r="AC265">
+        <v>-1</v>
+      </c>
+      <c r="AD265">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC265">
-        <v>-1</v>
-      </c>
-      <c r="AD265">
-        <v>0.875</v>
       </c>
     </row>
     <row r="266" spans="1:30">
@@ -24142,7 +24142,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6938368</v>
+        <v>6938367</v>
       </c>
       <c r="C266" t="s">
         <v>29</v>
@@ -24151,13 +24151,13 @@
         <v>45325.5</v>
       </c>
       <c r="E266" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F266" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266">
         <v>2</v>
@@ -24166,41 +24166,41 @@
         <v>52</v>
       </c>
       <c r="L266">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="M266">
         <v>3.6</v>
       </c>
       <c r="N266">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O266">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="P266">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q266">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="R266">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S266">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T266">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U266">
         <v>3</v>
       </c>
       <c r="V266">
+        <v>1.825</v>
+      </c>
+      <c r="W266">
         <v>1.975</v>
       </c>
-      <c r="W266">
-        <v>1.825</v>
-      </c>
       <c r="X266">
         <v>-1</v>
       </c>
@@ -24208,19 +24208,19 @@
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AA266">
         <v>-1</v>
       </c>
       <c r="AB266">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD266">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:30">
@@ -24228,7 +24228,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6938369</v>
+        <v>6938368</v>
       </c>
       <c r="C267" t="s">
         <v>29</v>
@@ -24237,76 +24237,76 @@
         <v>45325.5</v>
       </c>
       <c r="E267" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F267" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K267" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L267">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="M267">
         <v>3.6</v>
       </c>
       <c r="N267">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="O267">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="P267">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q267">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="R267">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S267">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T267">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U267">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V267">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W267">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA267">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AC267">
         <v>-1</v>
       </c>
       <c r="AD267">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="268" spans="1:30">
@@ -24314,7 +24314,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6939130</v>
+        <v>6938369</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -24323,76 +24323,76 @@
         <v>45325.5</v>
       </c>
       <c r="E268" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F268" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K268" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L268">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="M268">
         <v>3.6</v>
       </c>
       <c r="N268">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O268">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="P268">
         <v>3.6</v>
       </c>
       <c r="Q268">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="R268">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S268">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T268">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U268">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V268">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W268">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X268">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC268">
         <v>-1</v>
       </c>
       <c r="AD268">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:30">
@@ -24400,7 +24400,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6939129</v>
+        <v>6939130</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -24409,82 +24409,76 @@
         <v>45325.5</v>
       </c>
       <c r="E269" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F269" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H269">
-        <v>3</v>
-      </c>
-      <c r="I269">
-        <v>0</v>
-      </c>
-      <c r="J269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K269" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L269">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="M269">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N269">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="O269">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="P269">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q269">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="R269">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S269">
+        <v>1.875</v>
+      </c>
+      <c r="T269">
+        <v>1.925</v>
+      </c>
+      <c r="U269">
+        <v>2.5</v>
+      </c>
+      <c r="V269">
         <v>1.9</v>
       </c>
-      <c r="T269">
+      <c r="W269">
         <v>1.9</v>
       </c>
-      <c r="U269">
-        <v>3.25</v>
-      </c>
-      <c r="V269">
-        <v>1.925</v>
-      </c>
-      <c r="W269">
-        <v>1.875</v>
-      </c>
       <c r="X269">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB269">
+        <v>-1</v>
+      </c>
+      <c r="AC269">
+        <v>-1</v>
+      </c>
+      <c r="AD269">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC269">
-        <v>0.925</v>
-      </c>
-      <c r="AD269">
-        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:30">
@@ -24492,7 +24486,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6938370</v>
+        <v>6939129</v>
       </c>
       <c r="C270" t="s">
         <v>29</v>
@@ -24501,40 +24495,46 @@
         <v>45325.5</v>
       </c>
       <c r="E270" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F270" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G270">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
       </c>
       <c r="K270" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L270">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="M270">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N270">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="O270">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="P270">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q270">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="R270">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S270">
         <v>1.9</v>
@@ -24543,34 +24543,34 @@
         <v>1.9</v>
       </c>
       <c r="U270">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V270">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W270">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X270">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA270">
+        <v>-1</v>
+      </c>
+      <c r="AB270">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB270">
-        <v>-1</v>
-      </c>
       <c r="AC270">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD270">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:30">
@@ -24587,7 +24587,7 @@
         <v>45325.5</v>
       </c>
       <c r="E271" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F271" t="s">
         <v>45</v>
@@ -24676,7 +24676,7 @@
         <v>36</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G272">
         <v>2</v>
@@ -24851,7 +24851,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="E274" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F274" t="s">
         <v>50</v>
@@ -24943,7 +24943,7 @@
         <v>45332.5</v>
       </c>
       <c r="E275" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F275" t="s">
         <v>34</v>
@@ -25020,7 +25020,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6939389</v>
+        <v>6939359</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -25029,79 +25029,73 @@
         <v>45332.5</v>
       </c>
       <c r="E276" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F276" t="s">
         <v>40</v>
       </c>
       <c r="G276">
+        <v>2</v>
+      </c>
+      <c r="H276">
         <v>3</v>
       </c>
-      <c r="H276">
-        <v>1</v>
-      </c>
-      <c r="I276">
-        <v>2</v>
-      </c>
-      <c r="J276">
-        <v>0</v>
-      </c>
       <c r="K276" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L276">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="M276">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N276">
-        <v>4.333</v>
+        <v>1.363</v>
       </c>
       <c r="O276">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="P276">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q276">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="R276">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="S276">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T276">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U276">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V276">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W276">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X276">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="AA276">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC276">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD276">
         <v>-1</v>
@@ -25112,7 +25106,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6939359</v>
+        <v>6939358</v>
       </c>
       <c r="C277" t="s">
         <v>29</v>
@@ -25121,46 +25115,52 @@
         <v>45332.5</v>
       </c>
       <c r="E277" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F277" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G277">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H277">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>2</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
       </c>
       <c r="K277" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L277">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="M277">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N277">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="O277">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="P277">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q277">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="R277">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="S277">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T277">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U277">
         <v>2.75</v>
@@ -25172,19 +25172,19 @@
         <v>1.9</v>
       </c>
       <c r="X277">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB277">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
         <v>0.8999999999999999</v>
@@ -25198,7 +25198,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6939358</v>
+        <v>6939395</v>
       </c>
       <c r="C278" t="s">
         <v>29</v>
@@ -25207,55 +25207,49 @@
         <v>45332.5</v>
       </c>
       <c r="E278" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F278" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G278">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H278">
-        <v>0</v>
-      </c>
-      <c r="I278">
-        <v>2</v>
-      </c>
-      <c r="J278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K278" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L278">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="M278">
         <v>4</v>
       </c>
       <c r="N278">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O278">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="P278">
         <v>4</v>
       </c>
       <c r="Q278">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="R278">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S278">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T278">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U278">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V278">
         <v>1.9</v>
@@ -25264,19 +25258,19 @@
         <v>1.9</v>
       </c>
       <c r="X278">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z278">
         <v>-1</v>
       </c>
       <c r="AA278">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC278">
         <v>0.8999999999999999</v>
@@ -25290,7 +25284,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6939395</v>
+        <v>6939391</v>
       </c>
       <c r="C279" t="s">
         <v>29</v>
@@ -25299,40 +25293,46 @@
         <v>45332.5</v>
       </c>
       <c r="E279" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F279" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
       </c>
       <c r="K279" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L279">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="M279">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N279">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O279">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="P279">
         <v>4</v>
       </c>
       <c r="Q279">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="R279">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S279">
         <v>1.825</v>
@@ -25341,7 +25341,7 @@
         <v>1.975</v>
       </c>
       <c r="U279">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V279">
         <v>1.9</v>
@@ -25350,25 +25350,25 @@
         <v>1.9</v>
       </c>
       <c r="X279">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y279">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
         <v>-1</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB279">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC279">
+        <v>-1</v>
+      </c>
+      <c r="AD279">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AD279">
-        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:30">
@@ -25376,7 +25376,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6939391</v>
+        <v>6939390</v>
       </c>
       <c r="C280" t="s">
         <v>29</v>
@@ -25385,82 +25385,82 @@
         <v>45332.5</v>
       </c>
       <c r="E280" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F280" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G280">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280">
         <v>0</v>
       </c>
       <c r="J280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K280" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L280">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="M280">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N280">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="O280">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="P280">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q280">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="R280">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S280">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T280">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U280">
         <v>2.75</v>
       </c>
       <c r="V280">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W280">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X280">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC280">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AD280">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="281" spans="1:30">
@@ -25468,7 +25468,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6939390</v>
+        <v>6939389</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -25477,82 +25477,82 @@
         <v>45332.5</v>
       </c>
       <c r="E281" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F281" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K281" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L281">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="M281">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N281">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="O281">
+        <v>1.7</v>
+      </c>
+      <c r="P281">
+        <v>3.8</v>
+      </c>
+      <c r="Q281">
+        <v>4.2</v>
+      </c>
+      <c r="R281">
+        <v>-0.75</v>
+      </c>
+      <c r="S281">
+        <v>1.925</v>
+      </c>
+      <c r="T281">
+        <v>1.875</v>
+      </c>
+      <c r="U281">
         <v>2.25</v>
       </c>
-      <c r="P281">
-        <v>3.6</v>
-      </c>
-      <c r="Q281">
-        <v>2.7</v>
-      </c>
-      <c r="R281">
-        <v>-0.25</v>
-      </c>
-      <c r="S281">
-        <v>2.025</v>
-      </c>
-      <c r="T281">
-        <v>1.775</v>
-      </c>
-      <c r="U281">
-        <v>2.75</v>
-      </c>
       <c r="V281">
+        <v>1.85</v>
+      </c>
+      <c r="W281">
         <v>1.95</v>
       </c>
-      <c r="W281">
-        <v>1.85</v>
-      </c>
       <c r="X281">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB281">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC281">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD281">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:30">
@@ -25753,7 +25753,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E284" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F284" t="s">
         <v>48</v>
@@ -26103,7 +26103,7 @@
         <v>45339.5</v>
       </c>
       <c r="E288" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F288" t="s">
         <v>41</v>
@@ -26281,7 +26281,7 @@
         <v>45339.5</v>
       </c>
       <c r="E290" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F290" t="s">
         <v>38</v>
@@ -26456,7 +26456,7 @@
         <v>46</v>
       </c>
       <c r="F292" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -26539,7 +26539,7 @@
         <v>45339.5</v>
       </c>
       <c r="E293" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F293" t="s">
         <v>30</v>
@@ -26901,10 +26901,10 @@
         <v>45346.5</v>
       </c>
       <c r="E297" t="s">
+        <v>33</v>
+      </c>
+      <c r="F297" t="s">
         <v>32</v>
-      </c>
-      <c r="F297" t="s">
-        <v>33</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -26990,7 +26990,7 @@
         <v>44</v>
       </c>
       <c r="F298" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -27500,7 +27500,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6941597</v>
+        <v>6941599</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -27509,76 +27509,76 @@
         <v>45346.5</v>
       </c>
       <c r="E304" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F304" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G304">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K304" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L304">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="M304">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N304">
-        <v>5.5</v>
+        <v>1.285</v>
       </c>
       <c r="O304">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="P304">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q304">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="R304">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="S304">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T304">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U304">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V304">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W304">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X304">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z304">
         <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB304">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC304">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD304">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -27586,7 +27586,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6941599</v>
+        <v>6941597</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -27595,76 +27595,76 @@
         <v>45346.5</v>
       </c>
       <c r="E305" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F305" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G305">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K305" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L305">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="M305">
+        <v>5</v>
+      </c>
+      <c r="N305">
         <v>5.5</v>
       </c>
-      <c r="N305">
-        <v>1.285</v>
-      </c>
       <c r="O305">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="P305">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q305">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="R305">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S305">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T305">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U305">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V305">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W305">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y305">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
         <v>-1</v>
       </c>
       <c r="AA305">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD305">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -27684,7 +27684,7 @@
         <v>45</v>
       </c>
       <c r="F306" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G306">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         <v>45349.69791666666</v>
       </c>
       <c r="E307" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F307" t="s">
         <v>34</v>
@@ -28224,7 +28224,7 @@
         <v>49</v>
       </c>
       <c r="F312" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G312">
         <v>1</v>
@@ -28393,7 +28393,7 @@
         <v>45353.5</v>
       </c>
       <c r="E314" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F314" t="s">
         <v>30</v>
@@ -28660,7 +28660,7 @@
         <v>31</v>
       </c>
       <c r="F317" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G317">
         <v>1</v>
@@ -29019,7 +29019,7 @@
         <v>45360.5</v>
       </c>
       <c r="E321" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F321" t="s">
         <v>44</v>
@@ -29114,7 +29114,7 @@
         <v>38</v>
       </c>
       <c r="F322" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G322">
         <v>0</v>
@@ -29381,7 +29381,7 @@
         <v>45360.5</v>
       </c>
       <c r="E325" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F325" t="s">
         <v>51</v>
@@ -29562,7 +29562,7 @@
         <v>45</v>
       </c>
       <c r="F327" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G327">
         <v>3</v>
@@ -29912,7 +29912,7 @@
         <v>51</v>
       </c>
       <c r="F331" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G331">
         <v>2</v>
@@ -30265,7 +30265,7 @@
         <v>45367.5</v>
       </c>
       <c r="E335" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F335" t="s">
         <v>37</v>
@@ -30351,7 +30351,7 @@
         <v>45367.5</v>
       </c>
       <c r="E336" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F336" t="s">
         <v>36</v>
@@ -30529,7 +30529,7 @@
         <v>45370.69791666666</v>
       </c>
       <c r="E338" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F338" t="s">
         <v>37</v>
@@ -31063,7 +31063,7 @@
         <v>45374.5</v>
       </c>
       <c r="E344" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F344" t="s">
         <v>50</v>
@@ -31149,10 +31149,10 @@
         <v>45374.5</v>
       </c>
       <c r="E345" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F345" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G345">
         <v>3</v>
@@ -31508,7 +31508,7 @@
         <v>36</v>
       </c>
       <c r="F349" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G349">
         <v>2</v>
@@ -31781,10 +31781,10 @@
         <v>45380.5</v>
       </c>
       <c r="E352" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F352" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G352">
         <v>0</v>
@@ -32140,7 +32140,7 @@
         <v>47</v>
       </c>
       <c r="F356" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G356">
         <v>1</v>
@@ -32490,7 +32490,7 @@
         <v>46</v>
       </c>
       <c r="F360" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G360">
         <v>1</v>
@@ -32579,7 +32579,7 @@
         <v>45383.375</v>
       </c>
       <c r="E361" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F361" t="s">
         <v>49</v>
@@ -32656,7 +32656,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6945381</v>
+        <v>6945371</v>
       </c>
       <c r="C362" t="s">
         <v>29</v>
@@ -32665,58 +32665,64 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E362" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F362" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G362">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362">
         <v>0</v>
       </c>
       <c r="K362" t="s">
         <v>53</v>
       </c>
       <c r="L362">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="M362">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N362">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O362">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="P362">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q362">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="R362">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="S362">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T362">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U362">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V362">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W362">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X362">
-        <v>0.7270000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="Y362">
         <v>-1</v>
@@ -32725,7 +32731,7 @@
         <v>-1</v>
       </c>
       <c r="AA362">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB362">
         <v>-1</v>
@@ -32734,7 +32740,7 @@
         <v>-1</v>
       </c>
       <c r="AD362">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="363" spans="1:30">
@@ -32742,7 +32748,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6945371</v>
+        <v>6945372</v>
       </c>
       <c r="C363" t="s">
         <v>29</v>
@@ -32751,82 +32757,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E363" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F363" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G363">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H363">
-        <v>0</v>
-      </c>
-      <c r="I363">
-        <v>1</v>
-      </c>
-      <c r="J363">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K363" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L363">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="M363">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N363">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="O363">
-        <v>1.222</v>
+        <v>3.2</v>
       </c>
       <c r="P363">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q363">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="R363">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="S363">
+        <v>1.9</v>
+      </c>
+      <c r="T363">
+        <v>1.9</v>
+      </c>
+      <c r="U363">
+        <v>2.75</v>
+      </c>
+      <c r="V363">
         <v>1.8</v>
       </c>
-      <c r="T363">
-        <v>2</v>
-      </c>
-      <c r="U363">
-        <v>3.5</v>
-      </c>
-      <c r="V363">
-        <v>1.875</v>
-      </c>
       <c r="W363">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X363">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Y363">
         <v>-1</v>
       </c>
       <c r="Z363">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA363">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB363">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC363">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AD363">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="364" spans="1:30">
@@ -32834,7 +32834,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6945372</v>
+        <v>6945373</v>
       </c>
       <c r="C364" t="s">
         <v>29</v>
@@ -32843,10 +32843,10 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E364" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F364" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G364">
         <v>1</v>
@@ -32858,41 +32858,41 @@
         <v>52</v>
       </c>
       <c r="L364">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M364">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N364">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="O364">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P364">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q364">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R364">
         <v>0.5</v>
       </c>
       <c r="S364">
+        <v>2</v>
+      </c>
+      <c r="T364">
+        <v>1.8</v>
+      </c>
+      <c r="U364">
+        <v>2.5</v>
+      </c>
+      <c r="V364">
         <v>1.9</v>
       </c>
-      <c r="T364">
+      <c r="W364">
         <v>1.9</v>
       </c>
-      <c r="U364">
-        <v>2.75</v>
-      </c>
-      <c r="V364">
-        <v>1.8</v>
-      </c>
-      <c r="W364">
-        <v>2</v>
-      </c>
       <c r="X364">
         <v>-1</v>
       </c>
@@ -32900,19 +32900,19 @@
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA364">
         <v>-1</v>
       </c>
       <c r="AB364">
+        <v>0.8</v>
+      </c>
+      <c r="AC364">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AC364">
-        <v>0.4</v>
-      </c>
       <c r="AD364">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:30">
@@ -32920,7 +32920,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6945373</v>
+        <v>6945381</v>
       </c>
       <c r="C365" t="s">
         <v>29</v>
@@ -32929,76 +32929,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E365" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F365" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K365" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L365">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="M365">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N365">
+        <v>4</v>
+      </c>
+      <c r="O365">
         <v>1.727</v>
       </c>
-      <c r="O365">
-        <v>4</v>
-      </c>
       <c r="P365">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q365">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="R365">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S365">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T365">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U365">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V365">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W365">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X365">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y365">
         <v>-1</v>
       </c>
       <c r="Z365">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA365">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB365">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC365">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD365">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="366" spans="1:30">
@@ -33006,7 +33006,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6945380</v>
+        <v>6945379</v>
       </c>
       <c r="C366" t="s">
         <v>29</v>
@@ -33015,73 +33015,73 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E366" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F366" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G366">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H366">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K366" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L366">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M366">
         <v>3.75</v>
       </c>
       <c r="N366">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O366">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="P366">
         <v>3.8</v>
       </c>
       <c r="Q366">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="R366">
         <v>-0.25</v>
       </c>
       <c r="S366">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T366">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U366">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V366">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W366">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X366">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y366">
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB366">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC366">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD366">
         <v>-1</v>
@@ -33092,7 +33092,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6945379</v>
+        <v>6945380</v>
       </c>
       <c r="C367" t="s">
         <v>29</v>
@@ -33101,73 +33101,73 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E367" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F367" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G367">
+        <v>1</v>
+      </c>
+      <c r="H367">
         <v>4</v>
       </c>
-      <c r="H367">
-        <v>2</v>
-      </c>
       <c r="K367" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L367">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M367">
         <v>3.75</v>
       </c>
       <c r="N367">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O367">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="P367">
         <v>3.8</v>
       </c>
       <c r="Q367">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="R367">
         <v>-0.25</v>
       </c>
       <c r="S367">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T367">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U367">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V367">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W367">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X367">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA367">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC367">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD367">
         <v>-1</v>
@@ -33178,7 +33178,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6945378</v>
+        <v>6945375</v>
       </c>
       <c r="C368" t="s">
         <v>29</v>
@@ -33187,46 +33187,52 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E368" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F368" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
       </c>
       <c r="K368" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L368">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="M368">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N368">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O368">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="P368">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q368">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="R368">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S368">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T368">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U368">
         <v>2.75</v>
@@ -33238,19 +33244,19 @@
         <v>1.9</v>
       </c>
       <c r="X368">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y368">
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA368">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB368">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC368">
         <v>-1</v>
@@ -33350,7 +33356,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6945375</v>
+        <v>6945378</v>
       </c>
       <c r="C370" t="s">
         <v>29</v>
@@ -33359,52 +33365,46 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E370" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F370" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H370">
-        <v>0</v>
-      </c>
-      <c r="I370">
-        <v>0</v>
-      </c>
-      <c r="J370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K370" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L370">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="M370">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N370">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O370">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="P370">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q370">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="R370">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S370">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T370">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U370">
         <v>2.75</v>
@@ -33416,19 +33416,19 @@
         <v>1.9</v>
       </c>
       <c r="X370">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y370">
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA370">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB370">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC370">
         <v>-1</v>
@@ -33718,7 +33718,7 @@
         <v>48</v>
       </c>
       <c r="F374" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G374">
         <v>2</v>
@@ -33801,10 +33801,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E375" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F375" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G375">
         <v>3</v>
@@ -34246,7 +34246,7 @@
         <v>35</v>
       </c>
       <c r="F380" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G380">
         <v>1</v>
@@ -34421,7 +34421,7 @@
         <v>45391.65625</v>
       </c>
       <c r="E382" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F382" t="s">
         <v>47</v>
@@ -34605,7 +34605,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E384" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F384" t="s">
         <v>49</v>
@@ -34691,7 +34691,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E385" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F385" t="s">
         <v>44</v>
@@ -35204,7 +35204,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>6947457</v>
+        <v>6947455</v>
       </c>
       <c r="C391" t="s">
         <v>29</v>
@@ -35213,58 +35213,58 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E391" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F391" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G391">
         <v>4</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K391" t="s">
         <v>53</v>
       </c>
       <c r="L391">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="M391">
         <v>3.75</v>
       </c>
       <c r="N391">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="O391">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="P391">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q391">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="R391">
         <v>-0.5</v>
       </c>
       <c r="S391">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T391">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U391">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V391">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W391">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X391">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="Y391">
         <v>-1</v>
@@ -35273,13 +35273,13 @@
         <v>-1</v>
       </c>
       <c r="AA391">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB391">
         <v>-1</v>
       </c>
       <c r="AC391">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AD391">
         <v>-1</v>
@@ -35290,7 +35290,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>6947476</v>
+        <v>6947457</v>
       </c>
       <c r="C392" t="s">
         <v>29</v>
@@ -35299,13 +35299,13 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E392" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F392" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G392">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H392">
         <v>1</v>
@@ -35314,43 +35314,43 @@
         <v>53</v>
       </c>
       <c r="L392">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="M392">
+        <v>3.75</v>
+      </c>
+      <c r="N392">
+        <v>2.55</v>
+      </c>
+      <c r="O392">
+        <v>1.95</v>
+      </c>
+      <c r="P392">
         <v>3.8</v>
       </c>
-      <c r="N392">
-        <v>1.6</v>
-      </c>
-      <c r="O392">
-        <v>3.75</v>
-      </c>
-      <c r="P392">
-        <v>3.6</v>
-      </c>
       <c r="Q392">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="R392">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S392">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T392">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U392">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V392">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W392">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X392">
-        <v>2.75</v>
+        <v>0.95</v>
       </c>
       <c r="Y392">
         <v>-1</v>
@@ -35359,16 +35359,16 @@
         <v>-1</v>
       </c>
       <c r="AA392">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB392">
         <v>-1</v>
       </c>
       <c r="AC392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD392">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393" spans="1:30">
@@ -35376,7 +35376,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>6947455</v>
+        <v>6947476</v>
       </c>
       <c r="C393" t="s">
         <v>29</v>
@@ -35385,58 +35385,58 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E393" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F393" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G393">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K393" t="s">
         <v>53</v>
       </c>
       <c r="L393">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="M393">
+        <v>3.8</v>
+      </c>
+      <c r="N393">
+        <v>1.6</v>
+      </c>
+      <c r="O393">
         <v>3.75</v>
-      </c>
-      <c r="N393">
-        <v>3.9</v>
-      </c>
-      <c r="O393">
-        <v>1.75</v>
       </c>
       <c r="P393">
         <v>3.6</v>
       </c>
       <c r="Q393">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="R393">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S393">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T393">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U393">
         <v>3</v>
       </c>
       <c r="V393">
+        <v>1.875</v>
+      </c>
+      <c r="W393">
         <v>1.925</v>
       </c>
-      <c r="W393">
-        <v>1.875</v>
-      </c>
       <c r="X393">
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="Y393">
         <v>-1</v>
@@ -35445,16 +35445,16 @@
         <v>-1</v>
       </c>
       <c r="AA393">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB393">
         <v>-1</v>
       </c>
       <c r="AC393">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD393">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:30">
@@ -35658,7 +35658,7 @@
         <v>31</v>
       </c>
       <c r="F396" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G396">
         <v>1</v>
@@ -35744,7 +35744,7 @@
         <v>34</v>
       </c>
       <c r="F397" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G397">
         <v>1</v>
@@ -35916,7 +35916,7 @@
         <v>47</v>
       </c>
       <c r="F399" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G399">
         <v>2</v>
@@ -36183,7 +36183,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E402" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F402" t="s">
         <v>41</v>
@@ -36530,7 +36530,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6948931</v>
+        <v>6948930</v>
       </c>
       <c r="C406" t="s">
         <v>29</v>
@@ -36539,76 +36539,82 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E406" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F406" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="I406">
+        <v>1</v>
+      </c>
+      <c r="J406">
+        <v>1</v>
       </c>
       <c r="K406" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L406">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M406">
+        <v>3.6</v>
+      </c>
+      <c r="N406">
+        <v>2.4</v>
+      </c>
+      <c r="O406">
+        <v>2.9</v>
+      </c>
+      <c r="P406">
         <v>3.75</v>
       </c>
-      <c r="N406">
+      <c r="Q406">
+        <v>2</v>
+      </c>
+      <c r="R406">
+        <v>0.25</v>
+      </c>
+      <c r="S406">
+        <v>2</v>
+      </c>
+      <c r="T406">
+        <v>1.8</v>
+      </c>
+      <c r="U406">
         <v>2.5</v>
       </c>
-      <c r="O406">
-        <v>2.45</v>
-      </c>
-      <c r="P406">
-        <v>3.6</v>
-      </c>
-      <c r="Q406">
-        <v>2.375</v>
-      </c>
-      <c r="R406">
-        <v>0</v>
-      </c>
-      <c r="S406">
+      <c r="V406">
         <v>1.925</v>
       </c>
-      <c r="T406">
+      <c r="W406">
         <v>1.875</v>
       </c>
-      <c r="U406">
-        <v>2.75</v>
-      </c>
-      <c r="V406">
-        <v>1.95</v>
-      </c>
-      <c r="W406">
-        <v>1.85</v>
-      </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z406">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA406">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC406">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD406">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407" spans="1:30">
@@ -36616,7 +36622,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6948930</v>
+        <v>6948931</v>
       </c>
       <c r="C407" t="s">
         <v>29</v>
@@ -36625,82 +36631,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E407" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F407" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H407">
-        <v>4</v>
-      </c>
-      <c r="I407">
-        <v>1</v>
-      </c>
-      <c r="J407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K407" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L407">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M407">
+        <v>3.75</v>
+      </c>
+      <c r="N407">
+        <v>2.5</v>
+      </c>
+      <c r="O407">
+        <v>2.45</v>
+      </c>
+      <c r="P407">
         <v>3.6</v>
       </c>
-      <c r="N407">
-        <v>2.4</v>
-      </c>
-      <c r="O407">
-        <v>2.9</v>
-      </c>
-      <c r="P407">
-        <v>3.75</v>
-      </c>
       <c r="Q407">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="R407">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S407">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T407">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U407">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V407">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W407">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X407">
         <v>-1</v>
       </c>
       <c r="Y407">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z407">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA407">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB407">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC407">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD407">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="408" spans="1:30">
@@ -36803,7 +36803,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E409" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F409" t="s">
         <v>36</v>
@@ -36972,7 +36972,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>6948938</v>
+        <v>6948934</v>
       </c>
       <c r="C411" t="s">
         <v>29</v>
@@ -36981,58 +36981,64 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E411" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F411" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G411">
         <v>3</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I411">
+        <v>1</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
       </c>
       <c r="K411" t="s">
         <v>53</v>
       </c>
       <c r="L411">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="M411">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N411">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O411">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="P411">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q411">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="R411">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S411">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T411">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U411">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V411">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W411">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X411">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y411">
         <v>-1</v>
@@ -37041,16 +37047,16 @@
         <v>-1</v>
       </c>
       <c r="AA411">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB411">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC411">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD411">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:30">
@@ -37058,7 +37064,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>6948937</v>
+        <v>6948938</v>
       </c>
       <c r="C412" t="s">
         <v>29</v>
@@ -37067,73 +37073,73 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E412" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F412" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G412">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H412">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K412" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L412">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="M412">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N412">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O412">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="P412">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q412">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="R412">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S412">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T412">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U412">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V412">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W412">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X412">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y412">
         <v>-1</v>
       </c>
       <c r="Z412">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA412">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB412">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AC412">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD412">
         <v>-1</v>
@@ -37144,7 +37150,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>6948936</v>
+        <v>6948937</v>
       </c>
       <c r="C413" t="s">
         <v>29</v>
@@ -37153,79 +37159,73 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E413" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F413" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G413">
+        <v>2</v>
+      </c>
+      <c r="H413">
         <v>3</v>
       </c>
-      <c r="H413">
-        <v>0</v>
-      </c>
-      <c r="I413">
-        <v>2</v>
-      </c>
-      <c r="J413">
-        <v>0</v>
-      </c>
       <c r="K413" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L413">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="M413">
         <v>3.75</v>
       </c>
       <c r="N413">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="O413">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="P413">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q413">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="R413">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S413">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T413">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U413">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V413">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W413">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X413">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y413">
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA413">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB413">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC413">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AD413">
         <v>-1</v>
@@ -37236,7 +37236,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>6948934</v>
+        <v>6948936</v>
       </c>
       <c r="C414" t="s">
         <v>29</v>
@@ -37245,10 +37245,10 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E414" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F414" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G414">
         <v>3</v>
@@ -37257,7 +37257,7 @@
         <v>0</v>
       </c>
       <c r="I414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J414">
         <v>0</v>
@@ -37266,43 +37266,43 @@
         <v>53</v>
       </c>
       <c r="L414">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="M414">
         <v>3.75</v>
       </c>
       <c r="N414">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="O414">
+        <v>2.55</v>
+      </c>
+      <c r="P414">
+        <v>3.6</v>
+      </c>
+      <c r="Q414">
+        <v>2.375</v>
+      </c>
+      <c r="R414">
+        <v>0</v>
+      </c>
+      <c r="S414">
+        <v>1.975</v>
+      </c>
+      <c r="T414">
+        <v>1.825</v>
+      </c>
+      <c r="U414">
+        <v>2.5</v>
+      </c>
+      <c r="V414">
+        <v>1.95</v>
+      </c>
+      <c r="W414">
         <v>1.85</v>
       </c>
-      <c r="P414">
-        <v>4</v>
-      </c>
-      <c r="Q414">
-        <v>3.1</v>
-      </c>
-      <c r="R414">
-        <v>-0.5</v>
-      </c>
-      <c r="S414">
-        <v>1.925</v>
-      </c>
-      <c r="T414">
-        <v>1.875</v>
-      </c>
-      <c r="U414">
-        <v>3</v>
-      </c>
-      <c r="V414">
-        <v>1.825</v>
-      </c>
-      <c r="W414">
-        <v>1.975</v>
-      </c>
       <c r="X414">
-        <v>0.8500000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="Y414">
         <v>-1</v>
@@ -37311,16 +37311,16 @@
         <v>-1</v>
       </c>
       <c r="AA414">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB414">
         <v>-1</v>
       </c>
       <c r="AC414">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AD414">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:30">

--- a/England Southern Premier League Central/England Southern Premier League Central.xlsx
+++ b/England Southern Premier League Central/England Southern Premier League Central.xlsx
@@ -7072,7 +7072,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6939074</v>
+        <v>6938252</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7081,82 +7081,82 @@
         <v>45194.65625</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L74">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="M74">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N74">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O74">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="P74">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="R74">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T74">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U74">
         <v>3</v>
       </c>
       <c r="V74">
+        <v>1.95</v>
+      </c>
+      <c r="W74">
         <v>1.85</v>
       </c>
-      <c r="W74">
-        <v>1.95</v>
-      </c>
       <c r="X74">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD74">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7164,7 +7164,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6938252</v>
+        <v>6939074</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7173,82 +7173,82 @@
         <v>45194.65625</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L75">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="M75">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N75">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q75">
+        <v>5.75</v>
+      </c>
+      <c r="R75">
+        <v>-1.5</v>
+      </c>
+      <c r="S75">
+        <v>1.95</v>
+      </c>
+      <c r="T75">
         <v>1.85</v>
-      </c>
-      <c r="R75">
-        <v>0.5</v>
-      </c>
-      <c r="S75">
-        <v>1.875</v>
-      </c>
-      <c r="T75">
-        <v>1.925</v>
       </c>
       <c r="U75">
         <v>3</v>
       </c>
       <c r="V75">
+        <v>1.85</v>
+      </c>
+      <c r="W75">
         <v>1.95</v>
       </c>
-      <c r="W75">
-        <v>1.85</v>
-      </c>
       <c r="X75">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD75">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7256,7 +7256,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6939028</v>
+        <v>6939075</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
@@ -7265,73 +7265,79 @@
         <v>45195.65625</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L76">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
         <v>3.75</v>
       </c>
       <c r="N76">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O76">
+        <v>3.1</v>
+      </c>
+      <c r="P76">
+        <v>3.6</v>
+      </c>
+      <c r="Q76">
+        <v>1.95</v>
+      </c>
+      <c r="R76">
+        <v>0.5</v>
+      </c>
+      <c r="S76">
+        <v>1.8</v>
+      </c>
+      <c r="T76">
+        <v>2</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>1.85</v>
+      </c>
+      <c r="W76">
+        <v>1.95</v>
+      </c>
+      <c r="X76">
         <v>2.1</v>
       </c>
-      <c r="P76">
-        <v>4</v>
-      </c>
-      <c r="Q76">
-        <v>2.625</v>
-      </c>
-      <c r="R76">
-        <v>-0.25</v>
-      </c>
-      <c r="S76">
-        <v>1.925</v>
-      </c>
-      <c r="T76">
-        <v>1.875</v>
-      </c>
-      <c r="U76">
-        <v>3</v>
-      </c>
-      <c r="V76">
-        <v>1.7</v>
-      </c>
-      <c r="W76">
-        <v>2.1</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
       <c r="Y76">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD76">
         <v>-1</v>
@@ -7342,7 +7348,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6939076</v>
+        <v>6938256</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7351,79 +7357,79 @@
         <v>45195.65625</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L77">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M77">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N77">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="O77">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="P77">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q77">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R77">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U77">
         <v>2.75</v>
       </c>
       <c r="V77">
+        <v>1.875</v>
+      </c>
+      <c r="W77">
         <v>1.925</v>
       </c>
-      <c r="W77">
-        <v>1.875</v>
-      </c>
       <c r="X77">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AD77">
         <v>-1</v>
@@ -7434,7 +7440,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6939075</v>
+        <v>6939076</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7443,46 +7449,46 @@
         <v>45195.65625</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="M78">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N78">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O78">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="P78">
         <v>3.6</v>
       </c>
       <c r="Q78">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="R78">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S78">
         <v>1.8</v>
@@ -7494,28 +7500,28 @@
         <v>2.75</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X78">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AD78">
         <v>-1</v>
@@ -7526,7 +7532,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6938255</v>
+        <v>6939028</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -7535,82 +7541,76 @@
         <v>45195.65625</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
       <c r="K79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L79">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M79">
         <v>3.75</v>
       </c>
       <c r="N79">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="O79">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="P79">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q79">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="R79">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S79">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T79">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U79">
         <v>3</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W79">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z79">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC79">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AD79">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:30">
@@ -7618,7 +7618,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6938256</v>
+        <v>6938255</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -7627,82 +7627,82 @@
         <v>45195.65625</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G80">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>53</v>
+      </c>
+      <c r="L80">
+        <v>1.909</v>
+      </c>
+      <c r="M80">
+        <v>3.75</v>
+      </c>
+      <c r="N80">
+        <v>3.1</v>
+      </c>
+      <c r="O80">
+        <v>1.8</v>
+      </c>
+      <c r="P80">
+        <v>3.8</v>
+      </c>
+      <c r="Q80">
+        <v>3.3</v>
+      </c>
+      <c r="R80">
+        <v>-0.5</v>
+      </c>
+      <c r="S80">
+        <v>1.85</v>
+      </c>
+      <c r="T80">
+        <v>1.95</v>
+      </c>
+      <c r="U80">
         <v>3</v>
       </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80" t="s">
-        <v>52</v>
-      </c>
-      <c r="L80">
-        <v>1.5</v>
-      </c>
-      <c r="M80">
-        <v>4.5</v>
-      </c>
-      <c r="N80">
-        <v>4.5</v>
-      </c>
-      <c r="O80">
-        <v>1.7</v>
-      </c>
-      <c r="P80">
-        <v>4.2</v>
-      </c>
-      <c r="Q80">
-        <v>3.5</v>
-      </c>
-      <c r="R80">
-        <v>-0.75</v>
-      </c>
-      <c r="S80">
-        <v>1.925</v>
-      </c>
-      <c r="T80">
-        <v>1.875</v>
-      </c>
-      <c r="U80">
-        <v>2.75</v>
-      </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X80">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD80">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -8066,7 +8066,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6937941</v>
+        <v>6938257</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8075,61 +8075,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>3</v>
-      </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K85" t="s">
         <v>53</v>
       </c>
       <c r="L85">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="M85">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N85">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="P85">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R85">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V85">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8138,19 +8132,19 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AD85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8158,7 +8152,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6938257</v>
+        <v>6937941</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -8167,55 +8161,61 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E86" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
       </c>
       <c r="K86" t="s">
         <v>53</v>
       </c>
       <c r="L86">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O86">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="P86">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R86">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T86">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8224,19 +8224,19 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -12332,7 +12332,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6939091</v>
+        <v>6939092</v>
       </c>
       <c r="C133" t="s">
         <v>29</v>
@@ -12341,76 +12341,76 @@
         <v>45241.5</v>
       </c>
       <c r="E133" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L133">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="M133">
-        <v>4.333</v>
+        <v>4.4</v>
       </c>
       <c r="N133">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="P133">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q133">
-        <v>1.55</v>
+        <v>6</v>
       </c>
       <c r="R133">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U133">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:30">
@@ -12418,7 +12418,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6939092</v>
+        <v>6939091</v>
       </c>
       <c r="C134" t="s">
         <v>29</v>
@@ -12427,76 +12427,76 @@
         <v>45241.5</v>
       </c>
       <c r="E134" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="K134" t="s">
+        <v>53</v>
+      </c>
+      <c r="L134">
+        <v>3.8</v>
+      </c>
+      <c r="M134">
+        <v>4.333</v>
+      </c>
+      <c r="N134">
+        <v>1.615</v>
+      </c>
+      <c r="O134">
+        <v>4.2</v>
+      </c>
+      <c r="P134">
+        <v>4.5</v>
+      </c>
+      <c r="Q134">
+        <v>1.55</v>
+      </c>
+      <c r="R134">
+        <v>1</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
+        <v>1.95</v>
+      </c>
+      <c r="U134">
         <v>3</v>
       </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="K134" t="s">
-        <v>52</v>
-      </c>
-      <c r="L134">
-        <v>1.571</v>
-      </c>
-      <c r="M134">
-        <v>4.4</v>
-      </c>
-      <c r="N134">
-        <v>4</v>
-      </c>
-      <c r="O134">
-        <v>1.363</v>
-      </c>
-      <c r="P134">
-        <v>5</v>
-      </c>
-      <c r="Q134">
-        <v>6</v>
-      </c>
-      <c r="R134">
-        <v>-1.5</v>
-      </c>
-      <c r="S134">
-        <v>1.925</v>
-      </c>
-      <c r="T134">
-        <v>1.875</v>
-      </c>
-      <c r="U134">
-        <v>3.25</v>
-      </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X134">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA134">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:30">
@@ -12504,7 +12504,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6938288</v>
+        <v>6939037</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12513,46 +12513,46 @@
         <v>45241.5</v>
       </c>
       <c r="E135" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G135">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L135">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="M135">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N135">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O135">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="P135">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q135">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="R135">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S135">
         <v>1.975</v>
@@ -12561,22 +12561,22 @@
         <v>1.825</v>
       </c>
       <c r="U135">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W135">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA135">
         <v>-1</v>
@@ -12585,10 +12585,10 @@
         <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -12596,7 +12596,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6938289</v>
+        <v>6938290</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12605,16 +12605,16 @@
         <v>45241.5</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G136">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -12623,64 +12623,64 @@
         <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L136">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M136">
+        <v>4</v>
+      </c>
+      <c r="N136">
+        <v>2.4</v>
+      </c>
+      <c r="O136">
+        <v>2.4</v>
+      </c>
+      <c r="P136">
         <v>3.8</v>
       </c>
-      <c r="N136">
-        <v>3.4</v>
-      </c>
-      <c r="O136">
-        <v>2</v>
-      </c>
-      <c r="P136">
-        <v>3.75</v>
-      </c>
       <c r="Q136">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="R136">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U136">
         <v>2.75</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z136">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC136">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD136">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -12688,7 +12688,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6938290</v>
+        <v>6938289</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -12697,16 +12697,16 @@
         <v>45241.5</v>
       </c>
       <c r="E137" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G137">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -12715,64 +12715,64 @@
         <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L137">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="M137">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N137">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O137">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="P137">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q137">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="R137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U137">
         <v>2.75</v>
       </c>
       <c r="V137">
+        <v>1.8</v>
+      </c>
+      <c r="W137">
+        <v>2</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
         <v>1.9</v>
       </c>
-      <c r="W137">
-        <v>1.9</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>2.8</v>
-      </c>
-      <c r="Z137">
-        <v>-1</v>
-      </c>
       <c r="AA137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AD137">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -12780,7 +12780,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6939037</v>
+        <v>6938288</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -12789,46 +12789,46 @@
         <v>45241.5</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F138" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G138">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L138">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="M138">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N138">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="O138">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="P138">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q138">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="R138">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S138">
         <v>1.975</v>
@@ -12837,22 +12837,22 @@
         <v>1.825</v>
       </c>
       <c r="U138">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
         <v>-1</v>
@@ -12861,10 +12861,10 @@
         <v>0.825</v>
       </c>
       <c r="AC138">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -13142,7 +13142,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6938295</v>
+        <v>6938292</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13151,10 +13151,10 @@
         <v>45248.5</v>
       </c>
       <c r="E142" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -13166,49 +13166,49 @@
         <v>1</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" t="s">
         <v>52</v>
       </c>
       <c r="L142">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M142">
         <v>3.75</v>
       </c>
       <c r="N142">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O142">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="P142">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="R142">
         <v>-0.5</v>
       </c>
       <c r="S142">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U142">
         <v>2.75</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W142">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X142">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="Y142">
         <v>-1</v>
@@ -13217,13 +13217,13 @@
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="AD142">
         <v>-0.5</v>
@@ -13234,7 +13234,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6938292</v>
+        <v>6938295</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13243,10 +13243,10 @@
         <v>45248.5</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -13258,49 +13258,49 @@
         <v>1</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" t="s">
         <v>52</v>
       </c>
       <c r="L143">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M143">
         <v>3.75</v>
       </c>
       <c r="N143">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O143">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="P143">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q143">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="R143">
         <v>-0.5</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T143">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U143">
         <v>2.75</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X143">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="Y143">
         <v>-1</v>
@@ -13309,13 +13309,13 @@
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AD143">
         <v>-0.5</v>
@@ -13694,7 +13694,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7458146</v>
+        <v>7399686</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -13703,40 +13703,40 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L148">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="M148">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N148">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O148">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="P148">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q148">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="R148">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S148">
         <v>2.025</v>
@@ -13745,7 +13745,7 @@
         <v>1.775</v>
       </c>
       <c r="U148">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V148">
         <v>1.925</v>
@@ -13754,19 +13754,19 @@
         <v>1.875</v>
       </c>
       <c r="X148">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13780,7 +13780,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7458147</v>
+        <v>7458146</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -13789,64 +13789,58 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E149" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
         <v>0</v>
       </c>
       <c r="K149" t="s">
         <v>52</v>
       </c>
       <c r="L149">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="M149">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N149">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="O149">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="P149">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q149">
-        <v>1.6</v>
+        <v>10</v>
       </c>
       <c r="R149">
-        <v>1</v>
+        <v>-2.25</v>
       </c>
       <c r="S149">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T149">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U149">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V149">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X149">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="Y149">
         <v>-1</v>
@@ -13855,7 +13849,7 @@
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB149">
         <v>-1</v>
@@ -13864,7 +13858,7 @@
         <v>-1</v>
       </c>
       <c r="AD149">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -13872,7 +13866,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7399686</v>
+        <v>7458147</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -13881,76 +13875,82 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
       </c>
       <c r="K150" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L150">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="M150">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N150">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O150">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="P150">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q150">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="R150">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="S150">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T150">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V150">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W150">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y150">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB150">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
         <v>-1</v>
       </c>
       <c r="AD150">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14130,7 +14130,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6938298</v>
+        <v>6937955</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14139,58 +14139,58 @@
         <v>45255.5</v>
       </c>
       <c r="E153" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G153">
         <v>3</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K153" t="s">
         <v>52</v>
       </c>
       <c r="L153">
+        <v>2.5</v>
+      </c>
+      <c r="M153">
+        <v>3.6</v>
+      </c>
+      <c r="N153">
+        <v>2.3</v>
+      </c>
+      <c r="O153">
         <v>2.25</v>
-      </c>
-      <c r="M153">
-        <v>3.5</v>
-      </c>
-      <c r="N153">
-        <v>2.625</v>
-      </c>
-      <c r="O153">
-        <v>1.95</v>
       </c>
       <c r="P153">
         <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="R153">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S153">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
+        <v>1.775</v>
+      </c>
+      <c r="U153">
+        <v>2.75</v>
+      </c>
+      <c r="V153">
         <v>1.8</v>
       </c>
-      <c r="U153">
-        <v>2.25</v>
-      </c>
-      <c r="V153">
-        <v>1.825</v>
-      </c>
       <c r="W153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X153">
-        <v>0.95</v>
+        <v>1.25</v>
       </c>
       <c r="Y153">
         <v>-1</v>
@@ -14199,13 +14199,13 @@
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AD153">
         <v>-1</v>
@@ -14216,7 +14216,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6938297</v>
+        <v>6938298</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -14225,76 +14225,76 @@
         <v>45255.5</v>
       </c>
       <c r="E154" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L154">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="M154">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N154">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O154">
+        <v>1.95</v>
+      </c>
+      <c r="P154">
+        <v>3.6</v>
+      </c>
+      <c r="Q154">
         <v>3.1</v>
       </c>
-      <c r="P154">
-        <v>3.8</v>
-      </c>
-      <c r="Q154">
-        <v>1.909</v>
-      </c>
       <c r="R154">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>1.8</v>
+      </c>
+      <c r="U154">
+        <v>2.25</v>
+      </c>
+      <c r="V154">
         <v>1.825</v>
       </c>
-      <c r="T154">
+      <c r="W154">
         <v>1.975</v>
       </c>
-      <c r="U154">
-        <v>3</v>
-      </c>
-      <c r="V154">
-        <v>1.95</v>
-      </c>
-      <c r="W154">
-        <v>1.85</v>
-      </c>
       <c r="X154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -14302,7 +14302,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6937955</v>
+        <v>6938297</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14311,76 +14311,76 @@
         <v>45255.5</v>
       </c>
       <c r="E155" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F155" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="K155" t="s">
+        <v>53</v>
+      </c>
+      <c r="L155">
+        <v>2.7</v>
+      </c>
+      <c r="M155">
+        <v>3.75</v>
+      </c>
+      <c r="N155">
+        <v>2.1</v>
+      </c>
+      <c r="O155">
+        <v>3.1</v>
+      </c>
+      <c r="P155">
+        <v>3.8</v>
+      </c>
+      <c r="Q155">
+        <v>1.909</v>
+      </c>
+      <c r="R155">
+        <v>0.5</v>
+      </c>
+      <c r="S155">
+        <v>1.825</v>
+      </c>
+      <c r="T155">
+        <v>1.975</v>
+      </c>
+      <c r="U155">
         <v>3</v>
       </c>
-      <c r="H155">
-        <v>2</v>
-      </c>
-      <c r="K155" t="s">
-        <v>52</v>
-      </c>
-      <c r="L155">
-        <v>2.5</v>
-      </c>
-      <c r="M155">
-        <v>3.6</v>
-      </c>
-      <c r="N155">
-        <v>2.3</v>
-      </c>
-      <c r="O155">
-        <v>2.25</v>
-      </c>
-      <c r="P155">
-        <v>3.6</v>
-      </c>
-      <c r="Q155">
-        <v>2.6</v>
-      </c>
-      <c r="R155">
-        <v>-0.25</v>
-      </c>
-      <c r="S155">
-        <v>2.025</v>
-      </c>
-      <c r="T155">
-        <v>1.775</v>
-      </c>
-      <c r="U155">
-        <v>2.75</v>
-      </c>
       <c r="V155">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X155">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA155">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD155">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -14388,7 +14388,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6938299</v>
+        <v>6938300</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -14397,82 +14397,76 @@
         <v>45255.5</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>1</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L156">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="M156">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N156">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="O156">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="P156">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q156">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="R156">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T156">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U156">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X156">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA156">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC156">
+        <v>0.4125</v>
+      </c>
+      <c r="AD156">
         <v>-0.5</v>
-      </c>
-      <c r="AC156">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD156">
-        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -14750,7 +14744,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6938300</v>
+        <v>6938299</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -14759,76 +14753,82 @@
         <v>45255.5</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
       </c>
       <c r="K160" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L160">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="M160">
+        <v>3.75</v>
+      </c>
+      <c r="N160">
+        <v>4.5</v>
+      </c>
+      <c r="O160">
+        <v>1.615</v>
+      </c>
+      <c r="P160">
         <v>3.6</v>
       </c>
-      <c r="N160">
-        <v>2.4</v>
-      </c>
-      <c r="O160">
-        <v>2.3</v>
-      </c>
-      <c r="P160">
-        <v>3.5</v>
-      </c>
       <c r="Q160">
+        <v>4.75</v>
+      </c>
+      <c r="R160">
+        <v>-0.75</v>
+      </c>
+      <c r="S160">
+        <v>1.8</v>
+      </c>
+      <c r="T160">
+        <v>2</v>
+      </c>
+      <c r="U160">
         <v>2.5</v>
       </c>
-      <c r="R160">
-        <v>0</v>
-      </c>
-      <c r="S160">
-        <v>1.825</v>
-      </c>
-      <c r="T160">
-        <v>1.975</v>
-      </c>
-      <c r="U160">
-        <v>2.75</v>
-      </c>
       <c r="V160">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB160">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC160">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -16082,7 +16082,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6939106</v>
+        <v>6939103</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16091,19 +16091,19 @@
         <v>45269.5</v>
       </c>
       <c r="E175" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -16112,43 +16112,43 @@
         <v>52</v>
       </c>
       <c r="L175">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="M175">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N175">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O175">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="P175">
         <v>4</v>
       </c>
       <c r="Q175">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="R175">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S175">
+        <v>1.85</v>
+      </c>
+      <c r="T175">
+        <v>1.95</v>
+      </c>
+      <c r="U175">
+        <v>2.75</v>
+      </c>
+      <c r="V175">
         <v>1.925</v>
       </c>
-      <c r="T175">
+      <c r="W175">
         <v>1.875</v>
       </c>
-      <c r="U175">
-        <v>3</v>
-      </c>
-      <c r="V175">
-        <v>1.95</v>
-      </c>
-      <c r="W175">
-        <v>1.85</v>
-      </c>
       <c r="X175">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="Y175">
         <v>-1</v>
@@ -16157,16 +16157,16 @@
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AD175">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -16174,7 +16174,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6939103</v>
+        <v>6939106</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16183,19 +16183,19 @@
         <v>45269.5</v>
       </c>
       <c r="E176" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -16204,43 +16204,43 @@
         <v>52</v>
       </c>
       <c r="L176">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="M176">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="N176">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O176">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="P176">
         <v>4</v>
       </c>
       <c r="Q176">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="R176">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S176">
+        <v>1.925</v>
+      </c>
+      <c r="T176">
+        <v>1.875</v>
+      </c>
+      <c r="U176">
+        <v>3</v>
+      </c>
+      <c r="V176">
+        <v>1.95</v>
+      </c>
+      <c r="W176">
         <v>1.85</v>
       </c>
-      <c r="T176">
-        <v>1.95</v>
-      </c>
-      <c r="U176">
-        <v>2.75</v>
-      </c>
-      <c r="V176">
-        <v>1.925</v>
-      </c>
-      <c r="W176">
-        <v>1.875</v>
-      </c>
       <c r="X176">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
@@ -16249,16 +16249,16 @@
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AD176">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16984,7 +16984,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6938313</v>
+        <v>6938312</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -16993,82 +16993,76 @@
         <v>45276.5</v>
       </c>
       <c r="E185" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H185">
-        <v>0</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K185" t="s">
         <v>54</v>
       </c>
       <c r="L185">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="M185">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N185">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="O185">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="P185">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q185">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="R185">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U185">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AB185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD185">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17260,7 +17254,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6938312</v>
+        <v>6938313</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -17269,76 +17263,82 @@
         <v>45276.5</v>
       </c>
       <c r="E188" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
       </c>
       <c r="K188" t="s">
         <v>54</v>
       </c>
       <c r="L188">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="M188">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N188">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="O188">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="P188">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q188">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="R188">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U188">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V188">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD188">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="189" spans="1:30">
@@ -17794,7 +17794,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6938317</v>
+        <v>6938322</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -17803,76 +17803,82 @@
         <v>45283.5</v>
       </c>
       <c r="E194" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G194">
         <v>2</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
       </c>
       <c r="K194" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L194">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M194">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N194">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O194">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="P194">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q194">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="R194">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S194">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T194">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U194">
         <v>2.5</v>
       </c>
       <c r="V194">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X194">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
+        <v>0.4</v>
+      </c>
+      <c r="AB194">
+        <v>-0.5</v>
+      </c>
+      <c r="AC194">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB194">
-        <v>-1</v>
-      </c>
-      <c r="AC194">
-        <v>-1</v>
-      </c>
       <c r="AD194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -17880,7 +17886,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6938318</v>
+        <v>6939110</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -17889,76 +17895,76 @@
         <v>45283.5</v>
       </c>
       <c r="E195" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195">
         <v>2</v>
       </c>
       <c r="K195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L195">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="M195">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N195">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="O195">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="P195">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q195">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="R195">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U195">
         <v>2.75</v>
       </c>
       <c r="V195">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC195">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AD195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -17966,7 +17972,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6938319</v>
+        <v>6938317</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -17975,64 +17981,58 @@
         <v>45283.5</v>
       </c>
       <c r="E196" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F196" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G196">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H196">
-        <v>0</v>
-      </c>
-      <c r="I196">
-        <v>3</v>
-      </c>
-      <c r="J196">
         <v>0</v>
       </c>
       <c r="K196" t="s">
         <v>52</v>
       </c>
       <c r="L196">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="M196">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N196">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O196">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="P196">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q196">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="R196">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S196">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U196">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V196">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X196">
-        <v>0.333</v>
+        <v>1.1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -18041,16 +18041,16 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18058,7 +18058,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6938320</v>
+        <v>6938318</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18067,73 +18067,73 @@
         <v>45283.5</v>
       </c>
       <c r="E197" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H197">
+        <v>2</v>
+      </c>
+      <c r="K197" t="s">
+        <v>54</v>
+      </c>
+      <c r="L197">
+        <v>1.615</v>
+      </c>
+      <c r="M197">
+        <v>4</v>
+      </c>
+      <c r="N197">
+        <v>4</v>
+      </c>
+      <c r="O197">
+        <v>1.571</v>
+      </c>
+      <c r="P197">
+        <v>4</v>
+      </c>
+      <c r="Q197">
+        <v>4.2</v>
+      </c>
+      <c r="R197">
+        <v>-1</v>
+      </c>
+      <c r="S197">
+        <v>2</v>
+      </c>
+      <c r="T197">
+        <v>1.8</v>
+      </c>
+      <c r="U197">
+        <v>2.75</v>
+      </c>
+      <c r="V197">
+        <v>1.8</v>
+      </c>
+      <c r="W197">
+        <v>2</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
         <v>3</v>
       </c>
-      <c r="K197" t="s">
-        <v>53</v>
-      </c>
-      <c r="L197">
-        <v>3.75</v>
-      </c>
-      <c r="M197">
-        <v>3.75</v>
-      </c>
-      <c r="N197">
-        <v>1.727</v>
-      </c>
-      <c r="O197">
-        <v>3.8</v>
-      </c>
-      <c r="P197">
-        <v>3.8</v>
-      </c>
-      <c r="Q197">
-        <v>1.7</v>
-      </c>
-      <c r="R197">
-        <v>0.75</v>
-      </c>
-      <c r="S197">
-        <v>1.85</v>
-      </c>
-      <c r="T197">
-        <v>1.95</v>
-      </c>
-      <c r="U197">
-        <v>2.5</v>
-      </c>
-      <c r="V197">
-        <v>1.9</v>
-      </c>
-      <c r="W197">
-        <v>1.9</v>
-      </c>
-      <c r="X197">
-        <v>-1</v>
-      </c>
-      <c r="Y197">
-        <v>-1</v>
-      </c>
       <c r="Z197">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC197">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AD197">
         <v>-1</v>
@@ -18144,7 +18144,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6938321</v>
+        <v>6938319</v>
       </c>
       <c r="C198" t="s">
         <v>29</v>
@@ -18153,82 +18153,82 @@
         <v>45283.5</v>
       </c>
       <c r="E198" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
       <c r="K198" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L198">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="M198">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N198">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="O198">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="P198">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q198">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="R198">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T198">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U198">
         <v>3</v>
       </c>
       <c r="V198">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W198">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y198">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD198">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -18236,7 +18236,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6938322</v>
+        <v>6938320</v>
       </c>
       <c r="C199" t="s">
         <v>29</v>
@@ -18245,52 +18245,46 @@
         <v>45283.5</v>
       </c>
       <c r="E199" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>2</v>
-      </c>
-      <c r="I199">
-        <v>1</v>
-      </c>
-      <c r="J199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K199" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L199">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="M199">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N199">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O199">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="P199">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q199">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="R199">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S199">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U199">
         <v>2.5</v>
@@ -18305,16 +18299,16 @@
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA199">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC199">
         <v>0.8999999999999999</v>
@@ -18328,7 +18322,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6938323</v>
+        <v>6938321</v>
       </c>
       <c r="C200" t="s">
         <v>29</v>
@@ -18337,76 +18331,82 @@
         <v>45283.5</v>
       </c>
       <c r="E200" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200" t="s">
+        <v>54</v>
+      </c>
+      <c r="L200">
+        <v>1.571</v>
+      </c>
+      <c r="M200">
+        <v>4</v>
+      </c>
+      <c r="N200">
+        <v>4.333</v>
+      </c>
+      <c r="O200">
+        <v>1.5</v>
+      </c>
+      <c r="P200">
+        <v>4.2</v>
+      </c>
+      <c r="Q200">
+        <v>5</v>
+      </c>
+      <c r="R200">
+        <v>-1</v>
+      </c>
+      <c r="S200">
+        <v>1.8</v>
+      </c>
+      <c r="T200">
+        <v>2</v>
+      </c>
+      <c r="U200">
         <v>3</v>
       </c>
-      <c r="H200">
-        <v>1</v>
-      </c>
-      <c r="K200" t="s">
-        <v>52</v>
-      </c>
-      <c r="L200">
-        <v>1.8</v>
-      </c>
-      <c r="M200">
-        <v>3.6</v>
-      </c>
-      <c r="N200">
-        <v>3.6</v>
-      </c>
-      <c r="O200">
-        <v>1.533</v>
-      </c>
-      <c r="P200">
-        <v>3.8</v>
-      </c>
-      <c r="Q200">
-        <v>5.25</v>
-      </c>
-      <c r="R200">
-        <v>-1</v>
-      </c>
-      <c r="S200">
-        <v>1.975</v>
-      </c>
-      <c r="T200">
-        <v>1.825</v>
-      </c>
-      <c r="U200">
-        <v>2.5</v>
-      </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W200">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="X200">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z200">
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD200">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="201" spans="1:30">
@@ -18414,7 +18414,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6939109</v>
+        <v>6938323</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -18423,13 +18423,13 @@
         <v>45283.5</v>
       </c>
       <c r="E201" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18438,43 +18438,43 @@
         <v>52</v>
       </c>
       <c r="L201">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M201">
         <v>3.6</v>
       </c>
       <c r="N201">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O201">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="P201">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q201">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="R201">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S201">
+        <v>1.975</v>
+      </c>
+      <c r="T201">
         <v>1.825</v>
-      </c>
-      <c r="T201">
-        <v>1.975</v>
       </c>
       <c r="U201">
         <v>2.5</v>
       </c>
       <c r="V201">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X201">
-        <v>1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y201">
         <v>-1</v>
@@ -18483,13 +18483,13 @@
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD201">
         <v>-1</v>
@@ -18500,7 +18500,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6939357</v>
+        <v>6939109</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -18509,82 +18509,76 @@
         <v>45283.5</v>
       </c>
       <c r="E202" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H202">
-        <v>2</v>
-      </c>
-      <c r="I202">
-        <v>1</v>
-      </c>
-      <c r="J202">
         <v>1</v>
       </c>
       <c r="K202" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L202">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="M202">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N202">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O202">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="P202">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q202">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="R202">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S202">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T202">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U202">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V202">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W202">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AD202">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:30">
@@ -18592,7 +18586,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6939110</v>
+        <v>6939357</v>
       </c>
       <c r="C203" t="s">
         <v>29</v>
@@ -18601,56 +18595,62 @@
         <v>45283.5</v>
       </c>
       <c r="E203" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G203">
         <v>1</v>
       </c>
       <c r="H203">
         <v>2</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
       </c>
       <c r="K203" t="s">
         <v>53</v>
       </c>
       <c r="L203">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="M203">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N203">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="O203">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="P203">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q203">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="R203">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S203">
+        <v>1.925</v>
+      </c>
+      <c r="T203">
+        <v>1.775</v>
+      </c>
+      <c r="U203">
+        <v>3.25</v>
+      </c>
+      <c r="V203">
         <v>1.95</v>
       </c>
-      <c r="T203">
+      <c r="W203">
         <v>1.85</v>
       </c>
-      <c r="U203">
-        <v>2.75</v>
-      </c>
-      <c r="V203">
-        <v>1.9</v>
-      </c>
-      <c r="W203">
-        <v>1.9</v>
-      </c>
       <c r="X203">
         <v>-1</v>
       </c>
@@ -18658,19 +18658,19 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB203">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AD203">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="204" spans="1:30">
@@ -19464,7 +19464,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7623640</v>
+        <v>6937961</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -19473,17 +19473,17 @@
         <v>45290.5</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F213" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
         <v>3</v>
       </c>
-      <c r="H213">
-        <v>0</v>
-      </c>
       <c r="I213">
         <v>1</v>
       </c>
@@ -19491,61 +19491,61 @@
         <v>0</v>
       </c>
       <c r="K213" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L213">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N213">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O213">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="P213">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q213">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="R213">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="S213">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U213">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V213">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X213">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AA213">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC213">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AD213">
         <v>-1</v>
@@ -19556,7 +19556,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6937961</v>
+        <v>7623640</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -19565,79 +19565,79 @@
         <v>45290.5</v>
       </c>
       <c r="E214" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F214" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214" t="s">
+        <v>52</v>
+      </c>
+      <c r="L214">
+        <v>2.05</v>
+      </c>
+      <c r="M214">
+        <v>3.5</v>
+      </c>
+      <c r="N214">
         <v>3</v>
       </c>
-      <c r="I214">
-        <v>1</v>
-      </c>
-      <c r="J214">
-        <v>0</v>
-      </c>
-      <c r="K214" t="s">
-        <v>53</v>
-      </c>
-      <c r="L214">
-        <v>1.2</v>
-      </c>
-      <c r="M214">
-        <v>5.25</v>
-      </c>
-      <c r="N214">
-        <v>11</v>
-      </c>
       <c r="O214">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="P214">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q214">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="R214">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T214">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U214">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD214">
         <v>-1</v>
@@ -19648,7 +19648,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6938332</v>
+        <v>6938333</v>
       </c>
       <c r="C215" t="s">
         <v>29</v>
@@ -19657,73 +19657,73 @@
         <v>45292.5</v>
       </c>
       <c r="E215" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F215" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H215">
+        <v>2</v>
+      </c>
+      <c r="K215" t="s">
+        <v>52</v>
+      </c>
+      <c r="L215">
+        <v>1.909</v>
+      </c>
+      <c r="M215">
+        <v>3.6</v>
+      </c>
+      <c r="N215">
+        <v>3.2</v>
+      </c>
+      <c r="O215">
+        <v>1.727</v>
+      </c>
+      <c r="P215">
+        <v>3.8</v>
+      </c>
+      <c r="Q215">
+        <v>3.75</v>
+      </c>
+      <c r="R215">
+        <v>-0.75</v>
+      </c>
+      <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
+        <v>1.825</v>
+      </c>
+      <c r="U215">
         <v>3</v>
       </c>
-      <c r="K215" t="s">
-        <v>53</v>
-      </c>
-      <c r="L215">
-        <v>1.65</v>
-      </c>
-      <c r="M215">
-        <v>3.5</v>
-      </c>
-      <c r="N215">
-        <v>4.5</v>
-      </c>
-      <c r="O215">
+      <c r="V215">
         <v>1.8</v>
       </c>
-      <c r="P215">
-        <v>3.4</v>
-      </c>
-      <c r="Q215">
-        <v>4</v>
-      </c>
-      <c r="R215">
-        <v>-0.5</v>
-      </c>
-      <c r="S215">
-        <v>1.8</v>
-      </c>
-      <c r="T215">
-        <v>2</v>
-      </c>
-      <c r="U215">
-        <v>2.5</v>
-      </c>
-      <c r="V215">
-        <v>1.85</v>
-      </c>
       <c r="W215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AD215">
         <v>-1</v>
@@ -19734,7 +19734,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6938333</v>
+        <v>6938334</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -19743,76 +19743,76 @@
         <v>45292.5</v>
       </c>
       <c r="E216" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F216" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G216">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K216" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L216">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="M216">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N216">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O216">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="P216">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q216">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R216">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U216">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V216">
+        <v>2</v>
+      </c>
+      <c r="W216">
         <v>1.8</v>
       </c>
-      <c r="W216">
-        <v>2</v>
-      </c>
       <c r="X216">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA216">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC216">
+        <v>-1</v>
+      </c>
+      <c r="AD216">
         <v>0.8</v>
-      </c>
-      <c r="AD216">
-        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -19820,7 +19820,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6938334</v>
+        <v>6939114</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -19829,76 +19829,82 @@
         <v>45292.5</v>
       </c>
       <c r="E217" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G217">
         <v>0</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
       </c>
       <c r="K217" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L217">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="M217">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N217">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="O217">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="P217">
         <v>3.5</v>
       </c>
       <c r="Q217">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="R217">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S217">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T217">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U217">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V217">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z217">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC217">
         <v>-1</v>
       </c>
       <c r="AD217">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -19906,7 +19912,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6938330</v>
+        <v>6938332</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -19915,76 +19921,76 @@
         <v>45292.5</v>
       </c>
       <c r="E218" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K218" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L218">
-        <v>3.7</v>
+        <v>1.65</v>
       </c>
       <c r="M218">
         <v>3.5</v>
       </c>
       <c r="N218">
+        <v>4.5</v>
+      </c>
+      <c r="O218">
         <v>1.8</v>
       </c>
-      <c r="O218">
-        <v>3.25</v>
-      </c>
       <c r="P218">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q218">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="R218">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S218">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T218">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U218">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V218">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W218">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X218">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA218">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD218">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -19992,7 +19998,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6939114</v>
+        <v>6939116</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -20001,67 +20007,61 @@
         <v>45292.5</v>
       </c>
       <c r="E219" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>0</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
-      </c>
-      <c r="J219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K219" t="s">
         <v>54</v>
       </c>
       <c r="L219">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="M219">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N219">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O219">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P219">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q219">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="R219">
         <v>-0.75</v>
       </c>
       <c r="S219">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T219">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U219">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V219">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W219">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z219">
         <v>-1</v>
@@ -20070,13 +20070,13 @@
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC219">
         <v>-1</v>
       </c>
       <c r="AD219">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -20084,7 +20084,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6939116</v>
+        <v>6939117</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
@@ -20093,76 +20093,82 @@
         <v>45292.5</v>
       </c>
       <c r="E220" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F220" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G220">
         <v>1</v>
       </c>
       <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
         <v>1</v>
       </c>
       <c r="K220" t="s">
         <v>54</v>
       </c>
       <c r="L220">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="M220">
+        <v>4.75</v>
+      </c>
+      <c r="N220">
+        <v>1.333</v>
+      </c>
+      <c r="O220">
+        <v>8.5</v>
+      </c>
+      <c r="P220">
+        <v>5.25</v>
+      </c>
+      <c r="Q220">
+        <v>1.25</v>
+      </c>
+      <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
+        <v>1.75</v>
+      </c>
+      <c r="T220">
+        <v>1.95</v>
+      </c>
+      <c r="U220">
         <v>3.25</v>
       </c>
-      <c r="N220">
-        <v>4</v>
-      </c>
-      <c r="O220">
-        <v>1.75</v>
-      </c>
-      <c r="P220">
-        <v>3.3</v>
-      </c>
-      <c r="Q220">
-        <v>4.2</v>
-      </c>
-      <c r="R220">
-        <v>-0.75</v>
-      </c>
-      <c r="S220">
-        <v>2</v>
-      </c>
-      <c r="T220">
-        <v>1.8</v>
-      </c>
-      <c r="U220">
-        <v>2.5</v>
-      </c>
       <c r="V220">
+        <v>1.85</v>
+      </c>
+      <c r="W220">
         <v>1.95</v>
       </c>
-      <c r="W220">
-        <v>1.85</v>
-      </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>2.3</v>
+        <v>4.25</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB220">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
         <v>-1</v>
       </c>
       <c r="AD220">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -20170,7 +20176,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6939117</v>
+        <v>6938330</v>
       </c>
       <c r="C221" t="s">
         <v>29</v>
@@ -20179,73 +20185,67 @@
         <v>45292.5</v>
       </c>
       <c r="E221" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G221">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>1</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-      <c r="J221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K221" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L221">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="M221">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N221">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O221">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="P221">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q221">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="S221">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U221">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W221">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y221">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB221">
         <v>-1</v>
@@ -20254,7 +20254,7 @@
         <v>-1</v>
       </c>
       <c r="AD221">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:30">
@@ -20526,7 +20526,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6937962</v>
+        <v>6938337</v>
       </c>
       <c r="C225" t="s">
         <v>29</v>
@@ -20535,79 +20535,73 @@
         <v>45297.5</v>
       </c>
       <c r="E225" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F225" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G225">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H225">
-        <v>0</v>
-      </c>
-      <c r="I225">
-        <v>1</v>
-      </c>
-      <c r="J225">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K225" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L225">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M225">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N225">
         <v>2.4</v>
       </c>
       <c r="O225">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="P225">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q225">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="R225">
         <v>0</v>
       </c>
       <c r="S225">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T225">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U225">
         <v>2.75</v>
       </c>
       <c r="V225">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W225">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X225">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA225">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC225">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AD225">
         <v>-1</v>
@@ -20618,7 +20612,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6938337</v>
+        <v>6937962</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -20627,73 +20621,79 @@
         <v>45297.5</v>
       </c>
       <c r="E226" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F226" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G226">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H226">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
       </c>
       <c r="K226" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L226">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M226">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N226">
         <v>2.4</v>
       </c>
       <c r="O226">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="P226">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q226">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R226">
         <v>0</v>
       </c>
       <c r="S226">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T226">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U226">
         <v>2.75</v>
       </c>
       <c r="V226">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W226">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB226">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD226">
         <v>-1</v>
@@ -20704,7 +20704,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6938339</v>
+        <v>6938338</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -20713,64 +20713,58 @@
         <v>45297.5</v>
       </c>
       <c r="E227" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F227" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G227">
         <v>2</v>
       </c>
       <c r="H227">
-        <v>1</v>
-      </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-      <c r="J227">
         <v>1</v>
       </c>
       <c r="K227" t="s">
         <v>52</v>
       </c>
       <c r="L227">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="M227">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N227">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="O227">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="P227">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q227">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="R227">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S227">
+        <v>1.85</v>
+      </c>
+      <c r="T227">
+        <v>1.95</v>
+      </c>
+      <c r="U227">
+        <v>2.75</v>
+      </c>
+      <c r="V227">
+        <v>1.925</v>
+      </c>
+      <c r="W227">
         <v>1.875</v>
       </c>
-      <c r="T227">
-        <v>1.925</v>
-      </c>
-      <c r="U227">
-        <v>3</v>
-      </c>
-      <c r="V227">
-        <v>1.825</v>
-      </c>
-      <c r="W227">
-        <v>1.975</v>
-      </c>
       <c r="X227">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="Y227">
         <v>-1</v>
@@ -20779,16 +20773,16 @@
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AD227">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -20796,7 +20790,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6938336</v>
+        <v>6939042</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -20805,76 +20799,76 @@
         <v>45297.5</v>
       </c>
       <c r="E228" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F228" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K228" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L228">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="M228">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N228">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O228">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="P228">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q228">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="R228">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T228">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U228">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V228">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W228">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB228">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
         <v>-1</v>
       </c>
       <c r="AD228">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -20882,7 +20876,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6939120</v>
+        <v>6938336</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -20891,49 +20885,49 @@
         <v>45297.5</v>
       </c>
       <c r="E229" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F229" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G229">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K229" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L229">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="M229">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N229">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="O229">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="P229">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q229">
-        <v>6</v>
+        <v>1.55</v>
       </c>
       <c r="R229">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="S229">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T229">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U229">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V229">
         <v>1.825</v>
@@ -20942,25 +20936,25 @@
         <v>1.975</v>
       </c>
       <c r="X229">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA229">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC229">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:30">
@@ -20968,7 +20962,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6939118</v>
+        <v>6939120</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
@@ -20977,58 +20971,58 @@
         <v>45297.5</v>
       </c>
       <c r="E230" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F230" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G230">
         <v>4</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K230" t="s">
         <v>52</v>
       </c>
       <c r="L230">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="M230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N230">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="O230">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P230">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q230">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R230">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T230">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U230">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V230">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W230">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X230">
-        <v>0.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y230">
         <v>-1</v>
@@ -21037,13 +21031,13 @@
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD230">
         <v>-1</v>
@@ -21054,7 +21048,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6939042</v>
+        <v>6939118</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
@@ -21063,58 +21057,58 @@
         <v>45297.5</v>
       </c>
       <c r="E231" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F231" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K231" t="s">
         <v>52</v>
       </c>
       <c r="L231">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="M231">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N231">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="O231">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="P231">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q231">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="R231">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S231">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U231">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V231">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W231">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X231">
-        <v>1.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y231">
         <v>-1</v>
@@ -21123,16 +21117,16 @@
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB231">
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD231">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:30">
@@ -21140,7 +21134,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6938338</v>
+        <v>6938339</v>
       </c>
       <c r="C232" t="s">
         <v>29</v>
@@ -21149,58 +21143,64 @@
         <v>45297.5</v>
       </c>
       <c r="E232" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G232">
         <v>2</v>
       </c>
       <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
         <v>1</v>
       </c>
       <c r="K232" t="s">
         <v>52</v>
       </c>
       <c r="L232">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="M232">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N232">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="O232">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="P232">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q232">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="R232">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S232">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T232">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U232">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V232">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X232">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="Y232">
         <v>-1</v>
@@ -21209,16 +21209,16 @@
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AD232">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:30">
@@ -22288,7 +22288,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6937963</v>
+        <v>6938354</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -22297,25 +22297,25 @@
         <v>45311.5</v>
       </c>
       <c r="E245" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K245" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L245">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="M245">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N245">
         <v>4</v>
@@ -22324,49 +22324,49 @@
         <v>1.7</v>
       </c>
       <c r="P245">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q245">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R245">
         <v>-0.75</v>
       </c>
       <c r="S245">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T245">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U245">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V245">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W245">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB245">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC245">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD245">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:30">
@@ -22374,7 +22374,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6938354</v>
+        <v>6938351</v>
       </c>
       <c r="C246" t="s">
         <v>29</v>
@@ -22383,49 +22383,55 @@
         <v>45311.5</v>
       </c>
       <c r="E246" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F246" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
         <v>0</v>
       </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
       <c r="K246" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L246">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="M246">
+        <v>3.75</v>
+      </c>
+      <c r="N246">
+        <v>3.1</v>
+      </c>
+      <c r="O246">
+        <v>1.8</v>
+      </c>
+      <c r="P246">
         <v>3.8</v>
       </c>
-      <c r="N246">
-        <v>4</v>
-      </c>
-      <c r="O246">
-        <v>1.7</v>
-      </c>
-      <c r="P246">
-        <v>4</v>
-      </c>
       <c r="Q246">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="R246">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S246">
+        <v>1.85</v>
+      </c>
+      <c r="T246">
         <v>1.95</v>
       </c>
-      <c r="T246">
-        <v>1.85</v>
-      </c>
       <c r="U246">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V246">
         <v>1.8</v>
@@ -22434,19 +22440,19 @@
         <v>2</v>
       </c>
       <c r="X246">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z246">
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB246">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC246">
         <v>-1</v>
@@ -22460,7 +22466,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6938351</v>
+        <v>6938350</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -22469,82 +22475,76 @@
         <v>45311.5</v>
       </c>
       <c r="E247" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H247">
-        <v>0</v>
-      </c>
-      <c r="I247">
-        <v>0</v>
-      </c>
-      <c r="J247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K247" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L247">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M247">
+        <v>3.6</v>
+      </c>
+      <c r="N247">
+        <v>2.3</v>
+      </c>
+      <c r="O247">
+        <v>2.4</v>
+      </c>
+      <c r="P247">
         <v>3.75</v>
       </c>
-      <c r="N247">
-        <v>3.1</v>
-      </c>
-      <c r="O247">
-        <v>1.8</v>
-      </c>
-      <c r="P247">
-        <v>3.8</v>
-      </c>
       <c r="Q247">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="R247">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S247">
+        <v>1.95</v>
+      </c>
+      <c r="T247">
         <v>1.85</v>
-      </c>
-      <c r="T247">
-        <v>1.95</v>
       </c>
       <c r="U247">
         <v>2.75</v>
       </c>
       <c r="V247">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W247">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y247">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB247">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AD247">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -22552,7 +22552,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6938350</v>
+        <v>6937963</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -22561,76 +22561,76 @@
         <v>45311.5</v>
       </c>
       <c r="E248" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F248" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K248" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L248">
+        <v>1.615</v>
+      </c>
+      <c r="M248">
+        <v>4</v>
+      </c>
+      <c r="N248">
+        <v>4</v>
+      </c>
+      <c r="O248">
+        <v>1.7</v>
+      </c>
+      <c r="P248">
+        <v>4.2</v>
+      </c>
+      <c r="Q248">
+        <v>3.5</v>
+      </c>
+      <c r="R248">
+        <v>-0.75</v>
+      </c>
+      <c r="S248">
+        <v>1.925</v>
+      </c>
+      <c r="T248">
+        <v>1.875</v>
+      </c>
+      <c r="U248">
+        <v>3.25</v>
+      </c>
+      <c r="V248">
+        <v>2</v>
+      </c>
+      <c r="W248">
+        <v>1.8</v>
+      </c>
+      <c r="X248">
+        <v>-1</v>
+      </c>
+      <c r="Y248">
+        <v>-1</v>
+      </c>
+      <c r="Z248">
         <v>2.5</v>
       </c>
-      <c r="M248">
-        <v>3.6</v>
-      </c>
-      <c r="N248">
-        <v>2.3</v>
-      </c>
-      <c r="O248">
-        <v>2.4</v>
-      </c>
-      <c r="P248">
-        <v>3.75</v>
-      </c>
-      <c r="Q248">
-        <v>2.3</v>
-      </c>
-      <c r="R248">
-        <v>0</v>
-      </c>
-      <c r="S248">
-        <v>1.95</v>
-      </c>
-      <c r="T248">
-        <v>1.85</v>
-      </c>
-      <c r="U248">
-        <v>2.75</v>
-      </c>
-      <c r="V248">
-        <v>1.975</v>
-      </c>
-      <c r="W248">
-        <v>1.825</v>
-      </c>
-      <c r="X248">
-        <v>1.4</v>
-      </c>
-      <c r="Y248">
-        <v>-1</v>
-      </c>
-      <c r="Z248">
-        <v>-1</v>
-      </c>
       <c r="AA248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC248">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AD248">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -22638,7 +22638,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7593255</v>
+        <v>7696446</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -22647,46 +22647,46 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E249" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F249" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G249">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249">
         <v>0</v>
       </c>
       <c r="K249" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L249">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="M249">
         <v>3.75</v>
       </c>
       <c r="N249">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O249">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="P249">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q249">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="R249">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S249">
         <v>1.8</v>
@@ -22695,34 +22695,34 @@
         <v>2</v>
       </c>
       <c r="U249">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V249">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W249">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X249">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z249">
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB249">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC249">
         <v>-1</v>
       </c>
       <c r="AD249">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -22730,7 +22730,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7696446</v>
+        <v>7593255</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -22739,46 +22739,46 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E250" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F250" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G250">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250">
         <v>0</v>
       </c>
       <c r="K250" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L250">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="M250">
         <v>3.75</v>
       </c>
       <c r="N250">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="O250">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="P250">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q250">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="R250">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S250">
         <v>1.8</v>
@@ -22787,34 +22787,34 @@
         <v>2</v>
       </c>
       <c r="U250">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V250">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W250">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y250">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
         <v>-1</v>
       </c>
       <c r="AA250">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB250">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC250">
         <v>-1</v>
       </c>
       <c r="AD250">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -23792,7 +23792,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7758051</v>
+        <v>7758055</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -23801,82 +23801,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E262" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F262" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G262">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>0</v>
-      </c>
-      <c r="I262">
-        <v>0</v>
-      </c>
-      <c r="J262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K262" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L262">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="M262">
         <v>3.5</v>
       </c>
       <c r="N262">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O262">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="P262">
         <v>3.6</v>
       </c>
       <c r="Q262">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="R262">
         <v>0</v>
       </c>
       <c r="S262">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T262">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="U262">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V262">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W262">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X262">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z262">
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC262">
         <v>-1</v>
       </c>
       <c r="AD262">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:30">
@@ -23884,7 +23878,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7758055</v>
+        <v>7758051</v>
       </c>
       <c r="C263" t="s">
         <v>29</v>
@@ -23893,76 +23887,82 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E263" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F263" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G263">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
       </c>
       <c r="K263" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L263">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="M263">
         <v>3.5</v>
       </c>
       <c r="N263">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O263">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="P263">
         <v>3.6</v>
       </c>
       <c r="Q263">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="R263">
         <v>0</v>
       </c>
       <c r="S263">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T263">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="U263">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V263">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W263">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y263">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
         <v>-1</v>
       </c>
       <c r="AD263">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:30">
@@ -27764,7 +27764,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7863976</v>
+        <v>7863975</v>
       </c>
       <c r="C307" t="s">
         <v>29</v>
@@ -27773,82 +27773,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="E307" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H307">
-        <v>0</v>
-      </c>
-      <c r="I307">
-        <v>1</v>
-      </c>
-      <c r="J307">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K307" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L307">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="M307">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N307">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="O307">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="P307">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q307">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="R307">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S307">
+        <v>1.95</v>
+      </c>
+      <c r="T307">
         <v>1.85</v>
-      </c>
-      <c r="T307">
-        <v>1.95</v>
       </c>
       <c r="U307">
         <v>2.75</v>
       </c>
       <c r="V307">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W307">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X307">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AD307">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="308" spans="1:30">
@@ -27856,7 +27850,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7863975</v>
+        <v>7863974</v>
       </c>
       <c r="C308" t="s">
         <v>29</v>
@@ -27865,46 +27859,52 @@
         <v>45349.69791666666</v>
       </c>
       <c r="E308" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F308" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H308">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
       </c>
       <c r="K308" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L308">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M308">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N308">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O308">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="P308">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q308">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="R308">
         <v>0.25</v>
       </c>
       <c r="S308">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T308">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U308">
         <v>2.75</v>
@@ -27916,25 +27916,25 @@
         <v>2</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB308">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD308">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:30">
@@ -27942,7 +27942,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7863974</v>
+        <v>7863976</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
@@ -27951,13 +27951,13 @@
         <v>45349.69791666666</v>
       </c>
       <c r="E309" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F309" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H309">
         <v>0</v>
@@ -27972,43 +27972,43 @@
         <v>52</v>
       </c>
       <c r="L309">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="M309">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N309">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O309">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="P309">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q309">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="R309">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S309">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T309">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U309">
         <v>2.75</v>
       </c>
       <c r="V309">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W309">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X309">
-        <v>1.55</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y309">
         <v>-1</v>
@@ -28017,16 +28017,16 @@
         <v>-1</v>
       </c>
       <c r="AA309">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC309">
         <v>-1</v>
       </c>
       <c r="AD309">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="310" spans="1:30">
@@ -30428,7 +30428,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7952611</v>
+        <v>7863973</v>
       </c>
       <c r="C337" t="s">
         <v>29</v>
@@ -30437,82 +30437,82 @@
         <v>45370.69791666666</v>
       </c>
       <c r="E337" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F337" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J337">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K337" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L337">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="M337">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N337">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O337">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="P337">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q337">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="R337">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S337">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T337">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U337">
         <v>2.5</v>
       </c>
       <c r="V337">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W337">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X337">
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z337">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
         <v>-1</v>
       </c>
       <c r="AB337">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC337">
         <v>-1</v>
       </c>
       <c r="AD337">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:30">
@@ -30520,7 +30520,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7925874</v>
+        <v>7952611</v>
       </c>
       <c r="C338" t="s">
         <v>29</v>
@@ -30529,82 +30529,82 @@
         <v>45370.69791666666</v>
       </c>
       <c r="E338" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F338" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G338">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J338">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K338" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L338">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="M338">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N338">
+        <v>2</v>
+      </c>
+      <c r="O338">
+        <v>4.333</v>
+      </c>
+      <c r="P338">
         <v>3.4</v>
       </c>
-      <c r="O338">
-        <v>1.45</v>
-      </c>
-      <c r="P338">
-        <v>4.333</v>
-      </c>
       <c r="Q338">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="R338">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="S338">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T338">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U338">
         <v>2.5</v>
       </c>
       <c r="V338">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W338">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X338">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y338">
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA338">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB338">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC338">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD338">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="339" spans="1:30">
@@ -30612,7 +30612,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7863973</v>
+        <v>7925874</v>
       </c>
       <c r="C339" t="s">
         <v>29</v>
@@ -30621,52 +30621,52 @@
         <v>45370.69791666666</v>
       </c>
       <c r="E339" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F339" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G339">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339">
         <v>1</v>
       </c>
       <c r="J339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K339" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L339">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="M339">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N339">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="O339">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="P339">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q339">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="R339">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S339">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T339">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U339">
         <v>2.5</v>
@@ -30678,25 +30678,25 @@
         <v>1.975</v>
       </c>
       <c r="X339">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y339">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
         <v>-1</v>
       </c>
       <c r="AA339">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB339">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC339">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD339">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340" spans="1:30">
@@ -30968,7 +30968,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6944266</v>
+        <v>6944268</v>
       </c>
       <c r="C343" t="s">
         <v>29</v>
@@ -30977,58 +30977,58 @@
         <v>45374.5</v>
       </c>
       <c r="E343" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F343" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G343">
         <v>3</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K343" t="s">
         <v>52</v>
       </c>
       <c r="L343">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="M343">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N343">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="O343">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="P343">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q343">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="R343">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S343">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T343">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U343">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V343">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W343">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X343">
-        <v>0.833</v>
+        <v>0.25</v>
       </c>
       <c r="Y343">
         <v>-1</v>
@@ -31037,16 +31037,16 @@
         <v>-1</v>
       </c>
       <c r="AA343">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB343">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC343">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD343">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344" spans="1:30">
@@ -31146,7 +31146,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6944268</v>
+        <v>6944265</v>
       </c>
       <c r="C345" t="s">
         <v>29</v>
@@ -31155,58 +31155,58 @@
         <v>45374.5</v>
       </c>
       <c r="E345" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F345" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G345">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K345" t="s">
         <v>52</v>
       </c>
       <c r="L345">
-        <v>1.2</v>
+        <v>1.533</v>
       </c>
       <c r="M345">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N345">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="O345">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="P345">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q345">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="R345">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S345">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T345">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U345">
         <v>3.5</v>
       </c>
       <c r="V345">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W345">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X345">
-        <v>0.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y345">
         <v>-1</v>
@@ -31218,13 +31218,13 @@
         <v>-1</v>
       </c>
       <c r="AB345">
+        <v>0.8</v>
+      </c>
+      <c r="AC345">
+        <v>-1</v>
+      </c>
+      <c r="AD345">
         <v>0.95</v>
-      </c>
-      <c r="AC345">
-        <v>1</v>
-      </c>
-      <c r="AD345">
-        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:30">
@@ -31232,7 +31232,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6944265</v>
+        <v>6944266</v>
       </c>
       <c r="C346" t="s">
         <v>29</v>
@@ -31241,13 +31241,13 @@
         <v>45374.5</v>
       </c>
       <c r="E346" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F346" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G346">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H346">
         <v>0</v>
@@ -31256,43 +31256,43 @@
         <v>52</v>
       </c>
       <c r="L346">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="M346">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N346">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="O346">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="P346">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q346">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="R346">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S346">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T346">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U346">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V346">
+        <v>1.95</v>
+      </c>
+      <c r="W346">
         <v>1.85</v>
       </c>
-      <c r="W346">
-        <v>1.95</v>
-      </c>
       <c r="X346">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="Y346">
         <v>-1</v>
@@ -31301,16 +31301,16 @@
         <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB346">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD346">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="347" spans="1:30">
@@ -31858,7 +31858,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6945099</v>
+        <v>6945109</v>
       </c>
       <c r="C353" t="s">
         <v>29</v>
@@ -31867,76 +31867,76 @@
         <v>45381.5</v>
       </c>
       <c r="E353" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F353" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G353">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H353">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K353" t="s">
         <v>53</v>
       </c>
       <c r="L353">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="M353">
         <v>3.75</v>
       </c>
       <c r="N353">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O353">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="P353">
         <v>3.8</v>
       </c>
       <c r="Q353">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="R353">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S353">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T353">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U353">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V353">
+        <v>1.775</v>
+      </c>
+      <c r="W353">
+        <v>2.025</v>
+      </c>
+      <c r="X353">
+        <v>-1</v>
+      </c>
+      <c r="Y353">
+        <v>-1</v>
+      </c>
+      <c r="Z353">
         <v>1.8</v>
       </c>
-      <c r="W353">
-        <v>2</v>
-      </c>
-      <c r="X353">
-        <v>-1</v>
-      </c>
-      <c r="Y353">
-        <v>-1</v>
-      </c>
-      <c r="Z353">
-        <v>1.1</v>
-      </c>
       <c r="AA353">
         <v>-1</v>
       </c>
       <c r="AB353">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC353">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD353">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="354" spans="1:30">
@@ -32030,7 +32030,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6945109</v>
+        <v>6945105</v>
       </c>
       <c r="C355" t="s">
         <v>29</v>
@@ -32039,76 +32039,82 @@
         <v>45381.5</v>
       </c>
       <c r="E355" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F355" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
       </c>
       <c r="K355" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L355">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="M355">
         <v>3.75</v>
       </c>
       <c r="N355">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O355">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="P355">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q355">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="R355">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S355">
+        <v>1.95</v>
+      </c>
+      <c r="T355">
         <v>1.85</v>
-      </c>
-      <c r="T355">
-        <v>1.95</v>
       </c>
       <c r="U355">
         <v>2.75</v>
       </c>
       <c r="V355">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W355">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="X355">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y355">
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA355">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB355">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC355">
         <v>-1</v>
       </c>
       <c r="AD355">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="356" spans="1:30">
@@ -32202,7 +32208,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6945105</v>
+        <v>6945099</v>
       </c>
       <c r="C357" t="s">
         <v>29</v>
@@ -32211,82 +32217,76 @@
         <v>45381.5</v>
       </c>
       <c r="E357" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F357" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G357">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H357">
-        <v>0</v>
-      </c>
-      <c r="I357">
-        <v>0</v>
-      </c>
-      <c r="J357">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K357" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L357">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="M357">
         <v>3.75</v>
       </c>
       <c r="N357">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O357">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="P357">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q357">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="R357">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S357">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T357">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U357">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V357">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W357">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X357">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y357">
         <v>-1</v>
       </c>
       <c r="Z357">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA357">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB357">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC357">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD357">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358" spans="1:30">
@@ -32656,7 +32656,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6945375</v>
+        <v>6945378</v>
       </c>
       <c r="C362" t="s">
         <v>29</v>
@@ -32665,52 +32665,46 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E362" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F362" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H362">
-        <v>0</v>
-      </c>
-      <c r="I362">
-        <v>0</v>
-      </c>
-      <c r="J362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K362" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L362">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="M362">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N362">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O362">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="P362">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q362">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="R362">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S362">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T362">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U362">
         <v>2.75</v>
@@ -32722,19 +32716,19 @@
         <v>1.9</v>
       </c>
       <c r="X362">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y362">
         <v>-1</v>
       </c>
       <c r="Z362">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA362">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB362">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC362">
         <v>-1</v>
@@ -32748,7 +32742,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6945378</v>
+        <v>6945375</v>
       </c>
       <c r="C363" t="s">
         <v>29</v>
@@ -32757,46 +32751,52 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E363" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F363" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
       </c>
       <c r="K363" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L363">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="M363">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N363">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O363">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="P363">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q363">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="R363">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S363">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T363">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U363">
         <v>2.75</v>
@@ -32808,19 +32808,19 @@
         <v>1.9</v>
       </c>
       <c r="X363">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y363">
         <v>-1</v>
       </c>
       <c r="Z363">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA363">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB363">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC363">
         <v>-1</v>
@@ -33614,7 +33614,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6946222</v>
+        <v>6946221</v>
       </c>
       <c r="C373" t="s">
         <v>29</v>
@@ -33623,49 +33623,55 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E373" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F373" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G373">
         <v>1</v>
       </c>
       <c r="H373">
+        <v>0</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
         <v>0</v>
       </c>
       <c r="K373" t="s">
         <v>52</v>
       </c>
       <c r="L373">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M373">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N373">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O373">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="P373">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q373">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="R373">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S373">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T373">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U373">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V373">
         <v>1.85</v>
@@ -33674,7 +33680,7 @@
         <v>1.95</v>
       </c>
       <c r="X373">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="Y373">
         <v>-1</v>
@@ -33683,7 +33689,7 @@
         <v>-1</v>
       </c>
       <c r="AA373">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB373">
         <v>-1</v>
@@ -33700,7 +33706,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6946223</v>
+        <v>6946222</v>
       </c>
       <c r="C374" t="s">
         <v>29</v>
@@ -33709,82 +33715,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E374" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F374" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G374">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H374">
-        <v>4</v>
-      </c>
-      <c r="I374">
-        <v>2</v>
-      </c>
-      <c r="J374">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K374" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L374">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M374">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N374">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="O374">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="P374">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q374">
+        <v>2.45</v>
+      </c>
+      <c r="R374">
+        <v>0</v>
+      </c>
+      <c r="S374">
+        <v>1.925</v>
+      </c>
+      <c r="T374">
+        <v>1.875</v>
+      </c>
+      <c r="U374">
         <v>2.75</v>
       </c>
-      <c r="R374">
-        <v>-0.25</v>
-      </c>
-      <c r="S374">
-        <v>1.975</v>
-      </c>
-      <c r="T374">
-        <v>1.825</v>
-      </c>
-      <c r="U374">
-        <v>3</v>
-      </c>
       <c r="V374">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W374">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X374">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA374">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB374">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC374">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD374">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="375" spans="1:30">
@@ -33792,7 +33792,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6946225</v>
+        <v>6946223</v>
       </c>
       <c r="C375" t="s">
         <v>29</v>
@@ -33801,82 +33801,82 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E375" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F375" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G375">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I375">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K375" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L375">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="M375">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N375">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="O375">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="P375">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q375">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="R375">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S375">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T375">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U375">
         <v>3</v>
       </c>
       <c r="V375">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W375">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X375">
         <v>-1</v>
       </c>
       <c r="Y375">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z375">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA375">
         <v>-1</v>
       </c>
       <c r="AB375">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC375">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD375">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376" spans="1:30">
@@ -33884,7 +33884,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6946228</v>
+        <v>6946225</v>
       </c>
       <c r="C376" t="s">
         <v>29</v>
@@ -33893,49 +33893,55 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E376" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F376" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G376">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>1</v>
       </c>
       <c r="K376" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L376">
         <v>1.4</v>
       </c>
       <c r="M376">
+        <v>4.5</v>
+      </c>
+      <c r="N376">
+        <v>5.5</v>
+      </c>
+      <c r="O376">
+        <v>1.533</v>
+      </c>
+      <c r="P376">
         <v>4.333</v>
       </c>
-      <c r="N376">
-        <v>6</v>
-      </c>
-      <c r="O376">
-        <v>1.166</v>
-      </c>
-      <c r="P376">
-        <v>6.5</v>
-      </c>
       <c r="Q376">
-        <v>13</v>
+        <v>4.333</v>
       </c>
       <c r="R376">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="S376">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T376">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U376">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V376">
         <v>1.9</v>
@@ -33944,19 +33950,19 @@
         <v>1.9</v>
       </c>
       <c r="X376">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y376">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z376">
         <v>-1</v>
       </c>
       <c r="AA376">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -33970,7 +33976,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6946221</v>
+        <v>6946228</v>
       </c>
       <c r="C377" t="s">
         <v>29</v>
@@ -33979,64 +33985,58 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E377" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F377" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H377">
-        <v>0</v>
-      </c>
-      <c r="I377">
-        <v>0</v>
-      </c>
-      <c r="J377">
         <v>0</v>
       </c>
       <c r="K377" t="s">
         <v>52</v>
       </c>
       <c r="L377">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="M377">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N377">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O377">
-        <v>2.05</v>
+        <v>1.166</v>
       </c>
       <c r="P377">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q377">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="R377">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="S377">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T377">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U377">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="V377">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W377">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X377">
-        <v>1.05</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y377">
         <v>-1</v>
@@ -34045,16 +34045,16 @@
         <v>-1</v>
       </c>
       <c r="AA377">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB377">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC377">
         <v>-1</v>
       </c>
       <c r="AD377">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="378" spans="1:30">
@@ -34062,7 +34062,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6946227</v>
+        <v>6946220</v>
       </c>
       <c r="C378" t="s">
         <v>29</v>
@@ -34071,13 +34071,13 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E378" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F378" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G378">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H378">
         <v>1</v>
@@ -34086,25 +34086,25 @@
         <v>52</v>
       </c>
       <c r="L378">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="M378">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N378">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="O378">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="P378">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q378">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="R378">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="S378">
         <v>1.825</v>
@@ -34113,16 +34113,16 @@
         <v>1.975</v>
       </c>
       <c r="U378">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V378">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W378">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X378">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y378">
         <v>-1</v>
@@ -34137,10 +34137,10 @@
         <v>-1</v>
       </c>
       <c r="AC378">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AD378">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="379" spans="1:30">
@@ -34148,7 +34148,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6946226</v>
+        <v>6946227</v>
       </c>
       <c r="C379" t="s">
         <v>29</v>
@@ -34157,58 +34157,58 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E379" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F379" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G379">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K379" t="s">
         <v>52</v>
       </c>
       <c r="L379">
+        <v>1.571</v>
+      </c>
+      <c r="M379">
+        <v>4</v>
+      </c>
+      <c r="N379">
+        <v>4.333</v>
+      </c>
+      <c r="O379">
+        <v>1.5</v>
+      </c>
+      <c r="P379">
+        <v>4.333</v>
+      </c>
+      <c r="Q379">
+        <v>4.75</v>
+      </c>
+      <c r="R379">
+        <v>-1</v>
+      </c>
+      <c r="S379">
+        <v>1.825</v>
+      </c>
+      <c r="T379">
+        <v>1.975</v>
+      </c>
+      <c r="U379">
+        <v>3</v>
+      </c>
+      <c r="V379">
+        <v>2</v>
+      </c>
+      <c r="W379">
         <v>1.8</v>
       </c>
-      <c r="M379">
-        <v>3.75</v>
-      </c>
-      <c r="N379">
-        <v>3.4</v>
-      </c>
-      <c r="O379">
-        <v>2.05</v>
-      </c>
-      <c r="P379">
-        <v>3.5</v>
-      </c>
-      <c r="Q379">
-        <v>2.9</v>
-      </c>
-      <c r="R379">
-        <v>-0.25</v>
-      </c>
-      <c r="S379">
-        <v>1.85</v>
-      </c>
-      <c r="T379">
-        <v>1.95</v>
-      </c>
-      <c r="U379">
-        <v>2.75</v>
-      </c>
-      <c r="V379">
-        <v>1.9</v>
-      </c>
-      <c r="W379">
-        <v>1.9</v>
-      </c>
       <c r="X379">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="Y379">
         <v>-1</v>
@@ -34217,16 +34217,16 @@
         <v>-1</v>
       </c>
       <c r="AA379">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB379">
         <v>-1</v>
       </c>
       <c r="AC379">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD379">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:30">
@@ -34234,7 +34234,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6946220</v>
+        <v>6946226</v>
       </c>
       <c r="C380" t="s">
         <v>29</v>
@@ -34243,58 +34243,58 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E380" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F380" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G380">
         <v>2</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K380" t="s">
         <v>52</v>
       </c>
       <c r="L380">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="M380">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N380">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O380">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="P380">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q380">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="R380">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S380">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T380">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U380">
         <v>2.75</v>
       </c>
       <c r="V380">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W380">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X380">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="Y380">
         <v>-1</v>
@@ -34303,16 +34303,16 @@
         <v>-1</v>
       </c>
       <c r="AA380">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB380">
         <v>-1</v>
       </c>
       <c r="AC380">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AD380">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="381" spans="1:30">
@@ -35032,7 +35032,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>6947451</v>
+        <v>6947452</v>
       </c>
       <c r="C389" t="s">
         <v>29</v>
@@ -35041,76 +35041,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E389" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F389" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H389">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K389" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L389">
-        <v>8.5</v>
+        <v>1.75</v>
       </c>
       <c r="M389">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N389">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="O389">
-        <v>11</v>
+        <v>1.95</v>
       </c>
       <c r="P389">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q389">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="R389">
-        <v>2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S389">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T389">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U389">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V389">
+        <v>1.875</v>
+      </c>
+      <c r="W389">
         <v>1.925</v>
       </c>
-      <c r="W389">
-        <v>1.875</v>
-      </c>
       <c r="X389">
         <v>-1</v>
       </c>
       <c r="Y389">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z389">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="AA389">
         <v>-1</v>
       </c>
       <c r="AB389">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC389">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD389">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="390" spans="1:30">
@@ -35204,7 +35204,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>6947450</v>
+        <v>6947451</v>
       </c>
       <c r="C391" t="s">
         <v>29</v>
@@ -35213,76 +35213,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E391" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F391" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
         <v>3</v>
       </c>
-      <c r="H391">
-        <v>0</v>
-      </c>
       <c r="K391" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L391">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="M391">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N391">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O391">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P391">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q391">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="R391">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="S391">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T391">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U391">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V391">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W391">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X391">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y391">
         <v>-1</v>
       </c>
       <c r="Z391">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="AA391">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB391">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC391">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD391">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="392" spans="1:30">
@@ -35290,7 +35290,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>6947452</v>
+        <v>6947450</v>
       </c>
       <c r="C392" t="s">
         <v>29</v>
@@ -35299,76 +35299,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E392" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F392" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G392">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K392" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L392">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="M392">
         <v>3.4</v>
       </c>
       <c r="N392">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="O392">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P392">
         <v>3.3</v>
       </c>
       <c r="Q392">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="R392">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S392">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T392">
+        <v>2</v>
+      </c>
+      <c r="U392">
+        <v>2.5</v>
+      </c>
+      <c r="V392">
         <v>1.8</v>
       </c>
-      <c r="U392">
-        <v>2.75</v>
-      </c>
-      <c r="V392">
-        <v>1.875</v>
-      </c>
       <c r="W392">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X392">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y392">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z392">
         <v>-1</v>
       </c>
       <c r="AA392">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB392">
+        <v>-1</v>
+      </c>
+      <c r="AC392">
         <v>0.8</v>
       </c>
-      <c r="AC392">
-        <v>-1</v>
-      </c>
       <c r="AD392">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393" spans="1:30">

--- a/England Southern Premier League Central/England Southern Premier League Central.xlsx
+++ b/England Southern Premier League Central/England Southern Premier League Central.xlsx
@@ -142,13 +142,13 @@
     <t>Needham Market</t>
   </si>
   <si>
+    <t>Halesowen</t>
+  </si>
+  <si>
     <t>Royston Town</t>
   </si>
   <si>
     <t>Nuneaton</t>
-  </si>
-  <si>
-    <t>Halesowen</t>
   </si>
   <si>
     <t>Leiston</t>
@@ -163,10 +163,10 @@
     <t>AFC Telford</t>
   </si>
   <si>
-    <t>Leamington</t>
+    <t>Coalville</t>
   </si>
   <si>
-    <t>Coalville</t>
+    <t>Leamington</t>
   </si>
   <si>
     <t>Berkhamsted</t>
@@ -652,7 +652,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6939054</v>
+        <v>6939055</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1539,82 +1539,82 @@
         <v>45152.65625</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M12">
         <v>3.75</v>
       </c>
       <c r="N12">
+        <v>2.25</v>
+      </c>
+      <c r="O12">
+        <v>2.875</v>
+      </c>
+      <c r="P12">
+        <v>3.6</v>
+      </c>
+      <c r="Q12">
+        <v>2.1</v>
+      </c>
+      <c r="R12">
+        <v>0.25</v>
+      </c>
+      <c r="S12">
+        <v>1.875</v>
+      </c>
+      <c r="T12">
+        <v>1.925</v>
+      </c>
+      <c r="U12">
         <v>2.5</v>
       </c>
-      <c r="O12">
-        <v>2.25</v>
-      </c>
-      <c r="P12">
-        <v>3.75</v>
-      </c>
-      <c r="Q12">
-        <v>2.5</v>
-      </c>
-      <c r="R12">
-        <v>-0.25</v>
-      </c>
-      <c r="S12">
-        <v>2.05</v>
-      </c>
-      <c r="T12">
+      <c r="V12">
         <v>1.75</v>
-      </c>
-      <c r="U12">
-        <v>3</v>
-      </c>
-      <c r="V12">
-        <v>1.85</v>
       </c>
       <c r="W12">
         <v>1.95</v>
       </c>
       <c r="X12">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1714,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6939055</v>
+        <v>6939054</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1723,82 +1723,82 @@
         <v>45152.65625</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L14">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="M14">
         <v>3.75</v>
       </c>
       <c r="N14">
+        <v>2.5</v>
+      </c>
+      <c r="O14">
         <v>2.25</v>
       </c>
-      <c r="O14">
-        <v>2.875</v>
-      </c>
       <c r="P14">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q14">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="R14">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T14">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V14">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
         <v>1.95</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y14">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1806,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6938213</v>
+        <v>6938214</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1815,79 +1815,73 @@
         <v>45153.65625</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="P15">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q15">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="R15">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U15">
         <v>2.75</v>
       </c>
       <c r="V15">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AD15">
         <v>-1</v>
@@ -1898,7 +1892,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6938214</v>
+        <v>6938213</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1907,73 +1901,79 @@
         <v>45153.65625</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="H16">
-        <v>2</v>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="O16">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q16">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="R16">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U16">
         <v>2.75</v>
       </c>
       <c r="V16">
+        <v>1.75</v>
+      </c>
+      <c r="W16">
         <v>1.95</v>
       </c>
-      <c r="W16">
-        <v>1.85</v>
-      </c>
       <c r="X16">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AD16">
         <v>-1</v>
@@ -2076,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6938216</v>
+        <v>6939056</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2088,13 +2088,13 @@
         <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2106,61 +2106,61 @@
         <v>54</v>
       </c>
       <c r="L18">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="M18">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N18">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O18">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="P18">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q18">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="R18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
         <v>1.8</v>
       </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
       <c r="U18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V18">
+        <v>1.775</v>
+      </c>
+      <c r="W18">
         <v>1.925</v>
       </c>
-      <c r="W18">
-        <v>1.875</v>
-      </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>-1</v>
       </c>
       <c r="AD18">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2168,7 +2168,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6938217</v>
+        <v>6938216</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2177,16 +2177,16 @@
         <v>45153.65625</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L19">
         <v>2.375</v>
@@ -2207,43 +2207,43 @@
         <v>2.375</v>
       </c>
       <c r="O19">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q19">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S19">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V19">
+        <v>1.925</v>
+      </c>
+      <c r="W19">
         <v>1.875</v>
       </c>
-      <c r="W19">
-        <v>1.925</v>
-      </c>
       <c r="X19">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB19">
         <v>-1</v>
@@ -2252,7 +2252,7 @@
         <v>-1</v>
       </c>
       <c r="AD19">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2260,7 +2260,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6939346</v>
+        <v>6938217</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2269,58 +2269,64 @@
         <v>45153.65625</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20" t="s">
         <v>52</v>
       </c>
       <c r="L20">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="M20">
+        <v>3.6</v>
+      </c>
+      <c r="N20">
+        <v>2.375</v>
+      </c>
+      <c r="O20">
+        <v>2.2</v>
+      </c>
+      <c r="P20">
         <v>3.5</v>
       </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="O20">
-        <v>1.85</v>
-      </c>
-      <c r="P20">
-        <v>3.4</v>
-      </c>
       <c r="Q20">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="R20">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T20">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U20">
         <v>2.75</v>
       </c>
       <c r="V20">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X20">
-        <v>0.8500000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2329,16 +2335,16 @@
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AD20">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2346,7 +2352,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6939056</v>
+        <v>6939346</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2358,79 +2364,73 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L21">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="M21">
         <v>3.5</v>
       </c>
       <c r="N21">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="P21">
+        <v>3.4</v>
+      </c>
+      <c r="Q21">
         <v>3.5</v>
       </c>
-      <c r="Q21">
-        <v>2.2</v>
-      </c>
       <c r="R21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U21">
         <v>2.75</v>
       </c>
       <c r="V21">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W21">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y21">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AD21">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2438,7 +2438,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6938222</v>
+        <v>6939057</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2447,79 +2447,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22">
+        <v>2.1</v>
+      </c>
+      <c r="M22">
+        <v>3.6</v>
+      </c>
+      <c r="N22">
+        <v>2.8</v>
+      </c>
+      <c r="O22">
+        <v>2.2</v>
+      </c>
+      <c r="P22">
+        <v>3.6</v>
+      </c>
+      <c r="Q22">
+        <v>2.625</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.725</v>
+      </c>
+      <c r="T22">
+        <v>2.075</v>
+      </c>
+      <c r="U22">
         <v>3</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22">
-        <v>1.615</v>
-      </c>
-      <c r="M22">
-        <v>3.8</v>
-      </c>
-      <c r="N22">
-        <v>4.333</v>
-      </c>
-      <c r="O22">
-        <v>1.615</v>
-      </c>
-      <c r="P22">
-        <v>3.8</v>
-      </c>
-      <c r="Q22">
-        <v>4.333</v>
-      </c>
-      <c r="R22">
-        <v>-0.75</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>2.75</v>
-      </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z22">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AD22">
         <v>-1</v>
@@ -2530,7 +2524,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6938223</v>
+        <v>6938222</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2539,76 +2533,82 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L23">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="M23">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N23">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O23">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="P23">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="R23">
         <v>-0.75</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2616,7 +2616,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6938224</v>
+        <v>6938223</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2625,40 +2625,40 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L24">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="M24">
         <v>3.6</v>
       </c>
       <c r="N24">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O24">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="P24">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q24">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S24">
         <v>1.95</v>
@@ -2667,34 +2667,34 @@
         <v>1.85</v>
       </c>
       <c r="U24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X24">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC24">
         <v>-1</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2702,7 +2702,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6937933</v>
+        <v>6938224</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2711,76 +2711,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L25">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M25">
         <v>3.6</v>
       </c>
       <c r="N25">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O25">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="P25">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q25">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="R25">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U25">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD25">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2788,7 +2788,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6939057</v>
+        <v>6937933</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2797,73 +2797,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L26">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M26">
         <v>3.6</v>
       </c>
       <c r="N26">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O26">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P26">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q26">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S26">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="U26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD26">
         <v>-1</v>
@@ -2886,7 +2886,7 @@
         <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2966,7 +2966,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6939347</v>
+        <v>6938218</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -2975,13 +2975,13 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2990,43 +2990,43 @@
         <v>52</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M28">
         <v>3.6</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O28">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="P28">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q28">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="R28">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U28">
         <v>2.5</v>
       </c>
       <c r="V28">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W28">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X28">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="Y28">
         <v>-1</v>
@@ -3035,16 +3035,16 @@
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3052,7 +3052,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6938221</v>
+        <v>6939347</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3061,82 +3061,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L29">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M29">
         <v>3.6</v>
       </c>
       <c r="N29">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="O29">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="P29">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q29">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="U29">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3144,7 +3138,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6938220</v>
+        <v>6938219</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3153,73 +3147,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="K30" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30">
+        <v>1.533</v>
+      </c>
+      <c r="M30">
+        <v>3.8</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>1.363</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="Q30">
+        <v>7.5</v>
+      </c>
+      <c r="R30">
+        <v>-1.5</v>
+      </c>
+      <c r="S30">
+        <v>1.95</v>
+      </c>
+      <c r="T30">
+        <v>1.85</v>
+      </c>
+      <c r="U30">
         <v>3</v>
       </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="K30" t="s">
-        <v>52</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-      <c r="M30">
-        <v>3.6</v>
-      </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
-      <c r="O30">
-        <v>2</v>
-      </c>
-      <c r="P30">
-        <v>3.75</v>
-      </c>
-      <c r="Q30">
-        <v>2.875</v>
-      </c>
-      <c r="R30">
-        <v>-0.25</v>
-      </c>
-      <c r="S30">
+      <c r="V30">
         <v>1.825</v>
       </c>
-      <c r="T30">
+      <c r="W30">
         <v>1.975</v>
       </c>
-      <c r="U30">
-        <v>2.75</v>
-      </c>
-      <c r="V30">
-        <v>1.9</v>
-      </c>
-      <c r="W30">
-        <v>1.9</v>
-      </c>
       <c r="X30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC30">
         <v>0.825</v>
-      </c>
-      <c r="AB30">
-        <v>-1</v>
-      </c>
-      <c r="AC30">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AD30">
         <v>-1</v>
@@ -3230,7 +3224,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6938219</v>
+        <v>6938220</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3239,73 +3233,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L31">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O31">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q31">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="R31">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD31">
         <v>-1</v>
@@ -3316,7 +3310,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6938218</v>
+        <v>6938221</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3325,19 +3319,25 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L32">
         <v>2.2</v>
@@ -3349,52 +3349,52 @@
         <v>2.625</v>
       </c>
       <c r="O32">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="P32">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q32">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="R32">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U32">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X32">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
         <v>-1</v>
       </c>
       <c r="AD32">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3497,7 +3497,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
         <v>47</v>
@@ -3583,10 +3583,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3761,7 +3761,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
         <v>37</v>
@@ -4301,7 +4301,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
         <v>36</v>
@@ -4390,7 +4390,7 @@
         <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4746,7 +4746,7 @@
         <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
         <v>39</v>
@@ -5200,7 +5200,7 @@
         <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5283,7 +5283,7 @@
         <v>45181.65625</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
         <v>51</v>
@@ -5375,7 +5375,7 @@
         <v>45181.65625</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
         <v>35</v>
@@ -5930,7 +5930,7 @@
         <v>47</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6016,7 +6016,7 @@
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -6286,7 +6286,7 @@
         <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6369,7 +6369,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s">
         <v>34</v>
@@ -6633,10 +6633,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
         <v>43</v>
-      </c>
-      <c r="F69" t="s">
-        <v>42</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6897,7 +6897,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s">
         <v>33</v>
@@ -7443,7 +7443,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
         <v>46</v>
@@ -7630,7 +7630,7 @@
         <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7811,7 +7811,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
         <v>51</v>
@@ -7906,7 +7906,7 @@
         <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8517,7 +8517,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F90" t="s">
         <v>47</v>
@@ -8698,7 +8698,7 @@
         <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8781,7 +8781,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
         <v>36</v>
@@ -9048,7 +9048,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6938267</v>
+        <v>6937946</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9057,82 +9057,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G96">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>6</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="s">
         <v>52</v>
       </c>
       <c r="L96">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="M96">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N96">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O96">
+        <v>2.5</v>
+      </c>
+      <c r="P96">
+        <v>3.5</v>
+      </c>
+      <c r="Q96">
+        <v>2.375</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>1.975</v>
+      </c>
+      <c r="T96">
+        <v>1.825</v>
+      </c>
+      <c r="U96">
+        <v>2.75</v>
+      </c>
+      <c r="V96">
+        <v>2</v>
+      </c>
+      <c r="W96">
+        <v>1.8</v>
+      </c>
+      <c r="X96">
         <v>1.5</v>
       </c>
-      <c r="P96">
-        <v>4</v>
-      </c>
-      <c r="Q96">
-        <v>5</v>
-      </c>
-      <c r="R96">
-        <v>-1</v>
-      </c>
-      <c r="S96">
-        <v>1.8</v>
-      </c>
-      <c r="T96">
-        <v>2</v>
-      </c>
-      <c r="U96">
-        <v>3.25</v>
-      </c>
-      <c r="V96">
-        <v>1.925</v>
-      </c>
-      <c r="W96">
-        <v>1.875</v>
-      </c>
-      <c r="X96">
+      <c r="Y96">
+        <v>-1</v>
+      </c>
+      <c r="Z96">
+        <v>-1</v>
+      </c>
+      <c r="AA96">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.5</v>
       </c>
-      <c r="Y96">
-        <v>-1</v>
-      </c>
-      <c r="Z96">
-        <v>-1</v>
-      </c>
-      <c r="AA96">
-        <v>0.8</v>
-      </c>
-      <c r="AB96">
-        <v>-1</v>
-      </c>
-      <c r="AC96">
-        <v>0.925</v>
-      </c>
       <c r="AD96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9140,7 +9134,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6937946</v>
+        <v>6937945</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9149,19 +9143,25 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L97">
         <v>2.7</v>
@@ -9173,52 +9173,52 @@
         <v>2.2</v>
       </c>
       <c r="O97">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="P97">
         <v>3.5</v>
       </c>
       <c r="Q97">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="R97">
         <v>0</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U97">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X97">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC97">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9226,7 +9226,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6937945</v>
+        <v>6936957</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9235,55 +9235,49 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>4</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L98">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="M98">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N98">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="O98">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="P98">
         <v>3.5</v>
       </c>
       <c r="Q98">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U98">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V98">
         <v>1.925</v>
@@ -9295,22 +9289,22 @@
         <v>-1</v>
       </c>
       <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
         <v>2.5</v>
       </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
       <c r="AA98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9318,7 +9312,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6936957</v>
+        <v>6938267</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9327,49 +9321,55 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L99">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="M99">
         <v>3.75</v>
       </c>
       <c r="N99">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="O99">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="P99">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q99">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="R99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V99">
         <v>1.925</v>
@@ -9378,25 +9378,25 @@
         <v>1.875</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.925</v>
       </c>
-      <c r="AC99">
-        <v>-1</v>
-      </c>
       <c r="AD99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9508,7 +9508,7 @@
         <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9683,7 +9683,7 @@
         <v>45223.65625</v>
       </c>
       <c r="E103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F103" t="s">
         <v>30</v>
@@ -9852,7 +9852,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6939035</v>
+        <v>6939085</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -9861,82 +9861,82 @@
         <v>45223.65625</v>
       </c>
       <c r="E105" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L105">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="O105">
+        <v>7.5</v>
+      </c>
+      <c r="P105">
+        <v>5</v>
+      </c>
+      <c r="Q105">
+        <v>1.285</v>
+      </c>
+      <c r="R105">
         <v>1.75</v>
       </c>
-      <c r="P105">
-        <v>3.8</v>
-      </c>
-      <c r="Q105">
-        <v>3.6</v>
-      </c>
-      <c r="R105">
-        <v>-0.75</v>
-      </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T105">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U105">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="X105">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="AA105">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD105">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -9944,7 +9944,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6939036</v>
+        <v>6939035</v>
       </c>
       <c r="C106" t="s">
         <v>29</v>
@@ -9953,19 +9953,25 @@
         <v>45223.65625</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L106">
         <v>1.909</v>
@@ -9977,52 +9983,52 @@
         <v>3.1</v>
       </c>
       <c r="O106">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q106">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="R106">
         <v>-0.75</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U106">
         <v>3</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
         <v>-1</v>
       </c>
       <c r="AD106">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:30">
@@ -10030,7 +10036,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6939085</v>
+        <v>6939036</v>
       </c>
       <c r="C107" t="s">
         <v>29</v>
@@ -10039,61 +10045,55 @@
         <v>45223.65625</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>6</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K107" t="s">
         <v>53</v>
       </c>
       <c r="L107">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N107">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="O107">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="P107">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q107">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="R107">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U107">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10102,19 +10102,19 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.2849999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108" spans="1:30">
@@ -10217,7 +10217,7 @@
         <v>45223.65625</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
         <v>34</v>
@@ -10309,7 +10309,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F110" t="s">
         <v>41</v>
@@ -10567,7 +10567,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F113" t="s">
         <v>48</v>
@@ -10656,7 +10656,7 @@
         <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10920,7 +10920,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6939090</v>
+        <v>6938280</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
@@ -10929,58 +10929,58 @@
         <v>45234.5</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" t="s">
         <v>52</v>
       </c>
       <c r="L117">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="M117">
         <v>3.75</v>
       </c>
       <c r="N117">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O117">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="P117">
         <v>3.75</v>
       </c>
       <c r="Q117">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="R117">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S117">
+        <v>2</v>
+      </c>
+      <c r="T117">
+        <v>1.8</v>
+      </c>
+      <c r="U117">
+        <v>2.75</v>
+      </c>
+      <c r="V117">
         <v>1.925</v>
       </c>
-      <c r="T117">
+      <c r="W117">
         <v>1.875</v>
       </c>
-      <c r="U117">
-        <v>3</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
-      <c r="W117">
-        <v>1.925</v>
-      </c>
       <c r="X117">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10989,16 +10989,16 @@
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
+        <v>-1</v>
+      </c>
+      <c r="AD117">
         <v>0.875</v>
-      </c>
-      <c r="AD117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -11006,7 +11006,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6939089</v>
+        <v>6938285</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -11015,79 +11015,73 @@
         <v>45234.5</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>3</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L118">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="M118">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N118">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O118">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q118">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="R118">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U118">
         <v>2.75</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AD118">
         <v>-1</v>
@@ -11098,7 +11092,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6938285</v>
+        <v>6938283</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
@@ -11107,73 +11101,73 @@
         <v>45234.5</v>
       </c>
       <c r="E119" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="K119" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L119">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="M119">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N119">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="P119">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q119">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="R119">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U119">
         <v>2.75</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X119">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
+        <v>-0.5</v>
+      </c>
+      <c r="AB119">
+        <v>0.425</v>
+      </c>
+      <c r="AC119">
         <v>0.8</v>
-      </c>
-      <c r="AB119">
-        <v>-1</v>
-      </c>
-      <c r="AC119">
-        <v>0.95</v>
       </c>
       <c r="AD119">
         <v>-1</v>
@@ -11184,7 +11178,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6938283</v>
+        <v>6938282</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11193,76 +11187,76 @@
         <v>45234.5</v>
       </c>
       <c r="E120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L120">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="M120">
         <v>3.75</v>
       </c>
       <c r="N120">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O120">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="P120">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q120">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="R120">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U120">
         <v>2.75</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC120">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11270,7 +11264,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6938282</v>
+        <v>6939089</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -11279,55 +11273,61 @@
         <v>45234.5</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
         <v>1</v>
       </c>
       <c r="K121" t="s">
         <v>53</v>
       </c>
       <c r="L121">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="M121">
         <v>3.75</v>
       </c>
       <c r="N121">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O121">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="P121">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q121">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="R121">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U121">
         <v>2.75</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11336,19 +11336,19 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC121">
         <v>0.875</v>
       </c>
-      <c r="AC121">
-        <v>-1</v>
-      </c>
       <c r="AD121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -11356,7 +11356,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6939348</v>
+        <v>6939090</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -11365,58 +11365,58 @@
         <v>45234.5</v>
       </c>
       <c r="E122" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" t="s">
         <v>52</v>
       </c>
       <c r="L122">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="M122">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N122">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="O122">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="P122">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q122">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="R122">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="S122">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U122">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X122">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
@@ -11425,16 +11425,16 @@
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -11442,7 +11442,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6938280</v>
+        <v>6936959</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -11451,76 +11451,76 @@
         <v>45234.5</v>
       </c>
       <c r="E123" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K123" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L123">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="M123">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N123">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="O123">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="P123">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q123">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="R123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U123">
         <v>2.75</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X123">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="AA123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
         <v>-1</v>
       </c>
       <c r="AD123">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -11528,7 +11528,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6936959</v>
+        <v>6939348</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11537,76 +11537,76 @@
         <v>45234.5</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L124">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="M124">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N124">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O124">
-        <v>1.533</v>
+        <v>1.2</v>
       </c>
       <c r="P124">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q124">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="R124">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S124">
+        <v>1.85</v>
+      </c>
+      <c r="T124">
         <v>1.95</v>
       </c>
-      <c r="T124">
-        <v>1.85</v>
-      </c>
       <c r="U124">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V124">
+        <v>1.975</v>
+      </c>
+      <c r="W124">
         <v>1.825</v>
       </c>
-      <c r="W124">
-        <v>1.975</v>
-      </c>
       <c r="X124">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC124">
         <v>-1</v>
       </c>
       <c r="AD124">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -11807,7 +11807,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="E127" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F127" t="s">
         <v>38</v>
@@ -11899,7 +11899,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="E128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F128" t="s">
         <v>32</v>
@@ -11991,7 +11991,7 @@
         <v>45241.5</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F129" t="s">
         <v>39</v>
@@ -12255,7 +12255,7 @@
         <v>45241.5</v>
       </c>
       <c r="E132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F132" t="s">
         <v>38</v>
@@ -12344,7 +12344,7 @@
         <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -12513,7 +12513,7 @@
         <v>45241.5</v>
       </c>
       <c r="E135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F135" t="s">
         <v>45</v>
@@ -12697,7 +12697,7 @@
         <v>45241.5</v>
       </c>
       <c r="E137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F137" t="s">
         <v>30</v>
@@ -12967,7 +12967,7 @@
         <v>45244.69791666666</v>
       </c>
       <c r="E140" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F140" t="s">
         <v>36</v>
@@ -13154,7 +13154,7 @@
         <v>33</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -13335,7 +13335,7 @@
         <v>45248.5</v>
       </c>
       <c r="E144" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F144" t="s">
         <v>51</v>
@@ -13430,7 +13430,7 @@
         <v>47</v>
       </c>
       <c r="F145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -13611,7 +13611,7 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F147" t="s">
         <v>47</v>
@@ -13970,7 +13970,7 @@
         <v>40</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -14139,7 +14139,7 @@
         <v>45255.5</v>
       </c>
       <c r="E153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F153" t="s">
         <v>35</v>
@@ -14480,7 +14480,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6938300</v>
+        <v>6939098</v>
       </c>
       <c r="C157" t="s">
         <v>29</v>
@@ -14489,76 +14489,76 @@
         <v>45255.5</v>
       </c>
       <c r="E157" t="s">
+        <v>49</v>
+      </c>
+      <c r="F157" t="s">
         <v>42</v>
       </c>
-      <c r="F157" t="s">
-        <v>36</v>
-      </c>
       <c r="G157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K157" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L157">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="M157">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N157">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O157">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="P157">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q157">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="R157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T157">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U157">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V157">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z157">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC157">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD157">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -14566,7 +14566,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6939039</v>
+        <v>6939099</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
@@ -14575,82 +14575,82 @@
         <v>45255.5</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L158">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="M158">
         <v>4</v>
       </c>
       <c r="N158">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O158">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="P158">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q158">
-        <v>2.55</v>
+        <v>1.285</v>
       </c>
       <c r="R158">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="S158">
+        <v>1.825</v>
+      </c>
+      <c r="T158">
         <v>1.975</v>
       </c>
-      <c r="T158">
-        <v>1.825</v>
-      </c>
       <c r="U158">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V158">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB158">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:30">
@@ -14658,7 +14658,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6939098</v>
+        <v>6938300</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
@@ -14667,76 +14667,76 @@
         <v>45255.5</v>
       </c>
       <c r="E159" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L159">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="M159">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N159">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O159">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="P159">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q159">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="R159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S159">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U159">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD159">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -14744,7 +14744,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6939099</v>
+        <v>6939039</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -14753,82 +14753,82 @@
         <v>45255.5</v>
       </c>
       <c r="E160" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K160" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L160">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="M160">
         <v>4</v>
       </c>
       <c r="N160">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O160">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="P160">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q160">
-        <v>1.285</v>
+        <v>2.55</v>
       </c>
       <c r="R160">
+        <v>-0.25</v>
+      </c>
+      <c r="S160">
+        <v>1.975</v>
+      </c>
+      <c r="T160">
+        <v>1.825</v>
+      </c>
+      <c r="U160">
+        <v>2.75</v>
+      </c>
+      <c r="V160">
         <v>1.75</v>
       </c>
-      <c r="S160">
-        <v>1.825</v>
-      </c>
-      <c r="T160">
-        <v>1.975</v>
-      </c>
-      <c r="U160">
-        <v>3.25</v>
-      </c>
-      <c r="V160">
-        <v>1.9</v>
-      </c>
       <c r="W160">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z160">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -14836,7 +14836,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7501836</v>
+        <v>7502644</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
@@ -14845,64 +14845,64 @@
         <v>45257.69791666666</v>
       </c>
       <c r="E161" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K161" t="s">
         <v>52</v>
       </c>
       <c r="L161">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="M161">
         <v>3.6</v>
       </c>
       <c r="N161">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O161">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="P161">
         <v>3.6</v>
       </c>
       <c r="Q161">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="R161">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S161">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T161">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U161">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X161">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="Y161">
         <v>-1</v>
@@ -14911,16 +14911,16 @@
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB161">
         <v>-1</v>
       </c>
       <c r="AC161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -14928,7 +14928,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7502644</v>
+        <v>7501836</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -14937,64 +14937,64 @@
         <v>45257.69791666666</v>
       </c>
       <c r="E162" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162" t="s">
         <v>52</v>
       </c>
       <c r="L162">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="M162">
         <v>3.6</v>
       </c>
       <c r="N162">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O162">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="P162">
         <v>3.6</v>
       </c>
       <c r="Q162">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="R162">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S162">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T162">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U162">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W162">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X162">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -15003,16 +15003,16 @@
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD162">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15124,7 +15124,7 @@
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -15299,7 +15299,7 @@
         <v>45262.5</v>
       </c>
       <c r="E166" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F166" t="s">
         <v>40</v>
@@ -15388,7 +15388,7 @@
         <v>35</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -15474,7 +15474,7 @@
         <v>31</v>
       </c>
       <c r="F168" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -15646,7 +15646,7 @@
         <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15818,7 +15818,7 @@
         <v>39</v>
       </c>
       <c r="F172" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15910,7 +15910,7 @@
         <v>41</v>
       </c>
       <c r="F173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15999,7 +15999,7 @@
         <v>45269.5</v>
       </c>
       <c r="E174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F174" t="s">
         <v>36</v>
@@ -16186,7 +16186,7 @@
         <v>46</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -16646,7 +16646,7 @@
         <v>41</v>
       </c>
       <c r="F181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16910,7 +16910,7 @@
         <v>40</v>
       </c>
       <c r="F184" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -17355,7 +17355,7 @@
         <v>45276.5</v>
       </c>
       <c r="E189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F189" t="s">
         <v>37</v>
@@ -17441,7 +17441,7 @@
         <v>45276.5</v>
       </c>
       <c r="E190" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F190" t="s">
         <v>38</v>
@@ -17527,7 +17527,7 @@
         <v>45277.5</v>
       </c>
       <c r="E191" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F191" t="s">
         <v>48</v>
@@ -17714,7 +17714,7 @@
         <v>47</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G193">
         <v>4</v>
@@ -17794,7 +17794,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6938323</v>
+        <v>6939109</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -17803,13 +17803,13 @@
         <v>45283.5</v>
       </c>
       <c r="E194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17818,43 +17818,43 @@
         <v>52</v>
       </c>
       <c r="L194">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M194">
         <v>3.6</v>
       </c>
       <c r="N194">
+        <v>3</v>
+      </c>
+      <c r="O194">
+        <v>2</v>
+      </c>
+      <c r="P194">
         <v>3.6</v>
       </c>
-      <c r="O194">
-        <v>1.533</v>
-      </c>
-      <c r="P194">
-        <v>3.8</v>
-      </c>
       <c r="Q194">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="R194">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S194">
+        <v>1.825</v>
+      </c>
+      <c r="T194">
         <v>1.975</v>
-      </c>
-      <c r="T194">
-        <v>1.825</v>
       </c>
       <c r="U194">
         <v>2.5</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W194">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X194">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
@@ -17863,13 +17863,13 @@
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD194">
         <v>-1</v>
@@ -17880,7 +17880,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6938322</v>
+        <v>6938323</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -17889,52 +17889,46 @@
         <v>45283.5</v>
       </c>
       <c r="E195" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H195">
-        <v>2</v>
-      </c>
-      <c r="I195">
-        <v>1</v>
-      </c>
-      <c r="J195">
         <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L195">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="M195">
         <v>3.6</v>
       </c>
       <c r="N195">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="O195">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="P195">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q195">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="R195">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S195">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T195">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U195">
         <v>2.5</v>
@@ -17946,19 +17940,19 @@
         <v>1.9</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y195">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
         <v>0.8999999999999999</v>
@@ -17972,7 +17966,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6938321</v>
+        <v>6938322</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -17981,46 +17975,46 @@
         <v>45283.5</v>
       </c>
       <c r="E196" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196" t="s">
         <v>54</v>
       </c>
       <c r="L196">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="M196">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N196">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="O196">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="P196">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q196">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="R196">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S196">
         <v>1.8</v>
@@ -18029,34 +18023,34 @@
         <v>2</v>
       </c>
       <c r="U196">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V196">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB196">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD196">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18064,7 +18058,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6938320</v>
+        <v>6938321</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18073,76 +18067,82 @@
         <v>45283.5</v>
       </c>
       <c r="E197" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197" t="s">
+        <v>54</v>
+      </c>
+      <c r="L197">
+        <v>1.571</v>
+      </c>
+      <c r="M197">
+        <v>4</v>
+      </c>
+      <c r="N197">
+        <v>4.333</v>
+      </c>
+      <c r="O197">
+        <v>1.5</v>
+      </c>
+      <c r="P197">
+        <v>4.2</v>
+      </c>
+      <c r="Q197">
+        <v>5</v>
+      </c>
+      <c r="R197">
+        <v>-1</v>
+      </c>
+      <c r="S197">
+        <v>1.8</v>
+      </c>
+      <c r="T197">
+        <v>2</v>
+      </c>
+      <c r="U197">
         <v>3</v>
       </c>
-      <c r="K197" t="s">
-        <v>53</v>
-      </c>
-      <c r="L197">
-        <v>3.75</v>
-      </c>
-      <c r="M197">
-        <v>3.75</v>
-      </c>
-      <c r="N197">
-        <v>1.727</v>
-      </c>
-      <c r="O197">
-        <v>3.8</v>
-      </c>
-      <c r="P197">
-        <v>3.8</v>
-      </c>
-      <c r="Q197">
-        <v>1.7</v>
-      </c>
-      <c r="R197">
-        <v>0.75</v>
-      </c>
-      <c r="S197">
-        <v>1.85</v>
-      </c>
-      <c r="T197">
-        <v>1.95</v>
-      </c>
-      <c r="U197">
-        <v>2.5</v>
-      </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W197">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z197">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC197">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD197">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -18242,7 +18242,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6938317</v>
+        <v>6938318</v>
       </c>
       <c r="C199" t="s">
         <v>29</v>
@@ -18251,76 +18251,76 @@
         <v>45283.5</v>
       </c>
       <c r="E199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G199">
         <v>2</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K199" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L199">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="M199">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N199">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O199">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="P199">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q199">
+        <v>4.2</v>
+      </c>
+      <c r="R199">
+        <v>-1</v>
+      </c>
+      <c r="S199">
+        <v>2</v>
+      </c>
+      <c r="T199">
+        <v>1.8</v>
+      </c>
+      <c r="U199">
         <v>2.75</v>
       </c>
-      <c r="R199">
-        <v>-0.25</v>
-      </c>
-      <c r="S199">
-        <v>1.9</v>
-      </c>
-      <c r="T199">
-        <v>1.9</v>
-      </c>
-      <c r="U199">
-        <v>2.5</v>
-      </c>
       <c r="V199">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W199">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X199">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -18328,7 +18328,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6938318</v>
+        <v>6938317</v>
       </c>
       <c r="C200" t="s">
         <v>29</v>
@@ -18337,76 +18337,76 @@
         <v>45283.5</v>
       </c>
       <c r="E200" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G200">
         <v>2</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K200" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L200">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="M200">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N200">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O200">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="P200">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q200">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="R200">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T200">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U200">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V200">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y200">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB200">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="201" spans="1:30">
@@ -18414,7 +18414,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6939109</v>
+        <v>6938320</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -18423,73 +18423,73 @@
         <v>45283.5</v>
       </c>
       <c r="E201" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K201" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L201">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="M201">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N201">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O201">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="P201">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q201">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="R201">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S201">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T201">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U201">
         <v>2.5</v>
       </c>
       <c r="V201">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X201">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA201">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC201">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD201">
         <v>-1</v>
@@ -18512,7 +18512,7 @@
         <v>37</v>
       </c>
       <c r="F202" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -18779,7 +18779,7 @@
         <v>45286.41666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F205" t="s">
         <v>31</v>
@@ -18868,7 +18868,7 @@
         <v>36</v>
       </c>
       <c r="F206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -19123,7 +19123,7 @@
         <v>45286.5</v>
       </c>
       <c r="E209" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F209" t="s">
         <v>48</v>
@@ -19304,7 +19304,7 @@
         <v>33</v>
       </c>
       <c r="F211" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -19476,7 +19476,7 @@
         <v>45</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G213">
         <v>3</v>
@@ -19648,7 +19648,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6938334</v>
+        <v>6938332</v>
       </c>
       <c r="C215" t="s">
         <v>29</v>
@@ -19657,55 +19657,55 @@
         <v>45292.5</v>
       </c>
       <c r="E215" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K215" t="s">
         <v>53</v>
       </c>
       <c r="L215">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="M215">
         <v>3.5</v>
       </c>
       <c r="N215">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O215">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="P215">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q215">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="R215">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T215">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W215">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19714,19 +19714,19 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -19734,7 +19734,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6938332</v>
+        <v>6938333</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -19743,73 +19743,73 @@
         <v>45292.5</v>
       </c>
       <c r="E216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H216">
+        <v>2</v>
+      </c>
+      <c r="K216" t="s">
+        <v>52</v>
+      </c>
+      <c r="L216">
+        <v>1.909</v>
+      </c>
+      <c r="M216">
+        <v>3.6</v>
+      </c>
+      <c r="N216">
+        <v>3.2</v>
+      </c>
+      <c r="O216">
+        <v>1.727</v>
+      </c>
+      <c r="P216">
+        <v>3.8</v>
+      </c>
+      <c r="Q216">
+        <v>3.75</v>
+      </c>
+      <c r="R216">
+        <v>-0.75</v>
+      </c>
+      <c r="S216">
+        <v>1.975</v>
+      </c>
+      <c r="T216">
+        <v>1.825</v>
+      </c>
+      <c r="U216">
         <v>3</v>
       </c>
-      <c r="K216" t="s">
-        <v>53</v>
-      </c>
-      <c r="L216">
-        <v>1.65</v>
-      </c>
-      <c r="M216">
-        <v>3.5</v>
-      </c>
-      <c r="N216">
-        <v>4.5</v>
-      </c>
-      <c r="O216">
+      <c r="V216">
         <v>1.8</v>
       </c>
-      <c r="P216">
-        <v>3.4</v>
-      </c>
-      <c r="Q216">
-        <v>4</v>
-      </c>
-      <c r="R216">
-        <v>-0.5</v>
-      </c>
-      <c r="S216">
-        <v>1.8</v>
-      </c>
-      <c r="T216">
-        <v>2</v>
-      </c>
-      <c r="U216">
-        <v>2.5</v>
-      </c>
-      <c r="V216">
-        <v>1.85</v>
-      </c>
       <c r="W216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB216">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AD216">
         <v>-1</v>
@@ -19820,7 +19820,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6938333</v>
+        <v>6938334</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -19829,76 +19829,76 @@
         <v>45292.5</v>
       </c>
       <c r="E217" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F217" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G217">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K217" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L217">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="M217">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N217">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O217">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="P217">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q217">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R217">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S217">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T217">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U217">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V217">
+        <v>2</v>
+      </c>
+      <c r="W217">
         <v>1.8</v>
       </c>
-      <c r="W217">
-        <v>2</v>
-      </c>
       <c r="X217">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA217">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC217">
+        <v>-1</v>
+      </c>
+      <c r="AD217">
         <v>0.8</v>
-      </c>
-      <c r="AD217">
-        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20093,10 +20093,10 @@
         <v>45292.5</v>
       </c>
       <c r="E220" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F220" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -20271,7 +20271,7 @@
         <v>45296.69791666666</v>
       </c>
       <c r="E222" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F222" t="s">
         <v>31</v>
@@ -20348,7 +20348,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6938335</v>
+        <v>6939119</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
@@ -20357,76 +20357,82 @@
         <v>45297.5</v>
       </c>
       <c r="E223" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
       </c>
       <c r="K223" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L223">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="M223">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N223">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O223">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="P223">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q223">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S223">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T223">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U223">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V223">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W223">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD223">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -20434,7 +20440,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6937962</v>
+        <v>6938335</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -20443,79 +20449,73 @@
         <v>45297.5</v>
       </c>
       <c r="E224" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G224">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H224">
-        <v>0</v>
-      </c>
-      <c r="I224">
-        <v>1</v>
-      </c>
-      <c r="J224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K224" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L224">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="M224">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N224">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O224">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="P224">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q224">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="R224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S224">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T224">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U224">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V224">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W224">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X224">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC224">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD224">
         <v>-1</v>
@@ -20526,7 +20526,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6938337</v>
+        <v>6937962</v>
       </c>
       <c r="C225" t="s">
         <v>29</v>
@@ -20535,73 +20535,79 @@
         <v>45297.5</v>
       </c>
       <c r="E225" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F225" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G225">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H225">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L225">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M225">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N225">
         <v>2.4</v>
       </c>
       <c r="O225">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="P225">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q225">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R225">
         <v>0</v>
       </c>
       <c r="S225">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T225">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U225">
         <v>2.75</v>
       </c>
       <c r="V225">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W225">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB225">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD225">
         <v>-1</v>
@@ -20612,7 +20618,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6938339</v>
+        <v>6938337</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -20621,82 +20627,76 @@
         <v>45297.5</v>
       </c>
       <c r="E226" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H226">
-        <v>1</v>
-      </c>
-      <c r="I226">
-        <v>0</v>
-      </c>
-      <c r="J226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K226" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L226">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="M226">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N226">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O226">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="P226">
         <v>3.8</v>
       </c>
       <c r="Q226">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="R226">
         <v>0</v>
       </c>
       <c r="S226">
+        <v>2.025</v>
+      </c>
+      <c r="T226">
+        <v>1.775</v>
+      </c>
+      <c r="U226">
+        <v>2.75</v>
+      </c>
+      <c r="V226">
         <v>1.875</v>
       </c>
-      <c r="T226">
+      <c r="W226">
         <v>1.925</v>
       </c>
-      <c r="U226">
-        <v>3</v>
-      </c>
-      <c r="V226">
-        <v>1.825</v>
-      </c>
-      <c r="W226">
-        <v>1.975</v>
-      </c>
       <c r="X226">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA226">
+        <v>-1</v>
+      </c>
+      <c r="AB226">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC226">
         <v>0.875</v>
       </c>
-      <c r="AB226">
-        <v>-1</v>
-      </c>
-      <c r="AC226">
-        <v>0</v>
-      </c>
       <c r="AD226">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -20704,7 +20704,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6938336</v>
+        <v>6938339</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -20713,49 +20713,55 @@
         <v>45297.5</v>
       </c>
       <c r="E227" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F227" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
       </c>
       <c r="K227" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L227">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="M227">
         <v>3.75</v>
       </c>
       <c r="N227">
-        <v>1.444</v>
+        <v>2.35</v>
       </c>
       <c r="O227">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="P227">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q227">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="R227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S227">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T227">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U227">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V227">
         <v>1.825</v>
@@ -20764,25 +20770,25 @@
         <v>1.975</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD227">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -20790,7 +20796,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6939120</v>
+        <v>6938336</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -20799,49 +20805,49 @@
         <v>45297.5</v>
       </c>
       <c r="E228" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F228" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G228">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K228" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L228">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="M228">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N228">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="O228">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="P228">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q228">
-        <v>6</v>
+        <v>1.55</v>
       </c>
       <c r="R228">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="S228">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T228">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U228">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V228">
         <v>1.825</v>
@@ -20850,25 +20856,25 @@
         <v>1.975</v>
       </c>
       <c r="X228">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA228">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC228">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -20876,7 +20882,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6939118</v>
+        <v>6939120</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -20885,58 +20891,58 @@
         <v>45297.5</v>
       </c>
       <c r="E229" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G229">
         <v>4</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K229" t="s">
         <v>52</v>
       </c>
       <c r="L229">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="M229">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N229">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="O229">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P229">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q229">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R229">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S229">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T229">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U229">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V229">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W229">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X229">
-        <v>0.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y229">
         <v>-1</v>
@@ -20945,13 +20951,13 @@
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD229">
         <v>-1</v>
@@ -20962,7 +20968,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6939042</v>
+        <v>6939118</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
@@ -20971,58 +20977,58 @@
         <v>45297.5</v>
       </c>
       <c r="E230" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K230" t="s">
         <v>52</v>
       </c>
       <c r="L230">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="M230">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N230">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="O230">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="P230">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q230">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="R230">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S230">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T230">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U230">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V230">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W230">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X230">
-        <v>1.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y230">
         <v>-1</v>
@@ -21031,16 +21037,16 @@
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD230">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:30">
@@ -21048,7 +21054,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6938338</v>
+        <v>6939042</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
@@ -21060,55 +21066,55 @@
         <v>42</v>
       </c>
       <c r="F231" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K231" t="s">
         <v>52</v>
       </c>
       <c r="L231">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M231">
         <v>3.6</v>
       </c>
       <c r="N231">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O231">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P231">
         <v>3.6</v>
       </c>
       <c r="Q231">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="R231">
         <v>-0.25</v>
       </c>
       <c r="S231">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T231">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U231">
         <v>2.75</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W231">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X231">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="Y231">
         <v>-1</v>
@@ -21117,16 +21123,16 @@
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB231">
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AD231">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:30">
@@ -21134,7 +21140,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6939119</v>
+        <v>6938338</v>
       </c>
       <c r="C232" t="s">
         <v>29</v>
@@ -21143,82 +21149,76 @@
         <v>45297.5</v>
       </c>
       <c r="E232" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F232" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H232">
         <v>1</v>
       </c>
-      <c r="I232">
-        <v>0</v>
-      </c>
-      <c r="J232">
-        <v>1</v>
-      </c>
       <c r="K232" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L232">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="M232">
         <v>3.6</v>
       </c>
       <c r="N232">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O232">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="P232">
         <v>3.6</v>
       </c>
       <c r="Q232">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="R232">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T232">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U232">
         <v>2.75</v>
       </c>
       <c r="V232">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W232">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB232">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AD232">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="233" spans="1:30">
@@ -21594,7 +21594,7 @@
         <v>32</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G237">
         <v>3</v>
@@ -21858,7 +21858,7 @@
         <v>34</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -21938,7 +21938,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6939044</v>
+        <v>6939122</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
@@ -21947,40 +21947,40 @@
         <v>45304.5</v>
       </c>
       <c r="E241" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F241" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G241">
         <v>2</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K241" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L241">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="M241">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N241">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O241">
-        <v>1.444</v>
+        <v>1.181</v>
       </c>
       <c r="P241">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q241">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="R241">
-        <v>-1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="S241">
         <v>2</v>
@@ -21989,34 +21989,34 @@
         <v>1.8</v>
       </c>
       <c r="U241">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V241">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X241">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="AA241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC241">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AD241">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -22024,7 +22024,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6939121</v>
+        <v>6939044</v>
       </c>
       <c r="C242" t="s">
         <v>29</v>
@@ -22033,76 +22033,76 @@
         <v>45304.5</v>
       </c>
       <c r="E242" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F242" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H242">
         <v>1</v>
       </c>
       <c r="K242" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L242">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="M242">
         <v>3.5</v>
       </c>
       <c r="N242">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O242">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="P242">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q242">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="R242">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S242">
+        <v>2</v>
+      </c>
+      <c r="T242">
+        <v>1.8</v>
+      </c>
+      <c r="U242">
+        <v>3</v>
+      </c>
+      <c r="V242">
         <v>1.9</v>
       </c>
-      <c r="T242">
+      <c r="W242">
         <v>1.9</v>
       </c>
-      <c r="U242">
-        <v>2.5</v>
-      </c>
-      <c r="V242">
-        <v>1.925</v>
-      </c>
-      <c r="W242">
-        <v>1.875</v>
-      </c>
       <c r="X242">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB242">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD242">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:30">
@@ -22110,7 +22110,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6939122</v>
+        <v>6939121</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -22119,56 +22119,56 @@
         <v>45304.5</v>
       </c>
       <c r="E243" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K243" t="s">
         <v>53</v>
       </c>
       <c r="L243">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="M243">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N243">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="O243">
-        <v>1.181</v>
+        <v>2.875</v>
       </c>
       <c r="P243">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q243">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="R243">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="S243">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T243">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U243">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V243">
+        <v>1.925</v>
+      </c>
+      <c r="W243">
         <v>1.875</v>
       </c>
-      <c r="W243">
-        <v>1.925</v>
-      </c>
       <c r="X243">
         <v>-1</v>
       </c>
@@ -22176,19 +22176,19 @@
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA243">
         <v>-1</v>
       </c>
       <c r="AB243">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC243">
+        <v>-1</v>
+      </c>
+      <c r="AD243">
         <v>0.875</v>
-      </c>
-      <c r="AD243">
-        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -22288,7 +22288,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6938354</v>
+        <v>6937963</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -22297,25 +22297,25 @@
         <v>45311.5</v>
       </c>
       <c r="E245" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F245" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K245" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L245">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="M245">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N245">
         <v>4</v>
@@ -22324,49 +22324,49 @@
         <v>1.7</v>
       </c>
       <c r="P245">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q245">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R245">
         <v>-0.75</v>
       </c>
       <c r="S245">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U245">
+        <v>3.25</v>
+      </c>
+      <c r="V245">
+        <v>2</v>
+      </c>
+      <c r="W245">
+        <v>1.8</v>
+      </c>
+      <c r="X245">
+        <v>-1</v>
+      </c>
+      <c r="Y245">
+        <v>-1</v>
+      </c>
+      <c r="Z245">
         <v>2.5</v>
       </c>
-      <c r="V245">
-        <v>1.8</v>
-      </c>
-      <c r="W245">
-        <v>2</v>
-      </c>
-      <c r="X245">
-        <v>0.7</v>
-      </c>
-      <c r="Y245">
-        <v>-1</v>
-      </c>
-      <c r="Z245">
-        <v>-1</v>
-      </c>
       <c r="AA245">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD245">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:30">
@@ -22374,7 +22374,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6938351</v>
+        <v>6938354</v>
       </c>
       <c r="C246" t="s">
         <v>29</v>
@@ -22383,55 +22383,49 @@
         <v>45311.5</v>
       </c>
       <c r="E246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F246" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
         <v>0</v>
       </c>
-      <c r="I246">
-        <v>0</v>
-      </c>
-      <c r="J246">
-        <v>0</v>
-      </c>
       <c r="K246" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L246">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="M246">
+        <v>3.8</v>
+      </c>
+      <c r="N246">
+        <v>4</v>
+      </c>
+      <c r="O246">
+        <v>1.7</v>
+      </c>
+      <c r="P246">
+        <v>4</v>
+      </c>
+      <c r="Q246">
         <v>3.75</v>
       </c>
-      <c r="N246">
-        <v>3.1</v>
-      </c>
-      <c r="O246">
-        <v>1.8</v>
-      </c>
-      <c r="P246">
-        <v>3.8</v>
-      </c>
-      <c r="Q246">
-        <v>3.4</v>
-      </c>
       <c r="R246">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S246">
+        <v>1.95</v>
+      </c>
+      <c r="T246">
         <v>1.85</v>
       </c>
-      <c r="T246">
-        <v>1.95</v>
-      </c>
       <c r="U246">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V246">
         <v>1.8</v>
@@ -22440,19 +22434,19 @@
         <v>2</v>
       </c>
       <c r="X246">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y246">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB246">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC246">
         <v>-1</v>
@@ -22466,7 +22460,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6938350</v>
+        <v>6938351</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -22475,76 +22469,82 @@
         <v>45311.5</v>
       </c>
       <c r="E247" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F247" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
       </c>
       <c r="K247" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L247">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M247">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N247">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O247">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="P247">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q247">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="R247">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S247">
+        <v>1.85</v>
+      </c>
+      <c r="T247">
         <v>1.95</v>
-      </c>
-      <c r="T247">
-        <v>1.85</v>
       </c>
       <c r="U247">
         <v>2.75</v>
       </c>
       <c r="V247">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W247">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X247">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
+        <v>-1</v>
+      </c>
+      <c r="AB247">
         <v>0.95</v>
       </c>
-      <c r="AB247">
-        <v>-1</v>
-      </c>
       <c r="AC247">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AD247">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -22552,7 +22552,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6937963</v>
+        <v>6938350</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -22561,76 +22561,76 @@
         <v>45311.5</v>
       </c>
       <c r="E248" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F248" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H248">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L248">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="M248">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N248">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O248">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="P248">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q248">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="R248">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U248">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V248">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W248">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB248">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AD248">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -22650,7 +22650,7 @@
         <v>48</v>
       </c>
       <c r="F249" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -22831,7 +22831,7 @@
         <v>45318.5</v>
       </c>
       <c r="E251" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F251" t="s">
         <v>34</v>
@@ -23098,7 +23098,7 @@
         <v>46</v>
       </c>
       <c r="F254" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G254">
         <v>3</v>
@@ -23172,7 +23172,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6938361</v>
+        <v>6938359</v>
       </c>
       <c r="C255" t="s">
         <v>29</v>
@@ -23181,58 +23181,64 @@
         <v>45318.5</v>
       </c>
       <c r="E255" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F255" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
       </c>
       <c r="K255" t="s">
         <v>52</v>
       </c>
       <c r="L255">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="M255">
         <v>3.75</v>
       </c>
       <c r="N255">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="O255">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="P255">
         <v>3.75</v>
       </c>
       <c r="Q255">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="R255">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S255">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T255">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="U255">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V255">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W255">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X255">
-        <v>1.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y255">
         <v>-1</v>
@@ -23241,16 +23247,16 @@
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC255">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD255">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:30">
@@ -23258,7 +23264,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6938359</v>
+        <v>6938361</v>
       </c>
       <c r="C256" t="s">
         <v>29</v>
@@ -23267,64 +23273,58 @@
         <v>45318.5</v>
       </c>
       <c r="E256" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F256" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H256">
-        <v>1</v>
-      </c>
-      <c r="I256">
-        <v>0</v>
-      </c>
-      <c r="J256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K256" t="s">
         <v>52</v>
       </c>
       <c r="L256">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="M256">
         <v>3.75</v>
       </c>
       <c r="N256">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="O256">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="P256">
         <v>3.75</v>
       </c>
       <c r="Q256">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="R256">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S256">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T256">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="U256">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V256">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W256">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X256">
-        <v>0.6499999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="Y256">
         <v>-1</v>
@@ -23333,16 +23333,16 @@
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AD256">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:30">
@@ -23362,7 +23362,7 @@
         <v>51</v>
       </c>
       <c r="F257" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -23445,7 +23445,7 @@
         <v>45318.5</v>
       </c>
       <c r="E258" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F258" t="s">
         <v>39</v>
@@ -23792,7 +23792,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7758051</v>
+        <v>7758055</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -23801,82 +23801,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E262" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F262" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G262">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>0</v>
-      </c>
-      <c r="I262">
-        <v>0</v>
-      </c>
-      <c r="J262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K262" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L262">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="M262">
         <v>3.5</v>
       </c>
       <c r="N262">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O262">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="P262">
         <v>3.6</v>
       </c>
       <c r="Q262">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="R262">
         <v>0</v>
       </c>
       <c r="S262">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T262">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="U262">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V262">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W262">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X262">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z262">
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC262">
         <v>-1</v>
       </c>
       <c r="AD262">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:30">
@@ -23884,7 +23878,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7758055</v>
+        <v>7758051</v>
       </c>
       <c r="C263" t="s">
         <v>29</v>
@@ -23893,76 +23887,82 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E263" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F263" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G263">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
       </c>
       <c r="K263" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L263">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="M263">
         <v>3.5</v>
       </c>
       <c r="N263">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O263">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="P263">
         <v>3.6</v>
       </c>
       <c r="Q263">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="R263">
         <v>0</v>
       </c>
       <c r="S263">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T263">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="U263">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V263">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W263">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y263">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
         <v>-1</v>
       </c>
       <c r="AD263">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:30">
@@ -24160,7 +24160,7 @@
         <v>34</v>
       </c>
       <c r="F266" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>33</v>
       </c>
       <c r="F269" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -24765,7 +24765,7 @@
         <v>45325.5</v>
       </c>
       <c r="E273" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F273" t="s">
         <v>45</v>
@@ -24851,7 +24851,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="E274" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F274" t="s">
         <v>48</v>
@@ -25305,10 +25305,10 @@
         <v>45332.5</v>
       </c>
       <c r="E279" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F279" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G279">
         <v>3</v>
@@ -25483,7 +25483,7 @@
         <v>45332.5</v>
       </c>
       <c r="E281" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F281" t="s">
         <v>35</v>
@@ -25931,7 +25931,7 @@
         <v>45339.5</v>
       </c>
       <c r="E286" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F286" t="s">
         <v>40</v>
@@ -26109,7 +26109,7 @@
         <v>45339.5</v>
       </c>
       <c r="E288" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F288" t="s">
         <v>31</v>
@@ -26284,7 +26284,7 @@
         <v>47</v>
       </c>
       <c r="F290" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G290">
         <v>2</v>
@@ -26628,7 +26628,7 @@
         <v>38</v>
       </c>
       <c r="F294" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G294">
         <v>0</v>
@@ -26720,7 +26720,7 @@
         <v>45</v>
       </c>
       <c r="F295" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G295">
         <v>2</v>
@@ -26901,7 +26901,7 @@
         <v>45346.5</v>
       </c>
       <c r="E297" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F297" t="s">
         <v>41</v>
@@ -27082,7 +27082,7 @@
         <v>51</v>
       </c>
       <c r="F299" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G299">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>45346.5</v>
       </c>
       <c r="E300" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F300" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -28129,7 +28129,7 @@
         <v>45353.5</v>
       </c>
       <c r="E311" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F311" t="s">
         <v>32</v>
@@ -28301,7 +28301,7 @@
         <v>45353.5</v>
       </c>
       <c r="E313" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F313" t="s">
         <v>37</v>
@@ -28396,7 +28396,7 @@
         <v>36</v>
       </c>
       <c r="F314" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G314">
         <v>2</v>
@@ -28568,7 +28568,7 @@
         <v>32</v>
       </c>
       <c r="F316" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G316">
         <v>1</v>
@@ -28660,7 +28660,7 @@
         <v>37</v>
       </c>
       <c r="F317" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G317">
         <v>2</v>
@@ -28844,7 +28844,7 @@
         <v>39</v>
       </c>
       <c r="F319" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -28933,10 +28933,10 @@
         <v>45360.5</v>
       </c>
       <c r="E320" t="s">
+        <v>43</v>
+      </c>
+      <c r="F320" t="s">
         <v>42</v>
-      </c>
-      <c r="F320" t="s">
-        <v>44</v>
       </c>
       <c r="G320">
         <v>0</v>
@@ -29743,7 +29743,7 @@
         <v>45367.5</v>
       </c>
       <c r="E329" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F329" t="s">
         <v>33</v>
@@ -30007,7 +30007,7 @@
         <v>45367.5</v>
       </c>
       <c r="E332" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F332" t="s">
         <v>31</v>
@@ -30182,7 +30182,7 @@
         <v>40</v>
       </c>
       <c r="F334" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G334">
         <v>1</v>
@@ -30351,7 +30351,7 @@
         <v>45367.5</v>
       </c>
       <c r="E336" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F336" t="s">
         <v>35</v>
@@ -30437,10 +30437,10 @@
         <v>45370.69791666666</v>
       </c>
       <c r="E337" t="s">
+        <v>50</v>
+      </c>
+      <c r="F337" t="s">
         <v>49</v>
-      </c>
-      <c r="F337" t="s">
-        <v>50</v>
       </c>
       <c r="G337">
         <v>1</v>
@@ -30716,7 +30716,7 @@
         <v>35</v>
       </c>
       <c r="F340" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G340">
         <v>0</v>
@@ -31066,7 +31066,7 @@
         <v>36</v>
       </c>
       <c r="F344" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G344">
         <v>2</v>
@@ -31327,10 +31327,10 @@
         <v>45374.5</v>
       </c>
       <c r="E347" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F347" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G347">
         <v>2</v>
@@ -31597,7 +31597,7 @@
         <v>45377.69791666666</v>
       </c>
       <c r="E350" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F350" t="s">
         <v>40</v>
@@ -31956,7 +31956,7 @@
         <v>46</v>
       </c>
       <c r="F354" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G354">
         <v>1</v>
@@ -32211,10 +32211,10 @@
         <v>45381.5</v>
       </c>
       <c r="E357" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F357" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G357">
         <v>1</v>
@@ -32303,7 +32303,7 @@
         <v>45381.5</v>
       </c>
       <c r="E358" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F358" t="s">
         <v>34</v>
@@ -32668,7 +32668,7 @@
         <v>40</v>
       </c>
       <c r="F362" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G362">
         <v>1</v>
@@ -33193,7 +33193,7 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E368" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F368" t="s">
         <v>39</v>
@@ -33365,7 +33365,7 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E370" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F370" t="s">
         <v>45</v>
@@ -33626,7 +33626,7 @@
         <v>48</v>
       </c>
       <c r="F373" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G373">
         <v>1</v>
@@ -34074,7 +34074,7 @@
         <v>47</v>
       </c>
       <c r="F378" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G378">
         <v>2</v>
@@ -34160,7 +34160,7 @@
         <v>41</v>
       </c>
       <c r="F379" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G379">
         <v>3</v>
@@ -34332,7 +34332,7 @@
         <v>30</v>
       </c>
       <c r="F381" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G381">
         <v>1</v>
@@ -34863,7 +34863,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E387" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F387" t="s">
         <v>39</v>
@@ -34958,7 +34958,7 @@
         <v>31</v>
       </c>
       <c r="F388" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G388">
         <v>0</v>
@@ -35299,7 +35299,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E392" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F392" t="s">
         <v>46</v>
@@ -35385,7 +35385,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E393" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F393" t="s">
         <v>38</v>
@@ -35563,7 +35563,7 @@
         <v>45398.65625</v>
       </c>
       <c r="E395" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F395" t="s">
         <v>30</v>
@@ -35836,7 +35836,7 @@
         <v>38</v>
       </c>
       <c r="F398" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G398">
         <v>1</v>
@@ -36014,7 +36014,7 @@
         <v>30</v>
       </c>
       <c r="F400" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G400">
         <v>1</v>
@@ -36100,7 +36100,7 @@
         <v>45</v>
       </c>
       <c r="F401" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G401">
         <v>1</v>
@@ -36367,7 +36367,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E404" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F404" t="s">
         <v>32</v>
@@ -36539,7 +36539,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E406" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F406" t="s">
         <v>47</v>
@@ -36892,7 +36892,7 @@
         <v>51</v>
       </c>
       <c r="F410" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E411" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F411" t="s">
         <v>33</v>
@@ -37245,7 +37245,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E414" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F414" t="s">
         <v>48</v>
@@ -37337,7 +37337,7 @@
         <v>45413.65625</v>
       </c>
       <c r="E415" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F415" t="s">
         <v>35</v>
@@ -37524,7 +37524,7 @@
         <v>48</v>
       </c>
       <c r="F417" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G417">
         <v>0</v>

--- a/England Southern Premier League Central/England Southern Premier League Central.xlsx
+++ b/England Southern Premier League Central/England Southern Premier League Central.xlsx
@@ -2438,7 +2438,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6939057</v>
+        <v>6938222</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2447,73 +2447,79 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L22">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="M22">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N22">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="O22">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="P22">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q22">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S22">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AD22">
         <v>-1</v>
@@ -2524,7 +2530,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6938222</v>
+        <v>6938223</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2533,82 +2539,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L23">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N23">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O23">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="P23">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q23">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="R23">
         <v>-0.75</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z23">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2616,7 +2616,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6938223</v>
+        <v>6938224</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2625,40 +2625,40 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L24">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="M24">
         <v>3.6</v>
       </c>
       <c r="N24">
+        <v>2.8</v>
+      </c>
+      <c r="O24">
+        <v>1.909</v>
+      </c>
+      <c r="P24">
+        <v>3.75</v>
+      </c>
+      <c r="Q24">
         <v>3.2</v>
       </c>
-      <c r="O24">
-        <v>1.7</v>
-      </c>
-      <c r="P24">
-        <v>3.6</v>
-      </c>
-      <c r="Q24">
-        <v>4</v>
-      </c>
       <c r="R24">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S24">
         <v>1.95</v>
@@ -2667,34 +2667,34 @@
         <v>1.85</v>
       </c>
       <c r="U24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y24">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
         <v>-1</v>
       </c>
       <c r="AD24">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2702,7 +2702,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6938224</v>
+        <v>6937933</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2711,76 +2711,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L25">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M25">
         <v>3.6</v>
       </c>
       <c r="N25">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="P25">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q25">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="R25">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U25">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
         <v>1.8</v>
       </c>
-      <c r="W25">
-        <v>2</v>
-      </c>
       <c r="X25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2788,7 +2788,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6937933</v>
+        <v>6939058</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2797,56 +2797,62 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
       </c>
       <c r="K26" t="s">
         <v>53</v>
       </c>
       <c r="L26">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="M26">
         <v>3.6</v>
       </c>
       <c r="N26">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O26">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="P26">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q26">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="R26">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>1.825</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
         <v>1.925</v>
       </c>
-      <c r="T26">
+      <c r="W26">
         <v>1.875</v>
       </c>
-      <c r="U26">
-        <v>2.5</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>1.8</v>
-      </c>
       <c r="X26">
         <v>-1</v>
       </c>
@@ -2854,16 +2860,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>1.875</v>
+        <v>1.3</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AD26">
         <v>-1</v>
@@ -2874,7 +2880,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6939058</v>
+        <v>6939347</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -2883,79 +2889,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="M27">
         <v>3.6</v>
       </c>
       <c r="N27">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O27">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="P27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q27">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W27">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AD27">
         <v>-1</v>
@@ -3052,7 +3052,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6939347</v>
+        <v>6938219</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3061,73 +3061,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="M29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O29">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="P29">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q29">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="R29">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U29">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V29">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AD29">
         <v>-1</v>
@@ -3138,7 +3138,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6938219</v>
+        <v>6939057</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3147,73 +3147,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L30">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="M30">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O30">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="R30">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T30">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="U30">
         <v>3</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z30">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AD30">
         <v>-1</v>
@@ -3402,7 +3402,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6938231</v>
+        <v>6939059</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3411,19 +3411,25 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L33">
         <v>2.4</v>
@@ -3435,49 +3441,49 @@
         <v>2.4</v>
       </c>
       <c r="O33">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="P33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q33">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U33">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V33">
+        <v>1.925</v>
+      </c>
+      <c r="W33">
         <v>1.875</v>
       </c>
-      <c r="W33">
-        <v>1.925</v>
-      </c>
       <c r="X33">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AD33">
         <v>-1</v>
@@ -3488,7 +3494,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6936950</v>
+        <v>6938231</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3497,55 +3503,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K34" t="s">
         <v>53</v>
       </c>
       <c r="L34">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M34">
         <v>3.6</v>
       </c>
       <c r="N34">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="O34">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="P34">
         <v>3.6</v>
       </c>
       <c r="Q34">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U34">
         <v>2.5</v>
       </c>
       <c r="V34">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3554,19 +3560,19 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3574,7 +3580,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6938229</v>
+        <v>6936950</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3583,76 +3589,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L35">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="M35">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O35">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q35">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="R35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T35">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V35">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W35">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="X35">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC35">
         <v>-1</v>
       </c>
       <c r="AD35">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3660,7 +3666,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6939059</v>
+        <v>6938229</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3669,64 +3675,58 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
         <v>52</v>
       </c>
       <c r="L36">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="M36">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N36">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P36">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q36">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="R36">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U36">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="W36">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="X36">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
@@ -3735,16 +3735,16 @@
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD36">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -9048,7 +9048,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6937946</v>
+        <v>6938267</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9057,58 +9057,64 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>6</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
       </c>
       <c r="K96" t="s">
         <v>52</v>
       </c>
       <c r="L96">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="M96">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O96">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="P96">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q96">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U96">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X96">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Y96">
         <v>-1</v>
@@ -9117,16 +9123,16 @@
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9134,7 +9140,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6937945</v>
+        <v>6937946</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9143,25 +9149,19 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H97">
-        <v>4</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97">
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L97">
         <v>2.7</v>
@@ -9173,52 +9173,52 @@
         <v>2.2</v>
       </c>
       <c r="O97">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="P97">
         <v>3.5</v>
       </c>
       <c r="Q97">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="R97">
         <v>0</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T97">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U97">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y97">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AD97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9226,7 +9226,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6936957</v>
+        <v>6937945</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9235,49 +9235,55 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L98">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="M98">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N98">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="O98">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="P98">
         <v>3.5</v>
       </c>
       <c r="Q98">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R98">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U98">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V98">
         <v>1.925</v>
@@ -9289,22 +9295,22 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
         <v>0.925</v>
       </c>
-      <c r="AC98">
-        <v>-1</v>
-      </c>
       <c r="AD98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9312,7 +9318,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6938267</v>
+        <v>6936957</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9321,55 +9327,49 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G99">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>6</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L99">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="M99">
         <v>3.75</v>
       </c>
       <c r="N99">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="O99">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="P99">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q99">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="R99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U99">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V99">
         <v>1.925</v>
@@ -9378,25 +9378,25 @@
         <v>1.875</v>
       </c>
       <c r="X99">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD99">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9852,7 +9852,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6939085</v>
+        <v>6939035</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -9861,82 +9861,82 @@
         <v>45223.65625</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F105" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>52</v>
+      </c>
+      <c r="L105">
+        <v>1.909</v>
+      </c>
+      <c r="M105">
+        <v>3.75</v>
+      </c>
+      <c r="N105">
+        <v>3.1</v>
+      </c>
+      <c r="O105">
+        <v>1.75</v>
+      </c>
+      <c r="P105">
+        <v>3.8</v>
+      </c>
+      <c r="Q105">
+        <v>3.6</v>
+      </c>
+      <c r="R105">
+        <v>-0.75</v>
+      </c>
+      <c r="S105">
+        <v>1.975</v>
+      </c>
+      <c r="T105">
+        <v>1.825</v>
+      </c>
+      <c r="U105">
         <v>3</v>
       </c>
-      <c r="K105" t="s">
-        <v>53</v>
-      </c>
-      <c r="L105">
-        <v>5</v>
-      </c>
-      <c r="M105">
-        <v>4.5</v>
-      </c>
-      <c r="N105">
-        <v>1.444</v>
-      </c>
-      <c r="O105">
-        <v>7.5</v>
-      </c>
-      <c r="P105">
-        <v>5</v>
-      </c>
-      <c r="Q105">
-        <v>1.285</v>
-      </c>
-      <c r="R105">
-        <v>1.75</v>
-      </c>
-      <c r="S105">
-        <v>1.9</v>
-      </c>
-      <c r="T105">
-        <v>1.9</v>
-      </c>
-      <c r="U105">
-        <v>3.5</v>
-      </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD105">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -9944,7 +9944,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6939035</v>
+        <v>6939036</v>
       </c>
       <c r="C106" t="s">
         <v>29</v>
@@ -9953,25 +9953,19 @@
         <v>45223.65625</v>
       </c>
       <c r="E106" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L106">
         <v>1.909</v>
@@ -9983,52 +9977,52 @@
         <v>3.1</v>
       </c>
       <c r="O106">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P106">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q106">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="R106">
         <v>-0.75</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U106">
         <v>3</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="X106">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA106">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
       </c>
       <c r="AD106">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="107" spans="1:30">
@@ -10036,7 +10030,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6939036</v>
+        <v>6939085</v>
       </c>
       <c r="C107" t="s">
         <v>29</v>
@@ -10045,55 +10039,61 @@
         <v>45223.65625</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>3</v>
       </c>
       <c r="K107" t="s">
         <v>53</v>
       </c>
       <c r="L107">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="M107">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="O107">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q107">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="R107">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="S107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U107">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10102,19 +10102,19 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>2.75</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:30">
@@ -13694,7 +13694,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7399686</v>
+        <v>7458146</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -13703,40 +13703,40 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L148">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="M148">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N148">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O148">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="P148">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q148">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="R148">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="S148">
         <v>2.025</v>
@@ -13745,7 +13745,7 @@
         <v>1.775</v>
       </c>
       <c r="U148">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V148">
         <v>1.925</v>
@@ -13754,19 +13754,19 @@
         <v>1.875</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Y148">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13780,7 +13780,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7458146</v>
+        <v>7458147</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -13789,58 +13789,64 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
         <v>0</v>
       </c>
       <c r="K149" t="s">
         <v>52</v>
       </c>
       <c r="L149">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="M149">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N149">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="O149">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q149">
-        <v>10</v>
+        <v>1.6</v>
       </c>
       <c r="R149">
-        <v>-2.25</v>
+        <v>1</v>
       </c>
       <c r="S149">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U149">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W149">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X149">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y149">
         <v>-1</v>
@@ -13849,7 +13855,7 @@
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB149">
         <v>-1</v>
@@ -13858,7 +13864,7 @@
         <v>-1</v>
       </c>
       <c r="AD149">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -13866,7 +13872,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7458147</v>
+        <v>7399686</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -13875,82 +13881,76 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L150">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="M150">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N150">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O150">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="P150">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q150">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="R150">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="S150">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U150">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V150">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W150">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X150">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC150">
         <v>-1</v>
       </c>
       <c r="AD150">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14480,7 +14480,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6939098</v>
+        <v>6938300</v>
       </c>
       <c r="C157" t="s">
         <v>29</v>
@@ -14489,76 +14489,76 @@
         <v>45255.5</v>
       </c>
       <c r="E157" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L157">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="M157">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N157">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O157">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q157">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="R157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S157">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U157">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD157">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -14566,7 +14566,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6939099</v>
+        <v>6939039</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
@@ -14575,82 +14575,82 @@
         <v>45255.5</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K158" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L158">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="M158">
         <v>4</v>
       </c>
       <c r="N158">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O158">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="P158">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q158">
-        <v>1.285</v>
+        <v>2.55</v>
       </c>
       <c r="R158">
+        <v>-0.25</v>
+      </c>
+      <c r="S158">
+        <v>1.975</v>
+      </c>
+      <c r="T158">
+        <v>1.825</v>
+      </c>
+      <c r="U158">
+        <v>2.75</v>
+      </c>
+      <c r="V158">
         <v>1.75</v>
       </c>
-      <c r="S158">
-        <v>1.825</v>
-      </c>
-      <c r="T158">
-        <v>1.975</v>
-      </c>
-      <c r="U158">
-        <v>3.25</v>
-      </c>
-      <c r="V158">
-        <v>1.9</v>
-      </c>
       <c r="W158">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z158">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="159" spans="1:30">
@@ -14658,7 +14658,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6938300</v>
+        <v>6939098</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
@@ -14667,76 +14667,76 @@
         <v>45255.5</v>
       </c>
       <c r="E159" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K159" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L159">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="M159">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N159">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O159">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="P159">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q159">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="R159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S159">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T159">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U159">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z159">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC159">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD159">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -14744,7 +14744,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6939039</v>
+        <v>6939099</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -14753,82 +14753,82 @@
         <v>45255.5</v>
       </c>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K160" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L160">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="M160">
         <v>4</v>
       </c>
       <c r="N160">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O160">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="P160">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q160">
-        <v>2.55</v>
+        <v>1.285</v>
       </c>
       <c r="R160">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="S160">
+        <v>1.825</v>
+      </c>
+      <c r="T160">
         <v>1.975</v>
       </c>
-      <c r="T160">
-        <v>1.825</v>
-      </c>
       <c r="U160">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V160">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB160">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -15112,7 +15112,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7525201</v>
+        <v>7501487</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15121,40 +15121,34 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E164" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
-        <v>2</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164">
         <v>2</v>
       </c>
       <c r="K164" t="s">
         <v>53</v>
       </c>
       <c r="L164">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M164">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N164">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O164">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="P164">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -15163,19 +15157,19 @@
         <v>0</v>
       </c>
       <c r="S164">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U164">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15190,13 +15184,13 @@
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC164">
         <v>-1</v>
       </c>
       <c r="AD164">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15204,7 +15198,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7501487</v>
+        <v>7525201</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
@@ -15213,34 +15207,40 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
         <v>2</v>
       </c>
       <c r="K165" t="s">
         <v>53</v>
       </c>
       <c r="L165">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M165">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N165">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O165">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="P165">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q165">
         <v>2.4</v>
@@ -15249,19 +15249,19 @@
         <v>0</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T165">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U165">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15276,13 +15276,13 @@
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC165">
         <v>-1</v>
       </c>
       <c r="AD165">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -16174,7 +16174,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6939106</v>
+        <v>6939103</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16183,19 +16183,19 @@
         <v>45269.5</v>
       </c>
       <c r="E176" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -16204,43 +16204,43 @@
         <v>52</v>
       </c>
       <c r="L176">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="M176">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N176">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O176">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="P176">
         <v>4</v>
       </c>
       <c r="Q176">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="R176">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S176">
+        <v>1.85</v>
+      </c>
+      <c r="T176">
+        <v>1.95</v>
+      </c>
+      <c r="U176">
+        <v>2.75</v>
+      </c>
+      <c r="V176">
         <v>1.925</v>
       </c>
-      <c r="T176">
+      <c r="W176">
         <v>1.875</v>
       </c>
-      <c r="U176">
-        <v>3</v>
-      </c>
-      <c r="V176">
-        <v>1.95</v>
-      </c>
-      <c r="W176">
-        <v>1.85</v>
-      </c>
       <c r="X176">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="Y176">
         <v>-1</v>
@@ -16249,16 +16249,16 @@
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AD176">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16266,7 +16266,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6939103</v>
+        <v>6939106</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16275,19 +16275,19 @@
         <v>45269.5</v>
       </c>
       <c r="E177" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -16296,43 +16296,43 @@
         <v>52</v>
       </c>
       <c r="L177">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="M177">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="N177">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O177">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="P177">
         <v>4</v>
       </c>
       <c r="Q177">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="R177">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S177">
+        <v>1.925</v>
+      </c>
+      <c r="T177">
+        <v>1.875</v>
+      </c>
+      <c r="U177">
+        <v>3</v>
+      </c>
+      <c r="V177">
+        <v>1.95</v>
+      </c>
+      <c r="W177">
         <v>1.85</v>
       </c>
-      <c r="T177">
-        <v>1.95</v>
-      </c>
-      <c r="U177">
-        <v>2.75</v>
-      </c>
-      <c r="V177">
-        <v>1.925</v>
-      </c>
-      <c r="W177">
-        <v>1.875</v>
-      </c>
       <c r="X177">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
@@ -16341,16 +16341,16 @@
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AD177">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -16984,7 +16984,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6938313</v>
+        <v>6938312</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -16993,82 +16993,76 @@
         <v>45276.5</v>
       </c>
       <c r="E185" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H185">
-        <v>0</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K185" t="s">
         <v>54</v>
       </c>
       <c r="L185">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="M185">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N185">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="O185">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="P185">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q185">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="R185">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U185">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AB185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD185">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17260,7 +17254,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6938312</v>
+        <v>6938313</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -17269,76 +17263,82 @@
         <v>45276.5</v>
       </c>
       <c r="E188" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
       </c>
       <c r="K188" t="s">
         <v>54</v>
       </c>
       <c r="L188">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="M188">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N188">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="O188">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="P188">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q188">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="R188">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U188">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V188">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD188">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="189" spans="1:30">
@@ -17966,7 +17966,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6938322</v>
+        <v>6938321</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -17975,46 +17975,46 @@
         <v>45283.5</v>
       </c>
       <c r="E196" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K196" t="s">
         <v>54</v>
       </c>
       <c r="L196">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="M196">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N196">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="O196">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="P196">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q196">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="R196">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S196">
         <v>1.8</v>
@@ -18023,34 +18023,34 @@
         <v>2</v>
       </c>
       <c r="U196">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V196">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W196">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC196">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD196">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18058,7 +18058,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6938321</v>
+        <v>6938320</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18067,82 +18067,76 @@
         <v>45283.5</v>
       </c>
       <c r="E197" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>1</v>
-      </c>
-      <c r="I197">
-        <v>1</v>
-      </c>
-      <c r="J197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L197">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="M197">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N197">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="O197">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="P197">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q197">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="R197">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T197">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U197">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V197">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD197">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -18242,7 +18236,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6938318</v>
+        <v>6938317</v>
       </c>
       <c r="C199" t="s">
         <v>29</v>
@@ -18251,76 +18245,76 @@
         <v>45283.5</v>
       </c>
       <c r="E199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G199">
         <v>2</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K199" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L199">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="M199">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N199">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O199">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="P199">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q199">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="R199">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S199">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T199">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U199">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V199">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W199">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y199">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB199">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD199">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -18328,7 +18322,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6938317</v>
+        <v>6938318</v>
       </c>
       <c r="C200" t="s">
         <v>29</v>
@@ -18337,76 +18331,76 @@
         <v>45283.5</v>
       </c>
       <c r="E200" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G200">
         <v>2</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K200" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L200">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="M200">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N200">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O200">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="P200">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q200">
+        <v>4.2</v>
+      </c>
+      <c r="R200">
+        <v>-1</v>
+      </c>
+      <c r="S200">
+        <v>2</v>
+      </c>
+      <c r="T200">
+        <v>1.8</v>
+      </c>
+      <c r="U200">
         <v>2.75</v>
       </c>
-      <c r="R200">
-        <v>-0.25</v>
-      </c>
-      <c r="S200">
-        <v>1.9</v>
-      </c>
-      <c r="T200">
-        <v>1.9</v>
-      </c>
-      <c r="U200">
-        <v>2.5</v>
-      </c>
       <c r="V200">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W200">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X200">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z200">
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD200">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:30">
@@ -18414,7 +18408,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6938320</v>
+        <v>6938322</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -18423,46 +18417,52 @@
         <v>45283.5</v>
       </c>
       <c r="E201" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
       </c>
       <c r="K201" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L201">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="M201">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N201">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O201">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="P201">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q201">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="R201">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S201">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T201">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U201">
         <v>2.5</v>
@@ -18477,16 +18477,16 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z201">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB201">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC201">
         <v>0.8999999999999999</v>
@@ -19464,7 +19464,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7623640</v>
+        <v>6937961</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -19473,17 +19473,17 @@
         <v>45290.5</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F213" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
         <v>3</v>
       </c>
-      <c r="H213">
-        <v>0</v>
-      </c>
       <c r="I213">
         <v>1</v>
       </c>
@@ -19491,61 +19491,61 @@
         <v>0</v>
       </c>
       <c r="K213" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L213">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N213">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O213">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="P213">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q213">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="R213">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="S213">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U213">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V213">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X213">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AA213">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC213">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AD213">
         <v>-1</v>
@@ -19556,7 +19556,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6937961</v>
+        <v>7623640</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -19565,79 +19565,79 @@
         <v>45290.5</v>
       </c>
       <c r="E214" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F214" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214" t="s">
+        <v>52</v>
+      </c>
+      <c r="L214">
+        <v>2.05</v>
+      </c>
+      <c r="M214">
+        <v>3.5</v>
+      </c>
+      <c r="N214">
         <v>3</v>
       </c>
-      <c r="I214">
-        <v>1</v>
-      </c>
-      <c r="J214">
-        <v>0</v>
-      </c>
-      <c r="K214" t="s">
-        <v>53</v>
-      </c>
-      <c r="L214">
-        <v>1.2</v>
-      </c>
-      <c r="M214">
-        <v>5.25</v>
-      </c>
-      <c r="N214">
-        <v>11</v>
-      </c>
       <c r="O214">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="P214">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q214">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="R214">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T214">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U214">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD214">
         <v>-1</v>
@@ -19906,7 +19906,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6939114</v>
+        <v>6938330</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -19915,82 +19915,76 @@
         <v>45292.5</v>
       </c>
       <c r="E218" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
-      <c r="J218">
-        <v>0</v>
-      </c>
       <c r="K218" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L218">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="M218">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N218">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="O218">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="P218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q218">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="R218">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S218">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T218">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U218">
+        <v>2.75</v>
+      </c>
+      <c r="V218">
+        <v>1.8</v>
+      </c>
+      <c r="W218">
+        <v>2</v>
+      </c>
+      <c r="X218">
         <v>2.25</v>
       </c>
-      <c r="V218">
-        <v>1.825</v>
-      </c>
-      <c r="W218">
-        <v>1.975</v>
-      </c>
-      <c r="X218">
-        <v>-1</v>
-      </c>
       <c r="Y218">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB218">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
         <v>-1</v>
       </c>
       <c r="AD218">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -19998,7 +19992,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6938330</v>
+        <v>6939114</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -20007,76 +20001,82 @@
         <v>45292.5</v>
       </c>
       <c r="E219" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F219" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
         <v>0</v>
       </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
       <c r="K219" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L219">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="M219">
+        <v>3.8</v>
+      </c>
+      <c r="N219">
+        <v>5.5</v>
+      </c>
+      <c r="O219">
+        <v>1.65</v>
+      </c>
+      <c r="P219">
         <v>3.5</v>
       </c>
-      <c r="N219">
-        <v>1.8</v>
-      </c>
-      <c r="O219">
-        <v>3.25</v>
-      </c>
-      <c r="P219">
-        <v>3.6</v>
-      </c>
       <c r="Q219">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="R219">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S219">
+        <v>1.875</v>
+      </c>
+      <c r="T219">
+        <v>1.925</v>
+      </c>
+      <c r="U219">
+        <v>2.25</v>
+      </c>
+      <c r="V219">
         <v>1.825</v>
       </c>
-      <c r="T219">
+      <c r="W219">
         <v>1.975</v>
       </c>
-      <c r="U219">
-        <v>2.75</v>
-      </c>
-      <c r="V219">
-        <v>1.8</v>
-      </c>
-      <c r="W219">
-        <v>2</v>
-      </c>
       <c r="X219">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z219">
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC219">
         <v>-1</v>
       </c>
       <c r="AD219">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -20704,7 +20704,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6938339</v>
+        <v>6938338</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -20713,64 +20713,58 @@
         <v>45297.5</v>
       </c>
       <c r="E227" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F227" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G227">
         <v>2</v>
       </c>
       <c r="H227">
-        <v>1</v>
-      </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-      <c r="J227">
         <v>1</v>
       </c>
       <c r="K227" t="s">
         <v>52</v>
       </c>
       <c r="L227">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="M227">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N227">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="O227">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="P227">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q227">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="R227">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S227">
+        <v>1.85</v>
+      </c>
+      <c r="T227">
+        <v>1.95</v>
+      </c>
+      <c r="U227">
+        <v>2.75</v>
+      </c>
+      <c r="V227">
+        <v>1.925</v>
+      </c>
+      <c r="W227">
         <v>1.875</v>
       </c>
-      <c r="T227">
-        <v>1.925</v>
-      </c>
-      <c r="U227">
-        <v>3</v>
-      </c>
-      <c r="V227">
-        <v>1.825</v>
-      </c>
-      <c r="W227">
-        <v>1.975</v>
-      </c>
       <c r="X227">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="Y227">
         <v>-1</v>
@@ -20779,16 +20773,16 @@
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AD227">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -20796,7 +20790,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6938336</v>
+        <v>6938339</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -20805,49 +20799,55 @@
         <v>45297.5</v>
       </c>
       <c r="E228" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F228" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
       </c>
       <c r="K228" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L228">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="M228">
         <v>3.75</v>
       </c>
       <c r="N228">
-        <v>1.444</v>
+        <v>2.35</v>
       </c>
       <c r="O228">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="P228">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q228">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="R228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T228">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U228">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V228">
         <v>1.825</v>
@@ -20856,25 +20856,25 @@
         <v>1.975</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB228">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD228">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -20882,7 +20882,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6939120</v>
+        <v>6938336</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -20891,49 +20891,49 @@
         <v>45297.5</v>
       </c>
       <c r="E229" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F229" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G229">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K229" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L229">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="M229">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N229">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="O229">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="P229">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q229">
-        <v>6</v>
+        <v>1.55</v>
       </c>
       <c r="R229">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="S229">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T229">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U229">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V229">
         <v>1.825</v>
@@ -20942,25 +20942,25 @@
         <v>1.975</v>
       </c>
       <c r="X229">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA229">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC229">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:30">
@@ -21140,7 +21140,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6938338</v>
+        <v>6939120</v>
       </c>
       <c r="C232" t="s">
         <v>29</v>
@@ -21149,58 +21149,58 @@
         <v>45297.5</v>
       </c>
       <c r="E232" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F232" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G232">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K232" t="s">
         <v>52</v>
       </c>
       <c r="L232">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="M232">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N232">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O232">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="P232">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q232">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="R232">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S232">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T232">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U232">
         <v>2.75</v>
       </c>
       <c r="V232">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X232">
-        <v>1.05</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y232">
         <v>-1</v>
@@ -21209,16 +21209,16 @@
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AD232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:30">
@@ -21938,7 +21938,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6939122</v>
+        <v>6939044</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
@@ -21947,40 +21947,40 @@
         <v>45304.5</v>
       </c>
       <c r="E241" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G241">
         <v>2</v>
       </c>
       <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="K241" t="s">
+        <v>52</v>
+      </c>
+      <c r="L241">
+        <v>2</v>
+      </c>
+      <c r="M241">
+        <v>3.5</v>
+      </c>
+      <c r="N241">
         <v>3</v>
       </c>
-      <c r="K241" t="s">
-        <v>53</v>
-      </c>
-      <c r="L241">
-        <v>1.2</v>
-      </c>
-      <c r="M241">
-        <v>6.5</v>
-      </c>
-      <c r="N241">
-        <v>8</v>
-      </c>
       <c r="O241">
-        <v>1.181</v>
+        <v>1.444</v>
       </c>
       <c r="P241">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q241">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="R241">
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S241">
         <v>2</v>
@@ -21989,34 +21989,34 @@
         <v>1.8</v>
       </c>
       <c r="U241">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V241">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB241">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC241">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD241">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -22024,7 +22024,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6939044</v>
+        <v>6939121</v>
       </c>
       <c r="C242" t="s">
         <v>29</v>
@@ -22033,76 +22033,76 @@
         <v>45304.5</v>
       </c>
       <c r="E242" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F242" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G242">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H242">
         <v>1</v>
       </c>
       <c r="K242" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L242">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="M242">
         <v>3.5</v>
       </c>
       <c r="N242">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O242">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="P242">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q242">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="R242">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S242">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T242">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U242">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W242">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X242">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA242">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD242">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="243" spans="1:30">
@@ -22110,7 +22110,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6939121</v>
+        <v>6939122</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -22119,56 +22119,56 @@
         <v>45304.5</v>
       </c>
       <c r="E243" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K243" t="s">
         <v>53</v>
       </c>
       <c r="L243">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="M243">
+        <v>6.5</v>
+      </c>
+      <c r="N243">
+        <v>8</v>
+      </c>
+      <c r="O243">
+        <v>1.181</v>
+      </c>
+      <c r="P243">
+        <v>7</v>
+      </c>
+      <c r="Q243">
+        <v>8.5</v>
+      </c>
+      <c r="R243">
+        <v>-2.25</v>
+      </c>
+      <c r="S243">
+        <v>2</v>
+      </c>
+      <c r="T243">
+        <v>1.8</v>
+      </c>
+      <c r="U243">
         <v>3.5</v>
       </c>
-      <c r="N243">
-        <v>2.2</v>
-      </c>
-      <c r="O243">
-        <v>2.875</v>
-      </c>
-      <c r="P243">
-        <v>3.5</v>
-      </c>
-      <c r="Q243">
-        <v>2.1</v>
-      </c>
-      <c r="R243">
-        <v>0.25</v>
-      </c>
-      <c r="S243">
-        <v>1.9</v>
-      </c>
-      <c r="T243">
-        <v>1.9</v>
-      </c>
-      <c r="U243">
-        <v>2.5</v>
-      </c>
       <c r="V243">
+        <v>1.875</v>
+      </c>
+      <c r="W243">
         <v>1.925</v>
       </c>
-      <c r="W243">
-        <v>1.875</v>
-      </c>
       <c r="X243">
         <v>-1</v>
       </c>
@@ -22176,19 +22176,19 @@
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="AA243">
         <v>-1</v>
       </c>
       <c r="AB243">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC243">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD243">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -23172,7 +23172,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6938359</v>
+        <v>6938361</v>
       </c>
       <c r="C255" t="s">
         <v>29</v>
@@ -23181,64 +23181,58 @@
         <v>45318.5</v>
       </c>
       <c r="E255" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H255">
-        <v>1</v>
-      </c>
-      <c r="I255">
-        <v>0</v>
-      </c>
-      <c r="J255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K255" t="s">
         <v>52</v>
       </c>
       <c r="L255">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="M255">
         <v>3.75</v>
       </c>
       <c r="N255">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="O255">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="P255">
         <v>3.75</v>
       </c>
       <c r="Q255">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="R255">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S255">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T255">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="U255">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V255">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W255">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X255">
-        <v>0.6499999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="Y255">
         <v>-1</v>
@@ -23247,16 +23241,16 @@
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AD255">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:30">
@@ -23264,7 +23258,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6938361</v>
+        <v>6938359</v>
       </c>
       <c r="C256" t="s">
         <v>29</v>
@@ -23273,58 +23267,64 @@
         <v>45318.5</v>
       </c>
       <c r="E256" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F256" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
       </c>
       <c r="K256" t="s">
         <v>52</v>
       </c>
       <c r="L256">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="M256">
         <v>3.75</v>
       </c>
       <c r="N256">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="O256">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="P256">
         <v>3.75</v>
       </c>
       <c r="Q256">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="R256">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S256">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T256">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="U256">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V256">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W256">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X256">
-        <v>1.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y256">
         <v>-1</v>
@@ -23333,16 +23333,16 @@
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC256">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD256">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:30">
@@ -23792,7 +23792,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7758055</v>
+        <v>7758051</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -23801,76 +23801,82 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E262" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F262" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G262">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
       </c>
       <c r="K262" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L262">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="M262">
         <v>3.5</v>
       </c>
       <c r="N262">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O262">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="P262">
         <v>3.6</v>
       </c>
       <c r="Q262">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="R262">
         <v>0</v>
       </c>
       <c r="S262">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T262">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="U262">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V262">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W262">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y262">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
         <v>-1</v>
       </c>
       <c r="AD262">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:30">
@@ -23878,7 +23884,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7758051</v>
+        <v>7758055</v>
       </c>
       <c r="C263" t="s">
         <v>29</v>
@@ -23887,82 +23893,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E263" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F263" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G263">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>0</v>
-      </c>
-      <c r="I263">
-        <v>0</v>
-      </c>
-      <c r="J263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K263" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L263">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="M263">
         <v>3.5</v>
       </c>
       <c r="N263">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O263">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="P263">
         <v>3.6</v>
       </c>
       <c r="Q263">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="R263">
         <v>0</v>
       </c>
       <c r="S263">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T263">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="U263">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V263">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W263">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X263">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC263">
         <v>-1</v>
       </c>
       <c r="AD263">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:30">
@@ -24934,7 +24934,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6939358</v>
+        <v>6939395</v>
       </c>
       <c r="C275" t="s">
         <v>29</v>
@@ -24943,55 +24943,49 @@
         <v>45332.5</v>
       </c>
       <c r="E275" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F275" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G275">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H275">
-        <v>0</v>
-      </c>
-      <c r="I275">
-        <v>2</v>
-      </c>
-      <c r="J275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K275" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L275">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="M275">
         <v>4</v>
       </c>
       <c r="N275">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O275">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="P275">
         <v>4</v>
       </c>
       <c r="Q275">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="R275">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S275">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T275">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U275">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V275">
         <v>1.9</v>
@@ -25000,19 +24994,19 @@
         <v>1.9</v>
       </c>
       <c r="X275">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z275">
         <v>-1</v>
       </c>
       <c r="AA275">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC275">
         <v>0.8999999999999999</v>
@@ -25026,7 +25020,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6939395</v>
+        <v>6939391</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -25035,40 +25029,46 @@
         <v>45332.5</v>
       </c>
       <c r="E276" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F276" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
       </c>
       <c r="K276" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L276">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="M276">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N276">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O276">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="P276">
         <v>4</v>
       </c>
       <c r="Q276">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="R276">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S276">
         <v>1.825</v>
@@ -25077,7 +25077,7 @@
         <v>1.975</v>
       </c>
       <c r="U276">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V276">
         <v>1.9</v>
@@ -25086,25 +25086,25 @@
         <v>1.9</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y276">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB276">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC276">
+        <v>-1</v>
+      </c>
+      <c r="AD276">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AD276">
-        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:30">
@@ -25112,7 +25112,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6939391</v>
+        <v>6939390</v>
       </c>
       <c r="C277" t="s">
         <v>29</v>
@@ -25121,82 +25121,82 @@
         <v>45332.5</v>
       </c>
       <c r="E277" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F277" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G277">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277">
         <v>0</v>
       </c>
       <c r="J277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K277" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L277">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="M277">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N277">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="O277">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="P277">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q277">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="R277">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S277">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T277">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U277">
         <v>2.75</v>
       </c>
       <c r="V277">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W277">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X277">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA277">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AD277">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="278" spans="1:30">
@@ -25204,7 +25204,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6939390</v>
+        <v>6939389</v>
       </c>
       <c r="C278" t="s">
         <v>29</v>
@@ -25213,82 +25213,82 @@
         <v>45332.5</v>
       </c>
       <c r="E278" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F278" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G278">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K278" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L278">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="M278">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N278">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="O278">
+        <v>1.7</v>
+      </c>
+      <c r="P278">
+        <v>3.8</v>
+      </c>
+      <c r="Q278">
+        <v>4.2</v>
+      </c>
+      <c r="R278">
+        <v>-0.75</v>
+      </c>
+      <c r="S278">
+        <v>1.925</v>
+      </c>
+      <c r="T278">
+        <v>1.875</v>
+      </c>
+      <c r="U278">
         <v>2.25</v>
       </c>
-      <c r="P278">
-        <v>3.6</v>
-      </c>
-      <c r="Q278">
-        <v>2.7</v>
-      </c>
-      <c r="R278">
-        <v>-0.25</v>
-      </c>
-      <c r="S278">
-        <v>2.025</v>
-      </c>
-      <c r="T278">
-        <v>1.775</v>
-      </c>
-      <c r="U278">
-        <v>2.75</v>
-      </c>
       <c r="V278">
+        <v>1.85</v>
+      </c>
+      <c r="W278">
         <v>1.95</v>
       </c>
-      <c r="W278">
-        <v>1.85</v>
-      </c>
       <c r="X278">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB278">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD278">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:30">
@@ -25296,7 +25296,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6939389</v>
+        <v>6939388</v>
       </c>
       <c r="C279" t="s">
         <v>29</v>
@@ -25305,79 +25305,73 @@
         <v>45332.5</v>
       </c>
       <c r="E279" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F279" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G279">
         <v>3</v>
       </c>
       <c r="H279">
-        <v>1</v>
-      </c>
-      <c r="I279">
-        <v>2</v>
-      </c>
-      <c r="J279">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K279" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L279">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="M279">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N279">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="O279">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="P279">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q279">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="R279">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S279">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T279">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U279">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V279">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W279">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X279">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA279">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC279">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD279">
         <v>-1</v>
@@ -25388,7 +25382,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6939388</v>
+        <v>6939387</v>
       </c>
       <c r="C280" t="s">
         <v>29</v>
@@ -25397,56 +25391,62 @@
         <v>45332.5</v>
       </c>
       <c r="E280" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F280" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G280">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H280">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
       </c>
       <c r="K280" t="s">
         <v>53</v>
       </c>
       <c r="L280">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="M280">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N280">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O280">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="P280">
         <v>3.6</v>
       </c>
       <c r="Q280">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="R280">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S280">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T280">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U280">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V280">
+        <v>1.825</v>
+      </c>
+      <c r="W280">
         <v>1.975</v>
       </c>
-      <c r="W280">
-        <v>1.825</v>
-      </c>
       <c r="X280">
         <v>-1</v>
       </c>
@@ -25454,16 +25454,16 @@
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AA280">
         <v>-1</v>
       </c>
       <c r="AB280">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC280">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD280">
         <v>-1</v>
@@ -25474,7 +25474,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6939387</v>
+        <v>6939360</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -25483,62 +25483,62 @@
         <v>45332.5</v>
       </c>
       <c r="E281" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F281" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I281">
         <v>0</v>
       </c>
       <c r="J281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K281" t="s">
         <v>53</v>
       </c>
       <c r="L281">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="M281">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N281">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="O281">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="P281">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q281">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="R281">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S281">
+        <v>1.8</v>
+      </c>
+      <c r="T281">
+        <v>2</v>
+      </c>
+      <c r="U281">
+        <v>2.75</v>
+      </c>
+      <c r="V281">
+        <v>1.75</v>
+      </c>
+      <c r="W281">
         <v>1.95</v>
       </c>
-      <c r="T281">
-        <v>1.85</v>
-      </c>
-      <c r="U281">
-        <v>2.5</v>
-      </c>
-      <c r="V281">
-        <v>1.825</v>
-      </c>
-      <c r="W281">
-        <v>1.975</v>
-      </c>
       <c r="X281">
         <v>-1</v>
       </c>
@@ -25546,16 +25546,16 @@
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>1.8</v>
+        <v>0.571</v>
       </c>
       <c r="AA281">
         <v>-1</v>
       </c>
       <c r="AB281">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC281">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AD281">
         <v>-1</v>
@@ -25566,7 +25566,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6939360</v>
+        <v>6939359</v>
       </c>
       <c r="C282" t="s">
         <v>29</v>
@@ -25575,61 +25575,55 @@
         <v>45332.5</v>
       </c>
       <c r="E282" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F282" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G282">
         <v>2</v>
       </c>
       <c r="H282">
-        <v>4</v>
-      </c>
-      <c r="I282">
-        <v>0</v>
-      </c>
-      <c r="J282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K282" t="s">
         <v>53</v>
       </c>
       <c r="L282">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M282">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N282">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O282">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="P282">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q282">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="R282">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="S282">
+        <v>2</v>
+      </c>
+      <c r="T282">
         <v>1.8</v>
-      </c>
-      <c r="T282">
-        <v>2</v>
       </c>
       <c r="U282">
         <v>2.75</v>
       </c>
       <c r="V282">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W282">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X282">
         <v>-1</v>
@@ -25638,16 +25632,16 @@
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0.571</v>
+        <v>0.363</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB282">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC282">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD282">
         <v>-1</v>
@@ -25658,7 +25652,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6939359</v>
+        <v>6939358</v>
       </c>
       <c r="C283" t="s">
         <v>29</v>
@@ -25667,46 +25661,52 @@
         <v>45332.5</v>
       </c>
       <c r="E283" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F283" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G283">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H283">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
       </c>
       <c r="K283" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L283">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="M283">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N283">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="O283">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="P283">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q283">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="R283">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="S283">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T283">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U283">
         <v>2.75</v>
@@ -25718,19 +25718,19 @@
         <v>1.9</v>
       </c>
       <c r="X283">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB283">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
         <v>0.8999999999999999</v>
@@ -25922,7 +25922,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6940849</v>
+        <v>6940832</v>
       </c>
       <c r="C286" t="s">
         <v>29</v>
@@ -25931,82 +25931,82 @@
         <v>45339.5</v>
       </c>
       <c r="E286" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F286" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G286">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286">
         <v>0</v>
       </c>
       <c r="K286" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L286">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M286">
         <v>3.6</v>
       </c>
       <c r="N286">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O286">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="P286">
         <v>3.75</v>
       </c>
       <c r="Q286">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="R286">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S286">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T286">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U286">
         <v>2.75</v>
       </c>
       <c r="V286">
+        <v>2</v>
+      </c>
+      <c r="W286">
         <v>1.8</v>
       </c>
-      <c r="W286">
-        <v>2</v>
-      </c>
       <c r="X286">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y286">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z286">
         <v>-1</v>
       </c>
       <c r="AA286">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB286">
         <v>-1</v>
       </c>
       <c r="AC286">
+        <v>-1</v>
+      </c>
+      <c r="AD286">
         <v>0.8</v>
-      </c>
-      <c r="AD286">
-        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:30">
@@ -26014,7 +26014,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6940850</v>
+        <v>6940849</v>
       </c>
       <c r="C287" t="s">
         <v>29</v>
@@ -26023,73 +26023,79 @@
         <v>45339.5</v>
       </c>
       <c r="E287" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F287" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G287">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H287">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
       </c>
       <c r="K287" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L287">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="M287">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N287">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O287">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="P287">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q287">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="R287">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S287">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T287">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U287">
         <v>2.75</v>
       </c>
       <c r="V287">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W287">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB287">
+        <v>-1</v>
+      </c>
+      <c r="AC287">
         <v>0.8</v>
-      </c>
-      <c r="AC287">
-        <v>1</v>
       </c>
       <c r="AD287">
         <v>-1</v>
@@ -26100,7 +26106,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6940847</v>
+        <v>6940850</v>
       </c>
       <c r="C288" t="s">
         <v>29</v>
@@ -26109,49 +26115,49 @@
         <v>45339.5</v>
       </c>
       <c r="E288" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F288" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G288">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K288" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L288">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M288">
+        <v>3.5</v>
+      </c>
+      <c r="N288">
+        <v>2.7</v>
+      </c>
+      <c r="O288">
+        <v>1.95</v>
+      </c>
+      <c r="P288">
         <v>3.6</v>
       </c>
-      <c r="N288">
-        <v>3</v>
-      </c>
-      <c r="O288">
-        <v>1.7</v>
-      </c>
-      <c r="P288">
-        <v>3.8</v>
-      </c>
       <c r="Q288">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="R288">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S288">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T288">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U288">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V288">
         <v>2</v>
@@ -26160,25 +26166,25 @@
         <v>1.8</v>
       </c>
       <c r="X288">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA288">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD288">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:30">
@@ -26186,7 +26192,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6940846</v>
+        <v>6940847</v>
       </c>
       <c r="C289" t="s">
         <v>29</v>
@@ -26195,13 +26201,13 @@
         <v>45339.5</v>
       </c>
       <c r="E289" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F289" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -26210,25 +26216,25 @@
         <v>52</v>
       </c>
       <c r="L289">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M289">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N289">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O289">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="P289">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q289">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="R289">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S289">
         <v>1.925</v>
@@ -26237,16 +26243,16 @@
         <v>1.875</v>
       </c>
       <c r="U289">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V289">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W289">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X289">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="Y289">
         <v>-1</v>
@@ -26255,16 +26261,16 @@
         <v>-1</v>
       </c>
       <c r="AA289">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB289">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC289">
         <v>-1</v>
       </c>
       <c r="AD289">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="290" spans="1:30">
@@ -26272,7 +26278,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6940843</v>
+        <v>6940846</v>
       </c>
       <c r="C290" t="s">
         <v>29</v>
@@ -26281,76 +26287,76 @@
         <v>45339.5</v>
       </c>
       <c r="E290" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F290" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G290">
         <v>2</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K290" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L290">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M290">
+        <v>3.5</v>
+      </c>
+      <c r="N290">
+        <v>2.55</v>
+      </c>
+      <c r="O290">
         <v>3.6</v>
       </c>
-      <c r="N290">
-        <v>2.4</v>
-      </c>
-      <c r="O290">
-        <v>2.6</v>
-      </c>
       <c r="P290">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q290">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="R290">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S290">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T290">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U290">
         <v>2.75</v>
       </c>
       <c r="V290">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W290">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X290">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y290">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z290">
         <v>-1</v>
       </c>
       <c r="AA290">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB290">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC290">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD290">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="291" spans="1:30">
@@ -26358,7 +26364,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6940835</v>
+        <v>6940843</v>
       </c>
       <c r="C291" t="s">
         <v>29</v>
@@ -26367,73 +26373,73 @@
         <v>45339.5</v>
       </c>
       <c r="E291" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F291" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H291">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K291" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L291">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M291">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N291">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="O291">
         <v>2.6</v>
       </c>
       <c r="P291">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q291">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R291">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S291">
+        <v>1.775</v>
+      </c>
+      <c r="T291">
         <v>2.025</v>
       </c>
-      <c r="T291">
-        <v>1.775</v>
-      </c>
       <c r="U291">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V291">
+        <v>1.975</v>
+      </c>
+      <c r="W291">
         <v>1.825</v>
       </c>
-      <c r="W291">
-        <v>1.975</v>
-      </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z291">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA291">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB291">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC291">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD291">
         <v>-1</v>
@@ -26444,7 +26450,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6940834</v>
+        <v>6940835</v>
       </c>
       <c r="C292" t="s">
         <v>29</v>
@@ -26453,76 +26459,76 @@
         <v>45339.5</v>
       </c>
       <c r="E292" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F292" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K292" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L292">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="M292">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N292">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="O292">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="P292">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q292">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="R292">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S292">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T292">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U292">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V292">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W292">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X292">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y292">
         <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA292">
         <v>-1</v>
       </c>
       <c r="AB292">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC292">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD292">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:30">
@@ -26530,7 +26536,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6940833</v>
+        <v>6940834</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -26539,58 +26545,58 @@
         <v>45339.5</v>
       </c>
       <c r="E293" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F293" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K293" t="s">
         <v>52</v>
       </c>
       <c r="L293">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="M293">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N293">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O293">
-        <v>1.071</v>
+        <v>1.333</v>
       </c>
       <c r="P293">
-        <v>11</v>
+        <v>5.25</v>
       </c>
       <c r="Q293">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="R293">
-        <v>-3.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S293">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T293">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U293">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="V293">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W293">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X293">
-        <v>0.07099999999999995</v>
+        <v>0.333</v>
       </c>
       <c r="Y293">
         <v>-1</v>
@@ -26602,13 +26608,13 @@
         <v>-1</v>
       </c>
       <c r="AB293">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC293">
         <v>-1</v>
       </c>
       <c r="AD293">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="294" spans="1:30">
@@ -26616,7 +26622,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6940832</v>
+        <v>6940833</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -26625,82 +26631,76 @@
         <v>45339.5</v>
       </c>
       <c r="E294" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F294" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G294">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H294">
-        <v>0</v>
-      </c>
-      <c r="I294">
-        <v>0</v>
-      </c>
-      <c r="J294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K294" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L294">
-        <v>3.6</v>
+        <v>1.166</v>
       </c>
       <c r="M294">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N294">
+        <v>11</v>
+      </c>
+      <c r="O294">
+        <v>1.071</v>
+      </c>
+      <c r="P294">
+        <v>11</v>
+      </c>
+      <c r="Q294">
+        <v>21</v>
+      </c>
+      <c r="R294">
+        <v>-3.25</v>
+      </c>
+      <c r="S294">
+        <v>2</v>
+      </c>
+      <c r="T294">
         <v>1.8</v>
       </c>
-      <c r="O294">
-        <v>4.2</v>
-      </c>
-      <c r="P294">
-        <v>3.75</v>
-      </c>
-      <c r="Q294">
-        <v>1.65</v>
-      </c>
-      <c r="R294">
-        <v>0.75</v>
-      </c>
-      <c r="S294">
-        <v>1.925</v>
-      </c>
-      <c r="T294">
-        <v>1.875</v>
-      </c>
       <c r="U294">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="V294">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W294">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Y294">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC294">
         <v>-1</v>
       </c>
       <c r="AD294">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -27156,7 +27156,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6941622</v>
+        <v>6941623</v>
       </c>
       <c r="C300" t="s">
         <v>29</v>
@@ -27165,55 +27165,55 @@
         <v>45346.5</v>
       </c>
       <c r="E300" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F300" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H300">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K300" t="s">
         <v>53</v>
       </c>
       <c r="L300">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M300">
+        <v>3.6</v>
+      </c>
+      <c r="N300">
+        <v>3.2</v>
+      </c>
+      <c r="O300">
+        <v>2.25</v>
+      </c>
+      <c r="P300">
         <v>3.5</v>
       </c>
-      <c r="N300">
-        <v>4</v>
-      </c>
-      <c r="O300">
-        <v>2.05</v>
-      </c>
-      <c r="P300">
-        <v>3.4</v>
-      </c>
       <c r="Q300">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R300">
         <v>-0.25</v>
       </c>
       <c r="S300">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T300">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U300">
         <v>2.5</v>
       </c>
       <c r="V300">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W300">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X300">
         <v>-1</v>
@@ -27222,16 +27222,16 @@
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AA300">
         <v>-1</v>
       </c>
       <c r="AB300">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC300">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD300">
         <v>-1</v>
@@ -27334,7 +27334,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6941605</v>
+        <v>6941608</v>
       </c>
       <c r="C302" t="s">
         <v>29</v>
@@ -27343,73 +27343,73 @@
         <v>45346.5</v>
       </c>
       <c r="E302" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F302" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G302">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K302" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L302">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="M302">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N302">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O302">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="P302">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q302">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="R302">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S302">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T302">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U302">
         <v>3</v>
       </c>
       <c r="V302">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W302">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X302">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA302">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC302">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD302">
         <v>-1</v>
@@ -27420,7 +27420,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6941608</v>
+        <v>6941610</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -27429,73 +27429,73 @@
         <v>45346.5</v>
       </c>
       <c r="E303" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F303" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G303">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="K303" t="s">
+        <v>52</v>
+      </c>
+      <c r="L303">
+        <v>2.1</v>
+      </c>
+      <c r="M303">
+        <v>3.5</v>
+      </c>
+      <c r="N303">
         <v>3</v>
       </c>
-      <c r="K303" t="s">
-        <v>53</v>
-      </c>
-      <c r="L303">
-        <v>2.3</v>
-      </c>
-      <c r="M303">
-        <v>3.4</v>
-      </c>
-      <c r="N303">
-        <v>2.6</v>
-      </c>
       <c r="O303">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="P303">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q303">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="R303">
         <v>-0.25</v>
       </c>
       <c r="S303">
+        <v>1.9</v>
+      </c>
+      <c r="T303">
+        <v>1.9</v>
+      </c>
+      <c r="U303">
+        <v>3.25</v>
+      </c>
+      <c r="V303">
+        <v>2.025</v>
+      </c>
+      <c r="W303">
         <v>1.775</v>
       </c>
-      <c r="T303">
-        <v>2.025</v>
-      </c>
-      <c r="U303">
-        <v>3</v>
-      </c>
-      <c r="V303">
-        <v>1.975</v>
-      </c>
-      <c r="W303">
-        <v>1.825</v>
-      </c>
       <c r="X303">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB303">
+        <v>-1</v>
+      </c>
+      <c r="AC303">
         <v>1.025</v>
-      </c>
-      <c r="AC303">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AD303">
         <v>-1</v>
@@ -27506,7 +27506,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6941610</v>
+        <v>6941622</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -27515,73 +27515,73 @@
         <v>45346.5</v>
       </c>
       <c r="E304" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F304" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G304">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K304" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L304">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="M304">
         <v>3.5</v>
       </c>
       <c r="N304">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O304">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P304">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q304">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="R304">
         <v>-0.25</v>
       </c>
       <c r="S304">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T304">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U304">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V304">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W304">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X304">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="AA304">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC304">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AD304">
         <v>-1</v>
@@ -27592,7 +27592,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6941623</v>
+        <v>6941605</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -27601,73 +27601,73 @@
         <v>45346.5</v>
       </c>
       <c r="E305" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F305" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G305">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K305" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L305">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M305">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N305">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O305">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="P305">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q305">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="R305">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S305">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T305">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U305">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V305">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W305">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB305">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC305">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AD305">
         <v>-1</v>
@@ -27764,7 +27764,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7863976</v>
+        <v>7863974</v>
       </c>
       <c r="C307" t="s">
         <v>29</v>
@@ -27773,13 +27773,13 @@
         <v>45349.69791666666</v>
       </c>
       <c r="E307" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H307">
         <v>0</v>
@@ -27794,43 +27794,43 @@
         <v>52</v>
       </c>
       <c r="L307">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="M307">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N307">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="O307">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="P307">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q307">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="R307">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S307">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T307">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U307">
         <v>2.75</v>
       </c>
       <c r="V307">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W307">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X307">
-        <v>0.5329999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="Y307">
         <v>-1</v>
@@ -27839,16 +27839,16 @@
         <v>-1</v>
       </c>
       <c r="AA307">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
         <v>-1</v>
       </c>
       <c r="AD307">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:30">
@@ -27942,7 +27942,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7863974</v>
+        <v>7863976</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
@@ -27951,13 +27951,13 @@
         <v>45349.69791666666</v>
       </c>
       <c r="E309" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F309" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H309">
         <v>0</v>
@@ -27972,43 +27972,43 @@
         <v>52</v>
       </c>
       <c r="L309">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="M309">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N309">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O309">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="P309">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q309">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="R309">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S309">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T309">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U309">
         <v>2.75</v>
       </c>
       <c r="V309">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W309">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X309">
-        <v>1.55</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y309">
         <v>-1</v>
@@ -28017,16 +28017,16 @@
         <v>-1</v>
       </c>
       <c r="AA309">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC309">
         <v>-1</v>
       </c>
       <c r="AD309">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="310" spans="1:30">
@@ -28120,7 +28120,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6942533</v>
+        <v>6942532</v>
       </c>
       <c r="C311" t="s">
         <v>29</v>
@@ -28129,55 +28129,55 @@
         <v>45353.5</v>
       </c>
       <c r="E311" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F311" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G311">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H311">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K311" t="s">
         <v>53</v>
       </c>
       <c r="L311">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="M311">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N311">
+        <v>2.3</v>
+      </c>
+      <c r="O311">
+        <v>2.625</v>
+      </c>
+      <c r="P311">
         <v>3.3</v>
       </c>
-      <c r="O311">
-        <v>1.8</v>
-      </c>
-      <c r="P311">
-        <v>4</v>
-      </c>
       <c r="Q311">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="R311">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S311">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T311">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U311">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V311">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W311">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X311">
         <v>-1</v>
@@ -28186,19 +28186,19 @@
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="AA311">
         <v>-1</v>
       </c>
       <c r="AB311">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC311">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD311">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="312" spans="1:30">
@@ -28206,7 +28206,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6942532</v>
+        <v>6942533</v>
       </c>
       <c r="C312" t="s">
         <v>29</v>
@@ -28215,76 +28215,76 @@
         <v>45353.5</v>
       </c>
       <c r="E312" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F312" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G312">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K312" t="s">
         <v>53</v>
       </c>
       <c r="L312">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="M312">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="N312">
+        <v>3.3</v>
+      </c>
+      <c r="O312">
+        <v>1.8</v>
+      </c>
+      <c r="P312">
+        <v>4</v>
+      </c>
+      <c r="Q312">
+        <v>3.3</v>
+      </c>
+      <c r="R312">
+        <v>-0.5</v>
+      </c>
+      <c r="S312">
+        <v>1.85</v>
+      </c>
+      <c r="T312">
+        <v>1.95</v>
+      </c>
+      <c r="U312">
+        <v>3</v>
+      </c>
+      <c r="V312">
+        <v>1.875</v>
+      </c>
+      <c r="W312">
+        <v>1.925</v>
+      </c>
+      <c r="X312">
+        <v>-1</v>
+      </c>
+      <c r="Y312">
+        <v>-1</v>
+      </c>
+      <c r="Z312">
         <v>2.3</v>
       </c>
-      <c r="O312">
-        <v>2.625</v>
-      </c>
-      <c r="P312">
-        <v>3.3</v>
-      </c>
-      <c r="Q312">
-        <v>2.3</v>
-      </c>
-      <c r="R312">
-        <v>0</v>
-      </c>
-      <c r="S312">
-        <v>2.025</v>
-      </c>
-      <c r="T312">
-        <v>1.775</v>
-      </c>
-      <c r="U312">
-        <v>2.5</v>
-      </c>
-      <c r="V312">
-        <v>1.975</v>
-      </c>
-      <c r="W312">
-        <v>1.825</v>
-      </c>
-      <c r="X312">
-        <v>-1</v>
-      </c>
-      <c r="Y312">
-        <v>-1</v>
-      </c>
-      <c r="Z312">
-        <v>1.3</v>
-      </c>
       <c r="AA312">
         <v>-1</v>
       </c>
       <c r="AB312">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC312">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD312">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313" spans="1:30">
@@ -33184,7 +33184,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6945374</v>
+        <v>6945373</v>
       </c>
       <c r="C368" t="s">
         <v>29</v>
@@ -33193,40 +33193,40 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E368" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F368" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G368">
         <v>1</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K368" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L368">
+        <v>4.2</v>
+      </c>
+      <c r="M368">
+        <v>3.4</v>
+      </c>
+      <c r="N368">
+        <v>1.727</v>
+      </c>
+      <c r="O368">
+        <v>4</v>
+      </c>
+      <c r="P368">
+        <v>3.4</v>
+      </c>
+      <c r="Q368">
         <v>1.75</v>
       </c>
-      <c r="M368">
-        <v>3.75</v>
-      </c>
-      <c r="N368">
-        <v>3.6</v>
-      </c>
-      <c r="O368">
-        <v>1.75</v>
-      </c>
-      <c r="P368">
-        <v>3.8</v>
-      </c>
-      <c r="Q368">
-        <v>3.6</v>
-      </c>
       <c r="R368">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S368">
         <v>2</v>
@@ -33235,7 +33235,7 @@
         <v>1.8</v>
       </c>
       <c r="U368">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V368">
         <v>1.9</v>
@@ -33244,25 +33244,25 @@
         <v>1.9</v>
       </c>
       <c r="X368">
+        <v>-1</v>
+      </c>
+      <c r="Y368">
+        <v>-1</v>
+      </c>
+      <c r="Z368">
         <v>0.75</v>
       </c>
-      <c r="Y368">
-        <v>-1</v>
-      </c>
-      <c r="Z368">
-        <v>-1</v>
-      </c>
       <c r="AA368">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB368">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC368">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD368">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369" spans="1:30">
@@ -33270,7 +33270,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6945373</v>
+        <v>6945374</v>
       </c>
       <c r="C369" t="s">
         <v>29</v>
@@ -33279,40 +33279,40 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E369" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F369" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G369">
         <v>1</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K369" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L369">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="M369">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N369">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O369">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="P369">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q369">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="R369">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S369">
         <v>2</v>
@@ -33321,7 +33321,7 @@
         <v>1.8</v>
       </c>
       <c r="U369">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V369">
         <v>1.9</v>
@@ -33330,25 +33330,25 @@
         <v>1.9</v>
       </c>
       <c r="X369">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y369">
         <v>-1</v>
       </c>
       <c r="Z369">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA369">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB369">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC369">
+        <v>-1</v>
+      </c>
+      <c r="AD369">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AD369">
-        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:30">

--- a/England Southern Premier League Central/England Southern Premier League Central.xlsx
+++ b/England Southern Premier League Central/England Southern Premier League Central.xlsx
@@ -2438,7 +2438,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6938222</v>
+        <v>6939057</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2447,79 +2447,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22">
+        <v>2.1</v>
+      </c>
+      <c r="M22">
+        <v>3.6</v>
+      </c>
+      <c r="N22">
+        <v>2.8</v>
+      </c>
+      <c r="O22">
+        <v>2.2</v>
+      </c>
+      <c r="P22">
+        <v>3.6</v>
+      </c>
+      <c r="Q22">
+        <v>2.625</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.725</v>
+      </c>
+      <c r="T22">
+        <v>2.075</v>
+      </c>
+      <c r="U22">
         <v>3</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22">
-        <v>1.615</v>
-      </c>
-      <c r="M22">
-        <v>3.8</v>
-      </c>
-      <c r="N22">
-        <v>4.333</v>
-      </c>
-      <c r="O22">
-        <v>1.615</v>
-      </c>
-      <c r="P22">
-        <v>3.8</v>
-      </c>
-      <c r="Q22">
-        <v>4.333</v>
-      </c>
-      <c r="R22">
-        <v>-0.75</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>2.75</v>
-      </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z22">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AD22">
         <v>-1</v>
@@ -2530,7 +2524,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6938223</v>
+        <v>6938222</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2539,76 +2533,82 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L23">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="M23">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N23">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O23">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="P23">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="R23">
         <v>-0.75</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2616,7 +2616,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6938224</v>
+        <v>6938223</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2625,40 +2625,40 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L24">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="M24">
         <v>3.6</v>
       </c>
       <c r="N24">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O24">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="P24">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q24">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S24">
         <v>1.95</v>
@@ -2667,34 +2667,34 @@
         <v>1.85</v>
       </c>
       <c r="U24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X24">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC24">
         <v>-1</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2702,7 +2702,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6937933</v>
+        <v>6938224</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2711,76 +2711,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L25">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M25">
         <v>3.6</v>
       </c>
       <c r="N25">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O25">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="P25">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q25">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="R25">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U25">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD25">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2788,7 +2788,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6939058</v>
+        <v>6937933</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2797,79 +2797,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K26" t="s">
         <v>53</v>
       </c>
       <c r="L26">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="M26">
         <v>3.6</v>
       </c>
       <c r="N26">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O26">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="P26">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q26">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W26">
+        <v>1.8</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
         <v>1.875</v>
       </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>1.3</v>
-      </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC26">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AD26">
         <v>-1</v>
@@ -2880,7 +2874,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6939347</v>
+        <v>6939058</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -2889,73 +2883,79 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="M27">
         <v>3.6</v>
       </c>
       <c r="N27">
+        <v>2.4</v>
+      </c>
+      <c r="O27">
+        <v>2.45</v>
+      </c>
+      <c r="P27">
+        <v>3.6</v>
+      </c>
+      <c r="Q27">
+        <v>2.3</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>1.975</v>
+      </c>
+      <c r="T27">
+        <v>1.825</v>
+      </c>
+      <c r="U27">
         <v>3</v>
       </c>
-      <c r="O27">
-        <v>1.95</v>
-      </c>
-      <c r="P27">
-        <v>3.5</v>
-      </c>
-      <c r="Q27">
-        <v>3.1</v>
-      </c>
-      <c r="R27">
-        <v>-0.5</v>
-      </c>
-      <c r="S27">
-        <v>1.95</v>
-      </c>
-      <c r="T27">
-        <v>1.75</v>
-      </c>
-      <c r="U27">
-        <v>2.5</v>
-      </c>
       <c r="V27">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC27">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AD27">
         <v>-1</v>
@@ -3052,7 +3052,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6938219</v>
+        <v>6939347</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3061,73 +3061,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L29">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O29">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q29">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="R29">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W29">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AD29">
         <v>-1</v>
@@ -3138,7 +3138,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6939057</v>
+        <v>6938219</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3147,73 +3147,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L30">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="M30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O30">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="P30">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="S30">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="U30">
         <v>3</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD30">
         <v>-1</v>
@@ -3402,7 +3402,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6939059</v>
+        <v>6938231</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3411,25 +3411,19 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L33">
         <v>2.4</v>
@@ -3441,49 +3435,49 @@
         <v>2.4</v>
       </c>
       <c r="O33">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="P33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q33">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="R33">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U33">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V33">
+        <v>1.875</v>
+      </c>
+      <c r="W33">
         <v>1.925</v>
       </c>
-      <c r="W33">
-        <v>1.875</v>
-      </c>
       <c r="X33">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AD33">
         <v>-1</v>
@@ -3494,7 +3488,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6938231</v>
+        <v>6936950</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3503,55 +3497,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
         <v>53</v>
       </c>
       <c r="L34">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M34">
         <v>3.6</v>
       </c>
       <c r="N34">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O34">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="P34">
         <v>3.6</v>
       </c>
       <c r="Q34">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T34">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U34">
         <v>2.5</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W34">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3560,19 +3554,19 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3580,7 +3574,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6936950</v>
+        <v>6938229</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3589,76 +3583,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L35">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="M35">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N35">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="P35">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q35">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S35">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V35">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W35">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB35">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
         <v>-1</v>
       </c>
       <c r="AD35">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3666,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6938229</v>
+        <v>6939059</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3675,58 +3669,64 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
         <v>52</v>
       </c>
       <c r="L36">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="M36">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N36">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="O36">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P36">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
+        <v>2.15</v>
+      </c>
+      <c r="R36">
+        <v>0.25</v>
+      </c>
+      <c r="S36">
         <v>1.85</v>
       </c>
-      <c r="R36">
-        <v>0.5</v>
-      </c>
-      <c r="S36">
+      <c r="T36">
+        <v>1.95</v>
+      </c>
+      <c r="U36">
+        <v>2.75</v>
+      </c>
+      <c r="V36">
+        <v>1.925</v>
+      </c>
+      <c r="W36">
         <v>1.875</v>
       </c>
-      <c r="T36">
-        <v>1.925</v>
-      </c>
-      <c r="U36">
-        <v>3</v>
-      </c>
-      <c r="V36">
-        <v>1.7</v>
-      </c>
-      <c r="W36">
-        <v>2.1</v>
-      </c>
       <c r="X36">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y36">
         <v>-1</v>
@@ -3735,16 +3735,16 @@
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD36">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -33614,7 +33614,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6946221</v>
+        <v>6946222</v>
       </c>
       <c r="C373" t="s">
         <v>29</v>
@@ -33623,55 +33623,49 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E373" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F373" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G373">
         <v>1</v>
       </c>
       <c r="H373">
-        <v>0</v>
-      </c>
-      <c r="I373">
-        <v>0</v>
-      </c>
-      <c r="J373">
         <v>0</v>
       </c>
       <c r="K373" t="s">
         <v>52</v>
       </c>
       <c r="L373">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M373">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N373">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O373">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="P373">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q373">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="R373">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S373">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T373">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U373">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V373">
         <v>1.85</v>
@@ -33680,7 +33674,7 @@
         <v>1.95</v>
       </c>
       <c r="X373">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="Y373">
         <v>-1</v>
@@ -33689,7 +33683,7 @@
         <v>-1</v>
       </c>
       <c r="AA373">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB373">
         <v>-1</v>
@@ -33706,7 +33700,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6946222</v>
+        <v>6946223</v>
       </c>
       <c r="C374" t="s">
         <v>29</v>
@@ -33715,76 +33709,82 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E374" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F374" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G374">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="I374">
+        <v>2</v>
+      </c>
+      <c r="J374">
+        <v>2</v>
       </c>
       <c r="K374" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L374">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M374">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N374">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="O374">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="P374">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q374">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="R374">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S374">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T374">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U374">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V374">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W374">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X374">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA374">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB374">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC374">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD374">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:30">
@@ -33792,7 +33792,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6946223</v>
+        <v>6946225</v>
       </c>
       <c r="C375" t="s">
         <v>29</v>
@@ -33801,82 +33801,82 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E375" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F375" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G375">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H375">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I375">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J375">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K375" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L375">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="M375">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N375">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="O375">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="P375">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q375">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="R375">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S375">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T375">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U375">
         <v>3</v>
       </c>
       <c r="V375">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W375">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X375">
         <v>-1</v>
       </c>
       <c r="Y375">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z375">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA375">
         <v>-1</v>
       </c>
       <c r="AB375">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC375">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD375">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="376" spans="1:30">
@@ -33884,7 +33884,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6946225</v>
+        <v>6946228</v>
       </c>
       <c r="C376" t="s">
         <v>29</v>
@@ -33893,55 +33893,49 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E376" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F376" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H376">
-        <v>1</v>
-      </c>
-      <c r="I376">
-        <v>0</v>
-      </c>
-      <c r="J376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K376" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L376">
         <v>1.4</v>
       </c>
       <c r="M376">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N376">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O376">
-        <v>1.533</v>
+        <v>1.166</v>
       </c>
       <c r="P376">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q376">
-        <v>4.333</v>
+        <v>13</v>
       </c>
       <c r="R376">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="S376">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T376">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U376">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V376">
         <v>1.9</v>
@@ -33950,19 +33944,19 @@
         <v>1.9</v>
       </c>
       <c r="X376">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y376">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z376">
         <v>-1</v>
       </c>
       <c r="AA376">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB376">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -33976,7 +33970,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6946228</v>
+        <v>6946221</v>
       </c>
       <c r="C377" t="s">
         <v>29</v>
@@ -33985,58 +33979,64 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E377" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F377" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
         <v>0</v>
       </c>
       <c r="K377" t="s">
         <v>52</v>
       </c>
       <c r="L377">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="M377">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N377">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O377">
-        <v>1.166</v>
+        <v>2.05</v>
       </c>
       <c r="P377">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q377">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="R377">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S377">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T377">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U377">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="V377">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W377">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X377">
-        <v>0.1659999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="Y377">
         <v>-1</v>
@@ -34045,16 +34045,16 @@
         <v>-1</v>
       </c>
       <c r="AA377">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB377">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC377">
         <v>-1</v>
       </c>
       <c r="AD377">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="378" spans="1:30">
@@ -34062,7 +34062,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6946220</v>
+        <v>6946227</v>
       </c>
       <c r="C378" t="s">
         <v>29</v>
@@ -34071,13 +34071,13 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E378" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F378" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G378">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H378">
         <v>1</v>
@@ -34086,25 +34086,25 @@
         <v>52</v>
       </c>
       <c r="L378">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="M378">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N378">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="O378">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="P378">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q378">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="R378">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S378">
         <v>1.825</v>
@@ -34113,16 +34113,16 @@
         <v>1.975</v>
       </c>
       <c r="U378">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V378">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W378">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X378">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="Y378">
         <v>-1</v>
@@ -34137,10 +34137,10 @@
         <v>-1</v>
       </c>
       <c r="AC378">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AD378">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:30">
@@ -34148,7 +34148,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6946227</v>
+        <v>6946226</v>
       </c>
       <c r="C379" t="s">
         <v>29</v>
@@ -34157,58 +34157,58 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E379" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F379" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G379">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K379" t="s">
         <v>52</v>
       </c>
       <c r="L379">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="M379">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N379">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O379">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="P379">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q379">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="R379">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S379">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T379">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U379">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V379">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W379">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X379">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="Y379">
         <v>-1</v>
@@ -34217,16 +34217,16 @@
         <v>-1</v>
       </c>
       <c r="AA379">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB379">
         <v>-1</v>
       </c>
       <c r="AC379">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD379">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="380" spans="1:30">
@@ -34234,7 +34234,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6946226</v>
+        <v>6946220</v>
       </c>
       <c r="C380" t="s">
         <v>29</v>
@@ -34243,58 +34243,58 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E380" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F380" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G380">
         <v>2</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K380" t="s">
         <v>52</v>
       </c>
       <c r="L380">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="M380">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N380">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O380">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="P380">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q380">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="R380">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S380">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T380">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U380">
         <v>2.75</v>
       </c>
       <c r="V380">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W380">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X380">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="Y380">
         <v>-1</v>
@@ -34303,16 +34303,16 @@
         <v>-1</v>
       </c>
       <c r="AA380">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB380">
         <v>-1</v>
       </c>
       <c r="AC380">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AD380">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="381" spans="1:30">
